--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Symphony\Others\Requisition of Mugdho Corporation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Symphony\Others\Requisition of Mugdho Corporation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2090,7 +2090,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K57" sqref="K57"/>
+      <selection pane="bottomRight" activeCell="H186" sqref="H186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44677</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2149,19 +2149,17 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" customHeight="1">
+    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>258</v>
       </c>
       <c r="B5" s="56">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="57">
-        <v>13</v>
-      </c>
+      <c r="C5" s="57"/>
       <c r="D5" s="58">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
-        <v>94174.73</v>
+        <v>0</v>
       </c>
       <c r="E5" s="64" t="s">
         <v>247</v>
@@ -2222,19 +2220,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>271</v>
       </c>
       <c r="B6" s="28">
         <v>7057.09</v>
       </c>
-      <c r="C6" s="17">
-        <v>5</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>35285.449999999997</v>
+        <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>247</v>
@@ -2837,17 +2833,19 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="1:120" ht="15" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>229</v>
       </c>
       <c r="B13" s="28">
         <v>932.26</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="17">
+        <v>200</v>
+      </c>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>186452</v>
       </c>
       <c r="E13" s="65" t="s">
         <v>247</v>
@@ -2924,19 +2922,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>296</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
       </c>
-      <c r="C15" s="17">
-        <v>400</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>372904</v>
+        <v>0</v>
       </c>
       <c r="E15" s="66" t="s">
         <v>302</v>
@@ -3171,19 +3167,17 @@
         <v>247</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>275</v>
       </c>
       <c r="B20" s="28">
         <v>922.23</v>
       </c>
-      <c r="C20" s="17">
-        <v>200</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>184446</v>
+        <v>0</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>247</v>
@@ -3244,19 +3238,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>237</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17">
-        <v>200</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>213917.99999999997</v>
+        <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>247</v>
@@ -3773,19 +3765,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>251</v>
       </c>
       <c r="B26" s="28">
         <v>1001.424</v>
       </c>
-      <c r="C26" s="17">
-        <v>300</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>300427.2</v>
+        <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>247</v>
@@ -5074,19 +5064,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>207</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
       </c>
-      <c r="C37" s="17">
-        <v>200</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>233766</v>
+        <v>0</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>247</v>
@@ -5207,19 +5195,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>238</v>
       </c>
       <c r="B38" s="28">
         <v>1169.83</v>
       </c>
-      <c r="C38" s="17">
-        <v>200</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>233966</v>
+        <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>247</v>
@@ -5340,19 +5326,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>104</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>126660.56000000001</v>
+        <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>247</v>
@@ -5731,17 +5715,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>193</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>60</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85342.8</v>
       </c>
       <c r="E42" s="66" t="s">
         <v>305</v>
@@ -7617,19 +7603,17 @@
       <c r="DO56" s="15"/>
       <c r="DP56" s="15"/>
     </row>
-    <row r="57" spans="1:120" ht="15" customHeight="1">
+    <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
         <v>304</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
       </c>
-      <c r="C57" s="17">
-        <v>40</v>
-      </c>
+      <c r="C57" s="17"/>
       <c r="D57" s="18">
         <f t="shared" si="1"/>
-        <v>219932.40000000002</v>
+        <v>0</v>
       </c>
       <c r="E57" s="65" t="s">
         <v>247</v>
@@ -9501,19 +9485,17 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
         <v>301</v>
       </c>
       <c r="B76" s="28">
         <v>6951.83</v>
       </c>
-      <c r="C76" s="17">
-        <v>56</v>
-      </c>
+      <c r="C76" s="17"/>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>389302.48</v>
+        <v>0</v>
       </c>
       <c r="E76" s="65" t="s">
         <v>247</v>
@@ -10470,19 +10452,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>252</v>
       </c>
       <c r="B86" s="28">
         <v>1267.06</v>
       </c>
-      <c r="C86" s="17">
-        <v>200</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>253412</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>247</v>
@@ -10540,7 +10520,7 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A87" s="37" t="s">
         <v>262</v>
       </c>
@@ -10548,11 +10528,11 @@
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>261220.48000000001</v>
+        <v>78366.144</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>247</v>
@@ -11460,7 +11440,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="37" t="s">
         <v>223</v>
       </c>
@@ -11524,7 +11504,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="37" t="s">
         <v>159</v>
       </c>
@@ -11719,19 +11699,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>260</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>200</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>280666</v>
+        <v>0</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>247</v>
@@ -11852,19 +11830,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>292</v>
       </c>
       <c r="B99" s="28">
         <v>1224.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>200</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>244812</v>
+        <v>0</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>247</v>
@@ -12235,19 +12211,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>278</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>20</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>24297.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>247</v>
@@ -12301,19 +12275,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="36" t="s">
         <v>263</v>
       </c>
       <c r="B103" s="28">
         <v>1217.9490000000001</v>
       </c>
-      <c r="C103" s="17">
-        <v>200</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>243589.80000000002</v>
+        <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>247</v>
@@ -14382,19 +14354,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>287</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>90</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>125127</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>247</v>
@@ -18604,7 +18574,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18666,7 +18636,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>228</v>
       </c>
@@ -19121,19 +19091,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="36" t="s">
         <v>295</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>70</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>524169.10000000003</v>
+        <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>247</v>
@@ -19776,19 +19744,17 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" customHeight="1">
+    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="36" t="s">
         <v>269</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
       </c>
-      <c r="C168" s="17">
-        <v>92</v>
-      </c>
+      <c r="C168" s="17"/>
       <c r="D168" s="18">
         <f t="shared" si="6"/>
-        <v>715620.15999999992</v>
+        <v>0</v>
       </c>
       <c r="E168" s="65" t="s">
         <v>247</v>
@@ -19909,19 +19875,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="36" t="s">
         <v>284</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17">
-        <v>10</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>83201.5</v>
+        <v>0</v>
       </c>
       <c r="E169" s="65" t="s">
         <v>247</v>
@@ -20704,11 +20668,11 @@
       <c r="B175" s="83"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C5:C174)</f>
-        <v>3000</v>
+        <v>320</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D5:D174)</f>
-        <v>5160898.6599999992</v>
+        <v>350160.94400000002</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20985,7 +20949,7 @@
         <v>265</v>
       </c>
       <c r="C181" s="47">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -21008,7 +20972,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -508,9 +508,6 @@
     <t>L90</t>
   </si>
   <si>
-    <t>i75</t>
-  </si>
-  <si>
     <t>V44</t>
   </si>
   <si>
@@ -941,6 +938,9 @@
   </si>
   <si>
     <t>Without Gold</t>
+  </si>
+  <si>
+    <t>i71</t>
   </si>
 </sst>
 </file>
@@ -2090,7 +2090,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H186" sqref="H186"/>
+      <selection pane="bottomRight" activeCell="K176" sqref="K176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2120,7 +2120,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C2" s="78"/>
       <c r="D2" s="34" t="s">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44693</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="63" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="56">
         <v>7244.21</v>
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="28">
         <v>7057.09</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8" s="28">
         <v>789.97</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2502,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2633,7 +2633,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2704,7 +2704,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="28">
         <v>769.92</v>
@@ -2775,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2833,27 +2833,25 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" customHeight="1">
+    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B13" s="28">
         <v>932.26</v>
       </c>
-      <c r="C13" s="17">
-        <v>200</v>
-      </c>
+      <c r="C13" s="17"/>
       <c r="D13" s="18">
         <f t="shared" si="0"/>
-        <v>186452</v>
+        <v>0</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2864,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2924,7 +2922,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B15" s="28">
         <v>932.26</v>
@@ -2935,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2995,7 +2993,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -3006,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -3066,7 +3064,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -3077,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -3137,7 +3135,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -3148,12 +3146,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3164,23 +3162,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B20" s="28">
         <v>922.23</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>200</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>184446</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3238,20 +3238,22 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>400</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>427835.99999999994</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3318,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3636,7 +3638,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="28">
         <v>901.24800000000005</v>
@@ -3647,7 +3649,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -3765,20 +3767,22 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B26" s="28">
         <v>1001.424</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>600</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>600854.4</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3898,7 +3902,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3909,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -4029,7 +4033,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B28" s="28">
         <v>1030.45</v>
@@ -4040,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4171,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4302,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4422,7 +4426,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4433,7 +4437,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4682,7 +4686,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B33" s="28">
         <v>878.19</v>
@@ -4806,7 +4810,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B35" s="28">
         <v>955.38</v>
@@ -4935,7 +4939,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4946,7 +4950,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -5066,7 +5070,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
@@ -5077,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5195,20 +5199,22 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B38" s="28">
         <v>1169.83</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>60</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>70189.799999999988</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5328,7 +5334,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5339,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5715,22 +5721,20 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
       </c>
-      <c r="C42" s="17">
-        <v>60</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>85342.8</v>
+        <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6108,7 +6112,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6366,7 +6370,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6428,7 +6432,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6439,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6559,7 +6563,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B49" s="28">
         <v>1117.7059999999999</v>
@@ -6570,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6690,7 +6694,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" s="28">
         <v>1117.7059999999999</v>
@@ -6701,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6821,7 +6825,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
@@ -6832,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6952,7 +6956,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6963,7 +6967,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7083,7 +7087,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B53" s="28">
         <v>1264.153</v>
@@ -7212,7 +7216,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7223,7 +7227,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7343,7 +7347,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7354,7 +7358,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7474,7 +7478,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B56" s="41">
         <v>4706.18</v>
@@ -7485,7 +7489,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7605,7 +7609,7 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
@@ -7616,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
@@ -7876,7 +7880,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -7996,7 +8000,7 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B60" s="28">
         <v>6900.2079999999996</v>
@@ -8383,7 +8387,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8394,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8514,7 +8518,7 @@
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B64" s="28">
         <v>8088.17</v>
@@ -8643,7 +8647,7 @@
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B65" s="28">
         <v>5158.25</v>
@@ -8772,7 +8776,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B66" s="28">
         <v>4885.6000000000004</v>
@@ -8901,7 +8905,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8912,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8972,7 +8976,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -8983,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -9043,7 +9047,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B69" s="28">
         <v>5607.32</v>
@@ -9105,7 +9109,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9167,7 +9171,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9178,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -9231,7 +9235,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9242,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -9295,7 +9299,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9306,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9359,7 +9363,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9370,7 +9374,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9421,20 +9425,22 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1">
       <c r="A75" s="36" t="s">
-        <v>161</v>
+        <v>305</v>
       </c>
       <c r="B75" s="28">
-        <v>5793.45</v>
-      </c>
-      <c r="C75" s="17"/>
+        <v>6230.08</v>
+      </c>
+      <c r="C75" s="17">
+        <v>40</v>
+      </c>
       <c r="D75" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>249203.20000000001</v>
       </c>
       <c r="E75" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9487,7 +9493,7 @@
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B76" s="28">
         <v>6951.83</v>
@@ -9498,7 +9504,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -9613,7 +9619,7 @@
     </row>
     <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B78" s="28">
         <v>5382.7857000000004</v>
@@ -9675,7 +9681,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9686,7 +9692,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -9806,7 +9812,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9817,7 +9823,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9937,7 +9943,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9948,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10079,7 +10085,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -10199,7 +10205,7 @@
     </row>
     <row r="83" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B83" s="28">
         <v>1199.99</v>
@@ -10390,7 +10396,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10401,7 +10407,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10454,7 +10460,7 @@
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B86" s="28">
         <v>1267.06</v>
@@ -10465,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10520,22 +10526,20 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>60</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>78366.144</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10804,7 +10808,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -10935,7 +10939,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -11055,7 +11059,7 @@
     </row>
     <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B92" s="28">
         <v>1072.68</v>
@@ -11313,7 +11317,7 @@
     </row>
     <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B94" s="28">
         <v>1551.87</v>
@@ -11440,9 +11444,9 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11453,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11504,7 +11508,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="37" t="s">
         <v>159</v>
       </c>
@@ -11517,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11570,7 +11574,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B97" s="28">
         <v>1334.2405000000001</v>
@@ -11581,7 +11585,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11701,7 +11705,7 @@
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
@@ -11712,7 +11716,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11830,20 +11834,22 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B99" s="28">
         <v>1224.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>200</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>244812</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -11963,7 +11969,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11974,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -12094,7 +12100,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -12105,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12211,20 +12217,22 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>60</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>72893.400000000009</v>
       </c>
       <c r="E102" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12275,20 +12283,22 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B103" s="28">
         <v>1217.9490000000001</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>80</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>97435.920000000013</v>
       </c>
       <c r="E103" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12396,7 +12406,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12407,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -12471,7 +12481,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -12591,7 +12601,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B106" s="28">
         <v>1024.5550000000001</v>
@@ -12602,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -12851,7 +12861,7 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B108" s="28">
         <v>1101.75</v>
@@ -12980,7 +12990,7 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B109" s="28">
         <v>1297.24</v>
@@ -12991,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -13240,7 +13250,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13251,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13707,7 +13717,7 @@
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B116" s="28">
         <v>5607.32</v>
@@ -13718,7 +13728,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -13978,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -14354,20 +14364,22 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A121" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>40</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>55612</v>
       </c>
       <c r="E121" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14487,7 +14499,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -15072,7 +15084,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B127" s="28">
         <v>1219.04</v>
@@ -15083,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15203,7 +15215,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B128" s="28">
         <v>1336.33</v>
@@ -15214,7 +15226,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="65" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15334,7 +15346,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15721,7 +15733,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
@@ -15732,7 +15744,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15852,7 +15864,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15863,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -15983,7 +15995,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -15994,7 +16006,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -16114,7 +16126,7 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B135" s="28">
         <v>4174.41</v>
@@ -16125,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -16245,7 +16257,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
@@ -16256,7 +16268,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
@@ -16376,7 +16388,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B137" s="28">
         <v>5510.74</v>
@@ -16634,7 +16646,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16645,7 +16657,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -16698,7 +16710,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B140" s="28">
         <v>5150.8500000000004</v>
@@ -16760,7 +16772,7 @@
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B141" s="28">
         <v>4973.3999999999996</v>
@@ -16822,7 +16834,7 @@
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B142" s="28">
         <v>5423.53</v>
@@ -16884,7 +16896,7 @@
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B143" s="28">
         <v>5940.82</v>
@@ -16957,7 +16969,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
@@ -17010,7 +17022,7 @@
     </row>
     <row r="145" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B145" s="28">
         <v>3558.64</v>
@@ -17072,7 +17084,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -17083,7 +17095,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
@@ -17203,7 +17215,7 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B147" s="28">
         <v>4389.43</v>
@@ -17214,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
@@ -17474,7 +17486,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="65" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17723,7 +17735,7 @@
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B151" s="30">
         <v>4027.04</v>
@@ -17734,7 +17746,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="65" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -17865,7 +17877,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
@@ -18114,7 +18126,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B154" s="28">
         <v>4409</v>
@@ -18243,7 +18255,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B155" s="28">
         <v>4165.3900000000003</v>
@@ -18254,7 +18266,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
@@ -18374,7 +18386,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18385,7 +18397,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
@@ -18505,7 +18517,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18516,7 +18528,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BB157" s="14"/>
       <c r="BC157" s="14"/>
@@ -18638,7 +18650,7 @@
     </row>
     <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18649,7 +18661,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18702,7 +18714,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B160" s="28">
         <v>7691.27</v>
@@ -18831,7 +18843,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18842,7 +18854,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18962,7 +18974,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -18973,7 +18985,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -19093,7 +19105,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -19104,7 +19116,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -19224,7 +19236,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19353,7 +19365,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19364,7 +19376,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="65" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19484,7 +19496,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19495,7 +19507,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19615,7 +19627,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19626,7 +19638,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19746,7 +19758,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19757,7 +19769,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19877,7 +19889,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
@@ -19888,7 +19900,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20008,7 +20020,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -20019,7 +20031,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -20139,7 +20151,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20150,7 +20162,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20270,7 +20282,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20281,7 +20293,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20401,7 +20413,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="68" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B173" s="69">
         <v>8806.32</v>
@@ -20412,7 +20424,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="73" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20532,7 +20544,7 @@
     </row>
     <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A174" s="68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B174" s="69">
         <v>9317.56</v>
@@ -20543,7 +20555,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="65" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
@@ -20667,12 +20679,12 @@
       </c>
       <c r="B175" s="83"/>
       <c r="C175" s="52">
-        <f>SUBTOTAL(9,C5:C174)</f>
-        <v>320</v>
+        <f>SUBTOTAL(9,C20:C174)</f>
+        <v>1680</v>
       </c>
       <c r="D175" s="53">
-        <f>SUBTOTAL(9,D5:D174)</f>
-        <v>350160.94400000002</v>
+        <f>SUBTOTAL(9,D20:D174)</f>
+        <v>2003282.7199999997</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20946,10 +20958,10 @@
     </row>
     <row r="181" spans="2:10" ht="15" customHeight="1">
       <c r="B181" s="46" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C181" s="47">
-        <v>700000</v>
+        <v>1400000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20960,7 +20972,7 @@
     </row>
     <row r="182" spans="2:10" ht="15" customHeight="1" thickBot="1">
       <c r="B182" s="46" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C182" s="47"/>
       <c r="D182" s="48"/>
@@ -20968,11 +20980,11 @@
     </row>
     <row r="183" spans="2:10" ht="19.5" thickBot="1">
       <c r="B183" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>700000</v>
+        <v>1400000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2090,7 +2090,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K176" sqref="K176"/>
+      <selection pane="bottomRight" activeCell="G177" sqref="G177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2128,7 +2128,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44700</v>
+        <v>44703</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3246,11 +3246,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>427835.99999999994</v>
+        <v>213917.99999999997</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>246</v>
@@ -3775,11 +3775,11 @@
         <v>1001.424</v>
       </c>
       <c r="C26" s="17">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>600854.4</v>
+        <v>200284.79999999999</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>246</v>
@@ -5068,17 +5068,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>300</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>350649</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>246</v>
@@ -5199,19 +5201,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>237</v>
       </c>
       <c r="B38" s="28">
         <v>1169.83</v>
       </c>
-      <c r="C38" s="17">
-        <v>60</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>70189.799999999988</v>
+        <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>246</v>
@@ -5332,17 +5332,19 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>275</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>20</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24357.800000000003</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>246</v>
@@ -9425,19 +9427,17 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="36" t="s">
         <v>305</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
       </c>
-      <c r="C75" s="17">
-        <v>40</v>
-      </c>
+      <c r="C75" s="17"/>
       <c r="D75" s="18">
         <f t="shared" si="3"/>
-        <v>249203.20000000001</v>
+        <v>0</v>
       </c>
       <c r="E75" s="65" t="s">
         <v>195</v>
@@ -10458,17 +10458,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>251</v>
       </c>
       <c r="B86" s="28">
         <v>1267.06</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>250</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>316765</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>246</v>
@@ -11834,19 +11836,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>291</v>
       </c>
       <c r="B99" s="28">
         <v>1224.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>200</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>244812</v>
+        <v>0</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>246</v>
@@ -12217,19 +12217,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>277</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>60</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>72893.400000000009</v>
+        <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>246</v>
@@ -12291,11 +12289,11 @@
         <v>1217.9490000000001</v>
       </c>
       <c r="C103" s="17">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>97435.920000000013</v>
+        <v>170512.86000000002</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>246</v>
@@ -14372,11 +14370,11 @@
         <v>1390.3</v>
       </c>
       <c r="C121" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>55612</v>
+        <v>27806</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>246</v>
@@ -20680,11 +20678,11 @@
       <c r="B175" s="83"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C20:C174)</f>
-        <v>1680</v>
+        <v>1330</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D20:D174)</f>
-        <v>2003282.7199999997</v>
+        <v>1488739.4600000002</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20961,7 +20959,7 @@
         <v>264</v>
       </c>
       <c r="C181" s="47">
-        <v>1400000</v>
+        <v>2200000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20984,7 +20982,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>1400000</v>
+        <v>2200000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="307">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -941,6 +941,9 @@
   </si>
   <si>
     <t>i71</t>
+  </si>
+  <si>
+    <t>White Only</t>
   </si>
 </sst>
 </file>
@@ -2090,7 +2093,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G177" sqref="G177"/>
+      <selection pane="bottomRight" activeCell="M177" sqref="M177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2128,7 +2131,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44703</v>
+        <v>44704</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3173,11 +3176,11 @@
         <v>922.23</v>
       </c>
       <c r="C20" s="17">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>184446</v>
+        <v>129112.2</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>246</v>
@@ -3775,11 +3778,11 @@
         <v>1001.424</v>
       </c>
       <c r="C26" s="17">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>200284.79999999999</v>
+        <v>140199.35999999999</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>246</v>
@@ -5201,17 +5204,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>237</v>
       </c>
       <c r="B38" s="28">
         <v>1169.83</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>160</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>187172.8</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>246</v>
@@ -5332,19 +5337,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>275</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>20</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>24357.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>246</v>
@@ -10466,11 +10469,11 @@
         <v>1267.06</v>
       </c>
       <c r="C86" s="17">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>316765</v>
+        <v>253412</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>246</v>
@@ -10528,17 +10531,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="37" t="s">
         <v>261</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>200</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>261220.48000000001</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>246</v>
@@ -11836,20 +11841,22 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>291</v>
       </c>
       <c r="B99" s="28">
         <v>1224.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>140</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>171368.4</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -12217,17 +12224,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="36" t="s">
         <v>277</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>60</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>72893.400000000009</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>246</v>
@@ -12289,11 +12298,11 @@
         <v>1217.9490000000001</v>
       </c>
       <c r="C103" s="17">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>170512.86000000002</v>
+        <v>194871.84000000003</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>246</v>
@@ -20678,11 +20687,11 @@
       <c r="B175" s="83"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C20:C174)</f>
-        <v>1330</v>
+        <v>1720</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D20:D174)</f>
-        <v>1488739.4600000002</v>
+        <v>2002623.4799999997</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20959,7 +20968,7 @@
         <v>264</v>
       </c>
       <c r="C181" s="47">
-        <v>2200000</v>
+        <v>500000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20982,7 +20991,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>2200000</v>
+        <v>500000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -943,7 +943,7 @@
     <t>i71</t>
   </si>
   <si>
-    <t>White Only</t>
+    <t>Blue &amp; Green Only</t>
   </si>
 </sst>
 </file>
@@ -1517,7 +1517,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1764,6 +1764,9 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2093,7 +2096,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M177" sqref="M177"/>
+      <selection pane="bottomRight" activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2131,7 +2134,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44704</v>
+        <v>44706</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3176,11 +3179,11 @@
         <v>922.23</v>
       </c>
       <c r="C20" s="17">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>129112.2</v>
+        <v>276669</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>246</v>
@@ -3249,11 +3252,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>213917.99999999997</v>
+        <v>320877</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>246</v>
@@ -3778,11 +3781,11 @@
         <v>1001.424</v>
       </c>
       <c r="C26" s="17">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>140199.35999999999</v>
+        <v>300427.2</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>246</v>
@@ -5071,19 +5074,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
       </c>
-      <c r="C37" s="17">
-        <v>300</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>350649</v>
+        <v>0</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>246</v>
@@ -5212,11 +5213,11 @@
         <v>1169.83</v>
       </c>
       <c r="C38" s="17">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>187172.8</v>
+        <v>70189.799999999988</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>246</v>
@@ -5337,17 +5338,19 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>275</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>20</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24357.800000000003</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>246</v>
@@ -6566,17 +6569,19 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:120" ht="15" customHeight="1">
       <c r="A49" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B49" s="28">
         <v>1117.7059999999999</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="17">
+        <v>20</v>
+      </c>
       <c r="D49" s="18">
         <f t="shared" ref="D49" si="2">B49*C49</f>
-        <v>0</v>
+        <v>22354.12</v>
       </c>
       <c r="E49" s="65" t="s">
         <v>246</v>
@@ -6697,17 +6702,19 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>279</v>
       </c>
       <c r="B50" s="28">
         <v>1117.7059999999999</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17">
+        <v>20</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22354.12</v>
       </c>
       <c r="E50" s="65" t="s">
         <v>246</v>
@@ -9430,20 +9437,22 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
-      <c r="A75" s="36" t="s">
+    <row r="75" spans="1:120" s="14" customFormat="1">
+      <c r="A75" s="89" t="s">
         <v>305</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
       </c>
-      <c r="C75" s="17"/>
+      <c r="C75" s="17">
+        <v>20</v>
+      </c>
       <c r="D75" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>124601.60000000001</v>
       </c>
       <c r="E75" s="65" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -10461,19 +10470,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>251</v>
       </c>
       <c r="B86" s="28">
         <v>1267.06</v>
       </c>
-      <c r="C86" s="17">
-        <v>200</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>253412</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>246</v>
@@ -10539,11 +10546,11 @@
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>261220.48000000001</v>
+        <v>91427.168000000005</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>246</v>
@@ -11710,17 +11717,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>259</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>130</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>182432.9</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>246</v>
@@ -11849,14 +11858,14 @@
         <v>1224.06</v>
       </c>
       <c r="C99" s="17">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>171368.4</v>
+        <v>122406</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -12232,11 +12241,11 @@
         <v>1214.8900000000001</v>
       </c>
       <c r="C102" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>72893.400000000009</v>
+        <v>48595.600000000006</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>246</v>
@@ -12298,11 +12307,11 @@
         <v>1217.9490000000001</v>
       </c>
       <c r="C103" s="17">
-        <v>160</v>
+        <v>60</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>194871.84000000003</v>
+        <v>73076.94</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>246</v>
@@ -13255,17 +13264,19 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:120" ht="15" customHeight="1">
       <c r="A111" s="37" t="s">
         <v>245</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17"/>
+      <c r="C111" s="17">
+        <v>20</v>
+      </c>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24862</v>
       </c>
       <c r="E111" s="65" t="s">
         <v>246</v>
@@ -14371,7 +14382,7 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="36" t="s">
         <v>286</v>
       </c>
@@ -15738,17 +15749,19 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:120" ht="15" customHeight="1">
       <c r="A132" s="36" t="s">
         <v>254</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17"/>
+      <c r="C132" s="17">
+        <v>20</v>
+      </c>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>24160.2</v>
       </c>
       <c r="E132" s="65" t="s">
         <v>246</v>
@@ -18593,7 +18606,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18655,7 +18668,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>227</v>
       </c>
@@ -19110,17 +19123,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A163" s="36" t="s">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
+      <c r="A163" s="89" t="s">
         <v>294</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>10</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>74881.3</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>246</v>
@@ -19894,20 +19909,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A169" s="36" t="s">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+      <c r="A169" s="89" t="s">
         <v>283</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>20</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>166403</v>
       </c>
       <c r="E169" s="65" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20687,11 +20704,11 @@
       <c r="B175" s="83"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C20:C174)</f>
-        <v>1720</v>
+        <v>1530</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D20:D174)</f>
-        <v>2002623.4799999997</v>
+        <v>1997881.7480000001</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20968,7 +20985,7 @@
         <v>264</v>
       </c>
       <c r="C181" s="47">
-        <v>500000</v>
+        <v>1200000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20991,7 +21008,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>500000</v>
+        <v>1200000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1517,7 +1517,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1720,6 +1720,9 @@
     <xf numFmtId="43" fontId="12" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1765,7 +1768,7 @@
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2096,7 +2099,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I111" sqref="I111"/>
+      <selection pane="bottomRight" activeCell="J136" sqref="J136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2113,28 +2116,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="78" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="78"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="34" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44706</v>
+        <v>44708</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -5213,11 +5216,11 @@
         <v>1169.83</v>
       </c>
       <c r="C38" s="17">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>70189.799999999988</v>
+        <v>163776.19999999998</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>246</v>
@@ -5346,11 +5349,11 @@
         <v>1217.8900000000001</v>
       </c>
       <c r="C39" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>24357.800000000003</v>
+        <v>73073.400000000009</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>246</v>
@@ -6569,19 +6572,17 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" customHeight="1">
+    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B49" s="28">
         <v>1117.7059999999999</v>
       </c>
-      <c r="C49" s="17">
-        <v>20</v>
-      </c>
+      <c r="C49" s="17"/>
       <c r="D49" s="18">
         <f t="shared" ref="D49" si="2">B49*C49</f>
-        <v>22354.12</v>
+        <v>0</v>
       </c>
       <c r="E49" s="65" t="s">
         <v>246</v>
@@ -6702,19 +6703,17 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>279</v>
       </c>
       <c r="B50" s="28">
         <v>1117.7059999999999</v>
       </c>
-      <c r="C50" s="17">
-        <v>20</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>22354.12</v>
+        <v>0</v>
       </c>
       <c r="E50" s="65" t="s">
         <v>246</v>
@@ -9438,18 +9437,18 @@
       <c r="BA74" s="25"/>
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1">
-      <c r="A75" s="89" t="s">
+      <c r="A75" s="74" t="s">
         <v>305</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
       </c>
       <c r="C75" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D75" s="18">
         <f t="shared" si="3"/>
-        <v>124601.60000000001</v>
+        <v>249203.20000000001</v>
       </c>
       <c r="E75" s="65" t="s">
         <v>246</v>
@@ -10470,17 +10469,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="37" t="s">
         <v>251</v>
       </c>
       <c r="B86" s="28">
         <v>1267.06</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>100</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>126706</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>246</v>
@@ -10546,11 +10547,11 @@
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>91427.168000000005</v>
+        <v>391830.72</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>246</v>
@@ -11717,19 +11718,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="37" t="s">
         <v>259</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>130</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>182432.9</v>
+        <v>0</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>246</v>
@@ -11858,11 +11857,11 @@
         <v>1224.06</v>
       </c>
       <c r="C99" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>122406</v>
+        <v>244812</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>246</v>
@@ -12241,11 +12240,11 @@
         <v>1214.8900000000001</v>
       </c>
       <c r="C102" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>48595.600000000006</v>
+        <v>72893.400000000009</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>246</v>
@@ -12307,11 +12306,11 @@
         <v>1217.9490000000001</v>
       </c>
       <c r="C103" s="17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>73076.94</v>
+        <v>121794.90000000001</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>246</v>
@@ -13264,19 +13263,17 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" customHeight="1">
+    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="37" t="s">
         <v>245</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
       </c>
-      <c r="C111" s="17">
-        <v>20</v>
-      </c>
+      <c r="C111" s="17"/>
       <c r="D111" s="18">
         <f t="shared" si="4"/>
-        <v>24862</v>
+        <v>0</v>
       </c>
       <c r="E111" s="65" t="s">
         <v>246</v>
@@ -14390,11 +14387,11 @@
         <v>1390.3</v>
       </c>
       <c r="C121" s="17">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>27806</v>
+        <v>111224</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>246</v>
@@ -15749,19 +15746,17 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" customHeight="1">
+    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="36" t="s">
         <v>254</v>
       </c>
       <c r="B132" s="28">
         <v>1208.01</v>
       </c>
-      <c r="C132" s="17">
-        <v>20</v>
-      </c>
+      <c r="C132" s="17"/>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>24160.2</v>
+        <v>0</v>
       </c>
       <c r="E132" s="65" t="s">
         <v>246</v>
@@ -16275,17 +16270,19 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A136" s="36" t="s">
+    <row r="136" spans="1:120" ht="15" customHeight="1">
+      <c r="A136" s="74" t="s">
         <v>297</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
       </c>
-      <c r="C136" s="17"/>
+      <c r="C136" s="17">
+        <v>10</v>
+      </c>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>59290.8</v>
       </c>
       <c r="E136" s="65" t="s">
         <v>246</v>
@@ -19124,18 +19121,18 @@
       <c r="DP162" s="15"/>
     </row>
     <row r="163" spans="1:120" ht="15" customHeight="1">
-      <c r="A163" s="89" t="s">
+      <c r="A163" s="74" t="s">
         <v>294</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
       <c r="C163" s="17">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>74881.3</v>
+        <v>224643.9</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>246</v>
@@ -19909,8 +19906,8 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A169" s="89" t="s">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
+      <c r="A169" s="74" t="s">
         <v>283</v>
       </c>
       <c r="B169" s="28">
@@ -19923,7 +19920,7 @@
         <f t="shared" ref="D169" si="7">B169*C169</f>
         <v>166403</v>
       </c>
-      <c r="E169" s="65" t="s">
+      <c r="E169" s="66" t="s">
         <v>306</v>
       </c>
       <c r="F169" s="26"/>
@@ -20566,17 +20563,19 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
-      <c r="A174" s="68" t="s">
+    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
+      <c r="A174" s="90" t="s">
         <v>298</v>
       </c>
       <c r="B174" s="69">
         <v>9317.56</v>
       </c>
-      <c r="C174" s="70"/>
+      <c r="C174" s="70">
+        <v>10</v>
+      </c>
       <c r="D174" s="71">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>93175.599999999991</v>
       </c>
       <c r="E174" s="65" t="s">
         <v>246</v>
@@ -20698,17 +20697,17 @@
       <c r="DP174" s="15"/>
     </row>
     <row r="175" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A175" s="82" t="s">
+      <c r="A175" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="B175" s="83"/>
+      <c r="B175" s="84"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C20:C174)</f>
-        <v>1530</v>
+        <v>2050</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D20:D174)</f>
-        <v>1997881.7480000001</v>
+        <v>2996800.3199999994</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20950,18 +20949,18 @@
       <c r="DP176" s="15"/>
     </row>
     <row r="177" spans="2:10" ht="9" customHeight="1" thickBot="1">
-      <c r="B177" s="74"/>
-      <c r="C177" s="74"/>
-      <c r="D177" s="74"/>
-      <c r="E177" s="74"/>
+      <c r="B177" s="75"/>
+      <c r="C177" s="75"/>
+      <c r="D177" s="75"/>
+      <c r="E177" s="75"/>
       <c r="I177" s="55"/>
     </row>
     <row r="178" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B178" s="79" t="s">
+      <c r="B178" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C178" s="80"/>
-      <c r="D178" s="81"/>
+      <c r="C178" s="81"/>
+      <c r="D178" s="82"/>
       <c r="E178" s="24"/>
       <c r="J178" s="25" t="s">
         <v>133</v>
@@ -20984,9 +20983,7 @@
       <c r="B181" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="C181" s="47">
-        <v>1200000</v>
-      </c>
+      <c r="C181" s="47"/>
       <c r="D181" s="48" t="s">
         <v>133</v>
       </c>
@@ -21008,7 +21005,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>1200000</v>
+        <v>0</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>
@@ -21065,33 +21062,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="88" t="e">
+      <c r="B3" s="88"/>
+      <c r="C3" s="89" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -23032,10 +23029,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="84" t="s">
+      <c r="A101" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="84"/>
+      <c r="B101" s="85"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1517,7 +1517,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1723,6 +1723,12 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1767,9 +1773,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2096,10 +2099,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J136" sqref="J136"/>
+      <selection pane="bottomRight" activeCell="J181" sqref="J181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2116,28 +2119,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="80" t="s">
         <v>296</v>
       </c>
-      <c r="C2" s="79"/>
+      <c r="C2" s="81"/>
       <c r="D2" s="34" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44708</v>
+        <v>44710</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3182,11 +3185,11 @@
         <v>922.23</v>
       </c>
       <c r="C20" s="17">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>276669</v>
+        <v>92223</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>246</v>
@@ -3255,11 +3258,11 @@
         <v>1069.5899999999999</v>
       </c>
       <c r="C21" s="17">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>320877</v>
+        <v>213917.99999999997</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>246</v>
@@ -3784,11 +3787,11 @@
         <v>1001.424</v>
       </c>
       <c r="C26" s="17">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>300427.2</v>
+        <v>200284.79999999999</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>246</v>
@@ -5216,11 +5219,11 @@
         <v>1169.83</v>
       </c>
       <c r="C38" s="17">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>163776.19999999998</v>
+        <v>116983</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>246</v>
@@ -5349,11 +5352,11 @@
         <v>1217.8900000000001</v>
       </c>
       <c r="C39" s="17">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>73073.400000000009</v>
+        <v>60894.500000000007</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>246</v>
@@ -6572,17 +6575,19 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:120" ht="15" customHeight="1">
       <c r="A49" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B49" s="28">
         <v>1117.7059999999999</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="17">
+        <v>81</v>
+      </c>
       <c r="D49" s="18">
         <f t="shared" ref="D49" si="2">B49*C49</f>
-        <v>0</v>
+        <v>90534.185999999987</v>
       </c>
       <c r="E49" s="65" t="s">
         <v>246</v>
@@ -6703,17 +6708,19 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>279</v>
       </c>
       <c r="B50" s="28">
         <v>1117.7059999999999</v>
       </c>
-      <c r="C50" s="17"/>
+      <c r="C50" s="17">
+        <v>41</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45825.945999999996</v>
       </c>
       <c r="E50" s="65" t="s">
         <v>246</v>
@@ -9437,18 +9444,18 @@
       <c r="BA74" s="25"/>
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1">
-      <c r="A75" s="74" t="s">
+      <c r="A75" s="40" t="s">
         <v>305</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
       </c>
       <c r="C75" s="17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D75" s="18">
         <f t="shared" si="3"/>
-        <v>249203.20000000001</v>
+        <v>186902.39999999999</v>
       </c>
       <c r="E75" s="65" t="s">
         <v>246</v>
@@ -10470,7 +10477,7 @@
       <c r="BA85" s="25"/>
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A86" s="37" t="s">
+      <c r="A86" s="75" t="s">
         <v>251</v>
       </c>
       <c r="B86" s="28">
@@ -10540,18 +10547,18 @@
       <c r="BE86" s="25"/>
     </row>
     <row r="87" spans="1:120" ht="15" customHeight="1">
-      <c r="A87" s="37" t="s">
+      <c r="A87" s="75" t="s">
         <v>261</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
       <c r="C87" s="17">
-        <v>300</v>
+        <v>64</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>391830.72</v>
+        <v>83590.553599999999</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>246</v>
@@ -11718,17 +11725,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A98" s="37" t="s">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
+      <c r="A98" s="75" t="s">
         <v>259</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>167</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>234356.11</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>246</v>
@@ -11849,19 +11858,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>291</v>
       </c>
       <c r="B99" s="28">
         <v>1224.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>200</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>244812</v>
+        <v>0</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>246</v>
@@ -12233,7 +12240,7 @@
       <c r="DD101" s="25"/>
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A102" s="36" t="s">
+      <c r="A102" s="40" t="s">
         <v>277</v>
       </c>
       <c r="B102" s="28">
@@ -12299,18 +12306,18 @@
       <c r="BA102" s="25"/>
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A103" s="36" t="s">
+      <c r="A103" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B103" s="28">
         <v>1217.9490000000001</v>
       </c>
       <c r="C103" s="17">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>121794.90000000001</v>
+        <v>146153.88</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>246</v>
@@ -14380,18 +14387,18 @@
       <c r="DP120" s="15"/>
     </row>
     <row r="121" spans="1:120" ht="15" customHeight="1">
-      <c r="A121" s="36" t="s">
+      <c r="A121" s="40" t="s">
         <v>286</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
       <c r="C121" s="17">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>111224</v>
+        <v>83418</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>246</v>
@@ -16270,19 +16277,17 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" customHeight="1">
+    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="74" t="s">
         <v>297</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
       </c>
-      <c r="C136" s="17">
-        <v>10</v>
-      </c>
+      <c r="C136" s="17"/>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>59290.8</v>
+        <v>0</v>
       </c>
       <c r="E136" s="65" t="s">
         <v>246</v>
@@ -19121,7 +19126,7 @@
       <c r="DP162" s="15"/>
     </row>
     <row r="163" spans="1:120" ht="15" customHeight="1">
-      <c r="A163" s="74" t="s">
+      <c r="A163" s="40" t="s">
         <v>294</v>
       </c>
       <c r="B163" s="28">
@@ -19907,7 +19912,7 @@
       <c r="DP168" s="15"/>
     </row>
     <row r="169" spans="1:120" ht="15" customHeight="1">
-      <c r="A169" s="74" t="s">
+      <c r="A169" s="40" t="s">
         <v>283</v>
       </c>
       <c r="B169" s="28">
@@ -20564,7 +20569,7 @@
       <c r="DP173" s="15"/>
     </row>
     <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A174" s="90" t="s">
+      <c r="A174" s="76" t="s">
         <v>298</v>
       </c>
       <c r="B174" s="69">
@@ -20577,8 +20582,8 @@
         <f t="shared" si="6"/>
         <v>93175.599999999991</v>
       </c>
-      <c r="E174" s="65" t="s">
-        <v>246</v>
+      <c r="E174" s="66" t="s">
+        <v>302</v>
       </c>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
@@ -20697,17 +20702,17 @@
       <c r="DP174" s="15"/>
     </row>
     <row r="175" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A175" s="83" t="s">
+      <c r="A175" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="B175" s="84"/>
+      <c r="B175" s="86"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C20:C174)</f>
-        <v>2050</v>
+        <v>1433</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D20:D174)</f>
-        <v>2996800.3199999994</v>
+        <v>2238906.2755999998</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20949,18 +20954,18 @@
       <c r="DP176" s="15"/>
     </row>
     <row r="177" spans="2:10" ht="9" customHeight="1" thickBot="1">
-      <c r="B177" s="75"/>
-      <c r="C177" s="75"/>
-      <c r="D177" s="75"/>
-      <c r="E177" s="75"/>
+      <c r="B177" s="77"/>
+      <c r="C177" s="77"/>
+      <c r="D177" s="77"/>
+      <c r="E177" s="77"/>
       <c r="I177" s="55"/>
     </row>
     <row r="178" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B178" s="80" t="s">
+      <c r="B178" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="C178" s="81"/>
-      <c r="D178" s="82"/>
+      <c r="C178" s="83"/>
+      <c r="D178" s="84"/>
       <c r="E178" s="24"/>
       <c r="J178" s="25" t="s">
         <v>133</v>
@@ -20983,7 +20988,9 @@
       <c r="B181" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="C181" s="47"/>
+      <c r="C181" s="47">
+        <v>4000000</v>
+      </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
       </c>
@@ -21005,7 +21012,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>
@@ -21062,33 +21069,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="89" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89" t="e">
+      <c r="B3" s="90"/>
+      <c r="C3" s="91" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="89"/>
+      <c r="D3" s="91"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -23029,10 +23036,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="85" t="s">
+      <c r="A101" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="85"/>
+      <c r="B101" s="87"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2099,10 +2099,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J181" sqref="J181"/>
+      <selection pane="bottomRight" activeCell="J188" sqref="J188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44710</v>
+        <v>44712</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3177,19 +3177,17 @@
         <v>246</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>274</v>
       </c>
       <c r="B20" s="28">
         <v>922.23</v>
       </c>
-      <c r="C20" s="17">
-        <v>100</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>92223</v>
+        <v>0</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>246</v>
@@ -3250,19 +3248,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>236</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
       </c>
-      <c r="C21" s="17">
-        <v>200</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>213917.99999999997</v>
+        <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>246</v>
@@ -3779,19 +3775,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>250</v>
       </c>
       <c r="B26" s="28">
         <v>1001.424</v>
       </c>
-      <c r="C26" s="17">
-        <v>200</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>200284.79999999999</v>
+        <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>246</v>
@@ -5211,19 +5205,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>237</v>
       </c>
       <c r="B38" s="28">
         <v>1169.83</v>
       </c>
-      <c r="C38" s="17">
-        <v>100</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>116983</v>
+        <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>246</v>
@@ -5344,19 +5336,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>275</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
       </c>
-      <c r="C39" s="17">
-        <v>50</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>60894.500000000007</v>
+        <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>246</v>
@@ -6575,19 +6565,17 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" customHeight="1">
+    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B49" s="28">
         <v>1117.7059999999999</v>
       </c>
-      <c r="C49" s="17">
-        <v>81</v>
-      </c>
+      <c r="C49" s="17"/>
       <c r="D49" s="18">
         <f t="shared" ref="D49" si="2">B49*C49</f>
-        <v>90534.185999999987</v>
+        <v>0</v>
       </c>
       <c r="E49" s="65" t="s">
         <v>246</v>
@@ -6708,19 +6696,17 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>279</v>
       </c>
       <c r="B50" s="28">
         <v>1117.7059999999999</v>
       </c>
-      <c r="C50" s="17">
-        <v>41</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>45825.945999999996</v>
+        <v>0</v>
       </c>
       <c r="E50" s="65" t="s">
         <v>246</v>
@@ -9443,19 +9429,17 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="40" t="s">
         <v>305</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
       </c>
-      <c r="C75" s="17">
-        <v>30</v>
-      </c>
+      <c r="C75" s="17"/>
       <c r="D75" s="18">
         <f t="shared" si="3"/>
-        <v>186902.39999999999</v>
+        <v>0</v>
       </c>
       <c r="E75" s="65" t="s">
         <v>246</v>
@@ -9509,17 +9493,19 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1">
       <c r="A76" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B76" s="28">
-        <v>6951.83</v>
-      </c>
-      <c r="C76" s="17"/>
+        <v>6749.3422</v>
+      </c>
+      <c r="C76" s="17">
+        <v>45</v>
+      </c>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>303720.39899999998</v>
       </c>
       <c r="E76" s="65" t="s">
         <v>246</v>
@@ -10476,19 +10462,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="75" t="s">
         <v>251</v>
       </c>
       <c r="B86" s="28">
         <v>1267.06</v>
       </c>
-      <c r="C86" s="17">
-        <v>100</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>126706</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>246</v>
@@ -10546,19 +10530,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="75" t="s">
         <v>261</v>
       </c>
       <c r="B87" s="28">
         <v>1306.1024</v>
       </c>
-      <c r="C87" s="17">
-        <v>64</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>83590.553599999999</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>246</v>
@@ -11725,19 +11707,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="75" t="s">
         <v>259</v>
       </c>
       <c r="B98" s="28">
         <v>1403.33</v>
       </c>
-      <c r="C98" s="17">
-        <v>167</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>234356.11</v>
+        <v>0</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>246</v>
@@ -12239,19 +12219,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="40" t="s">
         <v>277</v>
       </c>
       <c r="B102" s="28">
         <v>1214.8900000000001</v>
       </c>
-      <c r="C102" s="17">
-        <v>60</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>72893.400000000009</v>
+        <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>246</v>
@@ -12305,19 +12283,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>262</v>
       </c>
       <c r="B103" s="28">
         <v>1217.9490000000001</v>
       </c>
-      <c r="C103" s="17">
-        <v>120</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>146153.88</v>
+        <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>246</v>
@@ -14386,19 +14362,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>286</v>
       </c>
       <c r="B121" s="28">
         <v>1390.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>60</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>83418</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>246</v>
@@ -19125,19 +19099,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>294</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>30</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>224643.9</v>
+        <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>246</v>
@@ -19911,7 +19883,7 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A169" s="40" t="s">
         <v>283</v>
       </c>
@@ -19919,11 +19891,11 @@
         <v>8320.15</v>
       </c>
       <c r="C169" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>166403</v>
+        <v>332806</v>
       </c>
       <c r="E169" s="66" t="s">
         <v>306</v>
@@ -20568,19 +20540,17 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A174" s="76" t="s">
         <v>298</v>
       </c>
       <c r="B174" s="69">
         <v>9317.56</v>
       </c>
-      <c r="C174" s="70">
-        <v>10</v>
-      </c>
+      <c r="C174" s="70"/>
       <c r="D174" s="71">
         <f t="shared" si="6"/>
-        <v>93175.599999999991</v>
+        <v>0</v>
       </c>
       <c r="E174" s="66" t="s">
         <v>302</v>
@@ -20708,11 +20678,11 @@
       <c r="B175" s="86"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C20:C174)</f>
-        <v>1433</v>
+        <v>85</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D20:D174)</f>
-        <v>2238906.2755999998</v>
+        <v>636526.39899999998</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20989,7 +20959,7 @@
         <v>264</v>
       </c>
       <c r="C181" s="47">
-        <v>4000000</v>
+        <v>640000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -21012,7 +20982,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>4000000</v>
+        <v>640000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2102,7 +2102,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J188" sqref="J188"/>
+      <selection pane="bottomRight" activeCell="J179" sqref="I179:J179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2140,7 +2140,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44712</v>
+        <v>44717</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -9429,17 +9429,19 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1">
       <c r="A75" s="40" t="s">
         <v>305</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
       </c>
-      <c r="C75" s="17"/>
+      <c r="C75" s="17">
+        <v>40</v>
+      </c>
       <c r="D75" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>249203.20000000001</v>
       </c>
       <c r="E75" s="65" t="s">
         <v>246</v>
@@ -9501,11 +9503,11 @@
         <v>6749.3422</v>
       </c>
       <c r="C76" s="17">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>303720.39899999998</v>
+        <v>202480.266</v>
       </c>
       <c r="E76" s="65" t="s">
         <v>246</v>
@@ -19099,17 +19101,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>294</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>10</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>74881.3</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>246</v>
@@ -20677,12 +20681,12 @@
       </c>
       <c r="B175" s="86"/>
       <c r="C175" s="52">
-        <f>SUBTOTAL(9,C20:C174)</f>
-        <v>85</v>
+        <f>SUBTOTAL(9,C75:C174)</f>
+        <v>120</v>
       </c>
       <c r="D175" s="53">
-        <f>SUBTOTAL(9,D20:D174)</f>
-        <v>636526.39899999998</v>
+        <f>SUBTOTAL(9,D75:D174)</f>
+        <v>859370.76600000006</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20959,7 +20963,7 @@
         <v>264</v>
       </c>
       <c r="C181" s="47">
-        <v>640000</v>
+        <v>600000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20982,7 +20986,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>640000</v>
+        <v>600000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="306">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -926,9 +926,6 @@
   </si>
   <si>
     <t>i80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black </t>
   </si>
   <si>
     <t>Green Only</t>
@@ -2099,10 +2096,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J179" sqref="I179:J179"/>
+      <selection pane="bottomRight" activeCell="I186" sqref="I186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2140,7 +2137,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44717</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2932,20 +2929,22 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>295</v>
       </c>
       <c r="B15" s="28">
-        <v>932.26</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>982.38</v>
+      </c>
+      <c r="C15" s="17">
+        <v>100</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="66" t="s">
-        <v>301</v>
+        <v>98238</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>246</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -4037,17 +4036,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A28" s="36" t="s">
         <v>278</v>
       </c>
       <c r="B28" s="28">
-        <v>1030.45</v>
-      </c>
-      <c r="C28" s="17"/>
+        <v>1099.6600000000001</v>
+      </c>
+      <c r="C28" s="17">
+        <v>180</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>197938.80000000002</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>246</v>
@@ -5738,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -7613,7 +7614,7 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
@@ -9365,7 +9366,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="36" t="s">
         <v>225</v>
       </c>
@@ -9429,19 +9430,17 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
       </c>
-      <c r="C75" s="17">
-        <v>40</v>
-      </c>
+      <c r="C75" s="17"/>
       <c r="D75" s="18">
         <f t="shared" si="3"/>
-        <v>249203.20000000001</v>
+        <v>0</v>
       </c>
       <c r="E75" s="65" t="s">
         <v>246</v>
@@ -9495,19 +9494,17 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
       </c>
-      <c r="C76" s="17">
-        <v>30</v>
-      </c>
+      <c r="C76" s="17"/>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>202480.266</v>
+        <v>0</v>
       </c>
       <c r="E76" s="65" t="s">
         <v>246</v>
@@ -9561,7 +9558,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="36" t="s">
         <v>145</v>
       </c>
@@ -9623,7 +9620,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="36" t="s">
         <v>187</v>
       </c>
@@ -11450,7 +11447,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="37" t="s">
         <v>222</v>
       </c>
@@ -11514,7 +11511,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="37" t="s">
         <v>159</v>
       </c>
@@ -18584,7 +18581,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18646,7 +18643,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>227</v>
       </c>
@@ -19101,19 +19098,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>294</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>10</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>74881.3</v>
+        <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>246</v>
@@ -19887,22 +19882,20 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="40" t="s">
         <v>283</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17">
-        <v>40</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>332806</v>
+        <v>0</v>
       </c>
       <c r="E169" s="66" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20426,7 +20419,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="73" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20557,7 +20550,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
@@ -20681,12 +20674,12 @@
       </c>
       <c r="B175" s="86"/>
       <c r="C175" s="52">
-        <f>SUBTOTAL(9,C75:C174)</f>
-        <v>120</v>
+        <f>SUBTOTAL(9,C15:C174)</f>
+        <v>280</v>
       </c>
       <c r="D175" s="53">
-        <f>SUBTOTAL(9,D75:D174)</f>
-        <v>859370.76600000006</v>
+        <f>SUBTOTAL(9,D15:D174)</f>
+        <v>296176.80000000005</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="306">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -427,9 +427,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>L150</t>
-  </si>
-  <si>
     <t>T85</t>
   </si>
   <si>
@@ -941,6 +938,9 @@
   </si>
   <si>
     <t>Blue &amp; Green Only</t>
+  </si>
+  <si>
+    <t>L145</t>
   </si>
 </sst>
 </file>
@@ -2096,10 +2096,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I186" sqref="I186"/>
+      <selection pane="bottomRight" activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2129,7 +2129,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="34" t="s">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44720</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2155,12 +2155,12 @@
         <v>82</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B5" s="56">
         <v>7244.21</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B6" s="28">
         <v>7057.09</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B8" s="28">
         <v>789.97</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B10" s="28">
         <v>779.94</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" s="28">
         <v>774.93</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B12" s="28">
         <v>769.92</v>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B13" s="28">
         <v>932.26</v>
@@ -2855,12 +2855,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2931,7 +2931,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B15" s="28">
         <v>982.38</v>
@@ -2944,7 +2944,7 @@
         <v>98238</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -3157,12 +3157,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3173,23 +3173,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B20" s="28">
-        <v>922.23</v>
-      </c>
-      <c r="C20" s="17"/>
+        <v>973.36</v>
+      </c>
+      <c r="C20" s="17">
+        <v>100</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>97336</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3249,7 +3251,7 @@
     </row>
     <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B21" s="28">
         <v>1069.5899999999999</v>
@@ -3260,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3327,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3387,7 +3389,7 @@
     </row>
     <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" s="28">
         <v>896.23500000000001</v>
@@ -3645,7 +3647,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B25" s="28">
         <v>901.24800000000005</v>
@@ -3656,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -3776,7 +3778,7 @@
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B26" s="28">
         <v>1001.424</v>
@@ -3787,7 +3789,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3907,7 +3909,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3918,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -4036,22 +4038,20 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B28" s="28">
         <v>1099.6600000000001</v>
       </c>
-      <c r="C28" s="17">
-        <v>180</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>197938.80000000002</v>
+        <v>0</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4564,7 +4564,7 @@
     </row>
     <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" s="28">
         <v>858.14</v>
@@ -4693,7 +4693,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B33" s="28">
         <v>878.19</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B34" s="28">
         <v>936.34</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B35" s="28">
         <v>955.38</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
@@ -5088,7 +5088,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5206,20 +5206,22 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" s="28">
-        <v>1169.83</v>
-      </c>
-      <c r="C38" s="17"/>
+        <v>1235.99</v>
+      </c>
+      <c r="C38" s="17">
+        <v>40</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>49439.6</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5339,7 +5341,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5350,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5599,7 +5601,7 @@
     </row>
     <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" s="28">
         <v>1264.78</v>
@@ -5728,7 +5730,7 @@
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
@@ -5739,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -5988,7 +5990,7 @@
     </row>
     <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B44" s="28">
         <v>1244.723</v>
@@ -6117,7 +6119,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6246,7 +6248,7 @@
     </row>
     <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B46" s="28">
         <v>800</v>
@@ -6375,7 +6377,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6437,7 +6439,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6448,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6568,7 +6570,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B49" s="28">
         <v>1117.7059999999999</v>
@@ -6579,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6699,7 +6701,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B50" s="28">
         <v>1117.7059999999999</v>
@@ -6710,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6830,7 +6832,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
@@ -6841,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6961,7 +6963,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6972,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7092,7 +7094,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B53" s="28">
         <v>1264.153</v>
@@ -7221,7 +7223,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7232,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7352,7 +7354,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7363,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7483,7 +7485,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B56" s="41">
         <v>4706.18</v>
@@ -7494,7 +7496,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7614,7 +7616,7 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
@@ -7625,7 +7627,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
@@ -7885,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -8005,7 +8007,7 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B60" s="28">
         <v>6900.2079999999996</v>
@@ -8134,7 +8136,7 @@
     </row>
     <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" s="28">
         <v>6715.95</v>
@@ -8263,7 +8265,7 @@
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B62" s="28">
         <v>8573.3799999999992</v>
@@ -8392,7 +8394,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8403,7 +8405,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8523,7 +8525,7 @@
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B64" s="28">
         <v>8088.17</v>
@@ -8652,7 +8654,7 @@
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B65" s="28">
         <v>5158.25</v>
@@ -8781,7 +8783,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B66" s="28">
         <v>4885.6000000000004</v>
@@ -8910,7 +8912,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8921,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8981,7 +8983,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -8992,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -9052,7 +9054,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B69" s="28">
         <v>5607.32</v>
@@ -9114,7 +9116,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9176,7 +9178,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9187,7 +9189,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -9240,7 +9242,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9251,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -9304,7 +9306,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9315,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9366,9 +9368,9 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9379,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9430,9 +9432,9 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
@@ -9443,7 +9445,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9494,9 +9496,9 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
@@ -9507,7 +9509,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -9558,9 +9560,9 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B77" s="28">
         <v>8225.51</v>
@@ -9620,9 +9622,9 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B78" s="28">
         <v>5382.7857000000004</v>
@@ -9684,7 +9686,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9695,7 +9697,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -9815,7 +9817,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9826,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9946,7 +9948,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9957,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10088,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -10208,7 +10210,7 @@
     </row>
     <row r="83" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B83" s="28">
         <v>1199.99</v>
@@ -10337,7 +10339,7 @@
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B84" s="28">
         <v>1189.97</v>
@@ -10399,7 +10401,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10410,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10461,20 +10463,22 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B86" s="28">
         <v>1267.06</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>60</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>76023.599999999991</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10529,20 +10533,22 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="75" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B87" s="28">
-        <v>1306.1024</v>
-      </c>
-      <c r="C87" s="17"/>
+        <v>1372.32</v>
+      </c>
+      <c r="C87" s="17">
+        <v>100</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>137232</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10660,19 +10666,23 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:120" ht="15" customHeight="1">
       <c r="A88" s="37" t="s">
-        <v>134</v>
+        <v>305</v>
       </c>
       <c r="B88" s="28">
-        <v>1042.5999999999999</v>
-      </c>
-      <c r="C88" s="17"/>
+        <v>1420.44</v>
+      </c>
+      <c r="C88" s="17">
+        <v>140</v>
+      </c>
       <c r="D88" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E88" s="65"/>
+        <v>198861.6</v>
+      </c>
+      <c r="E88" s="65" t="s">
+        <v>245</v>
+      </c>
       <c r="BB88" s="14"/>
       <c r="BC88" s="14"/>
       <c r="BD88" s="14"/>
@@ -10800,7 +10810,7 @@
     </row>
     <row r="90" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B90" s="28">
         <v>5607.9849999999997</v>
@@ -10811,7 +10821,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -10942,7 +10952,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -11062,7 +11072,7 @@
     </row>
     <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B92" s="28">
         <v>1072.68</v>
@@ -11320,7 +11330,7 @@
     </row>
     <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B94" s="28">
         <v>1551.87</v>
@@ -11447,9 +11457,9 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11460,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11511,9 +11521,9 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B96" s="28">
         <v>1004.39</v>
@@ -11524,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11577,7 +11587,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B97" s="28">
         <v>1334.2405000000001</v>
@@ -11588,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11706,20 +11716,22 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B98" s="28">
-        <v>1403.33</v>
-      </c>
-      <c r="C98" s="17"/>
+        <v>1449.51</v>
+      </c>
+      <c r="C98" s="17">
+        <v>100</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>144951</v>
       </c>
       <c r="E98" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11837,20 +11849,22 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B99" s="28">
         <v>1224.06</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>90</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>110165.4</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -11970,7 +11984,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11981,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -12101,7 +12115,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -12112,7 +12126,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12218,20 +12232,22 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B102" s="28">
-        <v>1214.8900000000001</v>
-      </c>
-      <c r="C102" s="17"/>
+        <v>1255.04</v>
+      </c>
+      <c r="C102" s="17">
+        <v>60</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75302.399999999994</v>
       </c>
       <c r="E102" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12284,7 +12300,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B103" s="28">
         <v>1217.9490000000001</v>
@@ -12295,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12403,7 +12419,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12414,7 +12430,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -12478,7 +12494,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -12598,7 +12614,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B106" s="28">
         <v>1024.5550000000001</v>
@@ -12609,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -12729,7 +12745,7 @@
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B107" s="28">
         <v>1024.56</v>
@@ -12858,7 +12874,7 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B108" s="28">
         <v>1101.75</v>
@@ -12987,7 +13003,7 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B109" s="28">
         <v>1297.24</v>
@@ -12998,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -13118,7 +13134,7 @@
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B110" s="28">
         <v>1297.24</v>
@@ -13247,7 +13263,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13258,7 +13274,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13318,7 +13334,7 @@
     </row>
     <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B112" s="28">
         <v>12215.46</v>
@@ -13585,7 +13601,7 @@
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B115" s="28">
         <v>10616.475</v>
@@ -13714,7 +13730,7 @@
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B116" s="28">
         <v>5607.32</v>
@@ -13725,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -13985,7 +14001,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -14361,20 +14377,22 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B121" s="28">
-        <v>1390.3</v>
-      </c>
-      <c r="C121" s="17"/>
+        <v>1430.46</v>
+      </c>
+      <c r="C121" s="17">
+        <v>40</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>57218.400000000001</v>
       </c>
       <c r="E121" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14494,7 +14512,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -14752,7 +14770,7 @@
     </row>
     <row r="124" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B124" s="28">
         <v>5476.38</v>
@@ -15079,7 +15097,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="36" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B127" s="28">
         <v>1219.04</v>
@@ -15090,7 +15108,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15210,7 +15228,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B128" s="28">
         <v>1336.33</v>
@@ -15221,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="65" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15341,7 +15359,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15599,7 +15617,7 @@
     </row>
     <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B131" s="28">
         <v>8641.5499999999993</v>
@@ -15726,20 +15744,22 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A132" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B132" s="28">
-        <v>1208.01</v>
-      </c>
-      <c r="C132" s="17"/>
+        <v>1304.1600000000001</v>
+      </c>
+      <c r="C132" s="17">
+        <v>40</v>
+      </c>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>52166.400000000001</v>
       </c>
       <c r="E132" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15859,7 +15879,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15870,7 +15890,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -15990,7 +16010,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -16001,7 +16021,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -16121,7 +16141,7 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B135" s="28">
         <v>4174.41</v>
@@ -16132,7 +16152,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -16252,7 +16272,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
@@ -16263,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
@@ -16383,7 +16403,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B137" s="28">
         <v>5510.74</v>
@@ -16512,7 +16532,7 @@
     </row>
     <row r="138" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B138" s="28">
         <v>4896.21</v>
@@ -16641,7 +16661,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16652,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -16705,7 +16725,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B140" s="28">
         <v>5150.8500000000004</v>
@@ -16767,7 +16787,7 @@
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B141" s="28">
         <v>4973.3999999999996</v>
@@ -16829,7 +16849,7 @@
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B142" s="28">
         <v>5423.53</v>
@@ -16891,7 +16911,7 @@
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B143" s="28">
         <v>5940.82</v>
@@ -16964,7 +16984,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
@@ -17017,7 +17037,7 @@
     </row>
     <row r="145" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B145" s="28">
         <v>3558.64</v>
@@ -17079,7 +17099,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -17090,7 +17110,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
@@ -17210,7 +17230,7 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="37" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B147" s="28">
         <v>4389.43</v>
@@ -17221,7 +17241,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
@@ -17341,7 +17361,7 @@
     </row>
     <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="28">
         <v>4389.95</v>
@@ -17481,7 +17501,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="65" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17601,7 +17621,7 @@
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B150" s="30">
         <v>3934.81</v>
@@ -17730,7 +17750,7 @@
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B151" s="30">
         <v>4027.04</v>
@@ -17741,7 +17761,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="65" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -17861,7 +17881,7 @@
     </row>
     <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="37" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B152" s="30">
         <v>3891.71</v>
@@ -17872,7 +17892,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
@@ -17992,7 +18012,7 @@
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B153" s="28">
         <v>4507.24</v>
@@ -18121,7 +18141,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="37" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B154" s="28">
         <v>4409</v>
@@ -18250,7 +18270,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B155" s="28">
         <v>4165.3900000000003</v>
@@ -18261,7 +18281,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
@@ -18381,7 +18401,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18392,7 +18412,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
@@ -18512,7 +18532,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18523,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BB157" s="14"/>
       <c r="BC157" s="14"/>
@@ -18645,7 +18665,7 @@
     </row>
     <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18656,7 +18676,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18709,7 +18729,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="36" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B160" s="28">
         <v>7691.27</v>
@@ -18838,7 +18858,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18849,7 +18869,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18969,7 +18989,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -18980,7 +19000,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -19100,7 +19120,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -19111,7 +19131,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -19231,7 +19251,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19360,7 +19380,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19371,7 +19391,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="65" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19491,7 +19511,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19502,7 +19522,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19622,7 +19642,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19633,7 +19653,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19753,7 +19773,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19764,7 +19784,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19884,7 +19904,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
@@ -19895,7 +19915,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20015,7 +20035,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -20026,7 +20046,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -20146,7 +20166,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20157,7 +20177,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="65" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20277,7 +20297,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20288,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20408,7 +20428,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B173" s="69">
         <v>8806.32</v>
@@ -20419,7 +20439,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="73" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20539,7 +20559,7 @@
     </row>
     <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A174" s="76" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B174" s="69">
         <v>9317.56</v>
@@ -20550,7 +20570,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="66" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
@@ -20675,11 +20695,11 @@
       <c r="B175" s="86"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C15:C174)</f>
-        <v>280</v>
+        <v>870</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D15:D174)</f>
-        <v>296176.80000000005</v>
+        <v>1096934.4000000001</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20953,10 +20973,10 @@
     </row>
     <row r="181" spans="2:10" ht="15" customHeight="1">
       <c r="B181" s="46" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C181" s="47">
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20967,7 +20987,7 @@
     </row>
     <row r="182" spans="2:10" ht="15" customHeight="1" thickBot="1">
       <c r="B182" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C182" s="47"/>
       <c r="D182" s="48"/>
@@ -20975,11 +20995,11 @@
     </row>
     <row r="183" spans="2:10" ht="19.5" thickBot="1">
       <c r="B183" s="49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>600000</v>
+        <v>100000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="306">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -517,9 +517,6 @@
     <t>L110</t>
   </si>
   <si>
-    <t>V135</t>
-  </si>
-  <si>
     <t>i15</t>
   </si>
   <si>
@@ -941,6 +938,9 @@
   </si>
   <si>
     <t>L145</t>
+  </si>
+  <si>
+    <t>V138 Lite</t>
   </si>
 </sst>
 </file>
@@ -2099,7 +2099,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H176" sqref="H176"/>
+      <selection pane="bottomRight" activeCell="I175" sqref="I175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2129,7 +2129,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="34" t="s">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44721</v>
+        <v>44727</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2160,7 +2160,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B5" s="56">
         <v>7244.21</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B6" s="28">
         <v>7057.09</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2298,7 +2298,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="28">
         <v>789.97</v>
@@ -2380,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2784,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B13" s="28">
         <v>932.26</v>
@@ -2855,12 +2855,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2931,20 +2931,20 @@
     </row>
     <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B15" s="28">
         <v>982.38</v>
       </c>
       <c r="C15" s="17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>98238</v>
+        <v>39295.199999999997</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -3157,12 +3157,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3173,25 +3173,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B20" s="28">
         <v>973.36</v>
       </c>
       <c r="C20" s="17">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>97336</v>
+        <v>77868.800000000003</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3249,20 +3249,22 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B21" s="28">
-        <v>1069.5899999999999</v>
-      </c>
-      <c r="C21" s="17"/>
+        <v>1147.78</v>
+      </c>
+      <c r="C21" s="17">
+        <v>40</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45911.199999999997</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3329,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3647,7 +3649,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B25" s="28">
         <v>901.24800000000005</v>
@@ -3658,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -3778,7 +3780,7 @@
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26" s="28">
         <v>1001.424</v>
@@ -3789,7 +3791,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3909,7 +3911,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3920,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -4040,7 +4042,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B28" s="28">
         <v>1099.6600000000001</v>
@@ -4051,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4182,7 +4184,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4313,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4433,7 +4435,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4444,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4693,7 +4695,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B33" s="28">
         <v>878.19</v>
@@ -4817,7 +4819,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B35" s="28">
         <v>955.38</v>
@@ -4946,7 +4948,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4957,7 +4959,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -5077,7 +5079,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B37" s="28">
         <v>1168.83</v>
@@ -5088,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5206,22 +5208,20 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B38" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C38" s="17">
-        <v>40</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>49439.6</v>
+        <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5341,7 +5341,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B39" s="28">
         <v>1217.8900000000001</v>
@@ -5352,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5730,7 +5730,7 @@
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
@@ -5741,7 +5741,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6119,7 +6119,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6439,7 +6439,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6450,7 +6450,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6570,7 +6570,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B49" s="28">
         <v>1117.7059999999999</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6701,7 +6701,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B50" s="28">
         <v>1117.7059999999999</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6832,7 +6832,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6963,7 +6963,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7094,7 +7094,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B53" s="28">
         <v>1264.153</v>
@@ -7223,7 +7223,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7234,7 +7234,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7354,7 +7354,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7483,20 +7483,22 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B56" s="41">
-        <v>4706.18</v>
-      </c>
-      <c r="C56" s="42"/>
+        <v>5030.18</v>
+      </c>
+      <c r="C56" s="42">
+        <v>13</v>
+      </c>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>65392.340000000004</v>
       </c>
       <c r="E56" s="66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7616,7 +7618,7 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
@@ -7627,7 +7629,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
@@ -7887,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -8007,7 +8009,7 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B60" s="28">
         <v>6900.2079999999996</v>
@@ -8394,7 +8396,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8405,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8525,7 +8527,7 @@
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" s="28">
         <v>8088.17</v>
@@ -8654,7 +8656,7 @@
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" s="28">
         <v>5158.25</v>
@@ -8783,7 +8785,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="36" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B66" s="28">
         <v>4885.6000000000004</v>
@@ -8912,7 +8914,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8923,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8983,7 +8985,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -8994,7 +8996,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -9054,7 +9056,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B69" s="28">
         <v>5607.32</v>
@@ -9116,7 +9118,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9178,7 +9180,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9189,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -9242,7 +9244,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9253,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -9306,7 +9308,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9317,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9370,7 +9372,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9381,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9434,7 +9436,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
@@ -9445,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9498,7 +9500,7 @@
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
@@ -9509,7 +9511,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -9624,7 +9626,7 @@
     </row>
     <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B78" s="28">
         <v>5382.7857000000004</v>
@@ -9686,7 +9688,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9697,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -9817,7 +9819,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9828,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9948,7 +9950,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9959,7 +9961,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10090,7 +10092,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -10401,7 +10403,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10412,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10465,20 +10467,20 @@
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="75" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B86" s="28">
-        <v>1267.06</v>
+        <v>1284.1099999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>76023.599999999991</v>
+        <v>25682.199999999997</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10533,22 +10535,20 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B87" s="28">
         <v>1372.32</v>
       </c>
-      <c r="C87" s="17">
-        <v>100</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>137232</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10666,22 +10666,20 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" customHeight="1">
+    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B88" s="28">
         <v>1420.44</v>
       </c>
-      <c r="C88" s="17">
-        <v>140</v>
-      </c>
+      <c r="C88" s="17"/>
       <c r="D88" s="18">
         <f t="shared" si="3"/>
-        <v>198861.6</v>
+        <v>0</v>
       </c>
       <c r="E88" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB88" s="14"/>
       <c r="BC88" s="14"/>
@@ -10821,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -10952,7 +10950,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -11330,7 +11328,7 @@
     </row>
     <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B94" s="28">
         <v>1551.87</v>
@@ -11459,7 +11457,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11470,7 +11468,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11534,7 +11532,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11585,20 +11583,22 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B97" s="28">
-        <v>1334.2405000000001</v>
-      </c>
-      <c r="C97" s="17"/>
+        <v>1420.44</v>
+      </c>
+      <c r="C97" s="17">
+        <v>130</v>
+      </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>184657.2</v>
       </c>
       <c r="E97" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11716,22 +11716,20 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="75" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B98" s="28">
         <v>1449.51</v>
       </c>
-      <c r="C98" s="17">
-        <v>100</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>144951</v>
+        <v>0</v>
       </c>
       <c r="E98" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11849,22 +11847,20 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B99" s="28">
         <v>1224.06</v>
       </c>
-      <c r="C99" s="17">
-        <v>90</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>110165.4</v>
+        <v>0</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -11984,7 +11980,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11995,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -12115,7 +12111,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -12126,7 +12122,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12232,22 +12228,20 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B102" s="28">
         <v>1255.04</v>
       </c>
-      <c r="C102" s="17">
-        <v>60</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>75302.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12300,7 +12294,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B103" s="28">
         <v>1217.9490000000001</v>
@@ -12311,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12419,7 +12413,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12430,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -12494,7 +12488,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -12614,7 +12608,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B106" s="28">
         <v>1024.5550000000001</v>
@@ -12625,7 +12619,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -12874,7 +12868,7 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B108" s="28">
         <v>1101.75</v>
@@ -13003,7 +12997,7 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B109" s="28">
         <v>1297.24</v>
@@ -13014,7 +13008,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -13263,7 +13257,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="37" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13274,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13730,7 +13724,7 @@
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B116" s="28">
         <v>5607.32</v>
@@ -13741,7 +13735,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -14001,7 +13995,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -14377,22 +14371,20 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B121" s="28">
         <v>1430.46</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>57218.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14512,7 +14504,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -15097,7 +15089,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B127" s="28">
         <v>1219.04</v>
@@ -15108,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15228,7 +15220,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B128" s="28">
         <v>1336.33</v>
@@ -15239,7 +15231,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="65" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15359,7 +15351,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15744,22 +15736,20 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B132" s="28">
         <v>1304.1600000000001</v>
       </c>
-      <c r="C132" s="17">
-        <v>40</v>
-      </c>
+      <c r="C132" s="17"/>
       <c r="D132" s="18">
         <f t="shared" si="4"/>
-        <v>52166.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E132" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15879,7 +15869,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15890,7 +15880,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -16010,7 +16000,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -16021,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -16141,7 +16131,7 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B135" s="28">
         <v>4174.41</v>
@@ -16152,7 +16142,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -16272,7 +16262,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
@@ -16283,7 +16273,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
@@ -16401,19 +16391,23 @@
       <c r="DO136" s="15"/>
       <c r="DP136" s="15"/>
     </row>
-    <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A137" s="36" t="s">
-        <v>164</v>
+        <v>305</v>
       </c>
       <c r="B137" s="28">
-        <v>5510.74</v>
-      </c>
-      <c r="C137" s="17"/>
+        <v>6032.61</v>
+      </c>
+      <c r="C137" s="17">
+        <v>10</v>
+      </c>
       <c r="D137" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E137" s="65"/>
+        <v>60326.1</v>
+      </c>
+      <c r="E137" s="65" t="s">
+        <v>244</v>
+      </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
       <c r="H137" s="26"/>
@@ -16661,7 +16655,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16672,7 +16666,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -16725,7 +16719,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B140" s="28">
         <v>5150.8500000000004</v>
@@ -16787,7 +16781,7 @@
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B141" s="28">
         <v>4973.3999999999996</v>
@@ -16849,7 +16843,7 @@
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B142" s="28">
         <v>5423.53</v>
@@ -16911,7 +16905,7 @@
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B143" s="28">
         <v>5940.82</v>
@@ -16984,7 +16978,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
@@ -17099,7 +17093,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -17110,7 +17104,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
@@ -17230,7 +17224,7 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B147" s="28">
         <v>4389.43</v>
@@ -17241,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
@@ -17501,7 +17495,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="65" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17750,7 +17744,7 @@
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B151" s="30">
         <v>4027.04</v>
@@ -17761,7 +17755,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="65" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -17892,7 +17886,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
@@ -18141,7 +18135,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B154" s="28">
         <v>4409</v>
@@ -18270,7 +18264,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="37" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B155" s="28">
         <v>4165.3900000000003</v>
@@ -18281,7 +18275,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
@@ -18401,7 +18395,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18412,7 +18406,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
@@ -18532,7 +18526,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18543,7 +18537,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BB157" s="14"/>
       <c r="BC157" s="14"/>
@@ -18665,7 +18659,7 @@
     </row>
     <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18676,7 +18670,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18729,7 +18723,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="36" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B160" s="28">
         <v>7691.27</v>
@@ -18858,7 +18852,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18869,7 +18863,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18989,7 +18983,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -19000,7 +18994,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -19120,7 +19114,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -19131,7 +19125,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -19251,7 +19245,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19380,7 +19374,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19391,7 +19385,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="65" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19511,7 +19505,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19522,7 +19516,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19642,7 +19636,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19653,7 +19647,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19773,7 +19767,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19784,7 +19778,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19904,7 +19898,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
@@ -19915,7 +19909,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20035,7 +20029,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -20046,7 +20040,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -20166,7 +20160,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20177,7 +20171,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="65" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20297,7 +20291,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20308,7 +20302,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="66" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20428,7 +20422,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="68" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B173" s="69">
         <v>8806.32</v>
@@ -20439,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="73" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20559,7 +20553,7 @@
     </row>
     <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A174" s="76" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B174" s="69">
         <v>9317.56</v>
@@ -20570,7 +20564,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
@@ -20695,11 +20689,11 @@
       <c r="B175" s="86"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C15:C174)</f>
-        <v>870</v>
+        <v>333</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D15:D174)</f>
-        <v>1096934.4000000001</v>
+        <v>499133.04</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20973,10 +20967,10 @@
     </row>
     <row r="181" spans="2:10" ht="15" customHeight="1">
       <c r="B181" s="46" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C181" s="47">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
@@ -20987,7 +20981,7 @@
     </row>
     <row r="182" spans="2:10" ht="15" customHeight="1" thickBot="1">
       <c r="B182" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C182" s="47"/>
       <c r="D182" s="48"/>
@@ -20995,11 +20989,11 @@
     </row>
     <row r="183" spans="2:10" ht="19.5" thickBot="1">
       <c r="B183" s="49" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -898,18 +898,12 @@
     <t>B68_WHP_SKD</t>
   </si>
   <si>
-    <t>Advance</t>
-  </si>
-  <si>
     <t>Z22</t>
   </si>
   <si>
     <t>B62</t>
   </si>
   <si>
-    <t>Mugdho Corporation</t>
-  </si>
-  <si>
     <t>V138</t>
   </si>
   <si>
@@ -941,6 +935,9 @@
   </si>
   <si>
     <t>V138 Lite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mugdho Corporation </t>
   </si>
 </sst>
 </file>
@@ -2096,10 +2093,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I175" sqref="I175"/>
+      <selection pane="bottomRight" activeCell="H174" sqref="H174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2129,7 +2126,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="34" t="s">
@@ -2137,7 +2134,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44727</v>
+        <v>44728</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2229,17 +2226,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>268</v>
       </c>
       <c r="B6" s="28">
-        <v>7057.09</v>
-      </c>
-      <c r="C6" s="17"/>
+        <v>7326.74</v>
+      </c>
+      <c r="C6" s="17">
+        <v>5</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36633.699999999997</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>244</v>
@@ -2931,17 +2930,17 @@
     </row>
     <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B15" s="28">
         <v>982.38</v>
       </c>
       <c r="C15" s="17">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>39295.199999999997</v>
+        <v>196476</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>244</v>
@@ -3184,11 +3183,11 @@
         <v>973.36</v>
       </c>
       <c r="C20" s="17">
-        <v>80</v>
+        <v>200</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>77868.800000000003</v>
+        <v>194672</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>244</v>
@@ -3249,19 +3248,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>234</v>
       </c>
       <c r="B21" s="28">
         <v>1147.78</v>
       </c>
-      <c r="C21" s="17">
-        <v>40</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>45911.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>244</v>
@@ -3778,17 +3775,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>248</v>
       </c>
       <c r="B26" s="28">
-        <v>1001.424</v>
-      </c>
-      <c r="C26" s="17"/>
+        <v>1070.5899999999999</v>
+      </c>
+      <c r="C26" s="17">
+        <v>100</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107058.99999999999</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>244</v>
@@ -5344,7 +5343,7 @@
         <v>273</v>
       </c>
       <c r="B39" s="28">
-        <v>1217.8900000000001</v>
+        <v>1235.99</v>
       </c>
       <c r="C39" s="17"/>
       <c r="D39" s="18">
@@ -5741,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -7483,19 +7482,17 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>274</v>
       </c>
       <c r="B56" s="41">
         <v>5030.18</v>
       </c>
-      <c r="C56" s="42">
-        <v>13</v>
-      </c>
+      <c r="C56" s="42"/>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>65392.340000000004</v>
+        <v>0</v>
       </c>
       <c r="E56" s="66" t="s">
         <v>288</v>
@@ -7616,17 +7613,19 @@
       <c r="DO56" s="15"/>
       <c r="DP56" s="15"/>
     </row>
-    <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:120" ht="15" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
       </c>
-      <c r="C57" s="17"/>
+      <c r="C57" s="17">
+        <v>10</v>
+      </c>
       <c r="D57" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>54983.100000000006</v>
       </c>
       <c r="E57" s="65" t="s">
         <v>244</v>
@@ -9436,7 +9435,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="40" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
@@ -9500,7 +9499,7 @@
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
@@ -10473,11 +10472,11 @@
         <v>1284.1099999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>25682.199999999997</v>
+        <v>51364.399999999994</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>244</v>
@@ -10535,17 +10534,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="75" t="s">
         <v>259</v>
       </c>
       <c r="B87" s="28">
         <v>1372.32</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>60</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>82339.199999999997</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>244</v>
@@ -10668,7 +10669,7 @@
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B88" s="28">
         <v>1420.44</v>
@@ -11591,11 +11592,11 @@
         <v>1420.44</v>
       </c>
       <c r="C97" s="17">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>184657.2</v>
+        <v>56817.600000000006</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>244</v>
@@ -11716,17 +11717,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="75" t="s">
         <v>257</v>
       </c>
       <c r="B98" s="28">
         <v>1449.51</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>40</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>57980.4</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>244</v>
@@ -12292,17 +12295,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>260</v>
       </c>
       <c r="B103" s="28">
-        <v>1217.9490000000001</v>
-      </c>
-      <c r="C103" s="17"/>
+        <v>1255.04</v>
+      </c>
+      <c r="C103" s="17">
+        <v>50</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>62752</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>244</v>
@@ -16262,7 +16267,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="74" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
@@ -16391,19 +16396,17 @@
       <c r="DO136" s="15"/>
       <c r="DP136" s="15"/>
     </row>
-    <row r="137" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B137" s="28">
         <v>6032.61</v>
       </c>
-      <c r="C137" s="17">
-        <v>10</v>
-      </c>
+      <c r="C137" s="17"/>
       <c r="D137" s="18">
         <f t="shared" si="5"/>
-        <v>60326.1</v>
+        <v>0</v>
       </c>
       <c r="E137" s="65" t="s">
         <v>244</v>
@@ -18595,7 +18598,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>130</v>
       </c>
@@ -18657,7 +18660,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>225</v>
       </c>
@@ -19114,7 +19117,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -19909,7 +19912,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="66" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20422,7 +20425,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="68" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B173" s="69">
         <v>8806.32</v>
@@ -20433,7 +20436,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="73" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20551,20 +20554,22 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A174" s="76" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B174" s="69">
-        <v>9317.56</v>
-      </c>
-      <c r="C174" s="70"/>
+        <v>9613.2800000000007</v>
+      </c>
+      <c r="C174" s="70">
+        <v>10</v>
+      </c>
       <c r="D174" s="71">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E174" s="66" t="s">
-        <v>299</v>
+        <v>96132.800000000003</v>
+      </c>
+      <c r="E174" s="65" t="s">
+        <v>244</v>
       </c>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
@@ -20688,12 +20693,12 @@
       </c>
       <c r="B175" s="86"/>
       <c r="C175" s="52">
-        <f>SUBTOTAL(9,C15:C174)</f>
-        <v>333</v>
+        <f>SUBTOTAL(9,C6:C174)</f>
+        <v>755</v>
       </c>
       <c r="D175" s="53">
-        <f>SUBTOTAL(9,D15:D174)</f>
-        <v>499133.04</v>
+        <f>SUBTOTAL(9,D6:D174)</f>
+        <v>997210.2</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20969,9 +20974,7 @@
       <c r="B181" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="C181" s="47">
-        <v>500000</v>
-      </c>
+      <c r="C181" s="47"/>
       <c r="D181" s="48" t="s">
         <v>133</v>
       </c>
@@ -20980,10 +20983,10 @@
       </c>
     </row>
     <row r="182" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B182" s="46" t="s">
-        <v>291</v>
-      </c>
-      <c r="C182" s="47"/>
+      <c r="B182" s="46"/>
+      <c r="C182" s="47">
+        <v>400000</v>
+      </c>
       <c r="D182" s="48"/>
       <c r="E182" s="22"/>
     </row>
@@ -20993,7 +20996,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2093,10 +2093,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H174" sqref="H174"/>
+      <selection pane="bottomRight" activeCell="K176" sqref="K176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44728</v>
+        <v>44735</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2226,19 +2226,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>268</v>
       </c>
       <c r="B6" s="28">
         <v>7326.74</v>
       </c>
-      <c r="C6" s="17">
-        <v>5</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>36633.699999999997</v>
+        <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>244</v>
@@ -2936,11 +2934,11 @@
         <v>982.38</v>
       </c>
       <c r="C15" s="17">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>196476</v>
+        <v>294714</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>244</v>
@@ -3183,11 +3181,11 @@
         <v>973.36</v>
       </c>
       <c r="C20" s="17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>194672</v>
+        <v>97336</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>244</v>
@@ -3783,11 +3781,11 @@
         <v>1070.5899999999999</v>
       </c>
       <c r="C26" s="17">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>107058.99999999999</v>
+        <v>214117.99999999997</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>244</v>
@@ -4039,17 +4037,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>276</v>
       </c>
       <c r="B28" s="28">
         <v>1099.6600000000001</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>200</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>219932.00000000003</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>244</v>
@@ -5076,17 +5076,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>204</v>
       </c>
       <c r="B37" s="28">
-        <v>1168.83</v>
-      </c>
-      <c r="C37" s="17"/>
+        <v>1206.92</v>
+      </c>
+      <c r="C37" s="17">
+        <v>60</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72415.200000000012</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>244</v>
@@ -7613,19 +7615,17 @@
       <c r="DO56" s="15"/>
       <c r="DP56" s="15"/>
     </row>
-    <row r="57" spans="1:120" ht="15" customHeight="1">
+    <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
       </c>
-      <c r="C57" s="17">
-        <v>10</v>
-      </c>
+      <c r="C57" s="17"/>
       <c r="D57" s="18">
         <f t="shared" si="1"/>
-        <v>54983.100000000006</v>
+        <v>0</v>
       </c>
       <c r="E57" s="65" t="s">
         <v>244</v>
@@ -10472,11 +10472,11 @@
         <v>1284.1099999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>51364.399999999994</v>
+        <v>256821.99999999997</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>244</v>
@@ -10542,11 +10542,11 @@
         <v>1372.32</v>
       </c>
       <c r="C87" s="17">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>82339.199999999997</v>
+        <v>274464</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>244</v>
@@ -11584,19 +11584,17 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>253</v>
       </c>
       <c r="B97" s="28">
         <v>1420.44</v>
       </c>
-      <c r="C97" s="17">
-        <v>40</v>
-      </c>
+      <c r="C97" s="17"/>
       <c r="D97" s="18">
         <f t="shared" si="3"/>
-        <v>56817.600000000006</v>
+        <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
         <v>244</v>
@@ -11717,19 +11715,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="75" t="s">
         <v>257</v>
       </c>
       <c r="B98" s="28">
         <v>1449.51</v>
       </c>
-      <c r="C98" s="17">
-        <v>40</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>57980.4</v>
+        <v>0</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>244</v>
@@ -12303,11 +12299,11 @@
         <v>1255.04</v>
       </c>
       <c r="C103" s="17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>62752</v>
+        <v>125504</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>244</v>
@@ -14376,17 +14372,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>284</v>
       </c>
       <c r="B121" s="28">
         <v>1430.46</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>40</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>57218.400000000001</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>244</v>
@@ -20562,11 +20560,11 @@
         <v>9613.2800000000007</v>
       </c>
       <c r="C174" s="70">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D174" s="71">
         <f t="shared" si="6"/>
-        <v>96132.800000000003</v>
+        <v>192265.60000000001</v>
       </c>
       <c r="E174" s="65" t="s">
         <v>244</v>
@@ -20693,12 +20691,12 @@
       </c>
       <c r="B175" s="86"/>
       <c r="C175" s="52">
-        <f>SUBTOTAL(9,C6:C174)</f>
-        <v>755</v>
+        <f>SUBTOTAL(9,C15:C174)</f>
+        <v>1420</v>
       </c>
       <c r="D175" s="53">
-        <f>SUBTOTAL(9,D6:D174)</f>
-        <v>997210.2</v>
+        <f>SUBTOTAL(9,D15:D174)</f>
+        <v>1804789.2</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20974,7 +20972,9 @@
       <c r="B181" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="C181" s="47"/>
+      <c r="C181" s="47">
+        <v>800000</v>
+      </c>
       <c r="D181" s="48" t="s">
         <v>133</v>
       </c>
@@ -20984,9 +20984,7 @@
     </row>
     <row r="182" spans="2:10" ht="15" customHeight="1" thickBot="1">
       <c r="B182" s="46"/>
-      <c r="C182" s="47">
-        <v>400000</v>
-      </c>
+      <c r="C182" s="47"/>
       <c r="D182" s="48"/>
       <c r="E182" s="22"/>
     </row>
@@ -20996,7 +20994,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>400000</v>
+        <v>800000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -415,9 +415,6 @@
     <t>P9_2GB</t>
   </si>
   <si>
-    <t>Z10</t>
-  </si>
-  <si>
     <t>SymTab60</t>
   </si>
   <si>
@@ -938,6 +935,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
+  </si>
+  <si>
+    <t>Helio 30</t>
   </si>
 </sst>
 </file>
@@ -2093,10 +2093,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K176" sqref="K176"/>
+      <selection pane="bottomRight" activeCell="H176" sqref="H176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2126,7 +2126,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="80" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="34" t="s">
@@ -2134,7 +2134,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44735</v>
+        <v>44741</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2152,12 +2152,12 @@
         <v>82</v>
       </c>
       <c r="E4" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="63" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B5" s="56">
         <v>7244.21</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B6" s="28">
         <v>7326.74</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B8" s="28">
         <v>789.97</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2508,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B10" s="28">
         <v>779.94</v>
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="28">
         <v>774.93</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" s="28">
         <v>769.92</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13" s="28">
         <v>932.26</v>
@@ -2852,12 +2852,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2928,20 +2928,20 @@
     </row>
     <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B15" s="28">
         <v>982.38</v>
       </c>
       <c r="C15" s="17">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>294714</v>
+        <v>39295.199999999997</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -3001,7 +3001,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -3072,7 +3072,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -3154,12 +3154,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3170,12 +3170,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B20" s="28">
         <v>973.36</v>
@@ -3188,7 +3188,7 @@
         <v>97336</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3248,7 +3248,7 @@
     </row>
     <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" s="28">
         <v>1147.78</v>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B23" s="28">
         <v>896.23500000000001</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="28">
         <v>901.24800000000005</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -3775,20 +3775,20 @@
     </row>
     <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B26" s="28">
         <v>1070.5899999999999</v>
       </c>
       <c r="C26" s="17">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>214117.99999999997</v>
+        <v>107058.99999999999</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3908,7 +3908,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3919,7 +3919,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -4037,22 +4037,20 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B28" s="28">
         <v>1099.6600000000001</v>
       </c>
-      <c r="C28" s="17">
-        <v>200</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>219932.00000000003</v>
+        <v>0</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4183,7 +4181,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4314,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4434,7 +4432,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4445,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4565,7 +4563,7 @@
     </row>
     <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="36" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B32" s="28">
         <v>858.14</v>
@@ -4694,7 +4692,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" s="28">
         <v>878.19</v>
@@ -4756,7 +4754,7 @@
     </row>
     <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B34" s="28">
         <v>936.34</v>
@@ -4818,7 +4816,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B35" s="28">
         <v>955.38</v>
@@ -4947,7 +4945,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4958,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -5076,22 +5074,20 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="28">
         <v>1206.92</v>
       </c>
-      <c r="C37" s="17">
-        <v>60</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>72415.200000000012</v>
+        <v>0</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5211,7 +5207,7 @@
     </row>
     <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B38" s="28">
         <v>1235.99</v>
@@ -5222,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5342,7 +5338,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B39" s="28">
         <v>1235.99</v>
@@ -5353,7 +5349,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5602,7 +5598,7 @@
     </row>
     <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="36" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B41" s="28">
         <v>1264.78</v>
@@ -5731,7 +5727,7 @@
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
@@ -5742,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -5991,7 +5987,7 @@
     </row>
     <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B44" s="28">
         <v>1244.723</v>
@@ -6120,7 +6116,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6249,7 +6245,7 @@
     </row>
     <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="37" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B46" s="28">
         <v>800</v>
@@ -6378,7 +6374,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6440,7 +6436,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6451,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6571,7 +6567,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B49" s="28">
         <v>1117.7059999999999</v>
@@ -6582,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6702,7 +6698,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B50" s="28">
         <v>1117.7059999999999</v>
@@ -6713,7 +6709,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6833,7 +6829,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
@@ -6844,7 +6840,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6964,7 +6960,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6975,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7095,7 +7091,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B53" s="28">
         <v>1264.153</v>
@@ -7224,7 +7220,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7235,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7355,7 +7351,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7366,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7484,20 +7480,22 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B56" s="41">
         <v>5030.18</v>
       </c>
-      <c r="C56" s="42"/>
+      <c r="C56" s="42">
+        <v>18</v>
+      </c>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>90543.24</v>
       </c>
       <c r="E56" s="66" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7617,7 +7615,7 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
@@ -7628,7 +7626,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
@@ -7888,7 +7886,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -8008,7 +8006,7 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B60" s="28">
         <v>6900.2079999999996</v>
@@ -8137,7 +8135,7 @@
     </row>
     <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="28">
         <v>6715.95</v>
@@ -8266,7 +8264,7 @@
     </row>
     <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B62" s="28">
         <v>8573.3799999999992</v>
@@ -8395,7 +8393,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8406,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8526,7 +8524,7 @@
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B64" s="28">
         <v>8088.17</v>
@@ -8655,7 +8653,7 @@
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" s="28">
         <v>5158.25</v>
@@ -8784,7 +8782,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B66" s="28">
         <v>4885.6000000000004</v>
@@ -8913,7 +8911,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8924,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8984,7 +8982,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -8995,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -9055,7 +9053,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B69" s="28">
         <v>5607.32</v>
@@ -9117,7 +9115,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9179,7 +9177,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9190,7 +9188,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -9243,7 +9241,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9254,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -9307,7 +9305,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9318,7 +9316,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9371,7 +9369,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9382,7 +9380,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9435,7 +9433,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
@@ -9446,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9499,7 +9497,7 @@
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
@@ -9510,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -9563,7 +9561,7 @@
     </row>
     <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B77" s="28">
         <v>8225.51</v>
@@ -9625,7 +9623,7 @@
     </row>
     <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B78" s="28">
         <v>5382.7857000000004</v>
@@ -9687,7 +9685,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9698,7 +9696,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -9818,7 +9816,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9829,7 +9827,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9949,7 +9947,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9960,7 +9958,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10091,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="65" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -10211,7 +10209,7 @@
     </row>
     <row r="83" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B83" s="28">
         <v>1199.99</v>
@@ -10340,7 +10338,7 @@
     </row>
     <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B84" s="28">
         <v>1189.97</v>
@@ -10402,7 +10400,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10413,7 +10411,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10464,22 +10462,20 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="75" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B86" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>200</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>256821.99999999997</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10534,22 +10530,20 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B87" s="28">
         <v>1372.32</v>
       </c>
-      <c r="C87" s="17">
-        <v>200</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>274464</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10669,7 +10663,7 @@
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B88" s="28">
         <v>1420.44</v>
@@ -10680,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB88" s="14"/>
       <c r="BC88" s="14"/>
@@ -10740,7 +10734,7 @@
     </row>
     <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B89" s="28">
         <v>1435.58</v>
@@ -10809,7 +10803,7 @@
     </row>
     <row r="90" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B90" s="28">
         <v>5607.9849999999997</v>
@@ -10820,7 +10814,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -10951,7 +10945,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -11071,7 +11065,7 @@
     </row>
     <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B92" s="28">
         <v>1072.68</v>
@@ -11329,7 +11323,7 @@
     </row>
     <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B94" s="28">
         <v>1551.87</v>
@@ -11458,7 +11452,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11469,7 +11463,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11522,7 +11516,7 @@
     </row>
     <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B96" s="28">
         <v>1004.39</v>
@@ -11533,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11586,7 +11580,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B97" s="28">
         <v>1420.44</v>
@@ -11597,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11715,20 +11709,22 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="75" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B98" s="28">
         <v>1449.51</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>70</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>101465.7</v>
       </c>
       <c r="E98" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11848,7 +11844,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B99" s="28">
         <v>1224.06</v>
@@ -11859,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -11979,7 +11975,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11990,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -12110,7 +12106,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -12121,7 +12117,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12229,7 +12225,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B102" s="28">
         <v>1255.04</v>
@@ -12240,7 +12236,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12291,22 +12287,20 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B103" s="28">
         <v>1255.04</v>
       </c>
-      <c r="C103" s="17">
-        <v>100</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>125504</v>
+        <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12414,7 +12408,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12425,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -12489,7 +12483,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -12609,7 +12603,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="37" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B106" s="28">
         <v>1024.5550000000001</v>
@@ -12620,7 +12614,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -12740,7 +12734,7 @@
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B107" s="28">
         <v>1024.56</v>
@@ -12869,7 +12863,7 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B108" s="28">
         <v>1101.75</v>
@@ -12998,7 +12992,7 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B109" s="28">
         <v>1297.24</v>
@@ -13009,7 +13003,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -13129,7 +13123,7 @@
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B110" s="28">
         <v>1297.24</v>
@@ -13258,7 +13252,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="37" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13269,7 +13263,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13329,7 +13323,7 @@
     </row>
     <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="36" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B112" s="28">
         <v>12215.46</v>
@@ -13596,7 +13590,7 @@
     </row>
     <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="36" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B115" s="28">
         <v>10616.475</v>
@@ -13725,7 +13719,7 @@
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B116" s="28">
         <v>5607.32</v>
@@ -13736,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -13996,7 +13990,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -14372,22 +14366,20 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B121" s="28">
         <v>1430.46</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>57218.400000000001</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14507,7 +14499,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -14765,7 +14757,7 @@
     </row>
     <row r="124" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="37" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B124" s="28">
         <v>5476.38</v>
@@ -14963,7 +14955,7 @@
     </row>
     <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B126" s="28">
         <v>7679.15</v>
@@ -15092,7 +15084,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B127" s="28">
         <v>1219.04</v>
@@ -15103,7 +15095,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="65" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15223,7 +15215,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B128" s="28">
         <v>1336.33</v>
@@ -15234,7 +15226,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15354,7 +15346,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15612,7 +15604,7 @@
     </row>
     <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B131" s="28">
         <v>8641.5499999999993</v>
@@ -15741,7 +15733,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B132" s="28">
         <v>1304.1600000000001</v>
@@ -15752,7 +15744,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15872,7 +15864,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15883,7 +15875,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -16003,7 +15995,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -16014,7 +16006,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -16134,7 +16126,7 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B135" s="28">
         <v>4174.41</v>
@@ -16145,7 +16137,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -16265,7 +16257,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="74" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
@@ -16276,7 +16268,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
@@ -16396,7 +16388,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B137" s="28">
         <v>6032.61</v>
@@ -16407,7 +16399,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
@@ -16527,7 +16519,7 @@
     </row>
     <row r="138" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B138" s="28">
         <v>4896.21</v>
@@ -16656,7 +16648,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16667,7 +16659,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -16720,7 +16712,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B140" s="28">
         <v>5150.8500000000004</v>
@@ -16782,7 +16774,7 @@
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B141" s="28">
         <v>4973.3999999999996</v>
@@ -16844,7 +16836,7 @@
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="36" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B142" s="28">
         <v>5423.53</v>
@@ -16906,7 +16898,7 @@
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B143" s="28">
         <v>5940.82</v>
@@ -16979,7 +16971,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
@@ -17032,7 +17024,7 @@
     </row>
     <row r="145" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="37" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B145" s="28">
         <v>3558.64</v>
@@ -17094,7 +17086,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -17105,7 +17097,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
@@ -17225,7 +17217,7 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="37" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B147" s="28">
         <v>4389.43</v>
@@ -17236,7 +17228,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
@@ -17356,7 +17348,7 @@
     </row>
     <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" s="28">
         <v>4389.95</v>
@@ -17496,7 +17488,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17616,7 +17608,7 @@
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B150" s="30">
         <v>3934.81</v>
@@ -17745,7 +17737,7 @@
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B151" s="30">
         <v>4027.04</v>
@@ -17756,7 +17748,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="65" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -17876,7 +17868,7 @@
     </row>
     <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B152" s="30">
         <v>3891.71</v>
@@ -17887,7 +17879,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
@@ -18007,7 +17999,7 @@
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B153" s="28">
         <v>4507.24</v>
@@ -18136,7 +18128,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B154" s="28">
         <v>4409</v>
@@ -18265,7 +18257,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B155" s="28">
         <v>4165.3900000000003</v>
@@ -18276,7 +18268,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
@@ -18396,7 +18388,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18407,7 +18399,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
@@ -18527,7 +18519,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18538,7 +18530,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BB157" s="14"/>
       <c r="BC157" s="14"/>
@@ -18596,19 +18588,23 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" thickBot="1">
       <c r="A158" s="36" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="B158" s="28">
-        <v>4849.09</v>
-      </c>
-      <c r="C158" s="17"/>
+        <v>13718.22</v>
+      </c>
+      <c r="C158" s="17">
+        <v>30</v>
+      </c>
       <c r="D158" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E158" s="65"/>
+        <v>411546.6</v>
+      </c>
+      <c r="E158" s="65" t="s">
+        <v>243</v>
+      </c>
       <c r="F158" s="25"/>
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
@@ -18658,9 +18654,9 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18671,7 +18667,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18724,7 +18720,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B160" s="28">
         <v>7691.27</v>
@@ -18853,7 +18849,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18864,7 +18860,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18984,7 +18980,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -18995,7 +18991,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -19115,7 +19111,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -19126,7 +19122,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -19246,7 +19242,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19375,7 +19371,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19386,7 +19382,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="65" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19506,7 +19502,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19517,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19637,7 +19633,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19648,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19768,7 +19764,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19779,7 +19775,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19899,7 +19895,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
@@ -19910,7 +19906,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="66" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20030,7 +20026,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -20041,7 +20037,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -20161,7 +20157,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20172,7 +20168,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20292,7 +20288,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20303,7 +20299,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="66" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20423,7 +20419,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B173" s="69">
         <v>8806.32</v>
@@ -20434,7 +20430,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="73" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20552,22 +20548,20 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A174" s="76" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B174" s="69">
         <v>9613.2800000000007</v>
       </c>
-      <c r="C174" s="70">
-        <v>20</v>
-      </c>
+      <c r="C174" s="70"/>
       <c r="D174" s="71">
         <f t="shared" si="6"/>
-        <v>192265.60000000001</v>
+        <v>0</v>
       </c>
       <c r="E174" s="65" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
@@ -20692,11 +20686,11 @@
       <c r="B175" s="86"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C15:C174)</f>
-        <v>1420</v>
+        <v>358</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D15:D174)</f>
-        <v>1804789.2</v>
+        <v>847245.74</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20952,7 +20946,7 @@
       <c r="D178" s="84"/>
       <c r="E178" s="24"/>
       <c r="J178" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="179" spans="2:10" ht="9" customHeight="1" thickBot="1"/>
@@ -20964,22 +20958,22 @@
         <v>86</v>
       </c>
       <c r="D180" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E180" s="22"/>
     </row>
     <row r="181" spans="2:10" ht="15" customHeight="1">
       <c r="B181" s="46" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C181" s="47">
-        <v>800000</v>
+        <v>350000</v>
       </c>
       <c r="D181" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E181" s="22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="182" spans="2:10" ht="15" customHeight="1" thickBot="1">
@@ -20990,11 +20984,11 @@
     </row>
     <row r="183" spans="2:10" ht="19.5" thickBot="1">
       <c r="B183" s="49" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>800000</v>
+        <v>350000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2093,10 +2093,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H176" sqref="H176"/>
+      <selection pane="bottomRight" activeCell="J183" sqref="J183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44741</v>
+        <v>44756</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2926,19 +2926,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>291</v>
       </c>
       <c r="B15" s="28">
         <v>982.38</v>
       </c>
-      <c r="C15" s="17">
-        <v>40</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>39295.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>243</v>
@@ -3173,19 +3171,17 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>271</v>
       </c>
       <c r="B20" s="28">
         <v>973.36</v>
       </c>
-      <c r="C20" s="17">
-        <v>100</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>97336</v>
+        <v>0</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>243</v>
@@ -3773,19 +3769,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>247</v>
       </c>
       <c r="B26" s="28">
         <v>1070.5899999999999</v>
       </c>
-      <c r="C26" s="17">
-        <v>100</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>107058.99999999999</v>
+        <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>243</v>
@@ -7480,19 +7474,17 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>273</v>
       </c>
       <c r="B56" s="41">
         <v>5030.18</v>
       </c>
-      <c r="C56" s="42">
-        <v>18</v>
-      </c>
+      <c r="C56" s="42"/>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>90543.24</v>
+        <v>0</v>
       </c>
       <c r="E56" s="66" t="s">
         <v>287</v>
@@ -10462,17 +10454,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="75" t="s">
         <v>248</v>
       </c>
       <c r="B86" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>50</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>64205.499999999993</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>243</v>
@@ -10530,17 +10524,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A87" s="75" t="s">
         <v>258</v>
       </c>
       <c r="B87" s="28">
         <v>1372.32</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>100</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>137232</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>243</v>
@@ -11450,7 +11446,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="37" t="s">
         <v>219</v>
       </c>
@@ -11514,7 +11510,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="37" t="s">
         <v>157</v>
       </c>
@@ -11709,19 +11705,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="75" t="s">
         <v>256</v>
       </c>
       <c r="B98" s="28">
         <v>1449.51</v>
       </c>
-      <c r="C98" s="17">
-        <v>70</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>101465.7</v>
+        <v>0</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>243</v>
@@ -18588,19 +18582,17 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>304</v>
       </c>
       <c r="B158" s="28">
         <v>13718.22</v>
       </c>
-      <c r="C158" s="17">
-        <v>30</v>
-      </c>
+      <c r="C158" s="17"/>
       <c r="D158" s="18">
         <f t="shared" si="5"/>
-        <v>411546.6</v>
+        <v>0</v>
       </c>
       <c r="E158" s="65" t="s">
         <v>243</v>
@@ -20686,11 +20678,11 @@
       <c r="B175" s="86"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C15:C174)</f>
-        <v>358</v>
+        <v>150</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D15:D174)</f>
-        <v>847245.74</v>
+        <v>201437.5</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20967,7 +20959,7 @@
         <v>261</v>
       </c>
       <c r="C181" s="47">
-        <v>350000</v>
+        <v>900000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>132</v>
@@ -20988,7 +20980,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>350000</v>
+        <v>900000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="301">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -583,9 +583,6 @@
     <t>L55i</t>
   </si>
   <si>
-    <t>L250</t>
-  </si>
-  <si>
     <t>i65</t>
   </si>
   <si>
@@ -829,9 +826,6 @@
     <t>ATOM2</t>
   </si>
   <si>
-    <t xml:space="preserve">Carabian Blue </t>
-  </si>
-  <si>
     <t>Z35(3+32)</t>
   </si>
   <si>
@@ -859,12 +853,6 @@
     <t>i32</t>
   </si>
   <si>
-    <t>Amazon Green/Persian Blue</t>
-  </si>
-  <si>
-    <t>Dazzling Blue/Super Green</t>
-  </si>
-  <si>
     <t>Z33</t>
   </si>
   <si>
@@ -913,9 +901,6 @@
     <t>i80</t>
   </si>
   <si>
-    <t>Green Only</t>
-  </si>
-  <si>
     <t>G50</t>
   </si>
   <si>
@@ -925,9 +910,6 @@
     <t>i71</t>
   </si>
   <si>
-    <t>Blue &amp; Green Only</t>
-  </si>
-  <si>
     <t>L145</t>
   </si>
   <si>
@@ -938,6 +920,12 @@
   </si>
   <si>
     <t>Helio 30</t>
+  </si>
+  <si>
+    <t>Brac Bank</t>
+  </si>
+  <si>
+    <t>L136</t>
   </si>
 </sst>
 </file>
@@ -1511,7 +1499,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1711,9 +1699,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="43" fontId="12" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2093,10 +2078,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J183" sqref="J183"/>
+      <selection pane="bottomRight" activeCell="H184" sqref="H184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2113,28 +2098,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>303</v>
-      </c>
-      <c r="C2" s="81"/>
+      <c r="B2" s="79" t="s">
+        <v>297</v>
+      </c>
+      <c r="C2" s="80"/>
       <c r="D2" s="34" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44756</v>
+        <v>44760</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2157,7 +2142,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="63" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" s="56">
         <v>7244.21</v>
@@ -2168,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="64" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2228,7 +2213,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B6" s="28">
         <v>7326.74</v>
@@ -2239,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2295,7 +2280,7 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B7" s="28">
         <v>892.23</v>
@@ -2306,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2377,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2508,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2639,7 +2624,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2710,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2781,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2841,7 +2826,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" s="28">
         <v>932.26</v>
@@ -2852,12 +2837,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2868,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2928,7 +2913,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B15" s="28">
         <v>982.38</v>
@@ -2939,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -2999,7 +2984,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -3010,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -3070,7 +3055,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -3081,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -3141,7 +3126,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -3152,12 +3137,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3168,23 +3153,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B20" s="28">
         <v>973.36</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>200</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>194672</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3244,7 +3231,7 @@
     </row>
     <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B21" s="28">
         <v>1147.78</v>
@@ -3255,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3322,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="65" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3651,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -3771,7 +3758,7 @@
     </row>
     <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" s="28">
         <v>1070.5899999999999</v>
@@ -3782,7 +3769,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3902,7 +3889,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3913,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -4033,7 +4020,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B28" s="28">
         <v>1099.6600000000001</v>
@@ -4044,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4175,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4306,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4426,7 +4413,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4437,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="65" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4939,7 +4926,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4950,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -5070,7 +5057,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B37" s="28">
         <v>1206.92</v>
@@ -5081,7 +5068,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5201,7 +5188,7 @@
     </row>
     <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B38" s="28">
         <v>1235.99</v>
@@ -5212,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5332,7 +5319,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B39" s="28">
         <v>1235.99</v>
@@ -5343,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5721,7 +5708,7 @@
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B42" s="28">
         <v>1422.38</v>
@@ -5732,7 +5719,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6110,7 +6097,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6368,7 +6355,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6430,7 +6417,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6441,7 +6428,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6561,7 +6548,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B49" s="28">
         <v>1117.7059999999999</v>
@@ -6572,7 +6559,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6692,7 +6679,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B50" s="28">
         <v>1117.7059999999999</v>
@@ -6703,7 +6690,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6823,7 +6810,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
@@ -6834,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6954,7 +6941,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6965,7 +6952,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7214,7 +7201,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7225,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="65" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7345,7 +7332,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7356,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7476,7 +7463,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B56" s="41">
         <v>5030.18</v>
@@ -7487,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="66" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7607,7 +7594,7 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
@@ -7618,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
@@ -7878,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -8385,7 +8372,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8396,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="65" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8774,7 +8761,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B66" s="28">
         <v>4885.6000000000004</v>
@@ -8903,7 +8890,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8914,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -8974,7 +8961,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -8985,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -9045,7 +9032,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="28">
         <v>5607.32</v>
@@ -9107,7 +9094,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9169,7 +9156,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9180,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -9233,7 +9220,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9244,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -9297,7 +9284,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9308,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9361,7 +9348,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9372,7 +9359,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9425,7 +9412,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="40" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
@@ -9436,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9489,7 +9476,7 @@
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
@@ -9500,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -9677,7 +9664,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="36" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9688,7 +9675,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -9808,7 +9795,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9819,7 +9806,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9939,7 +9926,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9950,7 +9937,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10081,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -10392,7 +10379,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10403,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10454,22 +10441,20 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
-      <c r="A86" s="75" t="s">
-        <v>248</v>
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+      <c r="A86" s="74" t="s">
+        <v>247</v>
       </c>
       <c r="B86" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>50</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>64205.499999999993</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10524,22 +10509,20 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A87" s="75" t="s">
-        <v>258</v>
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A87" s="74" t="s">
+        <v>257</v>
       </c>
       <c r="B87" s="28">
         <v>1372.32</v>
       </c>
-      <c r="C87" s="17">
-        <v>100</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>137232</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10659,7 +10642,7 @@
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B88" s="28">
         <v>1420.44</v>
@@ -10670,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB88" s="14"/>
       <c r="BC88" s="14"/>
@@ -10810,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -10941,7 +10924,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -11319,17 +11302,19 @@
     </row>
     <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
-        <v>186</v>
+        <v>300</v>
       </c>
       <c r="B94" s="28">
-        <v>1551.87</v>
+        <v>1284.1099999999999</v>
       </c>
       <c r="C94" s="17"/>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E94" s="65"/>
+      <c r="E94" s="65" t="s">
+        <v>242</v>
+      </c>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
       <c r="H94" s="26"/>
@@ -11446,9 +11431,9 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11459,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11510,7 +11495,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="37" t="s">
         <v>157</v>
       </c>
@@ -11523,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11576,7 +11561,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B97" s="28">
         <v>1420.44</v>
@@ -11587,7 +11572,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11706,8 +11691,8 @@
       <c r="DP97" s="15"/>
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A98" s="75" t="s">
-        <v>256</v>
+      <c r="A98" s="74" t="s">
+        <v>255</v>
       </c>
       <c r="B98" s="28">
         <v>1449.51</v>
@@ -11718,7 +11703,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11838,7 +11823,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B99" s="28">
         <v>1224.06</v>
@@ -11849,7 +11834,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -11969,7 +11954,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -11980,7 +11965,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -12100,7 +12085,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -12111,7 +12096,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12219,7 +12204,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B102" s="28">
         <v>1255.04</v>
@@ -12230,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12283,7 +12268,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B103" s="28">
         <v>1255.04</v>
@@ -12294,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12402,7 +12387,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12413,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -12477,7 +12462,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -12608,7 +12593,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -12997,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -13246,7 +13231,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13257,7 +13242,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13713,7 +13698,7 @@
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B116" s="28">
         <v>5607.32</v>
@@ -13724,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -13984,7 +13969,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -14362,7 +14347,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B121" s="28">
         <v>1430.46</v>
@@ -14373,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14493,7 +14478,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B122" s="28">
         <v>1072.675</v>
@@ -15089,7 +15074,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="65" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15220,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15340,7 +15325,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15727,7 +15712,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B132" s="28">
         <v>1304.1600000000001</v>
@@ -15738,7 +15723,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15858,7 +15843,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15869,7 +15854,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -15989,7 +15974,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -16000,7 +15985,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -16131,7 +16116,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -16250,8 +16235,8 @@
       <c r="DP135" s="15"/>
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A136" s="74" t="s">
-        <v>292</v>
+      <c r="A136" s="73" t="s">
+        <v>288</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
@@ -16262,7 +16247,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
@@ -16382,7 +16367,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B137" s="28">
         <v>6032.61</v>
@@ -16393,7 +16378,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
@@ -16642,7 +16627,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16653,7 +16638,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -16965,7 +16950,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
@@ -17080,7 +17065,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -17091,7 +17076,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
@@ -17222,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
@@ -17482,7 +17467,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="65" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17742,7 +17727,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="65" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -17873,7 +17858,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
@@ -18262,7 +18247,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="67" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
@@ -18382,7 +18367,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18393,7 +18378,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="65" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
@@ -18513,7 +18498,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18524,7 +18509,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BB157" s="14"/>
       <c r="BC157" s="14"/>
@@ -18582,9 +18567,9 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B158" s="28">
         <v>13718.22</v>
@@ -18595,7 +18580,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F158" s="25"/>
       <c r="G158" s="25"/>
@@ -18646,9 +18631,9 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18659,7 +18644,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18712,7 +18697,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B160" s="28">
         <v>7691.27</v>
@@ -18841,7 +18826,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18852,7 +18837,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -18972,7 +18957,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -18983,7 +18968,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -19103,7 +19088,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -19114,7 +19099,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -19234,7 +19219,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19244,7 +19229,9 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E164" s="65"/>
+      <c r="E164" s="65" t="s">
+        <v>242</v>
+      </c>
       <c r="F164" s="26"/>
       <c r="G164" s="26"/>
       <c r="H164" s="26"/>
@@ -19363,7 +19350,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19374,7 +19361,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="65" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19494,7 +19481,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19504,8 +19491,8 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E166" s="66" t="s">
-        <v>278</v>
+      <c r="E166" s="65" t="s">
+        <v>242</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19625,7 +19612,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19635,8 +19622,8 @@
         <f t="shared" ref="D167:D174" si="6">B167*C167</f>
         <v>0</v>
       </c>
-      <c r="E167" s="66" t="s">
-        <v>278</v>
+      <c r="E167" s="65" t="s">
+        <v>242</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19756,7 +19743,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19767,7 +19754,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19887,7 +19874,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="40" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
@@ -19897,8 +19884,8 @@
         <f t="shared" ref="D169" si="7">B169*C169</f>
         <v>0</v>
       </c>
-      <c r="E169" s="66" t="s">
-        <v>300</v>
+      <c r="E169" s="65" t="s">
+        <v>242</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20018,7 +20005,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -20029,7 +20016,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -20149,7 +20136,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20160,7 +20147,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20280,7 +20267,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B172" s="28">
         <v>9056.51</v>
@@ -20290,8 +20277,8 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E172" s="66" t="s">
-        <v>279</v>
+      <c r="E172" s="65" t="s">
+        <v>242</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20409,20 +20396,22 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A173" s="68" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B173" s="69">
         <v>8806.32</v>
       </c>
-      <c r="C173" s="70"/>
+      <c r="C173" s="70">
+        <v>35</v>
+      </c>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E173" s="73" t="s">
-        <v>296</v>
+        <v>308221.2</v>
+      </c>
+      <c r="E173" s="65" t="s">
+        <v>242</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20541,8 +20530,8 @@
       <c r="DP173" s="15"/>
     </row>
     <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
-      <c r="A174" s="76" t="s">
-        <v>293</v>
+      <c r="A174" s="75" t="s">
+        <v>289</v>
       </c>
       <c r="B174" s="69">
         <v>9613.2800000000007</v>
@@ -20553,7 +20542,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
@@ -20672,17 +20661,17 @@
       <c r="DP174" s="15"/>
     </row>
     <row r="175" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A175" s="85" t="s">
+      <c r="A175" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B175" s="86"/>
+      <c r="B175" s="85"/>
       <c r="C175" s="52">
-        <f>SUBTOTAL(9,C15:C174)</f>
-        <v>150</v>
+        <f>SUBTOTAL(9,C20:C174)</f>
+        <v>235</v>
       </c>
       <c r="D175" s="53">
-        <f>SUBTOTAL(9,D15:D174)</f>
-        <v>201437.5</v>
+        <f>SUBTOTAL(9,D20:D174)</f>
+        <v>502893.2</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20924,18 +20913,18 @@
       <c r="DP176" s="15"/>
     </row>
     <row r="177" spans="2:10" ht="9" customHeight="1" thickBot="1">
-      <c r="B177" s="77"/>
-      <c r="C177" s="77"/>
-      <c r="D177" s="77"/>
-      <c r="E177" s="77"/>
+      <c r="B177" s="76"/>
+      <c r="C177" s="76"/>
+      <c r="D177" s="76"/>
+      <c r="E177" s="76"/>
       <c r="I177" s="55"/>
     </row>
     <row r="178" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B178" s="82" t="s">
+      <c r="B178" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C178" s="83"/>
-      <c r="D178" s="84"/>
+      <c r="C178" s="82"/>
+      <c r="D178" s="83"/>
       <c r="E178" s="24"/>
       <c r="J178" s="25" t="s">
         <v>132</v>
@@ -20956,10 +20945,10 @@
     </row>
     <row r="181" spans="2:10" ht="15" customHeight="1">
       <c r="B181" s="46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C181" s="47">
-        <v>900000</v>
+        <v>600000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>132</v>
@@ -20969,18 +20958,20 @@
       </c>
     </row>
     <row r="182" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B182" s="46"/>
+      <c r="B182" s="46" t="s">
+        <v>299</v>
+      </c>
       <c r="C182" s="47"/>
       <c r="D182" s="48"/>
       <c r="E182" s="22"/>
     </row>
     <row r="183" spans="2:10" ht="19.5" thickBot="1">
       <c r="B183" s="49" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>900000</v>
+        <v>600000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>
@@ -21037,33 +21028,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="89" t="s">
+      <c r="A2" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91" t="e">
+      <c r="B3" s="89"/>
+      <c r="C3" s="90" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="91"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -23004,10 +22995,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="87" t="s">
+      <c r="A101" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="87"/>
+      <c r="B101" s="86"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2078,10 +2078,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H184" sqref="H184"/>
+      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44760</v>
+        <v>44763</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2211,17 +2211,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>266</v>
       </c>
       <c r="B6" s="28">
         <v>7326.74</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>30</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>219802.19999999998</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>242</v>
@@ -3756,17 +3758,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>246</v>
       </c>
       <c r="B26" s="28">
         <v>1070.5899999999999</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>300</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>321177</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>242</v>
@@ -4018,17 +4022,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>273</v>
       </c>
       <c r="B28" s="28">
         <v>1099.6600000000001</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>200</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>219932.00000000003</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>242</v>
@@ -5186,17 +5192,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>233</v>
       </c>
       <c r="B38" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>100</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>123599</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>242</v>
@@ -6808,17 +6816,19 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>248</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17">
+        <v>100</v>
+      </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>110768</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>242</v>
@@ -10441,17 +10451,19 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="74" t="s">
         <v>247</v>
       </c>
       <c r="B86" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C86" s="17"/>
+      <c r="C86" s="17">
+        <v>200</v>
+      </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>256821.99999999997</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>242</v>
@@ -10509,17 +10521,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="74" t="s">
         <v>257</v>
       </c>
       <c r="B87" s="28">
         <v>1372.32</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>200</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>274464</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>242</v>
@@ -11300,17 +11314,19 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:120" ht="15" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>300</v>
       </c>
       <c r="B94" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C94" s="17"/>
+      <c r="C94" s="17">
+        <v>200</v>
+      </c>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>256821.99999999997</v>
       </c>
       <c r="E94" s="65" t="s">
         <v>242</v>
@@ -12202,17 +12218,19 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="40" t="s">
         <v>272</v>
       </c>
       <c r="B102" s="28">
         <v>1255.04</v>
       </c>
-      <c r="C102" s="17"/>
+      <c r="C102" s="17">
+        <v>100</v>
+      </c>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>125504</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>242</v>
@@ -12266,17 +12284,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>258</v>
       </c>
       <c r="B103" s="28">
         <v>1255.04</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>100</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>125504</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>242</v>
@@ -14345,17 +14365,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>279</v>
       </c>
       <c r="B121" s="28">
         <v>1430.46</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>100</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>143046</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>242</v>
@@ -20396,19 +20418,17 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="68" t="s">
         <v>290</v>
       </c>
       <c r="B173" s="69">
         <v>8806.32</v>
       </c>
-      <c r="C173" s="70">
-        <v>35</v>
-      </c>
+      <c r="C173" s="70"/>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>308221.2</v>
+        <v>0</v>
       </c>
       <c r="E173" s="65" t="s">
         <v>242</v>
@@ -20529,17 +20549,19 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A174" s="75" t="s">
         <v>289</v>
       </c>
       <c r="B174" s="69">
         <v>9613.2800000000007</v>
       </c>
-      <c r="C174" s="70"/>
+      <c r="C174" s="70">
+        <v>30</v>
+      </c>
       <c r="D174" s="71">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>288398.40000000002</v>
       </c>
       <c r="E174" s="65" t="s">
         <v>242</v>
@@ -20666,12 +20688,12 @@
       </c>
       <c r="B175" s="85"/>
       <c r="C175" s="52">
-        <f>SUBTOTAL(9,C20:C174)</f>
-        <v>235</v>
+        <f>SUBTOTAL(9,C6:C174)</f>
+        <v>1860</v>
       </c>
       <c r="D175" s="53">
-        <f>SUBTOTAL(9,D20:D174)</f>
-        <v>502893.2</v>
+        <f>SUBTOTAL(9,D6:D174)</f>
+        <v>2660510.6</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20947,9 +20969,7 @@
       <c r="B181" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C181" s="47">
-        <v>600000</v>
-      </c>
+      <c r="C181" s="47"/>
       <c r="D181" s="48" t="s">
         <v>132</v>
       </c>
@@ -20971,7 +20991,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>600000</v>
+        <v>0</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2078,10 +2078,10 @@
   <dimension ref="A1:DP185"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomRight" activeCell="J121" sqref="J121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3166,11 +3166,11 @@
         <v>973.36</v>
       </c>
       <c r="C20" s="17">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>194672</v>
+        <v>272540.79999999999</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>242</v>
@@ -3766,11 +3766,11 @@
         <v>1070.5899999999999</v>
       </c>
       <c r="C26" s="17">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>321177</v>
+        <v>364000.6</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>242</v>
@@ -4030,11 +4030,11 @@
         <v>1099.6600000000001</v>
       </c>
       <c r="C28" s="17">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>219932.00000000003</v>
+        <v>263918.40000000002</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>242</v>
@@ -5200,11 +5200,11 @@
         <v>1235.99</v>
       </c>
       <c r="C38" s="17">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>123599</v>
+        <v>173038.6</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>242</v>
@@ -6554,17 +6554,19 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:120" ht="15" customHeight="1">
       <c r="A49" s="36" t="s">
         <v>278</v>
       </c>
       <c r="B49" s="28">
-        <v>1117.7059999999999</v>
-      </c>
-      <c r="C49" s="17"/>
+        <v>1157.8</v>
+      </c>
+      <c r="C49" s="17">
+        <v>378</v>
+      </c>
       <c r="D49" s="18">
         <f t="shared" ref="D49" si="2">B49*C49</f>
-        <v>0</v>
+        <v>437648.39999999997</v>
       </c>
       <c r="E49" s="65" t="s">
         <v>242</v>
@@ -6685,17 +6687,19 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>274</v>
       </c>
       <c r="B50" s="28">
-        <v>1117.7059999999999</v>
-      </c>
-      <c r="C50" s="17"/>
+        <v>1157.8</v>
+      </c>
+      <c r="C50" s="17">
+        <v>300</v>
+      </c>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>347340</v>
       </c>
       <c r="E50" s="65" t="s">
         <v>242</v>
@@ -6824,11 +6828,11 @@
         <v>1107.68</v>
       </c>
       <c r="C51" s="17">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>110768</v>
+        <v>155075.20000000001</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>242</v>
@@ -10459,11 +10463,11 @@
         <v>1284.1099999999999</v>
       </c>
       <c r="C86" s="17">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>256821.99999999997</v>
+        <v>308186.39999999997</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>242</v>
@@ -10529,11 +10533,11 @@
         <v>1372.32</v>
       </c>
       <c r="C87" s="17">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>274464</v>
+        <v>329356.79999999999</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>242</v>
@@ -12292,11 +12296,11 @@
         <v>1255.04</v>
       </c>
       <c r="C103" s="17">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>125504</v>
+        <v>150604.79999999999</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>242</v>
@@ -14365,7 +14369,7 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A121" s="40" t="s">
         <v>279</v>
       </c>
@@ -14373,11 +14377,11 @@
         <v>1430.46</v>
       </c>
       <c r="C121" s="17">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>143046</v>
+        <v>200264.4</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>242</v>
@@ -18589,7 +18593,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>298</v>
       </c>
@@ -18653,7 +18657,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>223</v>
       </c>
@@ -20549,19 +20553,17 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A174" s="75" t="s">
         <v>289</v>
       </c>
       <c r="B174" s="69">
         <v>9613.2800000000007</v>
       </c>
-      <c r="C174" s="70">
-        <v>30</v>
-      </c>
+      <c r="C174" s="70"/>
       <c r="D174" s="71">
         <f t="shared" si="6"/>
-        <v>288398.40000000002</v>
+        <v>0</v>
       </c>
       <c r="E174" s="65" t="s">
         <v>242</v>
@@ -20689,11 +20691,11 @@
       <c r="B175" s="85"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C6:C174)</f>
-        <v>1860</v>
+        <v>2888</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D6:D174)</f>
-        <v>2660510.6</v>
+        <v>3604102.5999999996</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20969,7 +20971,9 @@
       <c r="B181" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C181" s="47"/>
+      <c r="C181" s="47">
+        <v>3600000</v>
+      </c>
       <c r="D181" s="48" t="s">
         <v>132</v>
       </c>
@@ -20991,7 +20995,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>0</v>
+        <v>3600000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -820,9 +820,6 @@
     <t>Z32</t>
   </si>
   <si>
-    <t>Z40</t>
-  </si>
-  <si>
     <t>ATOM2</t>
   </si>
   <si>
@@ -895,9 +892,6 @@
     <t>Z45</t>
   </si>
   <si>
-    <t>Z42</t>
-  </si>
-  <si>
     <t>i80</t>
   </si>
   <si>
@@ -926,6 +920,12 @@
   </si>
   <si>
     <t>L136</t>
+  </si>
+  <si>
+    <t>Z42(3+32)</t>
+  </si>
+  <si>
+    <t>Z42Pro(4+64)</t>
   </si>
 </sst>
 </file>
@@ -2081,7 +2081,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J121" sqref="J121"/>
+      <selection pane="bottomRight" activeCell="G185" sqref="G185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2111,7 +2111,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="34" t="s">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44763</v>
+        <v>44769</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2211,19 +2211,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B6" s="28">
         <v>7326.74</v>
       </c>
-      <c r="C6" s="17">
-        <v>30</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>219802.19999999998</v>
+        <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>242</v>
@@ -2915,7 +2913,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B15" s="28">
         <v>982.38</v>
@@ -3144,7 +3142,7 @@
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3158,19 +3156,17 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B20" s="28">
         <v>973.36</v>
       </c>
-      <c r="C20" s="17">
-        <v>280</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>272540.79999999999</v>
+        <v>0</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>242</v>
@@ -3758,19 +3754,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>246</v>
       </c>
       <c r="B26" s="28">
         <v>1070.5899999999999</v>
       </c>
-      <c r="C26" s="17">
-        <v>340</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>364000.6</v>
+        <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>242</v>
@@ -4022,19 +4016,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B28" s="28">
         <v>1099.6600000000001</v>
       </c>
-      <c r="C28" s="17">
-        <v>240</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>263918.40000000002</v>
+        <v>0</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>242</v>
@@ -5192,19 +5184,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>233</v>
       </c>
       <c r="B38" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C38" s="17">
-        <v>140</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>173038.6</v>
+        <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>242</v>
@@ -5327,7 +5317,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B39" s="28">
         <v>1235.99</v>
@@ -5727,7 +5717,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6554,19 +6544,17 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" customHeight="1">
+    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B49" s="28">
         <v>1157.8</v>
       </c>
-      <c r="C49" s="17">
-        <v>378</v>
-      </c>
+      <c r="C49" s="17"/>
       <c r="D49" s="18">
         <f t="shared" ref="D49" si="2">B49*C49</f>
-        <v>437648.39999999997</v>
+        <v>0</v>
       </c>
       <c r="E49" s="65" t="s">
         <v>242</v>
@@ -6687,19 +6675,17 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B50" s="28">
         <v>1157.8</v>
       </c>
-      <c r="C50" s="17">
-        <v>300</v>
-      </c>
+      <c r="C50" s="17"/>
       <c r="D50" s="18">
         <f t="shared" si="1"/>
-        <v>347340</v>
+        <v>0</v>
       </c>
       <c r="E50" s="65" t="s">
         <v>242</v>
@@ -6820,19 +6806,17 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1">
+    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>248</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17">
-        <v>140</v>
-      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>155075.20000000001</v>
+        <v>0</v>
       </c>
       <c r="E51" s="65" t="s">
         <v>242</v>
@@ -7475,20 +7459,22 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B56" s="41">
-        <v>5030.18</v>
-      </c>
-      <c r="C56" s="42"/>
+        <v>5225.6499999999996</v>
+      </c>
+      <c r="C56" s="42">
+        <v>20</v>
+      </c>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104513</v>
       </c>
       <c r="E56" s="66" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7608,7 +7594,7 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
@@ -8975,7 +8961,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -9298,7 +9284,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9426,7 +9412,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="40" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
@@ -9490,7 +9476,7 @@
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
@@ -10455,19 +10441,17 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="74" t="s">
         <v>247</v>
       </c>
       <c r="B86" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C86" s="17">
-        <v>240</v>
-      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="18">
         <f t="shared" si="3"/>
-        <v>308186.39999999997</v>
+        <v>0</v>
       </c>
       <c r="E86" s="65" t="s">
         <v>242</v>
@@ -10525,19 +10509,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="74" t="s">
         <v>257</v>
       </c>
       <c r="B87" s="28">
         <v>1372.32</v>
       </c>
-      <c r="C87" s="17">
-        <v>240</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>329356.79999999999</v>
+        <v>0</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>242</v>
@@ -10660,7 +10642,7 @@
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B88" s="28">
         <v>1420.44</v>
@@ -11318,19 +11300,17 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" customHeight="1">
+    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B94" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C94" s="17">
-        <v>200</v>
-      </c>
+      <c r="C94" s="17"/>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>256821.99999999997</v>
+        <v>0</v>
       </c>
       <c r="E94" s="65" t="s">
         <v>242</v>
@@ -11843,7 +11823,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B99" s="28">
         <v>1224.06</v>
@@ -11974,7 +11954,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -12222,19 +12202,17 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B102" s="28">
         <v>1255.04</v>
       </c>
-      <c r="C102" s="17">
-        <v>100</v>
-      </c>
+      <c r="C102" s="17"/>
       <c r="D102" s="18">
         <f t="shared" si="3"/>
-        <v>125504</v>
+        <v>0</v>
       </c>
       <c r="E102" s="65" t="s">
         <v>242</v>
@@ -12288,19 +12266,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>258</v>
       </c>
       <c r="B103" s="28">
         <v>1255.04</v>
       </c>
-      <c r="C103" s="17">
-        <v>120</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>150604.79999999999</v>
+        <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>242</v>
@@ -12411,7 +12387,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -14369,19 +14345,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B121" s="28">
         <v>1430.46</v>
       </c>
-      <c r="C121" s="17">
-        <v>140</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>200264.4</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>242</v>
@@ -16262,7 +16236,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="73" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
@@ -16393,7 +16367,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B137" s="28">
         <v>6032.61</v>
@@ -18593,9 +18567,9 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B158" s="28">
         <v>13718.22</v>
@@ -18657,7 +18631,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>223</v>
       </c>
@@ -19114,7 +19088,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -19900,7 +19874,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
@@ -20031,7 +20005,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -20162,7 +20136,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20291,17 +20265,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A172" s="36" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="B172" s="28">
-        <v>9056.51</v>
-      </c>
-      <c r="C172" s="17"/>
+        <v>11454.74</v>
+      </c>
+      <c r="C172" s="17">
+        <v>60</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>687284.4</v>
       </c>
       <c r="E172" s="65" t="s">
         <v>242</v>
@@ -20424,7 +20400,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="68" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B173" s="69">
         <v>8806.32</v>
@@ -20555,7 +20531,7 @@
     </row>
     <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A174" s="75" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B174" s="69">
         <v>9613.2800000000007</v>
@@ -20691,11 +20667,11 @@
       <c r="B175" s="85"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C6:C174)</f>
-        <v>2888</v>
+        <v>80</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D6:D174)</f>
-        <v>3604102.5999999996</v>
+        <v>791797.4</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20972,7 +20948,7 @@
         <v>260</v>
       </c>
       <c r="C181" s="47">
-        <v>3600000</v>
+        <v>800000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>132</v>
@@ -20983,7 +20959,7 @@
     </row>
     <row r="182" spans="2:10" ht="15" customHeight="1" thickBot="1">
       <c r="B182" s="46" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C182" s="47"/>
       <c r="D182" s="48"/>
@@ -20991,11 +20967,11 @@
     </row>
     <row r="183" spans="2:10" ht="19.5" thickBot="1">
       <c r="B183" s="49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>3600000</v>
+        <v>800000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2081,7 +2081,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G185" sqref="G185"/>
+      <selection pane="bottomRight" activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44769</v>
+        <v>44770</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2211,17 +2211,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B6" s="28">
         <v>7326.74</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>10</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>73267.399999999994</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>242</v>
@@ -5315,17 +5317,19 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>269</v>
       </c>
       <c r="B39" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>60</v>
+      </c>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>74159.399999999994</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>242</v>
@@ -7459,19 +7463,17 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>270</v>
       </c>
       <c r="B56" s="41">
         <v>5225.6499999999996</v>
       </c>
-      <c r="C56" s="42">
-        <v>20</v>
-      </c>
+      <c r="C56" s="42"/>
       <c r="D56" s="39">
         <f t="shared" si="1"/>
-        <v>104513</v>
+        <v>0</v>
       </c>
       <c r="E56" s="66" t="s">
         <v>282</v>
@@ -14345,17 +14347,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>278</v>
       </c>
       <c r="B121" s="28">
         <v>1430.46</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>60</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>85827.6</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>242</v>
@@ -19086,17 +19090,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A163" s="40" t="s">
         <v>285</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>10</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>74881.3</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>242</v>
@@ -20265,19 +20271,17 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17">
-        <v>60</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>687284.4</v>
+        <v>0</v>
       </c>
       <c r="E172" s="65" t="s">
         <v>242</v>
@@ -20667,11 +20671,11 @@
       <c r="B175" s="85"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C6:C174)</f>
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D6:D174)</f>
-        <v>791797.4</v>
+        <v>308135.7</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20948,7 +20952,7 @@
         <v>260</v>
       </c>
       <c r="C181" s="47">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>132</v>
@@ -20971,7 +20975,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2081,7 +2081,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H178" sqref="H178"/>
+      <selection pane="bottomRight" activeCell="H180" sqref="H180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44770</v>
+        <v>44775</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2211,19 +2211,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B6" s="28">
         <v>7326.74</v>
       </c>
-      <c r="C6" s="17">
-        <v>10</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>73267.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E6" s="65" t="s">
         <v>242</v>
@@ -2913,17 +2911,19 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>286</v>
       </c>
       <c r="B15" s="28">
-        <v>982.38</v>
-      </c>
-      <c r="C15" s="17"/>
+        <v>1060.57</v>
+      </c>
+      <c r="C15" s="17">
+        <v>40</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42422.799999999996</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>242</v>
@@ -3158,17 +3158,19 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>268</v>
       </c>
       <c r="B20" s="28">
-        <v>973.36</v>
-      </c>
-      <c r="C20" s="17"/>
+        <v>1050.54</v>
+      </c>
+      <c r="C20" s="17">
+        <v>60</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63032.399999999994</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>242</v>
@@ -3229,17 +3231,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>232</v>
       </c>
       <c r="B21" s="28">
-        <v>1147.78</v>
-      </c>
-      <c r="C21" s="17"/>
+        <v>1235.99</v>
+      </c>
+      <c r="C21" s="17">
+        <v>70</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86519.3</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>242</v>
@@ -3756,17 +3760,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>246</v>
       </c>
       <c r="B26" s="28">
-        <v>1070.5899999999999</v>
-      </c>
-      <c r="C26" s="17"/>
+        <v>1128.73</v>
+      </c>
+      <c r="C26" s="17">
+        <v>70</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79011.100000000006</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>242</v>
@@ -5317,7 +5323,7 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A39" s="36" t="s">
         <v>269</v>
       </c>
@@ -9348,7 +9354,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A74" s="36" t="s">
         <v>221</v>
       </c>
@@ -9412,7 +9418,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A75" s="40" t="s">
         <v>292</v>
       </c>
@@ -9476,7 +9482,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A76" s="36" t="s">
         <v>289</v>
       </c>
@@ -9540,7 +9546,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A77" s="36" t="s">
         <v>143</v>
       </c>
@@ -9602,7 +9608,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A78" s="36" t="s">
         <v>184</v>
       </c>
@@ -11433,7 +11439,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A95" s="37" t="s">
         <v>218</v>
       </c>
@@ -11497,7 +11503,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A96" s="37" t="s">
         <v>157</v>
       </c>
@@ -14347,19 +14353,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>278</v>
       </c>
       <c r="B121" s="28">
         <v>1430.46</v>
       </c>
-      <c r="C121" s="17">
-        <v>60</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>85827.6</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>242</v>
@@ -18571,7 +18575,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
         <v>296</v>
       </c>
@@ -18635,7 +18639,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>223</v>
       </c>
@@ -19090,19 +19094,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>285</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17">
-        <v>10</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>74881.3</v>
+        <v>0</v>
       </c>
       <c r="E163" s="65" t="s">
         <v>242</v>
@@ -20671,11 +20673,11 @@
       <c r="B175" s="85"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C6:C174)</f>
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D6:D174)</f>
-        <v>308135.7</v>
+        <v>345145</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20952,7 +20954,7 @@
         <v>260</v>
       </c>
       <c r="C181" s="47">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>132</v>
@@ -20975,7 +20977,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2081,7 +2081,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H180" sqref="H180"/>
+      <selection pane="bottomRight" activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44775</v>
+        <v>44776</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2911,19 +2911,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>286</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
       </c>
-      <c r="C15" s="17">
-        <v>40</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>42422.799999999996</v>
+        <v>0</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>242</v>
@@ -3239,11 +3237,11 @@
         <v>1235.99</v>
       </c>
       <c r="C21" s="17">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>86519.3</v>
+        <v>123599</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>242</v>
@@ -3768,11 +3766,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>79011.100000000006</v>
+        <v>112873</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>242</v>
@@ -5061,17 +5059,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>202</v>
       </c>
       <c r="B37" s="28">
-        <v>1206.92</v>
-      </c>
-      <c r="C37" s="17"/>
+        <v>1294.1300000000001</v>
+      </c>
+      <c r="C37" s="17">
+        <v>140</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>181178.2</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>242</v>
@@ -5192,17 +5192,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>233</v>
       </c>
       <c r="B38" s="28">
-        <v>1235.99</v>
-      </c>
-      <c r="C38" s="17"/>
+        <v>1333.3</v>
+      </c>
+      <c r="C38" s="17">
+        <v>100</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>133330</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>242</v>
@@ -5323,19 +5325,17 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>269</v>
       </c>
       <c r="B39" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C39" s="17">
-        <v>60</v>
-      </c>
+      <c r="C39" s="17"/>
       <c r="D39" s="18">
         <f t="shared" si="1"/>
-        <v>74159.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E39" s="65" t="s">
         <v>242</v>
@@ -9354,7 +9354,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
         <v>221</v>
       </c>
@@ -9418,7 +9418,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="40" t="s">
         <v>292</v>
       </c>
@@ -9482,7 +9482,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
         <v>289</v>
       </c>
@@ -9546,7 +9546,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="36" t="s">
         <v>143</v>
       </c>
@@ -9608,7 +9608,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
         <v>184</v>
       </c>
@@ -11439,7 +11439,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
         <v>218</v>
       </c>
@@ -11503,7 +11503,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="37" t="s">
         <v>157</v>
       </c>
@@ -11829,17 +11829,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>283</v>
       </c>
       <c r="B99" s="28">
-        <v>1224.06</v>
-      </c>
-      <c r="C99" s="17"/>
+        <v>1362.3</v>
+      </c>
+      <c r="C99" s="17">
+        <v>160</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>217968</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>242</v>
@@ -12274,17 +12276,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>258</v>
       </c>
       <c r="B103" s="28">
-        <v>1255.04</v>
-      </c>
-      <c r="C103" s="17"/>
+        <v>1342.25</v>
+      </c>
+      <c r="C103" s="17">
+        <v>100</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>134225</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>242</v>
@@ -18575,7 +18579,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>296</v>
       </c>
@@ -18639,7 +18643,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>223</v>
       </c>
@@ -20273,17 +20277,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A172" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>20</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>229094.8</v>
       </c>
       <c r="E172" s="65" t="s">
         <v>242</v>
@@ -20672,12 +20678,12 @@
       </c>
       <c r="B175" s="85"/>
       <c r="C175" s="52">
-        <f>SUBTOTAL(9,C6:C174)</f>
-        <v>300</v>
+        <f>SUBTOTAL(9,C20:C174)</f>
+        <v>780</v>
       </c>
       <c r="D175" s="53">
-        <f>SUBTOTAL(9,D6:D174)</f>
-        <v>345145</v>
+        <f>SUBTOTAL(9,D20:D174)</f>
+        <v>1195300.4000000001</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20954,7 +20960,7 @@
         <v>260</v>
       </c>
       <c r="C181" s="47">
-        <v>500000</v>
+        <v>1300000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>132</v>
@@ -20977,7 +20983,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>500000</v>
+        <v>1300000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2072,7 +2072,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:DP185"/>
@@ -2081,7 +2081,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G180" sqref="G180"/>
+      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44776</v>
+        <v>44780</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2140,7 +2140,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:120" ht="15" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>253</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>265</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
     </row>
-    <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:120" ht="15" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>200</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="DC7" s="14"/>
       <c r="DD7" s="14"/>
     </row>
-    <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="8" spans="1:120" ht="15" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>177</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="DO8" s="15"/>
       <c r="DP8" s="15"/>
     </row>
-    <row r="9" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="9" spans="1:120" ht="15" customHeight="1">
       <c r="A9" s="36" t="s">
         <v>119</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="DO9" s="15"/>
       <c r="DP9" s="15"/>
     </row>
-    <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="10" spans="1:120" ht="15" customHeight="1">
       <c r="A10" s="36" t="s">
         <v>148</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="DC10" s="14"/>
       <c r="DD10" s="14"/>
     </row>
-    <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="11" spans="1:120" ht="15" customHeight="1">
       <c r="A11" s="36" t="s">
         <v>149</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="DC11" s="14"/>
       <c r="DD11" s="14"/>
     </row>
-    <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="12" spans="1:120" ht="15" customHeight="1">
       <c r="A12" s="36" t="s">
         <v>160</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="1:120" ht="15" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>224</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="14" spans="1:120" ht="15" customHeight="1">
       <c r="A14" s="36" t="s">
         <v>230</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>286</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="DC15" s="14"/>
       <c r="DD15" s="14"/>
     </row>
-    <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="16" spans="1:120" ht="15" customHeight="1">
       <c r="A16" s="36" t="s">
         <v>205</v>
       </c>
@@ -3053,7 +3053,7 @@
       <c r="DC16" s="14"/>
       <c r="DD16" s="14"/>
     </row>
-    <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="17" spans="1:120" ht="15" customHeight="1">
       <c r="A17" s="36" t="s">
         <v>215</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:120" ht="15" customHeight="1">
       <c r="A18" s="36" t="s">
         <v>256</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="19" spans="1:120" ht="15" customHeight="1">
       <c r="A19" s="36" t="s">
         <v>284</v>
       </c>
@@ -3163,12 +3163,10 @@
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17">
-        <v>60</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>63032.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>242</v>
@@ -3236,12 +3234,10 @@
       <c r="B21" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C21" s="17">
-        <v>100</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>123599</v>
+        <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>242</v>
@@ -3298,7 +3294,7 @@
       <c r="DC21" s="14"/>
       <c r="DD21" s="14"/>
     </row>
-    <row r="22" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="22" spans="1:120" ht="15" customHeight="1">
       <c r="A22" s="36" t="s">
         <v>18</v>
       </c>
@@ -3369,7 +3365,7 @@
       <c r="DC22" s="14"/>
       <c r="DD22" s="14"/>
     </row>
-    <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="23" spans="1:120" ht="15" customHeight="1">
       <c r="A23" s="36" t="s">
         <v>147</v>
       </c>
@@ -3498,7 +3494,7 @@
       <c r="DO23" s="15"/>
       <c r="DP23" s="15"/>
     </row>
-    <row r="24" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="24" spans="1:120" ht="15" customHeight="1">
       <c r="A24" s="36" t="s">
         <v>123</v>
       </c>
@@ -3627,7 +3623,7 @@
       <c r="DO24" s="15"/>
       <c r="DP24" s="15"/>
     </row>
-    <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="25" spans="1:120" ht="15" customHeight="1">
       <c r="A25" s="36" t="s">
         <v>169</v>
       </c>
@@ -3765,12 +3761,10 @@
       <c r="B26" s="28">
         <v>1128.73</v>
       </c>
-      <c r="C26" s="17">
-        <v>100</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>112873</v>
+        <v>0</v>
       </c>
       <c r="E26" s="65" t="s">
         <v>242</v>
@@ -3891,7 +3885,7 @@
       <c r="DO26" s="15"/>
       <c r="DP26" s="15"/>
     </row>
-    <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="27" spans="1:120" ht="15" customHeight="1">
       <c r="A27" s="36" t="s">
         <v>204</v>
       </c>
@@ -4022,7 +4016,7 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>272</v>
       </c>
@@ -4153,7 +4147,7 @@
       <c r="DO28" s="15"/>
       <c r="DP28" s="15"/>
     </row>
-    <row r="29" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="29" spans="1:120" ht="15" customHeight="1">
       <c r="A29" s="36" t="s">
         <v>126</v>
       </c>
@@ -4284,7 +4278,7 @@
       <c r="DO29" s="15"/>
       <c r="DP29" s="15"/>
     </row>
-    <row r="30" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="30" spans="1:120" ht="15" customHeight="1">
       <c r="A30" s="36" t="s">
         <v>60</v>
       </c>
@@ -4415,7 +4409,7 @@
       <c r="DO30" s="15"/>
       <c r="DP30" s="15"/>
     </row>
-    <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="31" spans="1:120" ht="15" customHeight="1">
       <c r="A31" s="36" t="s">
         <v>203</v>
       </c>
@@ -4546,7 +4540,7 @@
       <c r="DO31" s="15"/>
       <c r="DP31" s="15"/>
     </row>
-    <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="32" spans="1:120" ht="15" customHeight="1">
       <c r="A32" s="36" t="s">
         <v>139</v>
       </c>
@@ -4675,7 +4669,7 @@
       <c r="DO32" s="15"/>
       <c r="DP32" s="15"/>
     </row>
-    <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="33" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="36" t="s">
         <v>180</v>
       </c>
@@ -4737,7 +4731,7 @@
       <c r="AZ33" s="25"/>
       <c r="BA33" s="25"/>
     </row>
-    <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="34" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="36" t="s">
         <v>146</v>
       </c>
@@ -4799,7 +4793,7 @@
       <c r="AZ34" s="25"/>
       <c r="BA34" s="25"/>
     </row>
-    <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="35" spans="1:120" ht="15" customHeight="1">
       <c r="A35" s="36" t="s">
         <v>179</v>
       </c>
@@ -4928,7 +4922,7 @@
       <c r="DO35" s="15"/>
       <c r="DP35" s="15"/>
     </row>
-    <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="36" spans="1:120" ht="15" customHeight="1">
       <c r="A36" s="36" t="s">
         <v>211</v>
       </c>
@@ -5066,12 +5060,10 @@
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
       </c>
-      <c r="C37" s="17">
-        <v>140</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>181178.2</v>
+        <v>0</v>
       </c>
       <c r="E37" s="65" t="s">
         <v>242</v>
@@ -5199,12 +5191,10 @@
       <c r="B38" s="28">
         <v>1333.3</v>
       </c>
-      <c r="C38" s="17">
-        <v>100</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>133330</v>
+        <v>0</v>
       </c>
       <c r="E38" s="65" t="s">
         <v>242</v>
@@ -5325,7 +5315,7 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:120" ht="15" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>269</v>
       </c>
@@ -5456,7 +5446,7 @@
       <c r="DO39" s="15"/>
       <c r="DP39" s="15"/>
     </row>
-    <row r="40" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="40" spans="1:120" ht="15" customHeight="1">
       <c r="A40" s="36" t="s">
         <v>116</v>
       </c>
@@ -5585,7 +5575,7 @@
       <c r="DO40" s="15"/>
       <c r="DP40" s="15"/>
     </row>
-    <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="41" spans="1:120" ht="15" customHeight="1">
       <c r="A41" s="36" t="s">
         <v>150</v>
       </c>
@@ -5714,7 +5704,7 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>188</v>
       </c>
@@ -5845,7 +5835,7 @@
       <c r="DO42" s="15"/>
       <c r="DP42" s="15"/>
     </row>
-    <row r="43" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="43" spans="1:120" ht="15" customHeight="1">
       <c r="A43" s="36" t="s">
         <v>117</v>
       </c>
@@ -5974,7 +5964,7 @@
       <c r="DO43" s="15"/>
       <c r="DP43" s="15"/>
     </row>
-    <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="44" spans="1:120" ht="15" customHeight="1">
       <c r="A44" s="36" t="s">
         <v>152</v>
       </c>
@@ -6103,7 +6093,7 @@
       <c r="DO44" s="15"/>
       <c r="DP44" s="15"/>
     </row>
-    <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="45" spans="1:120" ht="15" customHeight="1">
       <c r="A45" s="36" t="s">
         <v>214</v>
       </c>
@@ -6232,7 +6222,7 @@
       <c r="DO45" s="15"/>
       <c r="DP45" s="15"/>
     </row>
-    <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="46" spans="1:120" ht="15" customHeight="1">
       <c r="A46" s="37" t="s">
         <v>151</v>
       </c>
@@ -6361,7 +6351,7 @@
       <c r="DO46" s="15"/>
       <c r="DP46" s="15"/>
     </row>
-    <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="47" spans="1:120" s="31" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="36" t="s">
         <v>231</v>
       </c>
@@ -6423,7 +6413,7 @@
       <c r="AZ47" s="33"/>
       <c r="BA47" s="33"/>
     </row>
-    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:120" ht="15" customHeight="1">
       <c r="A48" s="36" t="s">
         <v>245</v>
       </c>
@@ -6554,7 +6544,7 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:120" ht="15" customHeight="1">
       <c r="A49" s="36" t="s">
         <v>277</v>
       </c>
@@ -6685,7 +6675,7 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:120" ht="15" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>273</v>
       </c>
@@ -6816,7 +6806,7 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>248</v>
       </c>
@@ -6947,7 +6937,7 @@
       <c r="DO51" s="15"/>
       <c r="DP51" s="15"/>
     </row>
-    <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="52" spans="1:120" ht="15" customHeight="1">
       <c r="A52" s="36" t="s">
         <v>229</v>
       </c>
@@ -7078,7 +7068,7 @@
       <c r="DO52" s="15"/>
       <c r="DP52" s="15"/>
     </row>
-    <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="53" spans="1:120" ht="15" customHeight="1">
       <c r="A53" s="36" t="s">
         <v>171</v>
       </c>
@@ -7207,7 +7197,7 @@
       <c r="DO53" s="15"/>
       <c r="DP53" s="15"/>
     </row>
-    <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="54" spans="1:120" ht="15" customHeight="1">
       <c r="A54" s="37" t="s">
         <v>216</v>
       </c>
@@ -7338,7 +7328,7 @@
       <c r="DO54" s="15"/>
       <c r="DP54" s="15"/>
     </row>
-    <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="55" spans="1:120" ht="15" customHeight="1">
       <c r="A55" s="37" t="s">
         <v>235</v>
       </c>
@@ -7469,7 +7459,7 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:120" ht="15" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>270</v>
       </c>
@@ -7600,7 +7590,7 @@
       <c r="DO56" s="15"/>
       <c r="DP56" s="15"/>
     </row>
-    <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:120" ht="15" customHeight="1">
       <c r="A57" s="36" t="s">
         <v>290</v>
       </c>
@@ -7731,7 +7721,7 @@
       <c r="DO57" s="15"/>
       <c r="DP57" s="15"/>
     </row>
-    <row r="58" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="58" spans="1:120" ht="15" customHeight="1">
       <c r="A58" s="36" t="s">
         <v>115</v>
       </c>
@@ -7860,7 +7850,7 @@
       <c r="DO58" s="15"/>
       <c r="DP58" s="15"/>
     </row>
-    <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="59" spans="1:120" ht="15" customHeight="1">
       <c r="A59" s="36" t="s">
         <v>124</v>
       </c>
@@ -7991,7 +7981,7 @@
       <c r="DO59" s="15"/>
       <c r="DP59" s="15"/>
     </row>
-    <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="60" spans="1:120" ht="15" customHeight="1">
       <c r="A60" s="36" t="s">
         <v>178</v>
       </c>
@@ -8120,7 +8110,7 @@
       <c r="DO60" s="15"/>
       <c r="DP60" s="15"/>
     </row>
-    <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="61" spans="1:120" ht="15" customHeight="1">
       <c r="A61" s="36" t="s">
         <v>142</v>
       </c>
@@ -8249,7 +8239,7 @@
       <c r="DO61" s="15"/>
       <c r="DP61" s="15"/>
     </row>
-    <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="62" spans="1:120" ht="15" customHeight="1">
       <c r="A62" s="36" t="s">
         <v>137</v>
       </c>
@@ -8378,7 +8368,7 @@
       <c r="DO62" s="15"/>
       <c r="DP62" s="15"/>
     </row>
-    <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="63" spans="1:120" ht="15" customHeight="1">
       <c r="A63" s="36" t="s">
         <v>240</v>
       </c>
@@ -8509,7 +8499,7 @@
       <c r="DO63" s="15"/>
       <c r="DP63" s="15"/>
     </row>
-    <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="64" spans="1:120" ht="15" customHeight="1">
       <c r="A64" s="36" t="s">
         <v>164</v>
       </c>
@@ -8638,7 +8628,7 @@
       <c r="DO64" s="15"/>
       <c r="DP64" s="15"/>
     </row>
-    <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="65" spans="1:120" ht="15" customHeight="1">
       <c r="A65" s="36" t="s">
         <v>163</v>
       </c>
@@ -8767,7 +8757,7 @@
       <c r="DO65" s="15"/>
       <c r="DP65" s="15"/>
     </row>
-    <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="66" spans="1:120" ht="15" customHeight="1">
       <c r="A66" s="36" t="s">
         <v>194</v>
       </c>
@@ -8896,7 +8886,7 @@
       <c r="DO66" s="15"/>
       <c r="DP66" s="15"/>
     </row>
-    <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="67" spans="1:120" ht="15" customHeight="1">
       <c r="A67" s="36" t="s">
         <v>227</v>
       </c>
@@ -8967,7 +8957,7 @@
       <c r="DC67" s="14"/>
       <c r="DD67" s="14"/>
     </row>
-    <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:120" ht="15" customHeight="1">
       <c r="A68" s="36" t="s">
         <v>274</v>
       </c>
@@ -9038,7 +9028,7 @@
       <c r="DC68" s="14"/>
       <c r="DD68" s="14"/>
     </row>
-    <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="69" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="36" t="s">
         <v>186</v>
       </c>
@@ -9100,7 +9090,7 @@
       <c r="AZ69" s="25"/>
       <c r="BA69" s="25"/>
     </row>
-    <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="70" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="36" t="s">
         <v>236</v>
       </c>
@@ -9162,7 +9152,7 @@
       <c r="AZ70" s="25"/>
       <c r="BA70" s="25"/>
     </row>
-    <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="71" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="36" t="s">
         <v>254</v>
       </c>
@@ -9226,7 +9216,7 @@
       <c r="AZ71" s="25"/>
       <c r="BA71" s="25"/>
     </row>
-    <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="72" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="36" t="s">
         <v>213</v>
       </c>
@@ -9290,7 +9280,7 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A73" s="36" t="s">
         <v>279</v>
       </c>
@@ -9354,7 +9344,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="74" spans="1:120" s="14" customFormat="1">
       <c r="A74" s="36" t="s">
         <v>221</v>
       </c>
@@ -9418,7 +9408,7 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="75" spans="1:120" s="14" customFormat="1">
       <c r="A75" s="40" t="s">
         <v>292</v>
       </c>
@@ -9482,7 +9472,7 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1">
       <c r="A76" s="36" t="s">
         <v>289</v>
       </c>
@@ -9546,7 +9536,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1">
       <c r="A77" s="36" t="s">
         <v>143</v>
       </c>
@@ -9608,7 +9598,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="78" spans="1:120" s="14" customFormat="1">
       <c r="A78" s="36" t="s">
         <v>184</v>
       </c>
@@ -9670,7 +9660,7 @@
       <c r="AZ78" s="25"/>
       <c r="BA78" s="25"/>
     </row>
-    <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="79" spans="1:120" ht="15" customHeight="1">
       <c r="A79" s="36" t="s">
         <v>206</v>
       </c>
@@ -9801,7 +9791,7 @@
       <c r="DO79" s="15"/>
       <c r="DP79" s="15"/>
     </row>
-    <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="80" spans="1:120" ht="15" customHeight="1">
       <c r="A80" s="36" t="s">
         <v>244</v>
       </c>
@@ -9932,7 +9922,7 @@
       <c r="DO80" s="15"/>
       <c r="DP80" s="15"/>
     </row>
-    <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="81" spans="1:120" ht="15" customHeight="1">
       <c r="A81" s="36" t="s">
         <v>243</v>
       </c>
@@ -10063,7 +10053,7 @@
       <c r="DO81" s="15"/>
       <c r="DP81" s="15"/>
     </row>
-    <row r="82" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="82" spans="1:120" ht="15" customHeight="1">
       <c r="A82" s="37" t="s">
         <v>125</v>
       </c>
@@ -10194,7 +10184,7 @@
       <c r="DO82" s="15"/>
       <c r="DP82" s="15"/>
     </row>
-    <row r="83" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="83" spans="1:120" ht="15" customHeight="1">
       <c r="A83" s="37" t="s">
         <v>162</v>
       </c>
@@ -10323,7 +10313,7 @@
       <c r="DO83" s="15"/>
       <c r="DP83" s="15"/>
     </row>
-    <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="84" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A84" s="37" t="s">
         <v>141</v>
       </c>
@@ -10385,7 +10375,7 @@
       <c r="AZ84" s="25"/>
       <c r="BA84" s="25"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A85" s="37" t="s">
         <v>209</v>
       </c>
@@ -10449,7 +10439,7 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A86" s="74" t="s">
         <v>247</v>
       </c>
@@ -10517,7 +10507,7 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="74" t="s">
         <v>257</v>
       </c>
@@ -10648,7 +10638,7 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:120" ht="15" customHeight="1">
       <c r="A88" s="37" t="s">
         <v>293</v>
       </c>
@@ -10719,7 +10709,7 @@
       <c r="DC88" s="14"/>
       <c r="DD88" s="14"/>
     </row>
-    <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="89" spans="1:120" ht="15" customHeight="1">
       <c r="A89" s="37" t="s">
         <v>131</v>
       </c>
@@ -10788,7 +10778,7 @@
       <c r="DC89" s="14"/>
       <c r="DD89" s="14"/>
     </row>
-    <row r="90" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="90" spans="1:120" ht="15" customHeight="1">
       <c r="A90" s="36" t="s">
         <v>140</v>
       </c>
@@ -10919,7 +10909,7 @@
       <c r="DO90" s="15"/>
       <c r="DP90" s="15"/>
     </row>
-    <row r="91" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="91" spans="1:120" ht="15" customHeight="1">
       <c r="A91" s="37" t="s">
         <v>54</v>
       </c>
@@ -11050,7 +11040,7 @@
       <c r="DO91" s="15"/>
       <c r="DP91" s="15"/>
     </row>
-    <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="92" spans="1:120" ht="15" customHeight="1">
       <c r="A92" s="37" t="s">
         <v>161</v>
       </c>
@@ -11179,7 +11169,7 @@
       <c r="DO92" s="15"/>
       <c r="DP92" s="15"/>
     </row>
-    <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="93" spans="1:120" ht="15" customHeight="1">
       <c r="A93" s="36" t="s">
         <v>57</v>
       </c>
@@ -11308,7 +11298,7 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:120" ht="15" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>298</v>
       </c>
@@ -11439,7 +11429,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="95" spans="1:120" s="14" customFormat="1">
       <c r="A95" s="37" t="s">
         <v>218</v>
       </c>
@@ -11503,7 +11493,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="96" spans="1:120" s="14" customFormat="1">
       <c r="A96" s="37" t="s">
         <v>157</v>
       </c>
@@ -11567,7 +11557,7 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="97" spans="1:120" ht="15" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>251</v>
       </c>
@@ -11698,7 +11688,7 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="74" t="s">
         <v>255</v>
       </c>
@@ -11836,12 +11826,10 @@
       <c r="B99" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C99" s="17">
-        <v>160</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>217968</v>
+        <v>0</v>
       </c>
       <c r="E99" s="65" t="s">
         <v>242</v>
@@ -11962,7 +11950,7 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="100" spans="1:120" ht="15" customHeight="1">
       <c r="A100" s="36" t="s">
         <v>280</v>
       </c>
@@ -12093,7 +12081,7 @@
       <c r="DO100" s="15"/>
       <c r="DP100" s="15"/>
     </row>
-    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A101" s="36" t="s">
         <v>212</v>
       </c>
@@ -12212,7 +12200,7 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A102" s="40" t="s">
         <v>271</v>
       </c>
@@ -12283,12 +12271,10 @@
       <c r="B103" s="28">
         <v>1342.25</v>
       </c>
-      <c r="C103" s="17">
-        <v>100</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>134225</v>
+        <v>0</v>
       </c>
       <c r="E103" s="65" t="s">
         <v>242</v>
@@ -12397,7 +12383,7 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A104" s="37" t="s">
         <v>281</v>
       </c>
@@ -12461,7 +12447,7 @@
       <c r="AZ104" s="25"/>
       <c r="BA104" s="25"/>
     </row>
-    <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="105" spans="1:120" ht="15" customHeight="1">
       <c r="A105" s="37" t="s">
         <v>128</v>
       </c>
@@ -12592,7 +12578,7 @@
       <c r="DO105" s="15"/>
       <c r="DP105" s="15"/>
     </row>
-    <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="106" spans="1:120" ht="15" customHeight="1">
       <c r="A106" s="37" t="s">
         <v>185</v>
       </c>
@@ -12723,7 +12709,7 @@
       <c r="DO106" s="15"/>
       <c r="DP106" s="15"/>
     </row>
-    <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="107" spans="1:120" ht="15" customHeight="1">
       <c r="A107" s="37" t="s">
         <v>153</v>
       </c>
@@ -12852,7 +12838,7 @@
       <c r="DO107" s="15"/>
       <c r="DP107" s="15"/>
     </row>
-    <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="108" spans="1:120" ht="15" customHeight="1">
       <c r="A108" s="37" t="s">
         <v>166</v>
       </c>
@@ -12981,7 +12967,7 @@
       <c r="DO108" s="15"/>
       <c r="DP108" s="15"/>
     </row>
-    <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="109" spans="1:120" ht="15" customHeight="1">
       <c r="A109" s="37" t="s">
         <v>173</v>
       </c>
@@ -13112,7 +13098,7 @@
       <c r="DO109" s="15"/>
       <c r="DP109" s="15"/>
     </row>
-    <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="110" spans="1:120" ht="15" customHeight="1">
       <c r="A110" s="37" t="s">
         <v>158</v>
       </c>
@@ -13241,7 +13227,7 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="111" spans="1:120" ht="15" customHeight="1">
       <c r="A111" s="37" t="s">
         <v>241</v>
       </c>
@@ -13312,7 +13298,7 @@
       <c r="DC111" s="14"/>
       <c r="DD111" s="14"/>
     </row>
-    <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="112" spans="1:120" ht="15" customHeight="1">
       <c r="A112" s="36" t="s">
         <v>138</v>
       </c>
@@ -13381,7 +13367,7 @@
       <c r="DC112" s="14"/>
       <c r="DD112" s="14"/>
     </row>
-    <row r="113" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="113" spans="1:120" ht="15" customHeight="1">
       <c r="A113" s="36" t="s">
         <v>120</v>
       </c>
@@ -13450,7 +13436,7 @@
       <c r="DC113" s="14"/>
       <c r="DD113" s="14"/>
     </row>
-    <row r="114" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="114" spans="1:120" ht="15" customHeight="1">
       <c r="A114" s="36" t="s">
         <v>129</v>
       </c>
@@ -13579,7 +13565,7 @@
       <c r="DO114" s="15"/>
       <c r="DP114" s="15"/>
     </row>
-    <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="115" spans="1:120" ht="15" customHeight="1">
       <c r="A115" s="36" t="s">
         <v>134</v>
       </c>
@@ -13708,7 +13694,7 @@
       <c r="DO115" s="15"/>
       <c r="DP115" s="15"/>
     </row>
-    <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="116" spans="1:120" ht="15" customHeight="1">
       <c r="A116" s="36" t="s">
         <v>187</v>
       </c>
@@ -13839,7 +13825,7 @@
       <c r="DO116" s="15"/>
       <c r="DP116" s="15"/>
     </row>
-    <row r="117" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="117" spans="1:120" ht="15" customHeight="1">
       <c r="A117" s="36" t="s">
         <v>121</v>
       </c>
@@ -13968,7 +13954,7 @@
       <c r="DO117" s="15"/>
       <c r="DP117" s="15"/>
     </row>
-    <row r="118" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="118" spans="1:120" ht="15" customHeight="1">
       <c r="A118" s="36" t="s">
         <v>92</v>
       </c>
@@ -14099,7 +14085,7 @@
       <c r="DO118" s="15"/>
       <c r="DP118" s="15"/>
     </row>
-    <row r="119" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="119" spans="1:120" ht="15" customHeight="1">
       <c r="A119" s="36" t="s">
         <v>94</v>
       </c>
@@ -14228,7 +14214,7 @@
       <c r="DO119" s="15"/>
       <c r="DP119" s="15"/>
     </row>
-    <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="120" spans="1:120" ht="15" customHeight="1">
       <c r="A120" s="36" t="s">
         <v>93</v>
       </c>
@@ -14357,7 +14343,7 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>278</v>
       </c>
@@ -14488,7 +14474,7 @@
       <c r="DO121" s="15"/>
       <c r="DP121" s="15"/>
     </row>
-    <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:120" ht="15" customHeight="1">
       <c r="A122" s="36" t="s">
         <v>208</v>
       </c>
@@ -14617,7 +14603,7 @@
       <c r="DO122" s="15"/>
       <c r="DP122" s="15"/>
     </row>
-    <row r="123" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="123" spans="1:120" ht="15" customHeight="1">
       <c r="A123" s="37" t="s">
         <v>74</v>
       </c>
@@ -14746,7 +14732,7 @@
       <c r="DO123" s="15"/>
       <c r="DP123" s="15"/>
     </row>
-    <row r="124" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="124" spans="1:120" ht="15" customHeight="1">
       <c r="A124" s="37" t="s">
         <v>135</v>
       </c>
@@ -14815,7 +14801,7 @@
       <c r="DC124" s="14"/>
       <c r="DD124" s="14"/>
     </row>
-    <row r="125" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="125" spans="1:120" ht="15" customHeight="1">
       <c r="A125" s="37" t="s">
         <v>75</v>
       </c>
@@ -14944,7 +14930,7 @@
       <c r="DO125" s="15"/>
       <c r="DP125" s="15"/>
     </row>
-    <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="126" spans="1:120" ht="15" customHeight="1">
       <c r="A126" s="37" t="s">
         <v>130</v>
       </c>
@@ -15073,7 +15059,7 @@
       <c r="DO126" s="15"/>
       <c r="DP126" s="15"/>
     </row>
-    <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="127" spans="1:120" ht="15" customHeight="1">
       <c r="A127" s="36" t="s">
         <v>172</v>
       </c>
@@ -15204,7 +15190,7 @@
       <c r="DO127" s="15"/>
       <c r="DP127" s="15"/>
     </row>
-    <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="128" spans="1:120" ht="15" customHeight="1">
       <c r="A128" s="36" t="s">
         <v>176</v>
       </c>
@@ -15335,7 +15321,7 @@
       <c r="DO128" s="15"/>
       <c r="DP128" s="15"/>
     </row>
-    <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="129" spans="1:120" ht="15" customHeight="1">
       <c r="A129" s="36" t="s">
         <v>234</v>
       </c>
@@ -15464,7 +15450,7 @@
       <c r="DO129" s="15"/>
       <c r="DP129" s="15"/>
     </row>
-    <row r="130" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="130" spans="1:120" ht="15" customHeight="1">
       <c r="A130" s="36" t="s">
         <v>118</v>
       </c>
@@ -15593,7 +15579,7 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="131" spans="1:120" ht="15" customHeight="1">
       <c r="A131" s="36" t="s">
         <v>133</v>
       </c>
@@ -15722,7 +15708,7 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="132" spans="1:120" ht="15" customHeight="1">
       <c r="A132" s="36" t="s">
         <v>250</v>
       </c>
@@ -15853,7 +15839,7 @@
       <c r="DO132" s="15"/>
       <c r="DP132" s="15"/>
     </row>
-    <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="133" spans="1:120" ht="15" customHeight="1">
       <c r="A133" s="36" t="s">
         <v>220</v>
       </c>
@@ -15984,7 +15970,7 @@
       <c r="DO133" s="15"/>
       <c r="DP133" s="15"/>
     </row>
-    <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="134" spans="1:120" ht="15" customHeight="1">
       <c r="A134" s="36" t="s">
         <v>219</v>
       </c>
@@ -16115,7 +16101,7 @@
       <c r="DO134" s="15"/>
       <c r="DP134" s="15"/>
     </row>
-    <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="135" spans="1:120" ht="15" customHeight="1">
       <c r="A135" s="36" t="s">
         <v>183</v>
       </c>
@@ -16246,7 +16232,7 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:120" ht="15" customHeight="1">
       <c r="A136" s="73" t="s">
         <v>287</v>
       </c>
@@ -16377,7 +16363,7 @@
       <c r="DO136" s="15"/>
       <c r="DP136" s="15"/>
     </row>
-    <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="137" spans="1:120" ht="15" customHeight="1">
       <c r="A137" s="36" t="s">
         <v>294</v>
       </c>
@@ -16508,7 +16494,7 @@
       <c r="DO137" s="15"/>
       <c r="DP137" s="15"/>
     </row>
-    <row r="138" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="138" spans="1:120" ht="15" customHeight="1">
       <c r="A138" s="36" t="s">
         <v>154</v>
       </c>
@@ -16637,7 +16623,7 @@
       <c r="DO138" s="15"/>
       <c r="DP138" s="15"/>
     </row>
-    <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="139" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A139" s="37" t="s">
         <v>198</v>
       </c>
@@ -16701,7 +16687,7 @@
       <c r="AZ139" s="25"/>
       <c r="BA139" s="25"/>
     </row>
-    <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="140" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A140" s="36" t="s">
         <v>182</v>
       </c>
@@ -16763,7 +16749,7 @@
       <c r="AZ140" s="25"/>
       <c r="BA140" s="25"/>
     </row>
-    <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="141" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A141" s="36" t="s">
         <v>168</v>
       </c>
@@ -16825,7 +16811,7 @@
       <c r="AZ141" s="25"/>
       <c r="BA141" s="25"/>
     </row>
-    <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="142" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A142" s="36" t="s">
         <v>165</v>
       </c>
@@ -16887,7 +16873,7 @@
       <c r="AZ142" s="25"/>
       <c r="BA142" s="25"/>
     </row>
-    <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="143" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A143" s="36" t="s">
         <v>170</v>
       </c>
@@ -16949,7 +16935,7 @@
       <c r="AZ143" s="25"/>
       <c r="BA143" s="25"/>
     </row>
-    <row r="144" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="144" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A144" s="37" t="s">
         <v>122</v>
       </c>
@@ -17013,7 +16999,7 @@
       <c r="AZ144" s="25"/>
       <c r="BA144" s="25"/>
     </row>
-    <row r="145" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="145" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A145" s="37" t="s">
         <v>159</v>
       </c>
@@ -17075,7 +17061,7 @@
       <c r="AZ145" s="25"/>
       <c r="BA145" s="25"/>
     </row>
-    <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="146" spans="1:120" ht="15" customHeight="1">
       <c r="A146" s="36" t="s">
         <v>201</v>
       </c>
@@ -17206,7 +17192,7 @@
       <c r="DO146" s="15"/>
       <c r="DP146" s="15"/>
     </row>
-    <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="147" spans="1:120" ht="15" customHeight="1">
       <c r="A147" s="37" t="s">
         <v>175</v>
       </c>
@@ -17337,7 +17323,7 @@
       <c r="DO147" s="15"/>
       <c r="DP147" s="15"/>
     </row>
-    <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="148" spans="1:120" ht="15" customHeight="1">
       <c r="A148" s="37" t="s">
         <v>145</v>
       </c>
@@ -17466,7 +17452,7 @@
       <c r="DO148" s="15"/>
       <c r="DP148" s="15"/>
     </row>
-    <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="149" spans="1:120" ht="15" customHeight="1">
       <c r="A149" s="37" t="s">
         <v>127</v>
       </c>
@@ -17597,7 +17583,7 @@
       <c r="DO149" s="15"/>
       <c r="DP149" s="15"/>
     </row>
-    <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="150" spans="1:120" ht="15" customHeight="1">
       <c r="A150" s="37" t="s">
         <v>155</v>
       </c>
@@ -17726,7 +17712,7 @@
       <c r="DO150" s="15"/>
       <c r="DP150" s="15"/>
     </row>
-    <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="151" spans="1:120" ht="15" customHeight="1">
       <c r="A151" s="37" t="s">
         <v>174</v>
       </c>
@@ -17857,7 +17843,7 @@
       <c r="DO151" s="15"/>
       <c r="DP151" s="15"/>
     </row>
-    <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="152" spans="1:120" ht="15" customHeight="1">
       <c r="A152" s="37" t="s">
         <v>136</v>
       </c>
@@ -17988,7 +17974,7 @@
       <c r="DO152" s="15"/>
       <c r="DP152" s="15"/>
     </row>
-    <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="153" spans="1:120" ht="15" customHeight="1">
       <c r="A153" s="37" t="s">
         <v>156</v>
       </c>
@@ -18117,7 +18103,7 @@
       <c r="DO153" s="15"/>
       <c r="DP153" s="15"/>
     </row>
-    <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="154" spans="1:120" ht="15" customHeight="1">
       <c r="A154" s="37" t="s">
         <v>181</v>
       </c>
@@ -18246,7 +18232,7 @@
       <c r="DO154" s="15"/>
       <c r="DP154" s="15"/>
     </row>
-    <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="155" spans="1:120" ht="15" customHeight="1">
       <c r="A155" s="37" t="s">
         <v>167</v>
       </c>
@@ -18377,7 +18363,7 @@
       <c r="DO155" s="15"/>
       <c r="DP155" s="15"/>
     </row>
-    <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="156" spans="1:120" ht="15" customHeight="1">
       <c r="A156" s="37" t="s">
         <v>210</v>
       </c>
@@ -18508,7 +18494,7 @@
       <c r="DO156" s="15"/>
       <c r="DP156" s="15"/>
     </row>
-    <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="157" spans="1:120" ht="15" customHeight="1">
       <c r="A157" s="36" t="s">
         <v>238</v>
       </c>
@@ -18579,7 +18565,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="158" spans="1:120" s="14" customFormat="1">
       <c r="A158" s="36" t="s">
         <v>296</v>
       </c>
@@ -18643,7 +18629,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="159" spans="1:120" s="14" customFormat="1">
       <c r="A159" s="36" t="s">
         <v>223</v>
       </c>
@@ -18707,7 +18693,7 @@
       <c r="AZ159" s="25"/>
       <c r="BA159" s="25"/>
     </row>
-    <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="160" spans="1:120" ht="15" customHeight="1">
       <c r="A160" s="36" t="s">
         <v>189</v>
       </c>
@@ -18836,7 +18822,7 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="161" spans="1:120" ht="15" customHeight="1">
       <c r="A161" s="36" t="s">
         <v>239</v>
       </c>
@@ -18967,7 +18953,7 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="162" spans="1:120" ht="15" customHeight="1">
       <c r="A162" s="36" t="s">
         <v>259</v>
       </c>
@@ -19098,7 +19084,7 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>285</v>
       </c>
@@ -19229,7 +19215,7 @@
       <c r="DO163" s="15"/>
       <c r="DP163" s="15"/>
     </row>
-    <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="164" spans="1:120" ht="15" customHeight="1">
       <c r="A164" s="36" t="s">
         <v>261</v>
       </c>
@@ -19360,7 +19346,7 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="165" spans="1:120" ht="15" customHeight="1">
       <c r="A165" s="36" t="s">
         <v>262</v>
       </c>
@@ -19491,7 +19477,7 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="166" spans="1:120" ht="15" customHeight="1">
       <c r="A166" s="36" t="s">
         <v>263</v>
       </c>
@@ -19622,7 +19608,7 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="167" spans="1:120" ht="15" customHeight="1">
       <c r="A167" s="36" t="s">
         <v>252</v>
       </c>
@@ -19753,7 +19739,7 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="168" spans="1:120" ht="15" customHeight="1">
       <c r="A168" s="36" t="s">
         <v>264</v>
       </c>
@@ -19884,7 +19870,7 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="40" t="s">
         <v>275</v>
       </c>
@@ -20015,7 +20001,7 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="170" spans="1:120" ht="15" customHeight="1">
       <c r="A170" s="36" t="s">
         <v>266</v>
       </c>
@@ -20146,7 +20132,7 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="171" spans="1:120" ht="15" customHeight="1">
       <c r="A171" s="36" t="s">
         <v>267</v>
       </c>
@@ -20277,19 +20263,17 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17">
-        <v>20</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>229094.8</v>
+        <v>0</v>
       </c>
       <c r="E172" s="65" t="s">
         <v>242</v>
@@ -20410,7 +20394,7 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:120" ht="15" customHeight="1">
       <c r="A173" s="68" t="s">
         <v>299</v>
       </c>
@@ -20541,7 +20525,7 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A174" s="75" t="s">
         <v>288</v>
       </c>
@@ -20679,11 +20663,11 @@
       <c r="B175" s="85"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C20:C174)</f>
-        <v>780</v>
+        <v>0</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D20:D174)</f>
-        <v>1195300.4000000001</v>
+        <v>0</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20960,7 +20944,7 @@
         <v>260</v>
       </c>
       <c r="C181" s="47">
-        <v>1300000</v>
+        <v>300000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>132</v>
@@ -20983,7 +20967,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>1300000</v>
+        <v>300000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>
@@ -20994,11 +20978,6 @@
     <row r="185" spans="2:10" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A4:E174">
-    <filterColumn colId="2">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState ref="A24:G136">
       <sortCondition ref="C5:C136"/>
     </sortState>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -859,9 +859,6 @@
     <t>D76</t>
   </si>
   <si>
-    <t>S45</t>
-  </si>
-  <si>
     <t>i69</t>
   </si>
   <si>
@@ -926,6 +923,9 @@
   </si>
   <si>
     <t>Z42Pro(4+64)</t>
+  </si>
+  <si>
+    <t>S30</t>
   </si>
 </sst>
 </file>
@@ -2072,7 +2072,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:DP185"/>
@@ -2081,7 +2081,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="G175" sqref="G175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2111,7 +2111,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="34" t="s">
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44780</v>
+        <v>44783</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2140,7 +2140,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:120" ht="15" customHeight="1">
+    <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>253</v>
       </c>
@@ -2211,7 +2211,7 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>265</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
     </row>
-    <row r="7" spans="1:120" ht="15" customHeight="1">
+    <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>200</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="DC7" s="14"/>
       <c r="DD7" s="14"/>
     </row>
-    <row r="8" spans="1:120" ht="15" customHeight="1">
+    <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>177</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="DO8" s="15"/>
       <c r="DP8" s="15"/>
     </row>
-    <row r="9" spans="1:120" ht="15" customHeight="1">
+    <row r="9" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A9" s="36" t="s">
         <v>119</v>
       </c>
@@ -2611,7 +2611,7 @@
       <c r="DO9" s="15"/>
       <c r="DP9" s="15"/>
     </row>
-    <row r="10" spans="1:120" ht="15" customHeight="1">
+    <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="36" t="s">
         <v>148</v>
       </c>
@@ -2682,7 +2682,7 @@
       <c r="DC10" s="14"/>
       <c r="DD10" s="14"/>
     </row>
-    <row r="11" spans="1:120" ht="15" customHeight="1">
+    <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="36" t="s">
         <v>149</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="DC11" s="14"/>
       <c r="DD11" s="14"/>
     </row>
-    <row r="12" spans="1:120" ht="15" customHeight="1">
+    <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="36" t="s">
         <v>160</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="DC12" s="14"/>
       <c r="DD12" s="14"/>
     </row>
-    <row r="13" spans="1:120" ht="15" customHeight="1">
+    <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="36" t="s">
         <v>224</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:120" ht="15" customHeight="1">
+    <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="36" t="s">
         <v>230</v>
       </c>
@@ -2913,15 +2913,17 @@
     </row>
     <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>100</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>106057</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>242</v>
@@ -2982,7 +2984,7 @@
       <c r="DC15" s="14"/>
       <c r="DD15" s="14"/>
     </row>
-    <row r="16" spans="1:120" ht="15" customHeight="1">
+    <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="36" t="s">
         <v>205</v>
       </c>
@@ -3053,7 +3055,7 @@
       <c r="DC16" s="14"/>
       <c r="DD16" s="14"/>
     </row>
-    <row r="17" spans="1:120" ht="15" customHeight="1">
+    <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="36" t="s">
         <v>215</v>
       </c>
@@ -3124,7 +3126,7 @@
       <c r="DC17" s="14"/>
       <c r="DD17" s="14"/>
     </row>
-    <row r="18" spans="1:120" ht="15" customHeight="1">
+    <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="36" t="s">
         <v>256</v>
       </c>
@@ -3140,9 +3142,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:120" ht="15" customHeight="1">
+    <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3163,10 +3165,12 @@
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>40</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42021.599999999999</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>242</v>
@@ -3234,10 +3238,12 @@
       <c r="B21" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>30</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37079.699999999997</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>242</v>
@@ -3294,7 +3300,7 @@
       <c r="DC21" s="14"/>
       <c r="DD21" s="14"/>
     </row>
-    <row r="22" spans="1:120" ht="15" customHeight="1">
+    <row r="22" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A22" s="36" t="s">
         <v>18</v>
       </c>
@@ -3365,7 +3371,7 @@
       <c r="DC22" s="14"/>
       <c r="DD22" s="14"/>
     </row>
-    <row r="23" spans="1:120" ht="15" customHeight="1">
+    <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="36" t="s">
         <v>147</v>
       </c>
@@ -3494,7 +3500,7 @@
       <c r="DO23" s="15"/>
       <c r="DP23" s="15"/>
     </row>
-    <row r="24" spans="1:120" ht="15" customHeight="1">
+    <row r="24" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A24" s="36" t="s">
         <v>123</v>
       </c>
@@ -3623,7 +3629,7 @@
       <c r="DO24" s="15"/>
       <c r="DP24" s="15"/>
     </row>
-    <row r="25" spans="1:120" ht="15" customHeight="1">
+    <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="36" t="s">
         <v>169</v>
       </c>
@@ -3754,7 +3760,7 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>246</v>
       </c>
@@ -3885,7 +3891,7 @@
       <c r="DO26" s="15"/>
       <c r="DP26" s="15"/>
     </row>
-    <row r="27" spans="1:120" ht="15" customHeight="1">
+    <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="36" t="s">
         <v>204</v>
       </c>
@@ -4016,7 +4022,7 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>272</v>
       </c>
@@ -4147,7 +4153,7 @@
       <c r="DO28" s="15"/>
       <c r="DP28" s="15"/>
     </row>
-    <row r="29" spans="1:120" ht="15" customHeight="1">
+    <row r="29" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A29" s="36" t="s">
         <v>126</v>
       </c>
@@ -4278,7 +4284,7 @@
       <c r="DO29" s="15"/>
       <c r="DP29" s="15"/>
     </row>
-    <row r="30" spans="1:120" ht="15" customHeight="1">
+    <row r="30" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A30" s="36" t="s">
         <v>60</v>
       </c>
@@ -4409,7 +4415,7 @@
       <c r="DO30" s="15"/>
       <c r="DP30" s="15"/>
     </row>
-    <row r="31" spans="1:120" ht="15" customHeight="1">
+    <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="36" t="s">
         <v>203</v>
       </c>
@@ -4540,7 +4546,7 @@
       <c r="DO31" s="15"/>
       <c r="DP31" s="15"/>
     </row>
-    <row r="32" spans="1:120" ht="15" customHeight="1">
+    <row r="32" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A32" s="36" t="s">
         <v>139</v>
       </c>
@@ -4669,7 +4675,7 @@
       <c r="DO32" s="15"/>
       <c r="DP32" s="15"/>
     </row>
-    <row r="33" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="36" t="s">
         <v>180</v>
       </c>
@@ -4731,7 +4737,7 @@
       <c r="AZ33" s="25"/>
       <c r="BA33" s="25"/>
     </row>
-    <row r="34" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="36" t="s">
         <v>146</v>
       </c>
@@ -4793,7 +4799,7 @@
       <c r="AZ34" s="25"/>
       <c r="BA34" s="25"/>
     </row>
-    <row r="35" spans="1:120" ht="15" customHeight="1">
+    <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="36" t="s">
         <v>179</v>
       </c>
@@ -4922,7 +4928,7 @@
       <c r="DO35" s="15"/>
       <c r="DP35" s="15"/>
     </row>
-    <row r="36" spans="1:120" ht="15" customHeight="1">
+    <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="36" t="s">
         <v>211</v>
       </c>
@@ -5053,7 +5059,7 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>202</v>
       </c>
@@ -5184,7 +5190,7 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>233</v>
       </c>
@@ -5315,7 +5321,7 @@
       <c r="DO38" s="15"/>
       <c r="DP38" s="15"/>
     </row>
-    <row r="39" spans="1:120" ht="15" customHeight="1">
+    <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
         <v>269</v>
       </c>
@@ -5446,7 +5452,7 @@
       <c r="DO39" s="15"/>
       <c r="DP39" s="15"/>
     </row>
-    <row r="40" spans="1:120" ht="15" customHeight="1">
+    <row r="40" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A40" s="36" t="s">
         <v>116</v>
       </c>
@@ -5575,7 +5581,7 @@
       <c r="DO40" s="15"/>
       <c r="DP40" s="15"/>
     </row>
-    <row r="41" spans="1:120" ht="15" customHeight="1">
+    <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="36" t="s">
         <v>150</v>
       </c>
@@ -5704,7 +5710,7 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>188</v>
       </c>
@@ -5717,7 +5723,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -5835,7 +5841,7 @@
       <c r="DO42" s="15"/>
       <c r="DP42" s="15"/>
     </row>
-    <row r="43" spans="1:120" ht="15" customHeight="1">
+    <row r="43" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A43" s="36" t="s">
         <v>117</v>
       </c>
@@ -5964,7 +5970,7 @@
       <c r="DO43" s="15"/>
       <c r="DP43" s="15"/>
     </row>
-    <row r="44" spans="1:120" ht="15" customHeight="1">
+    <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="36" t="s">
         <v>152</v>
       </c>
@@ -6093,7 +6099,7 @@
       <c r="DO44" s="15"/>
       <c r="DP44" s="15"/>
     </row>
-    <row r="45" spans="1:120" ht="15" customHeight="1">
+    <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="36" t="s">
         <v>214</v>
       </c>
@@ -6222,7 +6228,7 @@
       <c r="DO45" s="15"/>
       <c r="DP45" s="15"/>
     </row>
-    <row r="46" spans="1:120" ht="15" customHeight="1">
+    <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="37" t="s">
         <v>151</v>
       </c>
@@ -6351,7 +6357,7 @@
       <c r="DO46" s="15"/>
       <c r="DP46" s="15"/>
     </row>
-    <row r="47" spans="1:120" s="31" customFormat="1" ht="15" customHeight="1">
+    <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="36" t="s">
         <v>231</v>
       </c>
@@ -6413,7 +6419,7 @@
       <c r="AZ47" s="33"/>
       <c r="BA47" s="33"/>
     </row>
-    <row r="48" spans="1:120" ht="15" customHeight="1">
+    <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="36" t="s">
         <v>245</v>
       </c>
@@ -6544,7 +6550,7 @@
       <c r="DO48" s="15"/>
       <c r="DP48" s="15"/>
     </row>
-    <row r="49" spans="1:120" ht="15" customHeight="1">
+    <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
         <v>277</v>
       </c>
@@ -6675,7 +6681,7 @@
       <c r="DO49" s="15"/>
       <c r="DP49" s="15"/>
     </row>
-    <row r="50" spans="1:120" ht="15" customHeight="1">
+    <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
         <v>273</v>
       </c>
@@ -6806,7 +6812,7 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1">
+    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>248</v>
       </c>
@@ -6937,7 +6943,7 @@
       <c r="DO51" s="15"/>
       <c r="DP51" s="15"/>
     </row>
-    <row r="52" spans="1:120" ht="15" customHeight="1">
+    <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="36" t="s">
         <v>229</v>
       </c>
@@ -7068,7 +7074,7 @@
       <c r="DO52" s="15"/>
       <c r="DP52" s="15"/>
     </row>
-    <row r="53" spans="1:120" ht="15" customHeight="1">
+    <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="36" t="s">
         <v>171</v>
       </c>
@@ -7197,7 +7203,7 @@
       <c r="DO53" s="15"/>
       <c r="DP53" s="15"/>
     </row>
-    <row r="54" spans="1:120" ht="15" customHeight="1">
+    <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="37" t="s">
         <v>216</v>
       </c>
@@ -7328,7 +7334,7 @@
       <c r="DO54" s="15"/>
       <c r="DP54" s="15"/>
     </row>
-    <row r="55" spans="1:120" ht="15" customHeight="1">
+    <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="37" t="s">
         <v>235</v>
       </c>
@@ -7459,7 +7465,7 @@
       <c r="DO55" s="15"/>
       <c r="DP55" s="15"/>
     </row>
-    <row r="56" spans="1:120" ht="15" customHeight="1">
+    <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
         <v>270</v>
       </c>
@@ -7472,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="66" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7590,9 +7596,9 @@
       <c r="DO56" s="15"/>
       <c r="DP56" s="15"/>
     </row>
-    <row r="57" spans="1:120" ht="15" customHeight="1">
+    <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
@@ -7721,7 +7727,7 @@
       <c r="DO57" s="15"/>
       <c r="DP57" s="15"/>
     </row>
-    <row r="58" spans="1:120" ht="15" customHeight="1">
+    <row r="58" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A58" s="36" t="s">
         <v>115</v>
       </c>
@@ -7850,7 +7856,7 @@
       <c r="DO58" s="15"/>
       <c r="DP58" s="15"/>
     </row>
-    <row r="59" spans="1:120" ht="15" customHeight="1">
+    <row r="59" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A59" s="36" t="s">
         <v>124</v>
       </c>
@@ -7981,7 +7987,7 @@
       <c r="DO59" s="15"/>
       <c r="DP59" s="15"/>
     </row>
-    <row r="60" spans="1:120" ht="15" customHeight="1">
+    <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="36" t="s">
         <v>178</v>
       </c>
@@ -8110,7 +8116,7 @@
       <c r="DO60" s="15"/>
       <c r="DP60" s="15"/>
     </row>
-    <row r="61" spans="1:120" ht="15" customHeight="1">
+    <row r="61" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A61" s="36" t="s">
         <v>142</v>
       </c>
@@ -8239,7 +8245,7 @@
       <c r="DO61" s="15"/>
       <c r="DP61" s="15"/>
     </row>
-    <row r="62" spans="1:120" ht="15" customHeight="1">
+    <row r="62" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A62" s="36" t="s">
         <v>137</v>
       </c>
@@ -8368,7 +8374,7 @@
       <c r="DO62" s="15"/>
       <c r="DP62" s="15"/>
     </row>
-    <row r="63" spans="1:120" ht="15" customHeight="1">
+    <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="36" t="s">
         <v>240</v>
       </c>
@@ -8499,7 +8505,7 @@
       <c r="DO63" s="15"/>
       <c r="DP63" s="15"/>
     </row>
-    <row r="64" spans="1:120" ht="15" customHeight="1">
+    <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="36" t="s">
         <v>164</v>
       </c>
@@ -8628,7 +8634,7 @@
       <c r="DO64" s="15"/>
       <c r="DP64" s="15"/>
     </row>
-    <row r="65" spans="1:120" ht="15" customHeight="1">
+    <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="36" t="s">
         <v>163</v>
       </c>
@@ -8757,7 +8763,7 @@
       <c r="DO65" s="15"/>
       <c r="DP65" s="15"/>
     </row>
-    <row r="66" spans="1:120" ht="15" customHeight="1">
+    <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="36" t="s">
         <v>194</v>
       </c>
@@ -8886,7 +8892,7 @@
       <c r="DO66" s="15"/>
       <c r="DP66" s="15"/>
     </row>
-    <row r="67" spans="1:120" ht="15" customHeight="1">
+    <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="36" t="s">
         <v>227</v>
       </c>
@@ -8957,7 +8963,7 @@
       <c r="DC67" s="14"/>
       <c r="DD67" s="14"/>
     </row>
-    <row r="68" spans="1:120" ht="15" customHeight="1">
+    <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
         <v>274</v>
       </c>
@@ -9028,7 +9034,7 @@
       <c r="DC68" s="14"/>
       <c r="DD68" s="14"/>
     </row>
-    <row r="69" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="36" t="s">
         <v>186</v>
       </c>
@@ -9090,7 +9096,7 @@
       <c r="AZ69" s="25"/>
       <c r="BA69" s="25"/>
     </row>
-    <row r="70" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="36" t="s">
         <v>236</v>
       </c>
@@ -9152,7 +9158,7 @@
       <c r="AZ70" s="25"/>
       <c r="BA70" s="25"/>
     </row>
-    <row r="71" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="36" t="s">
         <v>254</v>
       </c>
@@ -9216,7 +9222,7 @@
       <c r="AZ71" s="25"/>
       <c r="BA71" s="25"/>
     </row>
-    <row r="72" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="36" t="s">
         <v>213</v>
       </c>
@@ -9280,9 +9286,9 @@
       <c r="AZ72" s="25"/>
       <c r="BA72" s="25"/>
     </row>
-    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9344,7 +9350,7 @@
       <c r="AZ73" s="25"/>
       <c r="BA73" s="25"/>
     </row>
-    <row r="74" spans="1:120" s="14" customFormat="1">
+    <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
         <v>221</v>
       </c>
@@ -9408,9 +9414,9 @@
       <c r="AZ74" s="25"/>
       <c r="BA74" s="25"/>
     </row>
-    <row r="75" spans="1:120" s="14" customFormat="1">
+    <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
@@ -9472,9 +9478,9 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
@@ -9536,7 +9542,7 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="36" t="s">
         <v>143</v>
       </c>
@@ -9598,7 +9604,7 @@
       <c r="AZ77" s="25"/>
       <c r="BA77" s="25"/>
     </row>
-    <row r="78" spans="1:120" s="14" customFormat="1">
+    <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
         <v>184</v>
       </c>
@@ -9660,7 +9666,7 @@
       <c r="AZ78" s="25"/>
       <c r="BA78" s="25"/>
     </row>
-    <row r="79" spans="1:120" ht="15" customHeight="1">
+    <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="36" t="s">
         <v>206</v>
       </c>
@@ -9791,7 +9797,7 @@
       <c r="DO79" s="15"/>
       <c r="DP79" s="15"/>
     </row>
-    <row r="80" spans="1:120" ht="15" customHeight="1">
+    <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="36" t="s">
         <v>244</v>
       </c>
@@ -9922,7 +9928,7 @@
       <c r="DO80" s="15"/>
       <c r="DP80" s="15"/>
     </row>
-    <row r="81" spans="1:120" ht="15" customHeight="1">
+    <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="36" t="s">
         <v>243</v>
       </c>
@@ -10053,7 +10059,7 @@
       <c r="DO81" s="15"/>
       <c r="DP81" s="15"/>
     </row>
-    <row r="82" spans="1:120" ht="15" customHeight="1">
+    <row r="82" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="37" t="s">
         <v>125</v>
       </c>
@@ -10184,7 +10190,7 @@
       <c r="DO82" s="15"/>
       <c r="DP82" s="15"/>
     </row>
-    <row r="83" spans="1:120" ht="15" customHeight="1">
+    <row r="83" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="37" t="s">
         <v>162</v>
       </c>
@@ -10313,7 +10319,7 @@
       <c r="DO83" s="15"/>
       <c r="DP83" s="15"/>
     </row>
-    <row r="84" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="84" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="37" t="s">
         <v>141</v>
       </c>
@@ -10375,7 +10381,7 @@
       <c r="AZ84" s="25"/>
       <c r="BA84" s="25"/>
     </row>
-    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="37" t="s">
         <v>209</v>
       </c>
@@ -10439,7 +10445,7 @@
       <c r="AZ85" s="25"/>
       <c r="BA85" s="25"/>
     </row>
-    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="74" t="s">
         <v>247</v>
       </c>
@@ -10507,7 +10513,7 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="74" t="s">
         <v>257</v>
       </c>
@@ -10638,9 +10644,9 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" customHeight="1">
+    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B88" s="28">
         <v>1420.44</v>
@@ -10709,7 +10715,7 @@
       <c r="DC88" s="14"/>
       <c r="DD88" s="14"/>
     </row>
-    <row r="89" spans="1:120" ht="15" customHeight="1">
+    <row r="89" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="37" t="s">
         <v>131</v>
       </c>
@@ -10778,7 +10784,7 @@
       <c r="DC89" s="14"/>
       <c r="DD89" s="14"/>
     </row>
-    <row r="90" spans="1:120" ht="15" customHeight="1">
+    <row r="90" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="36" t="s">
         <v>140</v>
       </c>
@@ -10909,7 +10915,7 @@
       <c r="DO90" s="15"/>
       <c r="DP90" s="15"/>
     </row>
-    <row r="91" spans="1:120" ht="15" customHeight="1">
+    <row r="91" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="37" t="s">
         <v>54</v>
       </c>
@@ -11040,7 +11046,7 @@
       <c r="DO91" s="15"/>
       <c r="DP91" s="15"/>
     </row>
-    <row r="92" spans="1:120" ht="15" customHeight="1">
+    <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="37" t="s">
         <v>161</v>
       </c>
@@ -11169,7 +11175,7 @@
       <c r="DO92" s="15"/>
       <c r="DP92" s="15"/>
     </row>
-    <row r="93" spans="1:120" ht="15" customHeight="1">
+    <row r="93" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="36" t="s">
         <v>57</v>
       </c>
@@ -11300,15 +11306,17 @@
     </row>
     <row r="94" spans="1:120" ht="15" customHeight="1">
       <c r="A94" s="37" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B94" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C94" s="17"/>
+      <c r="C94" s="17">
+        <v>60</v>
+      </c>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>77046.599999999991</v>
       </c>
       <c r="E94" s="65" t="s">
         <v>242</v>
@@ -11429,7 +11437,7 @@
       <c r="DO94" s="15"/>
       <c r="DP94" s="15"/>
     </row>
-    <row r="95" spans="1:120" s="14" customFormat="1">
+    <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
         <v>218</v>
       </c>
@@ -11493,7 +11501,7 @@
       <c r="AZ95" s="25"/>
       <c r="BA95" s="25"/>
     </row>
-    <row r="96" spans="1:120" s="14" customFormat="1">
+    <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="37" t="s">
         <v>157</v>
       </c>
@@ -11557,7 +11565,7 @@
       <c r="AZ96" s="25"/>
       <c r="BA96" s="25"/>
     </row>
-    <row r="97" spans="1:120" ht="15" customHeight="1">
+    <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
         <v>251</v>
       </c>
@@ -11688,7 +11696,7 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="74" t="s">
         <v>255</v>
       </c>
@@ -11819,9 +11827,9 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B99" s="28">
         <v>1362.3</v>
@@ -11950,9 +11958,9 @@
       <c r="DO99" s="15"/>
       <c r="DP99" s="15"/>
     </row>
-    <row r="100" spans="1:120" ht="15" customHeight="1">
+    <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -12081,7 +12089,7 @@
       <c r="DO100" s="15"/>
       <c r="DP100" s="15"/>
     </row>
-    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="36" t="s">
         <v>212</v>
       </c>
@@ -12200,7 +12208,7 @@
       <c r="DC101" s="25"/>
       <c r="DD101" s="25"/>
     </row>
-    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="40" t="s">
         <v>271</v>
       </c>
@@ -12264,7 +12272,7 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>258</v>
       </c>
@@ -12383,9 +12391,9 @@
       <c r="DC103" s="25"/>
       <c r="DD103" s="25"/>
     </row>
-    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12447,7 +12455,7 @@
       <c r="AZ104" s="25"/>
       <c r="BA104" s="25"/>
     </row>
-    <row r="105" spans="1:120" ht="15" customHeight="1">
+    <row r="105" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A105" s="37" t="s">
         <v>128</v>
       </c>
@@ -12578,7 +12586,7 @@
       <c r="DO105" s="15"/>
       <c r="DP105" s="15"/>
     </row>
-    <row r="106" spans="1:120" ht="15" customHeight="1">
+    <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="37" t="s">
         <v>185</v>
       </c>
@@ -12709,7 +12717,7 @@
       <c r="DO106" s="15"/>
       <c r="DP106" s="15"/>
     </row>
-    <row r="107" spans="1:120" ht="15" customHeight="1">
+    <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="37" t="s">
         <v>153</v>
       </c>
@@ -12838,7 +12846,7 @@
       <c r="DO107" s="15"/>
       <c r="DP107" s="15"/>
     </row>
-    <row r="108" spans="1:120" ht="15" customHeight="1">
+    <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="37" t="s">
         <v>166</v>
       </c>
@@ -12967,7 +12975,7 @@
       <c r="DO108" s="15"/>
       <c r="DP108" s="15"/>
     </row>
-    <row r="109" spans="1:120" ht="15" customHeight="1">
+    <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="37" t="s">
         <v>173</v>
       </c>
@@ -13098,7 +13106,7 @@
       <c r="DO109" s="15"/>
       <c r="DP109" s="15"/>
     </row>
-    <row r="110" spans="1:120" ht="15" customHeight="1">
+    <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="37" t="s">
         <v>158</v>
       </c>
@@ -13227,7 +13235,7 @@
       <c r="DO110" s="15"/>
       <c r="DP110" s="15"/>
     </row>
-    <row r="111" spans="1:120" ht="15" customHeight="1">
+    <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="37" t="s">
         <v>241</v>
       </c>
@@ -13298,7 +13306,7 @@
       <c r="DC111" s="14"/>
       <c r="DD111" s="14"/>
     </row>
-    <row r="112" spans="1:120" ht="15" customHeight="1">
+    <row r="112" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A112" s="36" t="s">
         <v>138</v>
       </c>
@@ -13367,7 +13375,7 @@
       <c r="DC112" s="14"/>
       <c r="DD112" s="14"/>
     </row>
-    <row r="113" spans="1:120" ht="15" customHeight="1">
+    <row r="113" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A113" s="36" t="s">
         <v>120</v>
       </c>
@@ -13436,7 +13444,7 @@
       <c r="DC113" s="14"/>
       <c r="DD113" s="14"/>
     </row>
-    <row r="114" spans="1:120" ht="15" customHeight="1">
+    <row r="114" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A114" s="36" t="s">
         <v>129</v>
       </c>
@@ -13565,7 +13573,7 @@
       <c r="DO114" s="15"/>
       <c r="DP114" s="15"/>
     </row>
-    <row r="115" spans="1:120" ht="15" customHeight="1">
+    <row r="115" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A115" s="36" t="s">
         <v>134</v>
       </c>
@@ -13694,7 +13702,7 @@
       <c r="DO115" s="15"/>
       <c r="DP115" s="15"/>
     </row>
-    <row r="116" spans="1:120" ht="15" customHeight="1">
+    <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="36" t="s">
         <v>187</v>
       </c>
@@ -13825,7 +13833,7 @@
       <c r="DO116" s="15"/>
       <c r="DP116" s="15"/>
     </row>
-    <row r="117" spans="1:120" ht="15" customHeight="1">
+    <row r="117" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A117" s="36" t="s">
         <v>121</v>
       </c>
@@ -13954,7 +13962,7 @@
       <c r="DO117" s="15"/>
       <c r="DP117" s="15"/>
     </row>
-    <row r="118" spans="1:120" ht="15" customHeight="1">
+    <row r="118" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A118" s="36" t="s">
         <v>92</v>
       </c>
@@ -14085,7 +14093,7 @@
       <c r="DO118" s="15"/>
       <c r="DP118" s="15"/>
     </row>
-    <row r="119" spans="1:120" ht="15" customHeight="1">
+    <row r="119" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A119" s="36" t="s">
         <v>94</v>
       </c>
@@ -14214,7 +14222,7 @@
       <c r="DO119" s="15"/>
       <c r="DP119" s="15"/>
     </row>
-    <row r="120" spans="1:120" ht="15" customHeight="1">
+    <row r="120" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A120" s="36" t="s">
         <v>93</v>
       </c>
@@ -14343,17 +14351,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A121" s="40" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="B121" s="28">
-        <v>1430.46</v>
-      </c>
-      <c r="C121" s="17"/>
+        <v>1362.3</v>
+      </c>
+      <c r="C121" s="17">
+        <v>100</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>136230</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>242</v>
@@ -14474,7 +14484,7 @@
       <c r="DO121" s="15"/>
       <c r="DP121" s="15"/>
     </row>
-    <row r="122" spans="1:120" ht="15" customHeight="1">
+    <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
         <v>208</v>
       </c>
@@ -14603,7 +14613,7 @@
       <c r="DO122" s="15"/>
       <c r="DP122" s="15"/>
     </row>
-    <row r="123" spans="1:120" ht="15" customHeight="1">
+    <row r="123" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A123" s="37" t="s">
         <v>74</v>
       </c>
@@ -14732,7 +14742,7 @@
       <c r="DO123" s="15"/>
       <c r="DP123" s="15"/>
     </row>
-    <row r="124" spans="1:120" ht="15" customHeight="1">
+    <row r="124" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A124" s="37" t="s">
         <v>135</v>
       </c>
@@ -14801,7 +14811,7 @@
       <c r="DC124" s="14"/>
       <c r="DD124" s="14"/>
     </row>
-    <row r="125" spans="1:120" ht="15" customHeight="1">
+    <row r="125" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A125" s="37" t="s">
         <v>75</v>
       </c>
@@ -14930,7 +14940,7 @@
       <c r="DO125" s="15"/>
       <c r="DP125" s="15"/>
     </row>
-    <row r="126" spans="1:120" ht="15" customHeight="1">
+    <row r="126" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A126" s="37" t="s">
         <v>130</v>
       </c>
@@ -15059,7 +15069,7 @@
       <c r="DO126" s="15"/>
       <c r="DP126" s="15"/>
     </row>
-    <row r="127" spans="1:120" ht="15" customHeight="1">
+    <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="36" t="s">
         <v>172</v>
       </c>
@@ -15190,7 +15200,7 @@
       <c r="DO127" s="15"/>
       <c r="DP127" s="15"/>
     </row>
-    <row r="128" spans="1:120" ht="15" customHeight="1">
+    <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="36" t="s">
         <v>176</v>
       </c>
@@ -15321,7 +15331,7 @@
       <c r="DO128" s="15"/>
       <c r="DP128" s="15"/>
     </row>
-    <row r="129" spans="1:120" ht="15" customHeight="1">
+    <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="36" t="s">
         <v>234</v>
       </c>
@@ -15450,7 +15460,7 @@
       <c r="DO129" s="15"/>
       <c r="DP129" s="15"/>
     </row>
-    <row r="130" spans="1:120" ht="15" customHeight="1">
+    <row r="130" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A130" s="36" t="s">
         <v>118</v>
       </c>
@@ -15579,7 +15589,7 @@
       <c r="DO130" s="15"/>
       <c r="DP130" s="15"/>
     </row>
-    <row r="131" spans="1:120" ht="15" customHeight="1">
+    <row r="131" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A131" s="36" t="s">
         <v>133</v>
       </c>
@@ -15708,7 +15718,7 @@
       <c r="DO131" s="15"/>
       <c r="DP131" s="15"/>
     </row>
-    <row r="132" spans="1:120" ht="15" customHeight="1">
+    <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="36" t="s">
         <v>250</v>
       </c>
@@ -15839,7 +15849,7 @@
       <c r="DO132" s="15"/>
       <c r="DP132" s="15"/>
     </row>
-    <row r="133" spans="1:120" ht="15" customHeight="1">
+    <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="36" t="s">
         <v>220</v>
       </c>
@@ -15970,7 +15980,7 @@
       <c r="DO133" s="15"/>
       <c r="DP133" s="15"/>
     </row>
-    <row r="134" spans="1:120" ht="15" customHeight="1">
+    <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="36" t="s">
         <v>219</v>
       </c>
@@ -16101,7 +16111,7 @@
       <c r="DO134" s="15"/>
       <c r="DP134" s="15"/>
     </row>
-    <row r="135" spans="1:120" ht="15" customHeight="1">
+    <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="36" t="s">
         <v>183</v>
       </c>
@@ -16232,9 +16242,9 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" customHeight="1">
+    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="73" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
@@ -16363,9 +16373,9 @@
       <c r="DO136" s="15"/>
       <c r="DP136" s="15"/>
     </row>
-    <row r="137" spans="1:120" ht="15" customHeight="1">
+    <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B137" s="28">
         <v>6032.61</v>
@@ -16494,7 +16504,7 @@
       <c r="DO137" s="15"/>
       <c r="DP137" s="15"/>
     </row>
-    <row r="138" spans="1:120" ht="15" customHeight="1">
+    <row r="138" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="36" t="s">
         <v>154</v>
       </c>
@@ -16623,7 +16633,7 @@
       <c r="DO138" s="15"/>
       <c r="DP138" s="15"/>
     </row>
-    <row r="139" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="37" t="s">
         <v>198</v>
       </c>
@@ -16687,7 +16697,7 @@
       <c r="AZ139" s="25"/>
       <c r="BA139" s="25"/>
     </row>
-    <row r="140" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="36" t="s">
         <v>182</v>
       </c>
@@ -16749,7 +16759,7 @@
       <c r="AZ140" s="25"/>
       <c r="BA140" s="25"/>
     </row>
-    <row r="141" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="36" t="s">
         <v>168</v>
       </c>
@@ -16811,7 +16821,7 @@
       <c r="AZ141" s="25"/>
       <c r="BA141" s="25"/>
     </row>
-    <row r="142" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="36" t="s">
         <v>165</v>
       </c>
@@ -16873,7 +16883,7 @@
       <c r="AZ142" s="25"/>
       <c r="BA142" s="25"/>
     </row>
-    <row r="143" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="36" t="s">
         <v>170</v>
       </c>
@@ -16935,7 +16945,7 @@
       <c r="AZ143" s="25"/>
       <c r="BA143" s="25"/>
     </row>
-    <row r="144" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="144" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A144" s="37" t="s">
         <v>122</v>
       </c>
@@ -16999,7 +17009,7 @@
       <c r="AZ144" s="25"/>
       <c r="BA144" s="25"/>
     </row>
-    <row r="145" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="145" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="37" t="s">
         <v>159</v>
       </c>
@@ -17061,7 +17071,7 @@
       <c r="AZ145" s="25"/>
       <c r="BA145" s="25"/>
     </row>
-    <row r="146" spans="1:120" ht="15" customHeight="1">
+    <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="36" t="s">
         <v>201</v>
       </c>
@@ -17192,7 +17202,7 @@
       <c r="DO146" s="15"/>
       <c r="DP146" s="15"/>
     </row>
-    <row r="147" spans="1:120" ht="15" customHeight="1">
+    <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="37" t="s">
         <v>175</v>
       </c>
@@ -17323,7 +17333,7 @@
       <c r="DO147" s="15"/>
       <c r="DP147" s="15"/>
     </row>
-    <row r="148" spans="1:120" ht="15" customHeight="1">
+    <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="37" t="s">
         <v>145</v>
       </c>
@@ -17452,7 +17462,7 @@
       <c r="DO148" s="15"/>
       <c r="DP148" s="15"/>
     </row>
-    <row r="149" spans="1:120" ht="15" customHeight="1">
+    <row r="149" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A149" s="37" t="s">
         <v>127</v>
       </c>
@@ -17583,7 +17593,7 @@
       <c r="DO149" s="15"/>
       <c r="DP149" s="15"/>
     </row>
-    <row r="150" spans="1:120" ht="15" customHeight="1">
+    <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="37" t="s">
         <v>155</v>
       </c>
@@ -17712,7 +17722,7 @@
       <c r="DO150" s="15"/>
       <c r="DP150" s="15"/>
     </row>
-    <row r="151" spans="1:120" ht="15" customHeight="1">
+    <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="37" t="s">
         <v>174</v>
       </c>
@@ -17843,7 +17853,7 @@
       <c r="DO151" s="15"/>
       <c r="DP151" s="15"/>
     </row>
-    <row r="152" spans="1:120" ht="15" customHeight="1">
+    <row r="152" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A152" s="37" t="s">
         <v>136</v>
       </c>
@@ -17974,7 +17984,7 @@
       <c r="DO152" s="15"/>
       <c r="DP152" s="15"/>
     </row>
-    <row r="153" spans="1:120" ht="15" customHeight="1">
+    <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="37" t="s">
         <v>156</v>
       </c>
@@ -18103,7 +18113,7 @@
       <c r="DO153" s="15"/>
       <c r="DP153" s="15"/>
     </row>
-    <row r="154" spans="1:120" ht="15" customHeight="1">
+    <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="37" t="s">
         <v>181</v>
       </c>
@@ -18232,7 +18242,7 @@
       <c r="DO154" s="15"/>
       <c r="DP154" s="15"/>
     </row>
-    <row r="155" spans="1:120" ht="15" customHeight="1">
+    <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="37" t="s">
         <v>167</v>
       </c>
@@ -18363,7 +18373,7 @@
       <c r="DO155" s="15"/>
       <c r="DP155" s="15"/>
     </row>
-    <row r="156" spans="1:120" ht="15" customHeight="1">
+    <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="37" t="s">
         <v>210</v>
       </c>
@@ -18494,7 +18504,7 @@
       <c r="DO156" s="15"/>
       <c r="DP156" s="15"/>
     </row>
-    <row r="157" spans="1:120" ht="15" customHeight="1">
+    <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="36" t="s">
         <v>238</v>
       </c>
@@ -18565,9 +18575,9 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A158" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B158" s="28">
         <v>13718.22</v>
@@ -18629,7 +18639,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
       <c r="A159" s="36" t="s">
         <v>223</v>
       </c>
@@ -18693,7 +18703,7 @@
       <c r="AZ159" s="25"/>
       <c r="BA159" s="25"/>
     </row>
-    <row r="160" spans="1:120" ht="15" customHeight="1">
+    <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="36" t="s">
         <v>189</v>
       </c>
@@ -18822,7 +18832,7 @@
       <c r="DO160" s="15"/>
       <c r="DP160" s="15"/>
     </row>
-    <row r="161" spans="1:120" ht="15" customHeight="1">
+    <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="36" t="s">
         <v>239</v>
       </c>
@@ -18953,7 +18963,7 @@
       <c r="DO161" s="15"/>
       <c r="DP161" s="15"/>
     </row>
-    <row r="162" spans="1:120" ht="15" customHeight="1">
+    <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="36" t="s">
         <v>259</v>
       </c>
@@ -19084,9 +19094,9 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
@@ -19215,7 +19225,7 @@
       <c r="DO163" s="15"/>
       <c r="DP163" s="15"/>
     </row>
-    <row r="164" spans="1:120" ht="15" customHeight="1">
+    <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="36" t="s">
         <v>261</v>
       </c>
@@ -19346,7 +19356,7 @@
       <c r="DO164" s="15"/>
       <c r="DP164" s="15"/>
     </row>
-    <row r="165" spans="1:120" ht="15" customHeight="1">
+    <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="36" t="s">
         <v>262</v>
       </c>
@@ -19477,7 +19487,7 @@
       <c r="DO165" s="15"/>
       <c r="DP165" s="15"/>
     </row>
-    <row r="166" spans="1:120" ht="15" customHeight="1">
+    <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
         <v>263</v>
       </c>
@@ -19608,7 +19618,7 @@
       <c r="DO166" s="15"/>
       <c r="DP166" s="15"/>
     </row>
-    <row r="167" spans="1:120" ht="15" customHeight="1">
+    <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="36" t="s">
         <v>252</v>
       </c>
@@ -19739,7 +19749,7 @@
       <c r="DO167" s="15"/>
       <c r="DP167" s="15"/>
     </row>
-    <row r="168" spans="1:120" ht="15" customHeight="1">
+    <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="36" t="s">
         <v>264</v>
       </c>
@@ -19870,7 +19880,7 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="40" t="s">
         <v>275</v>
       </c>
@@ -20001,7 +20011,7 @@
       <c r="DO169" s="15"/>
       <c r="DP169" s="15"/>
     </row>
-    <row r="170" spans="1:120" ht="15" customHeight="1">
+    <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
         <v>266</v>
       </c>
@@ -20132,7 +20142,7 @@
       <c r="DO170" s="15"/>
       <c r="DP170" s="15"/>
     </row>
-    <row r="171" spans="1:120" ht="15" customHeight="1">
+    <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
         <v>267</v>
       </c>
@@ -20263,9 +20273,9 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
@@ -20394,9 +20404,9 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1">
+    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="68" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B173" s="69">
         <v>8806.32</v>
@@ -20525,9 +20535,9 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
       <c r="A174" s="75" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B174" s="69">
         <v>9613.2800000000007</v>
@@ -20662,12 +20672,12 @@
       </c>
       <c r="B175" s="85"/>
       <c r="C175" s="52">
-        <f>SUBTOTAL(9,C20:C174)</f>
-        <v>0</v>
+        <f>SUBTOTAL(9,C15:C174)</f>
+        <v>330</v>
       </c>
       <c r="D175" s="53">
-        <f>SUBTOTAL(9,D20:D174)</f>
-        <v>0</v>
+        <f>SUBTOTAL(9,D15:D174)</f>
+        <v>398434.89999999997</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20944,7 +20954,7 @@
         <v>260</v>
       </c>
       <c r="C181" s="47">
-        <v>300000</v>
+        <v>800000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>132</v>
@@ -20955,7 +20965,7 @@
     </row>
     <row r="182" spans="2:10" ht="15" customHeight="1" thickBot="1">
       <c r="B182" s="46" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C182" s="47"/>
       <c r="D182" s="48"/>
@@ -20967,7 +20977,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>300000</v>
+        <v>800000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>
@@ -20978,6 +20988,11 @@
     <row r="185" spans="2:10" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A4:E174">
+    <filterColumn colId="2">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A24:G136">
       <sortCondition ref="C5:C136"/>
     </sortState>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2081,7 +2081,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G175" sqref="G175"/>
+      <selection pane="bottomRight" activeCell="G182" sqref="G182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44783</v>
+        <v>44784</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2911,19 +2911,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
       </c>
-      <c r="C15" s="17">
-        <v>100</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>106057</v>
+        <v>0</v>
       </c>
       <c r="E15" s="65" t="s">
         <v>242</v>
@@ -3158,19 +3156,17 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>268</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17">
-        <v>40</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>42021.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E20" s="65" t="s">
         <v>242</v>
@@ -3231,19 +3227,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>232</v>
       </c>
       <c r="B21" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C21" s="17">
-        <v>30</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>37079.699999999997</v>
+        <v>0</v>
       </c>
       <c r="E21" s="65" t="s">
         <v>242</v>
@@ -4022,17 +4016,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>272</v>
       </c>
       <c r="B28" s="28">
         <v>1099.6600000000001</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>80</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>87972.800000000003</v>
       </c>
       <c r="E28" s="65" t="s">
         <v>242</v>
@@ -11304,19 +11300,17 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" customHeight="1">
+    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>297</v>
       </c>
       <c r="B94" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C94" s="17">
-        <v>60</v>
-      </c>
+      <c r="C94" s="17"/>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>77046.599999999991</v>
+        <v>0</v>
       </c>
       <c r="E94" s="65" t="s">
         <v>242</v>
@@ -11696,17 +11690,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="74" t="s">
         <v>255</v>
       </c>
       <c r="B98" s="28">
-        <v>1449.51</v>
-      </c>
-      <c r="C98" s="17"/>
+        <v>1556.77</v>
+      </c>
+      <c r="C98" s="17">
+        <v>60</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>93406.2</v>
       </c>
       <c r="E98" s="65" t="s">
         <v>242</v>
@@ -14351,19 +14347,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>100</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>136230</v>
+        <v>0</v>
       </c>
       <c r="E121" s="65" t="s">
         <v>242</v>
@@ -18575,7 +18569,7 @@
       <c r="DC157" s="14"/>
       <c r="DD157" s="14"/>
     </row>
-    <row r="158" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
         <v>295</v>
       </c>
@@ -18639,7 +18633,7 @@
       <c r="AZ158" s="25"/>
       <c r="BA158" s="25"/>
     </row>
-    <row r="159" spans="1:120" s="14" customFormat="1" ht="15.75" hidden="1" thickBot="1">
+    <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
         <v>223</v>
       </c>
@@ -20535,17 +20529,19 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1" thickBot="1">
+    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="A174" s="75" t="s">
         <v>287</v>
       </c>
       <c r="B174" s="69">
-        <v>9613.2800000000007</v>
-      </c>
-      <c r="C174" s="70"/>
+        <v>10529.5</v>
+      </c>
+      <c r="C174" s="70">
+        <v>20</v>
+      </c>
       <c r="D174" s="71">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>210590</v>
       </c>
       <c r="E174" s="65" t="s">
         <v>242</v>
@@ -20673,11 +20669,11 @@
       <c r="B175" s="85"/>
       <c r="C175" s="52">
         <f>SUBTOTAL(9,C15:C174)</f>
-        <v>330</v>
+        <v>160</v>
       </c>
       <c r="D175" s="53">
         <f>SUBTOTAL(9,D15:D174)</f>
-        <v>398434.89999999997</v>
+        <v>391969</v>
       </c>
       <c r="E175" s="54"/>
       <c r="F175" s="26"/>
@@ -20954,7 +20950,7 @@
         <v>260</v>
       </c>
       <c r="C181" s="47">
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="D181" s="48" t="s">
         <v>132</v>
@@ -20977,7 +20973,7 @@
       </c>
       <c r="C183" s="51">
         <f>C181+C182</f>
-        <v>800000</v>
+        <v>400000</v>
       </c>
       <c r="D183" s="50"/>
       <c r="E183" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Final Requisition'!$A$4:$E$176</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -926,6 +926,12 @@
   </si>
   <si>
     <t>S30</t>
+  </si>
+  <si>
+    <t>Z55(4+64)</t>
+  </si>
+  <si>
+    <t>Z55(4+128)</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1469,13 +1475,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -1499,7 +1538,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1640,15 +1679,6 @@
     <xf numFmtId="164" fontId="21" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1695,17 +1725,11 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1732,12 +1756,6 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1752,6 +1770,24 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2075,13 +2111,13 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:DP185"/>
+  <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G182" sqref="G182"/>
+      <selection pane="bottomRight" activeCell="H178" sqref="H178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2098,61 +2134,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="79" t="s">
+      <c r="B2" s="74" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="80"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="34" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44784</v>
+        <v>44787</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="59" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="60" t="s">
         <v>253</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="53">
         <v>7244.21</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58">
+      <c r="C5" s="54"/>
+      <c r="D5" s="55">
         <f t="shared" ref="D5:D37" si="0">B5*C5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="61" t="s">
         <v>242</v>
       </c>
       <c r="BB5" s="14"/>
@@ -2223,7 +2259,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="62" t="s">
         <v>242</v>
       </c>
       <c r="BF6" s="14"/>
@@ -2290,7 +2326,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="62" t="s">
         <v>242</v>
       </c>
       <c r="BB7" s="14"/>
@@ -2361,7 +2397,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="65" t="s">
+      <c r="E8" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F8" s="26"/>
@@ -2492,7 +2528,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="65" t="s">
+      <c r="E9" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F9" s="26"/>
@@ -2623,7 +2659,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="62" t="s">
         <v>242</v>
       </c>
       <c r="BB10" s="14"/>
@@ -2694,7 +2730,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="62" t="s">
         <v>242</v>
       </c>
       <c r="BB11" s="14"/>
@@ -2765,7 +2801,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="62" t="s">
         <v>207</v>
       </c>
       <c r="BB12" s="14"/>
@@ -2836,7 +2872,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="62" t="s">
         <v>242</v>
       </c>
     </row>
@@ -2852,7 +2888,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="62" t="s">
         <v>242</v>
       </c>
       <c r="BB14" s="14"/>
@@ -2911,19 +2947,21 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>40</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="65" t="s">
+        <v>42422.799999999996</v>
+      </c>
+      <c r="E15" s="62" t="s">
         <v>242</v>
       </c>
       <c r="BB15" s="14"/>
@@ -2994,7 +3032,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="E16" s="62" t="s">
         <v>242</v>
       </c>
       <c r="BB16" s="14"/>
@@ -3065,7 +3103,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="65" t="s">
+      <c r="E17" s="62" t="s">
         <v>242</v>
       </c>
       <c r="BB17" s="14"/>
@@ -3136,7 +3174,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="62" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3152,23 +3190,25 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="65" t="s">
+      <c r="E19" s="62" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>268</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>80</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="65" t="s">
+        <v>84043.199999999997</v>
+      </c>
+      <c r="E20" s="62" t="s">
         <v>242</v>
       </c>
       <c r="BB20" s="14"/>
@@ -3239,7 +3279,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="65" t="s">
+      <c r="E21" s="62" t="s">
         <v>242</v>
       </c>
       <c r="BF21" s="14"/>
@@ -3306,7 +3346,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="65" t="s">
+      <c r="E22" s="62" t="s">
         <v>225</v>
       </c>
       <c r="BB22" s="14"/>
@@ -3377,7 +3417,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="65"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="26"/>
       <c r="G23" s="26"/>
       <c r="H23" s="26"/>
@@ -3506,7 +3546,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="65"/>
+      <c r="E24" s="62"/>
       <c r="F24" s="26"/>
       <c r="G24" s="26"/>
       <c r="H24" s="26"/>
@@ -3635,7 +3675,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="62" t="s">
         <v>190</v>
       </c>
       <c r="F25" s="26"/>
@@ -3754,19 +3794,21 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>246</v>
       </c>
       <c r="B26" s="28">
         <v>1128.73</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>60</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="65" t="s">
+        <v>67723.8</v>
+      </c>
+      <c r="E26" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F26" s="26"/>
@@ -3897,7 +3939,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F27" s="26"/>
@@ -4016,21 +4058,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>272</v>
       </c>
       <c r="B28" s="28">
         <v>1099.6600000000001</v>
       </c>
-      <c r="C28" s="17">
-        <v>80</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>87972.800000000003</v>
-      </c>
-      <c r="E28" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F28" s="26"/>
@@ -4161,7 +4201,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="65" t="s">
+      <c r="E29" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F29" s="26"/>
@@ -4292,7 +4332,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F30" s="26"/>
@@ -4423,7 +4463,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E31" s="62" t="s">
         <v>199</v>
       </c>
       <c r="F31" s="26"/>
@@ -4554,7 +4594,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="65"/>
+      <c r="E32" s="62"/>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
       <c r="H32" s="26"/>
@@ -4683,7 +4723,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="65"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
@@ -4745,7 +4785,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E34" s="65"/>
+      <c r="E34" s="62"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
@@ -4807,7 +4847,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E35" s="65"/>
+      <c r="E35" s="62"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
@@ -4936,7 +4976,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E36" s="65" t="s">
+      <c r="E36" s="62" t="s">
         <v>197</v>
       </c>
       <c r="F36" s="26"/>
@@ -5067,7 +5107,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F37" s="26"/>
@@ -5198,7 +5238,7 @@
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
         <v>0</v>
       </c>
-      <c r="E38" s="65" t="s">
+      <c r="E38" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F38" s="26"/>
@@ -5329,7 +5369,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E39" s="65" t="s">
+      <c r="E39" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F39" s="26"/>
@@ -5460,7 +5500,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E40" s="65"/>
+      <c r="E40" s="62"/>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
       <c r="H40" s="26"/>
@@ -5589,7 +5629,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E41" s="65"/>
+      <c r="E41" s="62"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
@@ -5718,7 +5758,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E42" s="66" t="s">
+      <c r="E42" s="63" t="s">
         <v>290</v>
       </c>
       <c r="F42" s="26"/>
@@ -5849,7 +5889,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E43" s="65"/>
+      <c r="E43" s="62"/>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
@@ -5978,7 +6018,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E44" s="65"/>
+      <c r="E44" s="62"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -6107,7 +6147,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E45" s="65"/>
+      <c r="E45" s="62"/>
       <c r="F45" s="26"/>
       <c r="G45" s="26"/>
       <c r="H45" s="26"/>
@@ -6236,7 +6276,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E46" s="65"/>
+      <c r="E46" s="62"/>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
       <c r="H46" s="26"/>
@@ -6365,7 +6405,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E47" s="65"/>
+      <c r="E47" s="62"/>
       <c r="F47" s="33"/>
       <c r="G47" s="33"/>
       <c r="H47" s="33"/>
@@ -6427,7 +6467,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E48" s="65" t="s">
+      <c r="E48" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F48" s="26"/>
@@ -6558,7 +6598,7 @@
         <f t="shared" ref="D49" si="2">B49*C49</f>
         <v>0</v>
       </c>
-      <c r="E49" s="65" t="s">
+      <c r="E49" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F49" s="26"/>
@@ -6689,7 +6729,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E50" s="65" t="s">
+      <c r="E50" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F50" s="26"/>
@@ -6820,7 +6860,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E51" s="65" t="s">
+      <c r="E51" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F51" s="26"/>
@@ -6951,7 +6991,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E52" s="65" t="s">
+      <c r="E52" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F52" s="26"/>
@@ -7082,7 +7122,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E53" s="65"/>
+      <c r="E53" s="62"/>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
@@ -7211,7 +7251,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E54" s="65" t="s">
+      <c r="E54" s="62" t="s">
         <v>222</v>
       </c>
       <c r="F54" s="26"/>
@@ -7342,7 +7382,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E55" s="65" t="s">
+      <c r="E55" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F55" s="26"/>
@@ -7473,7 +7513,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E56" s="66" t="s">
+      <c r="E56" s="63" t="s">
         <v>281</v>
       </c>
       <c r="F56" s="26"/>
@@ -7604,7 +7644,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E57" s="65" t="s">
+      <c r="E57" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F57" s="26"/>
@@ -7735,7 +7775,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E58" s="65"/>
+      <c r="E58" s="62"/>
       <c r="F58" s="26"/>
       <c r="G58" s="26"/>
       <c r="H58" s="26"/>
@@ -7864,7 +7904,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E59" s="65" t="s">
+      <c r="E59" s="62" t="s">
         <v>195</v>
       </c>
       <c r="F59" s="26"/>
@@ -7995,7 +8035,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E60" s="65"/>
+      <c r="E60" s="62"/>
       <c r="F60" s="26"/>
       <c r="G60" s="26"/>
       <c r="H60" s="26"/>
@@ -8124,7 +8164,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E61" s="65"/>
+      <c r="E61" s="62"/>
       <c r="F61" s="26"/>
       <c r="G61" s="26"/>
       <c r="H61" s="26"/>
@@ -8253,7 +8293,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E62" s="65"/>
+      <c r="E62" s="62"/>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
       <c r="H62" s="26"/>
@@ -8382,7 +8422,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E63" s="65" t="s">
+      <c r="E63" s="62" t="s">
         <v>249</v>
       </c>
       <c r="F63" s="26"/>
@@ -8513,7 +8553,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E64" s="65"/>
+      <c r="E64" s="62"/>
       <c r="F64" s="26"/>
       <c r="G64" s="26"/>
       <c r="H64" s="26"/>
@@ -8642,7 +8682,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E65" s="65"/>
+      <c r="E65" s="62"/>
       <c r="F65" s="26"/>
       <c r="G65" s="26"/>
       <c r="H65" s="26"/>
@@ -8771,7 +8811,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E66" s="65"/>
+      <c r="E66" s="62"/>
       <c r="F66" s="26"/>
       <c r="G66" s="26"/>
       <c r="H66" s="26"/>
@@ -8900,7 +8940,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E67" s="65" t="s">
+      <c r="E67" s="62" t="s">
         <v>228</v>
       </c>
       <c r="BB67" s="14"/>
@@ -8971,7 +9011,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E68" s="65" t="s">
+      <c r="E68" s="62" t="s">
         <v>242</v>
       </c>
       <c r="BB68" s="14"/>
@@ -9042,7 +9082,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E69" s="65"/>
+      <c r="E69" s="62"/>
       <c r="F69" s="25"/>
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
@@ -9104,7 +9144,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E70" s="65"/>
+      <c r="E70" s="62"/>
       <c r="F70" s="25"/>
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
@@ -9166,7 +9206,7 @@
         <f t="shared" ref="D71:D102" si="3">B71*C71</f>
         <v>0</v>
       </c>
-      <c r="E71" s="65" t="s">
+      <c r="E71" s="62" t="s">
         <v>195</v>
       </c>
       <c r="F71" s="25"/>
@@ -9230,7 +9270,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E72" s="65" t="s">
+      <c r="E72" s="62" t="s">
         <v>191</v>
       </c>
       <c r="F72" s="25"/>
@@ -9294,7 +9334,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E73" s="65" t="s">
+      <c r="E73" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F73" s="25"/>
@@ -9358,7 +9398,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E74" s="65" t="s">
+      <c r="E74" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F74" s="25"/>
@@ -9422,7 +9462,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E75" s="65" t="s">
+      <c r="E75" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F75" s="25"/>
@@ -9486,7 +9526,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E76" s="65" t="s">
+      <c r="E76" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F76" s="25"/>
@@ -9550,7 +9590,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E77" s="65"/>
+      <c r="E77" s="62"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
@@ -9612,7 +9652,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E78" s="65"/>
+      <c r="E78" s="62"/>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
@@ -9674,7 +9714,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E79" s="65" t="s">
+      <c r="E79" s="62" t="s">
         <v>191</v>
       </c>
       <c r="F79" s="26"/>
@@ -9805,7 +9845,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E80" s="65" t="s">
+      <c r="E80" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F80" s="26"/>
@@ -9936,7 +9976,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E81" s="65" t="s">
+      <c r="E81" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F81" s="26"/>
@@ -10067,7 +10107,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E82" s="65" t="s">
+      <c r="E82" s="62" t="s">
         <v>193</v>
       </c>
       <c r="F82" s="26"/>
@@ -10198,7 +10238,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E83" s="65"/>
+      <c r="E83" s="62"/>
       <c r="F83" s="26"/>
       <c r="G83" s="26"/>
       <c r="H83" s="26"/>
@@ -10327,7 +10367,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E84" s="65"/>
+      <c r="E84" s="62"/>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
@@ -10389,7 +10429,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E85" s="65" t="s">
+      <c r="E85" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F85" s="25"/>
@@ -10442,7 +10482,7 @@
       <c r="BA85" s="25"/>
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A86" s="74" t="s">
+      <c r="A86" s="70" t="s">
         <v>247</v>
       </c>
       <c r="B86" s="28">
@@ -10453,7 +10493,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E86" s="65" t="s">
+      <c r="E86" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F86" s="25"/>
@@ -10510,7 +10550,7 @@
       <c r="BE86" s="25"/>
     </row>
     <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A87" s="74" t="s">
+      <c r="A87" s="70" t="s">
         <v>257</v>
       </c>
       <c r="B87" s="28">
@@ -10521,7 +10561,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E87" s="65" t="s">
+      <c r="E87" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F87" s="26"/>
@@ -10652,7 +10692,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E88" s="65" t="s">
+      <c r="E88" s="62" t="s">
         <v>242</v>
       </c>
       <c r="BB88" s="14"/>
@@ -10723,7 +10763,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E89" s="65"/>
+      <c r="E89" s="62"/>
       <c r="BB89" s="14"/>
       <c r="BC89" s="14"/>
       <c r="BD89" s="14"/>
@@ -10792,7 +10832,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E90" s="65" t="s">
+      <c r="E90" s="62" t="s">
         <v>191</v>
       </c>
       <c r="F90" s="26"/>
@@ -10923,7 +10963,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E91" s="65" t="s">
+      <c r="E91" s="62" t="s">
         <v>196</v>
       </c>
       <c r="F91" s="26"/>
@@ -11054,7 +11094,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E92" s="65"/>
+      <c r="E92" s="62"/>
       <c r="F92" s="26"/>
       <c r="G92" s="26"/>
       <c r="H92" s="26"/>
@@ -11183,7 +11223,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E93" s="65"/>
+      <c r="E93" s="62"/>
       <c r="F93" s="26"/>
       <c r="G93" s="26"/>
       <c r="H93" s="26"/>
@@ -11312,7 +11352,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E94" s="65" t="s">
+      <c r="E94" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F94" s="26"/>
@@ -11443,7 +11483,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E95" s="65" t="s">
+      <c r="E95" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F95" s="25"/>
@@ -11507,7 +11547,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E96" s="65" t="s">
+      <c r="E96" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F96" s="25"/>
@@ -11571,7 +11611,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E97" s="65" t="s">
+      <c r="E97" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F97" s="26"/>
@@ -11690,21 +11730,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
-      <c r="A98" s="74" t="s">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A98" s="70" t="s">
         <v>255</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
       </c>
-      <c r="C98" s="17">
-        <v>60</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>93406.2</v>
-      </c>
-      <c r="E98" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F98" s="26"/>
@@ -11835,7 +11873,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E99" s="65" t="s">
+      <c r="E99" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F99" s="26"/>
@@ -11966,7 +12004,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E100" s="65" t="s">
+      <c r="E100" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F100" s="26"/>
@@ -12097,7 +12135,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E101" s="65" t="s">
+      <c r="E101" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F101" s="25"/>
@@ -12216,7 +12254,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E102" s="65" t="s">
+      <c r="E102" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F102" s="25"/>
@@ -12280,7 +12318,7 @@
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
         <v>0</v>
       </c>
-      <c r="E103" s="65" t="s">
+      <c r="E103" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F103" s="25"/>
@@ -12399,7 +12437,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E104" s="65" t="s">
+      <c r="E104" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F104" s="25"/>
@@ -12463,7 +12501,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E105" s="65" t="s">
+      <c r="E105" s="62" t="s">
         <v>192</v>
       </c>
       <c r="F105" s="26"/>
@@ -12594,7 +12632,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E106" s="65" t="s">
+      <c r="E106" s="62" t="s">
         <v>190</v>
       </c>
       <c r="F106" s="26"/>
@@ -12725,7 +12763,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E107" s="65"/>
+      <c r="E107" s="62"/>
       <c r="F107" s="26"/>
       <c r="G107" s="26"/>
       <c r="H107" s="26"/>
@@ -12854,7 +12892,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E108" s="65"/>
+      <c r="E108" s="62"/>
       <c r="F108" s="26"/>
       <c r="G108" s="26"/>
       <c r="H108" s="26"/>
@@ -12983,7 +13021,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E109" s="65" t="s">
+      <c r="E109" s="62" t="s">
         <v>190</v>
       </c>
       <c r="F109" s="26"/>
@@ -13114,7 +13152,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E110" s="65"/>
+      <c r="E110" s="62"/>
       <c r="F110" s="26"/>
       <c r="G110" s="26"/>
       <c r="H110" s="26"/>
@@ -13243,7 +13281,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E111" s="65" t="s">
+      <c r="E111" s="62" t="s">
         <v>242</v>
       </c>
       <c r="BB111" s="14"/>
@@ -13314,7 +13352,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E112" s="65"/>
+      <c r="E112" s="62"/>
       <c r="BB112" s="14"/>
       <c r="BC112" s="14"/>
       <c r="BD112" s="14"/>
@@ -13383,7 +13421,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E113" s="65"/>
+      <c r="E113" s="62"/>
       <c r="BB113" s="14"/>
       <c r="BC113" s="14"/>
       <c r="BD113" s="14"/>
@@ -13452,7 +13490,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E114" s="65"/>
+      <c r="E114" s="62"/>
       <c r="F114" s="26"/>
       <c r="G114" s="26"/>
       <c r="H114" s="26"/>
@@ -13581,7 +13619,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E115" s="65"/>
+      <c r="E115" s="62"/>
       <c r="F115" s="26"/>
       <c r="G115" s="26"/>
       <c r="H115" s="26"/>
@@ -13710,7 +13748,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E116" s="65" t="s">
+      <c r="E116" s="62" t="s">
         <v>217</v>
       </c>
       <c r="F116" s="26"/>
@@ -13841,7 +13879,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E117" s="65"/>
+      <c r="E117" s="62"/>
       <c r="F117" s="26"/>
       <c r="G117" s="26"/>
       <c r="H117" s="26"/>
@@ -13970,7 +14008,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E118" s="65" t="s">
+      <c r="E118" s="62" t="s">
         <v>191</v>
       </c>
       <c r="F118" s="26"/>
@@ -14101,7 +14139,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E119" s="65"/>
+      <c r="E119" s="62"/>
       <c r="F119" s="26"/>
       <c r="G119" s="26"/>
       <c r="H119" s="26"/>
@@ -14230,7 +14268,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E120" s="65"/>
+      <c r="E120" s="62"/>
       <c r="F120" s="26"/>
       <c r="G120" s="26"/>
       <c r="H120" s="26"/>
@@ -14347,19 +14385,21 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>40</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E121" s="65" t="s">
+        <v>54492</v>
+      </c>
+      <c r="E121" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F121" s="26"/>
@@ -14490,7 +14530,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E122" s="65"/>
+      <c r="E122" s="62"/>
       <c r="F122" s="26"/>
       <c r="G122" s="26"/>
       <c r="H122" s="26"/>
@@ -14619,7 +14659,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E123" s="65"/>
+      <c r="E123" s="62"/>
       <c r="F123" s="26"/>
       <c r="G123" s="26"/>
       <c r="H123" s="26"/>
@@ -14748,7 +14788,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E124" s="65"/>
+      <c r="E124" s="62"/>
       <c r="BB124" s="14"/>
       <c r="BC124" s="14"/>
       <c r="BD124" s="14"/>
@@ -14817,7 +14857,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E125" s="65"/>
+      <c r="E125" s="62"/>
       <c r="F125" s="26"/>
       <c r="G125" s="26"/>
       <c r="H125" s="26"/>
@@ -14946,7 +14986,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E126" s="65"/>
+      <c r="E126" s="62"/>
       <c r="F126" s="26"/>
       <c r="G126" s="26"/>
       <c r="H126" s="26"/>
@@ -15075,7 +15115,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E127" s="65" t="s">
+      <c r="E127" s="62" t="s">
         <v>226</v>
       </c>
       <c r="F127" s="26"/>
@@ -15206,7 +15246,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E128" s="65" t="s">
+      <c r="E128" s="62" t="s">
         <v>237</v>
       </c>
       <c r="F128" s="26"/>
@@ -15337,7 +15377,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E129" s="65"/>
+      <c r="E129" s="62"/>
       <c r="F129" s="26"/>
       <c r="G129" s="26"/>
       <c r="H129" s="26"/>
@@ -15466,7 +15506,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E130" s="65"/>
+      <c r="E130" s="62"/>
       <c r="F130" s="26"/>
       <c r="G130" s="26"/>
       <c r="H130" s="26"/>
@@ -15595,7 +15635,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E131" s="65"/>
+      <c r="E131" s="62"/>
       <c r="F131" s="26"/>
       <c r="G131" s="26"/>
       <c r="H131" s="26"/>
@@ -15724,7 +15764,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E132" s="65" t="s">
+      <c r="E132" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F132" s="26"/>
@@ -15855,7 +15895,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E133" s="65" t="s">
+      <c r="E133" s="62" t="s">
         <v>217</v>
       </c>
       <c r="F133" s="26"/>
@@ -15986,7 +16026,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E134" s="65" t="s">
+      <c r="E134" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F134" s="26"/>
@@ -16117,7 +16157,7 @@
         <f t="shared" ref="D135:D166" si="5">B135*C135</f>
         <v>0</v>
       </c>
-      <c r="E135" s="65" t="s">
+      <c r="E135" s="62" t="s">
         <v>191</v>
       </c>
       <c r="F135" s="26"/>
@@ -16237,7 +16277,7 @@
       <c r="DP135" s="15"/>
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A136" s="73" t="s">
+      <c r="A136" s="69" t="s">
         <v>286</v>
       </c>
       <c r="B136" s="28">
@@ -16248,7 +16288,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E136" s="65" t="s">
+      <c r="E136" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F136" s="26"/>
@@ -16379,7 +16419,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E137" s="65" t="s">
+      <c r="E137" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F137" s="26"/>
@@ -16510,7 +16550,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E138" s="65"/>
+      <c r="E138" s="62"/>
       <c r="F138" s="26"/>
       <c r="G138" s="26"/>
       <c r="H138" s="26"/>
@@ -16639,7 +16679,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E139" s="65" t="s">
+      <c r="E139" s="62" t="s">
         <v>191</v>
       </c>
       <c r="F139" s="25"/>
@@ -16703,7 +16743,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E140" s="67"/>
+      <c r="E140" s="64"/>
       <c r="F140" s="25"/>
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
@@ -16765,7 +16805,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E141" s="65"/>
+      <c r="E141" s="62"/>
       <c r="F141" s="25"/>
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
@@ -16827,7 +16867,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E142" s="65"/>
+      <c r="E142" s="62"/>
       <c r="F142" s="25"/>
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
@@ -16889,7 +16929,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E143" s="65"/>
+      <c r="E143" s="62"/>
       <c r="F143" s="25"/>
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
@@ -16951,7 +16991,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E144" s="65" t="s">
+      <c r="E144" s="62" t="s">
         <v>191</v>
       </c>
       <c r="F144" s="25"/>
@@ -17015,7 +17055,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E145" s="65"/>
+      <c r="E145" s="62"/>
       <c r="F145" s="25"/>
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
@@ -17077,7 +17117,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E146" s="65" t="s">
+      <c r="E146" s="62" t="s">
         <v>191</v>
       </c>
       <c r="F146" s="26"/>
@@ -17208,7 +17248,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E147" s="65" t="s">
+      <c r="E147" s="62" t="s">
         <v>191</v>
       </c>
       <c r="F147" s="26"/>
@@ -17339,7 +17379,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E148" s="65"/>
+      <c r="E148" s="62"/>
       <c r="F148" s="26"/>
       <c r="G148" s="26"/>
       <c r="H148" s="26"/>
@@ -17468,7 +17508,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E149" s="65" t="s">
+      <c r="E149" s="62" t="s">
         <v>207</v>
       </c>
       <c r="F149" s="26"/>
@@ -17599,7 +17639,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E150" s="65"/>
+      <c r="E150" s="62"/>
       <c r="F150" s="26"/>
       <c r="G150" s="26"/>
       <c r="H150" s="26"/>
@@ -17728,7 +17768,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E151" s="65" t="s">
+      <c r="E151" s="62" t="s">
         <v>217</v>
       </c>
       <c r="F151" s="26"/>
@@ -17859,7 +17899,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E152" s="65" t="s">
+      <c r="E152" s="62" t="s">
         <v>191</v>
       </c>
       <c r="F152" s="26"/>
@@ -17990,7 +18030,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E153" s="65"/>
+      <c r="E153" s="62"/>
       <c r="F153" s="26"/>
       <c r="G153" s="26"/>
       <c r="H153" s="26"/>
@@ -18119,7 +18159,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E154" s="65"/>
+      <c r="E154" s="62"/>
       <c r="F154" s="26"/>
       <c r="G154" s="26"/>
       <c r="H154" s="26"/>
@@ -18248,7 +18288,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E155" s="67" t="s">
+      <c r="E155" s="64" t="s">
         <v>191</v>
       </c>
       <c r="F155" s="26"/>
@@ -18379,7 +18419,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E156" s="65" t="s">
+      <c r="E156" s="62" t="s">
         <v>191</v>
       </c>
       <c r="F156" s="26"/>
@@ -18510,7 +18550,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E157" s="65" t="s">
+      <c r="E157" s="62" t="s">
         <v>195</v>
       </c>
       <c r="BB157" s="14"/>
@@ -18581,7 +18621,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E158" s="65" t="s">
+      <c r="E158" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F158" s="25"/>
@@ -18645,7 +18685,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E159" s="65" t="s">
+      <c r="E159" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F159" s="25"/>
@@ -18709,7 +18749,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E160" s="65"/>
+      <c r="E160" s="62"/>
       <c r="F160" s="26"/>
       <c r="G160" s="26"/>
       <c r="H160" s="26"/>
@@ -18838,7 +18878,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E161" s="65" t="s">
+      <c r="E161" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F161" s="26"/>
@@ -18969,7 +19009,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E162" s="65" t="s">
+      <c r="E162" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F162" s="26"/>
@@ -19100,7 +19140,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E163" s="65" t="s">
+      <c r="E163" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F163" s="26"/>
@@ -19231,7 +19271,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E164" s="65" t="s">
+      <c r="E164" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F164" s="26"/>
@@ -19362,7 +19402,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E165" s="65" t="s">
+      <c r="E165" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F165" s="26"/>
@@ -19493,7 +19533,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E166" s="65" t="s">
+      <c r="E166" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F166" s="26"/>
@@ -19621,10 +19661,10 @@
       </c>
       <c r="C167" s="17"/>
       <c r="D167" s="18">
-        <f t="shared" ref="D167:D174" si="6">B167*C167</f>
+        <f t="shared" ref="D167:D176" si="6">B167*C167</f>
         <v>0</v>
       </c>
-      <c r="E167" s="65" t="s">
+      <c r="E167" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F167" s="26"/>
@@ -19755,7 +19795,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E168" s="65" t="s">
+      <c r="E168" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F168" s="26"/>
@@ -19886,7 +19926,7 @@
         <f t="shared" ref="D169" si="7">B169*C169</f>
         <v>0</v>
       </c>
-      <c r="E169" s="65" t="s">
+      <c r="E169" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F169" s="26"/>
@@ -20017,7 +20057,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E170" s="65" t="s">
+      <c r="E170" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F170" s="26"/>
@@ -20148,7 +20188,7 @@
         <f t="shared" ref="D171" si="8">B171*C171</f>
         <v>0</v>
       </c>
-      <c r="E171" s="65" t="s">
+      <c r="E171" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F171" s="26"/>
@@ -20267,19 +20307,21 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>10</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E172" s="65" t="s">
+        <v>114547.4</v>
+      </c>
+      <c r="E172" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F172" s="26"/>
@@ -20399,18 +20441,18 @@
       <c r="DP172" s="15"/>
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A173" s="68" t="s">
+      <c r="A173" s="65" t="s">
         <v>298</v>
       </c>
-      <c r="B173" s="69">
-        <v>8806.32</v>
-      </c>
-      <c r="C173" s="70"/>
+      <c r="B173" s="66">
+        <v>10179.65</v>
+      </c>
+      <c r="C173" s="67"/>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="E173" s="65" t="s">
+      <c r="E173" s="62" t="s">
         <v>242</v>
       </c>
       <c r="F173" s="26"/>
@@ -20529,21 +20571,19 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A174" s="75" t="s">
+    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A174" s="89" t="s">
         <v>287</v>
       </c>
-      <c r="B174" s="69">
+      <c r="B174" s="28">
         <v>10529.5</v>
       </c>
-      <c r="C174" s="70">
-        <v>20</v>
-      </c>
-      <c r="D174" s="71">
+      <c r="C174" s="17"/>
+      <c r="D174" s="18">
         <f t="shared" si="6"/>
-        <v>210590</v>
-      </c>
-      <c r="E174" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E174" s="18" t="s">
         <v>242</v>
       </c>
       <c r="F174" s="26"/>
@@ -20662,20 +20702,23 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A175" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B175" s="85"/>
-      <c r="C175" s="52">
-        <f>SUBTOTAL(9,C15:C174)</f>
-        <v>160</v>
-      </c>
-      <c r="D175" s="53">
-        <f>SUBTOTAL(9,D15:D174)</f>
-        <v>391969</v>
-      </c>
-      <c r="E175" s="54"/>
+    <row r="175" spans="1:120" ht="15" customHeight="1">
+      <c r="A175" s="89" t="s">
+        <v>301</v>
+      </c>
+      <c r="B175" s="28">
+        <v>11454.74</v>
+      </c>
+      <c r="C175" s="17">
+        <v>25</v>
+      </c>
+      <c r="D175" s="18">
+        <f t="shared" si="6"/>
+        <v>286368.5</v>
+      </c>
+      <c r="E175" s="62" t="s">
+        <v>242</v>
+      </c>
       <c r="F175" s="26"/>
       <c r="G175" s="26"/>
       <c r="H175" s="26"/>
@@ -20724,61 +20767,61 @@
       <c r="AY175" s="26"/>
       <c r="AZ175" s="26"/>
       <c r="BA175" s="26"/>
-      <c r="BB175" s="26"/>
-      <c r="BC175" s="26"/>
-      <c r="BD175" s="26"/>
-      <c r="BE175" s="26"/>
-      <c r="BF175" s="26"/>
-      <c r="BG175" s="26"/>
-      <c r="BH175" s="26"/>
-      <c r="BI175" s="26"/>
-      <c r="BJ175" s="26"/>
-      <c r="BK175" s="26"/>
-      <c r="BL175" s="26"/>
-      <c r="BM175" s="26"/>
-      <c r="BN175" s="26"/>
-      <c r="BO175" s="26"/>
-      <c r="BP175" s="26"/>
-      <c r="BQ175" s="26"/>
-      <c r="BR175" s="26"/>
-      <c r="BS175" s="26"/>
-      <c r="BT175" s="26"/>
-      <c r="BU175" s="26"/>
-      <c r="BV175" s="26"/>
-      <c r="BW175" s="26"/>
-      <c r="BX175" s="26"/>
-      <c r="BY175" s="26"/>
-      <c r="BZ175" s="26"/>
-      <c r="CA175" s="26"/>
-      <c r="CB175" s="26"/>
-      <c r="CC175" s="26"/>
-      <c r="CD175" s="26"/>
-      <c r="CE175" s="26"/>
-      <c r="CF175" s="26"/>
-      <c r="CG175" s="26"/>
-      <c r="CH175" s="26"/>
-      <c r="CI175" s="26"/>
-      <c r="CJ175" s="26"/>
-      <c r="CK175" s="26"/>
-      <c r="CL175" s="26"/>
-      <c r="CM175" s="26"/>
-      <c r="CN175" s="26"/>
-      <c r="CO175" s="26"/>
-      <c r="CP175" s="26"/>
-      <c r="CQ175" s="26"/>
-      <c r="CR175" s="26"/>
-      <c r="CS175" s="26"/>
-      <c r="CT175" s="26"/>
-      <c r="CU175" s="26"/>
-      <c r="CV175" s="26"/>
-      <c r="CW175" s="26"/>
-      <c r="CX175" s="26"/>
-      <c r="CY175" s="26"/>
-      <c r="CZ175" s="26"/>
-      <c r="DA175" s="26"/>
-      <c r="DB175" s="26"/>
-      <c r="DC175" s="26"/>
-      <c r="DD175" s="26"/>
+      <c r="BB175" s="15"/>
+      <c r="BC175" s="15"/>
+      <c r="BD175" s="15"/>
+      <c r="BE175" s="15"/>
+      <c r="BF175" s="15"/>
+      <c r="BG175" s="15"/>
+      <c r="BH175" s="15"/>
+      <c r="BI175" s="15"/>
+      <c r="BJ175" s="15"/>
+      <c r="BK175" s="15"/>
+      <c r="BL175" s="15"/>
+      <c r="BM175" s="15"/>
+      <c r="BN175" s="15"/>
+      <c r="BO175" s="15"/>
+      <c r="BP175" s="15"/>
+      <c r="BQ175" s="15"/>
+      <c r="BR175" s="15"/>
+      <c r="BS175" s="15"/>
+      <c r="BT175" s="15"/>
+      <c r="BU175" s="15"/>
+      <c r="BV175" s="15"/>
+      <c r="BW175" s="15"/>
+      <c r="BX175" s="15"/>
+      <c r="BY175" s="15"/>
+      <c r="BZ175" s="15"/>
+      <c r="CA175" s="15"/>
+      <c r="CB175" s="15"/>
+      <c r="CC175" s="15"/>
+      <c r="CD175" s="15"/>
+      <c r="CE175" s="15"/>
+      <c r="CF175" s="15"/>
+      <c r="CG175" s="15"/>
+      <c r="CH175" s="15"/>
+      <c r="CI175" s="15"/>
+      <c r="CJ175" s="15"/>
+      <c r="CK175" s="15"/>
+      <c r="CL175" s="15"/>
+      <c r="CM175" s="15"/>
+      <c r="CN175" s="15"/>
+      <c r="CO175" s="15"/>
+      <c r="CP175" s="15"/>
+      <c r="CQ175" s="15"/>
+      <c r="CR175" s="15"/>
+      <c r="CS175" s="15"/>
+      <c r="CT175" s="15"/>
+      <c r="CU175" s="15"/>
+      <c r="CV175" s="15"/>
+      <c r="CW175" s="15"/>
+      <c r="CX175" s="15"/>
+      <c r="CY175" s="15"/>
+      <c r="CZ175" s="15"/>
+      <c r="DA175" s="15"/>
+      <c r="DB175" s="15"/>
+      <c r="DC175" s="15"/>
+      <c r="DD175" s="15"/>
       <c r="DE175" s="15"/>
       <c r="DF175" s="15"/>
       <c r="DG175" s="15"/>
@@ -20792,12 +20835,19 @@
       <c r="DO175" s="15"/>
       <c r="DP175" s="15"/>
     </row>
-    <row r="176" spans="1:120" ht="15" customHeight="1">
-      <c r="A176" s="38"/>
-      <c r="B176" s="29"/>
-      <c r="C176" s="20"/>
-      <c r="D176" s="21"/>
-      <c r="E176" s="21"/>
+    <row r="176" spans="1:120" ht="15" hidden="1" customHeight="1">
+      <c r="A176" s="89" t="s">
+        <v>302</v>
+      </c>
+      <c r="B176" s="28">
+        <v>12184.5</v>
+      </c>
+      <c r="C176" s="17"/>
+      <c r="D176" s="18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E176" s="18"/>
       <c r="F176" s="26"/>
       <c r="G176" s="26"/>
       <c r="H176" s="26"/>
@@ -20846,61 +20896,61 @@
       <c r="AY176" s="26"/>
       <c r="AZ176" s="26"/>
       <c r="BA176" s="26"/>
-      <c r="BB176" s="26"/>
-      <c r="BC176" s="26"/>
-      <c r="BD176" s="26"/>
-      <c r="BE176" s="26"/>
-      <c r="BF176" s="26"/>
-      <c r="BG176" s="26"/>
-      <c r="BH176" s="26"/>
-      <c r="BI176" s="26"/>
-      <c r="BJ176" s="26"/>
-      <c r="BK176" s="26"/>
-      <c r="BL176" s="26"/>
-      <c r="BM176" s="26"/>
-      <c r="BN176" s="26"/>
-      <c r="BO176" s="26"/>
-      <c r="BP176" s="26"/>
-      <c r="BQ176" s="26"/>
-      <c r="BR176" s="26"/>
-      <c r="BS176" s="26"/>
-      <c r="BT176" s="26"/>
-      <c r="BU176" s="26"/>
-      <c r="BV176" s="26"/>
-      <c r="BW176" s="26"/>
-      <c r="BX176" s="26"/>
-      <c r="BY176" s="26"/>
-      <c r="BZ176" s="26"/>
-      <c r="CA176" s="26"/>
-      <c r="CB176" s="26"/>
-      <c r="CC176" s="26"/>
-      <c r="CD176" s="26"/>
-      <c r="CE176" s="26"/>
-      <c r="CF176" s="26"/>
-      <c r="CG176" s="26"/>
-      <c r="CH176" s="26"/>
-      <c r="CI176" s="26"/>
-      <c r="CJ176" s="26"/>
-      <c r="CK176" s="26"/>
-      <c r="CL176" s="26"/>
-      <c r="CM176" s="26"/>
-      <c r="CN176" s="26"/>
-      <c r="CO176" s="26"/>
-      <c r="CP176" s="26"/>
-      <c r="CQ176" s="26"/>
-      <c r="CR176" s="26"/>
-      <c r="CS176" s="26"/>
-      <c r="CT176" s="26"/>
-      <c r="CU176" s="26"/>
-      <c r="CV176" s="26"/>
-      <c r="CW176" s="26"/>
-      <c r="CX176" s="26"/>
-      <c r="CY176" s="26"/>
-      <c r="CZ176" s="26"/>
-      <c r="DA176" s="26"/>
-      <c r="DB176" s="26"/>
-      <c r="DC176" s="26"/>
-      <c r="DD176" s="26"/>
+      <c r="BB176" s="15"/>
+      <c r="BC176" s="15"/>
+      <c r="BD176" s="15"/>
+      <c r="BE176" s="15"/>
+      <c r="BF176" s="15"/>
+      <c r="BG176" s="15"/>
+      <c r="BH176" s="15"/>
+      <c r="BI176" s="15"/>
+      <c r="BJ176" s="15"/>
+      <c r="BK176" s="15"/>
+      <c r="BL176" s="15"/>
+      <c r="BM176" s="15"/>
+      <c r="BN176" s="15"/>
+      <c r="BO176" s="15"/>
+      <c r="BP176" s="15"/>
+      <c r="BQ176" s="15"/>
+      <c r="BR176" s="15"/>
+      <c r="BS176" s="15"/>
+      <c r="BT176" s="15"/>
+      <c r="BU176" s="15"/>
+      <c r="BV176" s="15"/>
+      <c r="BW176" s="15"/>
+      <c r="BX176" s="15"/>
+      <c r="BY176" s="15"/>
+      <c r="BZ176" s="15"/>
+      <c r="CA176" s="15"/>
+      <c r="CB176" s="15"/>
+      <c r="CC176" s="15"/>
+      <c r="CD176" s="15"/>
+      <c r="CE176" s="15"/>
+      <c r="CF176" s="15"/>
+      <c r="CG176" s="15"/>
+      <c r="CH176" s="15"/>
+      <c r="CI176" s="15"/>
+      <c r="CJ176" s="15"/>
+      <c r="CK176" s="15"/>
+      <c r="CL176" s="15"/>
+      <c r="CM176" s="15"/>
+      <c r="CN176" s="15"/>
+      <c r="CO176" s="15"/>
+      <c r="CP176" s="15"/>
+      <c r="CQ176" s="15"/>
+      <c r="CR176" s="15"/>
+      <c r="CS176" s="15"/>
+      <c r="CT176" s="15"/>
+      <c r="CU176" s="15"/>
+      <c r="CV176" s="15"/>
+      <c r="CW176" s="15"/>
+      <c r="CX176" s="15"/>
+      <c r="CY176" s="15"/>
+      <c r="CZ176" s="15"/>
+      <c r="DA176" s="15"/>
+      <c r="DB176" s="15"/>
+      <c r="DC176" s="15"/>
+      <c r="DD176" s="15"/>
       <c r="DE176" s="15"/>
       <c r="DF176" s="15"/>
       <c r="DG176" s="15"/>
@@ -20914,76 +20964,328 @@
       <c r="DO176" s="15"/>
       <c r="DP176" s="15"/>
     </row>
-    <row r="177" spans="2:10" ht="9" customHeight="1" thickBot="1">
-      <c r="B177" s="76"/>
-      <c r="C177" s="76"/>
-      <c r="D177" s="76"/>
-      <c r="E177" s="76"/>
-      <c r="I177" s="55"/>
-    </row>
-    <row r="178" spans="2:10" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B178" s="81" t="s">
+    <row r="177" spans="1:120" ht="15" customHeight="1" thickBot="1">
+      <c r="A177" s="84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B177" s="85"/>
+      <c r="C177" s="86">
+        <f>SUBTOTAL(9,C15:C176)</f>
+        <v>255</v>
+      </c>
+      <c r="D177" s="87">
+        <f>SUBTOTAL(9,D15:D176)</f>
+        <v>649597.69999999995</v>
+      </c>
+      <c r="E177" s="88"/>
+      <c r="F177" s="26"/>
+      <c r="G177" s="26"/>
+      <c r="H177" s="26"/>
+      <c r="I177" s="26"/>
+      <c r="J177" s="26"/>
+      <c r="K177" s="26"/>
+      <c r="L177" s="26"/>
+      <c r="M177" s="26"/>
+      <c r="N177" s="26"/>
+      <c r="O177" s="26"/>
+      <c r="P177" s="26"/>
+      <c r="Q177" s="26"/>
+      <c r="R177" s="26"/>
+      <c r="S177" s="26"/>
+      <c r="T177" s="26"/>
+      <c r="U177" s="26"/>
+      <c r="V177" s="26"/>
+      <c r="W177" s="26"/>
+      <c r="X177" s="26"/>
+      <c r="Y177" s="26"/>
+      <c r="Z177" s="26"/>
+      <c r="AA177" s="26"/>
+      <c r="AB177" s="26"/>
+      <c r="AC177" s="26"/>
+      <c r="AD177" s="26"/>
+      <c r="AE177" s="26"/>
+      <c r="AF177" s="26"/>
+      <c r="AG177" s="26"/>
+      <c r="AH177" s="26"/>
+      <c r="AI177" s="26"/>
+      <c r="AJ177" s="26"/>
+      <c r="AK177" s="26"/>
+      <c r="AL177" s="26"/>
+      <c r="AM177" s="26"/>
+      <c r="AN177" s="26"/>
+      <c r="AO177" s="26"/>
+      <c r="AP177" s="26"/>
+      <c r="AQ177" s="26"/>
+      <c r="AR177" s="26"/>
+      <c r="AS177" s="26"/>
+      <c r="AT177" s="26"/>
+      <c r="AU177" s="26"/>
+      <c r="AV177" s="26"/>
+      <c r="AW177" s="26"/>
+      <c r="AX177" s="26"/>
+      <c r="AY177" s="26"/>
+      <c r="AZ177" s="26"/>
+      <c r="BA177" s="26"/>
+      <c r="BB177" s="26"/>
+      <c r="BC177" s="26"/>
+      <c r="BD177" s="26"/>
+      <c r="BE177" s="26"/>
+      <c r="BF177" s="26"/>
+      <c r="BG177" s="26"/>
+      <c r="BH177" s="26"/>
+      <c r="BI177" s="26"/>
+      <c r="BJ177" s="26"/>
+      <c r="BK177" s="26"/>
+      <c r="BL177" s="26"/>
+      <c r="BM177" s="26"/>
+      <c r="BN177" s="26"/>
+      <c r="BO177" s="26"/>
+      <c r="BP177" s="26"/>
+      <c r="BQ177" s="26"/>
+      <c r="BR177" s="26"/>
+      <c r="BS177" s="26"/>
+      <c r="BT177" s="26"/>
+      <c r="BU177" s="26"/>
+      <c r="BV177" s="26"/>
+      <c r="BW177" s="26"/>
+      <c r="BX177" s="26"/>
+      <c r="BY177" s="26"/>
+      <c r="BZ177" s="26"/>
+      <c r="CA177" s="26"/>
+      <c r="CB177" s="26"/>
+      <c r="CC177" s="26"/>
+      <c r="CD177" s="26"/>
+      <c r="CE177" s="26"/>
+      <c r="CF177" s="26"/>
+      <c r="CG177" s="26"/>
+      <c r="CH177" s="26"/>
+      <c r="CI177" s="26"/>
+      <c r="CJ177" s="26"/>
+      <c r="CK177" s="26"/>
+      <c r="CL177" s="26"/>
+      <c r="CM177" s="26"/>
+      <c r="CN177" s="26"/>
+      <c r="CO177" s="26"/>
+      <c r="CP177" s="26"/>
+      <c r="CQ177" s="26"/>
+      <c r="CR177" s="26"/>
+      <c r="CS177" s="26"/>
+      <c r="CT177" s="26"/>
+      <c r="CU177" s="26"/>
+      <c r="CV177" s="26"/>
+      <c r="CW177" s="26"/>
+      <c r="CX177" s="26"/>
+      <c r="CY177" s="26"/>
+      <c r="CZ177" s="26"/>
+      <c r="DA177" s="26"/>
+      <c r="DB177" s="26"/>
+      <c r="DC177" s="26"/>
+      <c r="DD177" s="26"/>
+      <c r="DE177" s="15"/>
+      <c r="DF177" s="15"/>
+      <c r="DG177" s="15"/>
+      <c r="DH177" s="15"/>
+      <c r="DI177" s="15"/>
+      <c r="DJ177" s="15"/>
+      <c r="DK177" s="15"/>
+      <c r="DL177" s="15"/>
+      <c r="DM177" s="15"/>
+      <c r="DN177" s="15"/>
+      <c r="DO177" s="15"/>
+      <c r="DP177" s="15"/>
+    </row>
+    <row r="178" spans="1:120" ht="15" customHeight="1">
+      <c r="A178" s="38"/>
+      <c r="B178" s="29"/>
+      <c r="C178" s="20"/>
+      <c r="D178" s="21"/>
+      <c r="E178" s="21"/>
+      <c r="F178" s="26"/>
+      <c r="G178" s="26"/>
+      <c r="H178" s="26"/>
+      <c r="I178" s="26"/>
+      <c r="J178" s="26"/>
+      <c r="K178" s="26"/>
+      <c r="L178" s="26"/>
+      <c r="M178" s="26"/>
+      <c r="N178" s="26"/>
+      <c r="O178" s="26"/>
+      <c r="P178" s="26"/>
+      <c r="Q178" s="26"/>
+      <c r="R178" s="26"/>
+      <c r="S178" s="26"/>
+      <c r="T178" s="26"/>
+      <c r="U178" s="26"/>
+      <c r="V178" s="26"/>
+      <c r="W178" s="26"/>
+      <c r="X178" s="26"/>
+      <c r="Y178" s="26"/>
+      <c r="Z178" s="26"/>
+      <c r="AA178" s="26"/>
+      <c r="AB178" s="26"/>
+      <c r="AC178" s="26"/>
+      <c r="AD178" s="26"/>
+      <c r="AE178" s="26"/>
+      <c r="AF178" s="26"/>
+      <c r="AG178" s="26"/>
+      <c r="AH178" s="26"/>
+      <c r="AI178" s="26"/>
+      <c r="AJ178" s="26"/>
+      <c r="AK178" s="26"/>
+      <c r="AL178" s="26"/>
+      <c r="AM178" s="26"/>
+      <c r="AN178" s="26"/>
+      <c r="AO178" s="26"/>
+      <c r="AP178" s="26"/>
+      <c r="AQ178" s="26"/>
+      <c r="AR178" s="26"/>
+      <c r="AS178" s="26"/>
+      <c r="AT178" s="26"/>
+      <c r="AU178" s="26"/>
+      <c r="AV178" s="26"/>
+      <c r="AW178" s="26"/>
+      <c r="AX178" s="26"/>
+      <c r="AY178" s="26"/>
+      <c r="AZ178" s="26"/>
+      <c r="BA178" s="26"/>
+      <c r="BB178" s="26"/>
+      <c r="BC178" s="26"/>
+      <c r="BD178" s="26"/>
+      <c r="BE178" s="26"/>
+      <c r="BF178" s="26"/>
+      <c r="BG178" s="26"/>
+      <c r="BH178" s="26"/>
+      <c r="BI178" s="26"/>
+      <c r="BJ178" s="26"/>
+      <c r="BK178" s="26"/>
+      <c r="BL178" s="26"/>
+      <c r="BM178" s="26"/>
+      <c r="BN178" s="26"/>
+      <c r="BO178" s="26"/>
+      <c r="BP178" s="26"/>
+      <c r="BQ178" s="26"/>
+      <c r="BR178" s="26"/>
+      <c r="BS178" s="26"/>
+      <c r="BT178" s="26"/>
+      <c r="BU178" s="26"/>
+      <c r="BV178" s="26"/>
+      <c r="BW178" s="26"/>
+      <c r="BX178" s="26"/>
+      <c r="BY178" s="26"/>
+      <c r="BZ178" s="26"/>
+      <c r="CA178" s="26"/>
+      <c r="CB178" s="26"/>
+      <c r="CC178" s="26"/>
+      <c r="CD178" s="26"/>
+      <c r="CE178" s="26"/>
+      <c r="CF178" s="26"/>
+      <c r="CG178" s="26"/>
+      <c r="CH178" s="26"/>
+      <c r="CI178" s="26"/>
+      <c r="CJ178" s="26"/>
+      <c r="CK178" s="26"/>
+      <c r="CL178" s="26"/>
+      <c r="CM178" s="26"/>
+      <c r="CN178" s="26"/>
+      <c r="CO178" s="26"/>
+      <c r="CP178" s="26"/>
+      <c r="CQ178" s="26"/>
+      <c r="CR178" s="26"/>
+      <c r="CS178" s="26"/>
+      <c r="CT178" s="26"/>
+      <c r="CU178" s="26"/>
+      <c r="CV178" s="26"/>
+      <c r="CW178" s="26"/>
+      <c r="CX178" s="26"/>
+      <c r="CY178" s="26"/>
+      <c r="CZ178" s="26"/>
+      <c r="DA178" s="26"/>
+      <c r="DB178" s="26"/>
+      <c r="DC178" s="26"/>
+      <c r="DD178" s="26"/>
+      <c r="DE178" s="15"/>
+      <c r="DF178" s="15"/>
+      <c r="DG178" s="15"/>
+      <c r="DH178" s="15"/>
+      <c r="DI178" s="15"/>
+      <c r="DJ178" s="15"/>
+      <c r="DK178" s="15"/>
+      <c r="DL178" s="15"/>
+      <c r="DM178" s="15"/>
+      <c r="DN178" s="15"/>
+      <c r="DO178" s="15"/>
+      <c r="DP178" s="15"/>
+    </row>
+    <row r="179" spans="1:120" ht="9" customHeight="1" thickBot="1">
+      <c r="B179" s="71"/>
+      <c r="C179" s="71"/>
+      <c r="D179" s="71"/>
+      <c r="E179" s="71"/>
+      <c r="I179" s="52"/>
+    </row>
+    <row r="180" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
+      <c r="B180" s="76" t="s">
         <v>84</v>
       </c>
-      <c r="C178" s="82"/>
-      <c r="D178" s="83"/>
-      <c r="E178" s="24"/>
-      <c r="J178" s="25" t="s">
+      <c r="C180" s="77"/>
+      <c r="D180" s="78"/>
+      <c r="E180" s="24"/>
+      <c r="J180" s="25" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="179" spans="2:10" ht="9" customHeight="1" thickBot="1"/>
-    <row r="180" spans="2:10">
-      <c r="B180" s="43" t="s">
+    <row r="181" spans="1:120" ht="9" customHeight="1" thickBot="1"/>
+    <row r="182" spans="1:120">
+      <c r="B182" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="C180" s="44" t="s">
+      <c r="C182" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="D180" s="45" t="s">
+      <c r="D182" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="E180" s="22"/>
-    </row>
-    <row r="181" spans="2:10" ht="15" customHeight="1">
-      <c r="B181" s="46" t="s">
+      <c r="E182" s="22"/>
+    </row>
+    <row r="183" spans="1:120" ht="15" customHeight="1">
+      <c r="B183" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="C181" s="47">
-        <v>400000</v>
-      </c>
-      <c r="D181" s="48" t="s">
+      <c r="C183" s="47">
+        <v>700000</v>
+      </c>
+      <c r="D183" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E181" s="22" t="s">
+      <c r="E183" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="182" spans="2:10" ht="15" customHeight="1" thickBot="1">
-      <c r="B182" s="46" t="s">
+    <row r="184" spans="1:120" ht="15" customHeight="1" thickBot="1">
+      <c r="B184" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="C182" s="47"/>
-      <c r="D182" s="48"/>
-      <c r="E182" s="22"/>
-    </row>
-    <row r="183" spans="2:10" ht="19.5" thickBot="1">
-      <c r="B183" s="49" t="s">
+      <c r="C184" s="47"/>
+      <c r="D184" s="48"/>
+      <c r="E184" s="22"/>
+    </row>
+    <row r="185" spans="1:120" ht="19.5" thickBot="1">
+      <c r="B185" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="C183" s="51">
-        <f>C181+C182</f>
-        <v>400000</v>
-      </c>
-      <c r="D183" s="50"/>
-      <c r="E183" s="23"/>
-    </row>
-    <row r="184" spans="2:10" ht="15" customHeight="1">
-      <c r="F184" s="72"/>
-    </row>
-    <row r="185" spans="2:10" ht="15.75" customHeight="1"/>
+      <c r="C185" s="51">
+        <f>C183+C184</f>
+        <v>700000</v>
+      </c>
+      <c r="D185" s="50"/>
+      <c r="E185" s="23"/>
+    </row>
+    <row r="186" spans="1:120" ht="15" customHeight="1">
+      <c r="F186" s="68"/>
+    </row>
+    <row r="187" spans="1:120" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A4:E174">
+  <autoFilter ref="A4:E176">
     <filterColumn colId="2">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -20997,13 +21299,13 @@
     <sortCondition ref="A5"/>
   </sortState>
   <mergeCells count="5">
-    <mergeCell ref="B177:E177"/>
+    <mergeCell ref="B179:E179"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="A177:B177"/>
   </mergeCells>
-  <conditionalFormatting sqref="C182">
+  <conditionalFormatting sqref="C184">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -21030,33 +21332,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90" t="e">
+      <c r="B3" s="82"/>
+      <c r="C3" s="83" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="90"/>
+      <c r="D3" s="83"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -22997,10 +23299,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="86" t="s">
+      <c r="A101" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="86"/>
+      <c r="B101" s="79"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1732,6 +1732,18 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1756,6 +1768,12 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1770,24 +1788,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2117,7 +2117,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H178" sqref="H178"/>
+      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2134,28 +2134,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="78" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="75"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="34" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44787</v>
+        <v>44789</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3194,19 +3194,17 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>268</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17">
-        <v>80</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>84043.199999999997</v>
+        <v>0</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>242</v>
@@ -3802,11 +3800,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>67723.8</v>
+        <v>56436.5</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>242</v>
@@ -11730,17 +11728,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="70" t="s">
         <v>255</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>70</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>108973.9</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>242</v>
@@ -14385,19 +14385,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>54492</v>
+        <v>0</v>
       </c>
       <c r="E121" s="62" t="s">
         <v>242</v>
@@ -20315,11 +20313,11 @@
         <v>11454.74</v>
       </c>
       <c r="C172" s="17">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>114547.4</v>
+        <v>57273.7</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>242</v>
@@ -20572,7 +20570,7 @@
       <c r="DP173" s="15"/>
     </row>
     <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A174" s="89" t="s">
+      <c r="A174" s="74" t="s">
         <v>287</v>
       </c>
       <c r="B174" s="28">
@@ -20703,18 +20701,18 @@
       <c r="DP174" s="15"/>
     </row>
     <row r="175" spans="1:120" ht="15" customHeight="1">
-      <c r="A175" s="89" t="s">
+      <c r="A175" s="74" t="s">
         <v>301</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
       <c r="C175" s="17">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>286368.5</v>
+        <v>229094.8</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>242</v>
@@ -20836,7 +20834,7 @@
       <c r="DP175" s="15"/>
     </row>
     <row r="176" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A176" s="89" t="s">
+      <c r="A176" s="74" t="s">
         <v>302</v>
       </c>
       <c r="B176" s="28">
@@ -20965,19 +20963,19 @@
       <c r="DP176" s="15"/>
     </row>
     <row r="177" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A177" s="84" t="s">
+      <c r="A177" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="B177" s="85"/>
-      <c r="C177" s="86">
+      <c r="B177" s="84"/>
+      <c r="C177" s="71">
         <f>SUBTOTAL(9,C15:C176)</f>
-        <v>255</v>
-      </c>
-      <c r="D177" s="87">
+        <v>185</v>
+      </c>
+      <c r="D177" s="72">
         <f>SUBTOTAL(9,D15:D176)</f>
-        <v>649597.69999999995</v>
-      </c>
-      <c r="E177" s="88"/>
+        <v>494201.69999999995</v>
+      </c>
+      <c r="E177" s="73"/>
       <c r="F177" s="26"/>
       <c r="G177" s="26"/>
       <c r="H177" s="26"/>
@@ -21217,18 +21215,18 @@
       <c r="DP178" s="15"/>
     </row>
     <row r="179" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B179" s="71"/>
-      <c r="C179" s="71"/>
-      <c r="D179" s="71"/>
-      <c r="E179" s="71"/>
+      <c r="B179" s="75"/>
+      <c r="C179" s="75"/>
+      <c r="D179" s="75"/>
+      <c r="E179" s="75"/>
       <c r="I179" s="52"/>
     </row>
     <row r="180" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B180" s="76" t="s">
+      <c r="B180" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C180" s="77"/>
-      <c r="D180" s="78"/>
+      <c r="C180" s="81"/>
+      <c r="D180" s="82"/>
       <c r="E180" s="24"/>
       <c r="J180" s="25" t="s">
         <v>132</v>
@@ -21252,7 +21250,7 @@
         <v>260</v>
       </c>
       <c r="C183" s="47">
-        <v>700000</v>
+        <v>800000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21275,7 +21273,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>700000</v>
+        <v>800000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>
@@ -21332,33 +21330,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="83" t="e">
+      <c r="B3" s="88"/>
+      <c r="C3" s="89" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="83"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -23299,10 +23297,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="79" t="s">
+      <c r="A101" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="79"/>
+      <c r="B101" s="85"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -944,7 +944,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1122,6 +1122,13 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1538,7 +1545,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1788,6 +1795,9 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2117,7 +2127,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H182" sqref="H182"/>
+      <selection pane="bottomRight" activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2127,8 +2137,8 @@
     <col min="3" max="3" width="26.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="108" width="9.140625" style="25" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="108" width="9.140625" style="25" customWidth="1"/>
     <col min="109" max="120" width="9.140625" style="14" customWidth="1"/>
     <col min="121" max="16384" width="9" style="15"/>
   </cols>
@@ -2155,7 +2165,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44789</v>
+        <v>44790</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3194,17 +3204,19 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>268</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>80</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84043.199999999997</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>242</v>
@@ -3800,11 +3812,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>56436.5</v>
+        <v>22574.6</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>242</v>
@@ -4056,17 +4068,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>272</v>
       </c>
       <c r="B28" s="28">
         <v>1099.6600000000001</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>20</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21993.200000000001</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>242</v>
@@ -5093,17 +5107,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>202</v>
       </c>
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>30</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38823.9</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>242</v>
@@ -11728,19 +11744,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="70" t="s">
         <v>255</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
       </c>
-      <c r="C98" s="17">
-        <v>70</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>108973.9</v>
+        <v>0</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>242</v>
@@ -14385,17 +14399,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>30</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40869</v>
       </c>
       <c r="E121" s="62" t="s">
         <v>242</v>
@@ -19912,17 +19928,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="40" t="s">
         <v>275</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>50</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>416007.5</v>
       </c>
       <c r="E169" s="62" t="s">
         <v>242</v>
@@ -20305,19 +20323,17 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17">
-        <v>5</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>57273.7</v>
+        <v>0</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>242</v>
@@ -20438,17 +20454,19 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:120" ht="15" customHeight="1">
       <c r="A173" s="65" t="s">
         <v>298</v>
       </c>
       <c r="B173" s="66">
-        <v>10179.65</v>
-      </c>
-      <c r="C173" s="67"/>
+        <v>10276.89</v>
+      </c>
+      <c r="C173" s="67">
+        <v>15</v>
+      </c>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>154153.34999999998</v>
       </c>
       <c r="E173" s="62" t="s">
         <v>242</v>
@@ -20700,19 +20718,17 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" customHeight="1">
+    <row r="175" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="74" t="s">
         <v>301</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C175" s="17">
-        <v>20</v>
-      </c>
+      <c r="C175" s="17"/>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>229094.8</v>
+        <v>0</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>242</v>
@@ -20969,11 +20985,11 @@
       <c r="B177" s="84"/>
       <c r="C177" s="71">
         <f>SUBTOTAL(9,C15:C176)</f>
-        <v>185</v>
+        <v>285</v>
       </c>
       <c r="D177" s="72">
         <f>SUBTOTAL(9,D15:D176)</f>
-        <v>494201.69999999995</v>
+        <v>820887.54999999993</v>
       </c>
       <c r="E177" s="73"/>
       <c r="F177" s="26"/>
@@ -21096,7 +21112,7 @@
       <c r="A178" s="38"/>
       <c r="B178" s="29"/>
       <c r="C178" s="20"/>
-      <c r="D178" s="21"/>
+      <c r="D178" s="90"/>
       <c r="E178" s="21"/>
       <c r="F178" s="26"/>
       <c r="G178" s="26"/>
@@ -21228,6 +21244,7 @@
       <c r="C180" s="81"/>
       <c r="D180" s="82"/>
       <c r="E180" s="24"/>
+      <c r="G180" s="68"/>
       <c r="J180" s="25" t="s">
         <v>132</v>
       </c>
@@ -21244,20 +21261,19 @@
         <v>132</v>
       </c>
       <c r="E182" s="22"/>
+      <c r="F182" s="68"/>
     </row>
     <row r="183" spans="1:120" ht="15" customHeight="1">
       <c r="B183" s="46" t="s">
         <v>260</v>
       </c>
       <c r="C183" s="47">
-        <v>800000</v>
+        <v>1500000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="E183" s="22" t="s">
-        <v>132</v>
-      </c>
+      <c r="E183" s="22"/>
     </row>
     <row r="184" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="B184" s="46" t="s">
@@ -21273,7 +21289,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>800000</v>
+        <v>1500000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1751,6 +1751,9 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1795,9 +1798,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2124,10 +2124,10 @@
   <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G186" sqref="G186"/>
+      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2144,28 +2144,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>294</v>
       </c>
-      <c r="C2" s="79"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="34" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44790</v>
+        <v>44794</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2965,11 +2965,11 @@
         <v>1060.57</v>
       </c>
       <c r="C15" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>42422.799999999996</v>
+        <v>63634.2</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>242</v>
@@ -3212,11 +3212,11 @@
         <v>1050.54</v>
       </c>
       <c r="C20" s="17">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>84043.199999999997</v>
+        <v>63032.399999999994</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>242</v>
@@ -3277,17 +3277,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>232</v>
       </c>
       <c r="B21" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>40</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49439.6</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>242</v>
@@ -3812,11 +3814,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>22574.6</v>
+        <v>67723.8</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>242</v>
@@ -4076,11 +4078,11 @@
         <v>1099.6600000000001</v>
       </c>
       <c r="C28" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>21993.200000000001</v>
+        <v>65979.600000000006</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>242</v>
@@ -5115,11 +5117,11 @@
         <v>1294.1300000000001</v>
       </c>
       <c r="C37" s="17">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>38823.9</v>
+        <v>51765.200000000004</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>242</v>
@@ -10563,17 +10565,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="70" t="s">
         <v>257</v>
       </c>
       <c r="B87" s="28">
-        <v>1372.32</v>
-      </c>
-      <c r="C87" s="17"/>
+        <v>1459.53</v>
+      </c>
+      <c r="C87" s="17">
+        <v>100</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>145953</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>242</v>
@@ -11875,17 +11879,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>282</v>
       </c>
       <c r="B99" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>20</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27246</v>
       </c>
       <c r="E99" s="62" t="s">
         <v>242</v>
@@ -12320,17 +12326,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>258</v>
       </c>
       <c r="B103" s="28">
         <v>1342.25</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>40</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>53690</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>242</v>
@@ -14399,19 +14407,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>30</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>40869</v>
+        <v>0</v>
       </c>
       <c r="E121" s="62" t="s">
         <v>242</v>
@@ -19142,17 +19148,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>284</v>
       </c>
       <c r="B163" s="28">
         <v>7488.13</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>40</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>299525.2</v>
       </c>
       <c r="E163" s="62" t="s">
         <v>242</v>
@@ -19928,19 +19936,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="40" t="s">
         <v>275</v>
       </c>
       <c r="B169" s="28">
         <v>8320.15</v>
       </c>
-      <c r="C169" s="17">
-        <v>50</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>416007.5</v>
+        <v>0</v>
       </c>
       <c r="E169" s="62" t="s">
         <v>242</v>
@@ -20462,11 +20468,11 @@
         <v>10276.89</v>
       </c>
       <c r="C173" s="67">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>154153.34999999998</v>
+        <v>411075.6</v>
       </c>
       <c r="E173" s="62" t="s">
         <v>242</v>
@@ -20979,17 +20985,17 @@
       <c r="DP176" s="15"/>
     </row>
     <row r="177" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A177" s="83" t="s">
+      <c r="A177" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B177" s="84"/>
+      <c r="B177" s="85"/>
       <c r="C177" s="71">
         <f>SUBTOTAL(9,C15:C176)</f>
-        <v>285</v>
+        <v>560</v>
       </c>
       <c r="D177" s="72">
         <f>SUBTOTAL(9,D15:D176)</f>
-        <v>820887.54999999993</v>
+        <v>1299064.6000000001</v>
       </c>
       <c r="E177" s="73"/>
       <c r="F177" s="26"/>
@@ -21112,7 +21118,7 @@
       <c r="A178" s="38"/>
       <c r="B178" s="29"/>
       <c r="C178" s="20"/>
-      <c r="D178" s="90"/>
+      <c r="D178" s="75"/>
       <c r="E178" s="21"/>
       <c r="F178" s="26"/>
       <c r="G178" s="26"/>
@@ -21231,18 +21237,18 @@
       <c r="DP178" s="15"/>
     </row>
     <row r="179" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B179" s="75"/>
-      <c r="C179" s="75"/>
-      <c r="D179" s="75"/>
-      <c r="E179" s="75"/>
+      <c r="B179" s="76"/>
+      <c r="C179" s="76"/>
+      <c r="D179" s="76"/>
+      <c r="E179" s="76"/>
       <c r="I179" s="52"/>
     </row>
     <row r="180" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B180" s="80" t="s">
+      <c r="B180" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C180" s="81"/>
-      <c r="D180" s="82"/>
+      <c r="C180" s="82"/>
+      <c r="D180" s="83"/>
       <c r="E180" s="24"/>
       <c r="G180" s="68"/>
       <c r="J180" s="25" t="s">
@@ -21268,7 +21274,7 @@
         <v>260</v>
       </c>
       <c r="C183" s="47">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21289,7 +21295,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>
@@ -21346,33 +21352,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89" t="e">
+      <c r="B3" s="89"/>
+      <c r="C3" s="90" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="89"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -23313,10 +23319,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="85" t="s">
+      <c r="A101" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="85"/>
+      <c r="B101" s="86"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="304">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>Z55(4+128)</t>
+  </si>
+  <si>
+    <t>Grey</t>
   </si>
 </sst>
 </file>
@@ -2124,10 +2127,10 @@
   <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I99" sqref="I99"/>
+      <selection pane="bottomRight" activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2165,7 +2168,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44794</v>
+        <v>44795</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2965,11 +2968,11 @@
         <v>1060.57</v>
       </c>
       <c r="C15" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>63634.2</v>
+        <v>42422.799999999996</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>242</v>
@@ -3212,11 +3215,11 @@
         <v>1050.54</v>
       </c>
       <c r="C20" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>63032.399999999994</v>
+        <v>42021.599999999999</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>242</v>
@@ -4075,14 +4078,14 @@
         <v>272</v>
       </c>
       <c r="B28" s="28">
-        <v>1099.6600000000001</v>
+        <v>1157.8</v>
       </c>
       <c r="C28" s="17">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>65979.600000000006</v>
+        <v>46312</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>242</v>
@@ -5117,11 +5120,11 @@
         <v>1294.1300000000001</v>
       </c>
       <c r="C37" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>51765.200000000004</v>
+        <v>25882.600000000002</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>242</v>
@@ -5242,17 +5245,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>233</v>
       </c>
       <c r="B38" s="28">
         <v>1333.3</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>20</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>26666</v>
       </c>
       <c r="E38" s="62" t="s">
         <v>242</v>
@@ -10573,11 +10578,11 @@
         <v>1459.53</v>
       </c>
       <c r="C87" s="17">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>145953</v>
+        <v>58381.2</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>242</v>
@@ -11358,17 +11363,19 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:120" ht="15" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>297</v>
       </c>
       <c r="B94" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C94" s="17"/>
+      <c r="C94" s="17">
+        <v>20</v>
+      </c>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25682.199999999997</v>
       </c>
       <c r="E94" s="62" t="s">
         <v>242</v>
@@ -12334,11 +12341,11 @@
         <v>1342.25</v>
       </c>
       <c r="C103" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>53690</v>
+        <v>26845</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>242</v>
@@ -19148,19 +19155,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>284</v>
       </c>
       <c r="B163" s="28">
-        <v>7488.13</v>
-      </c>
-      <c r="C163" s="17">
-        <v>40</v>
-      </c>
+        <v>7686.61</v>
+      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>299525.2</v>
+        <v>0</v>
       </c>
       <c r="E163" s="62" t="s">
         <v>242</v>
@@ -20329,20 +20334,22 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>5</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>57273.7</v>
       </c>
       <c r="E172" s="62" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20460,19 +20467,17 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1">
+    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="65" t="s">
         <v>298</v>
       </c>
       <c r="B173" s="66">
         <v>10276.89</v>
       </c>
-      <c r="C173" s="67">
-        <v>40</v>
-      </c>
+      <c r="C173" s="67"/>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>411075.6</v>
+        <v>0</v>
       </c>
       <c r="E173" s="62" t="s">
         <v>242</v>
@@ -20991,11 +20996,11 @@
       <c r="B177" s="85"/>
       <c r="C177" s="71">
         <f>SUBTOTAL(9,C15:C176)</f>
-        <v>560</v>
+        <v>365</v>
       </c>
       <c r="D177" s="72">
         <f>SUBTOTAL(9,D15:D176)</f>
-        <v>1299064.6000000001</v>
+        <v>495896.5</v>
       </c>
       <c r="E177" s="73"/>
       <c r="F177" s="26"/>
@@ -21274,7 +21279,7 @@
         <v>260</v>
       </c>
       <c r="C183" s="47">
-        <v>1300000</v>
+        <v>100000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21295,7 +21300,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>1300000</v>
+        <v>100000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2130,7 +2130,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H177" sqref="H177"/>
+      <selection pane="bottomRight" activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44795</v>
+        <v>44797</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2968,11 +2968,11 @@
         <v>1060.57</v>
       </c>
       <c r="C15" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>42422.799999999996</v>
+        <v>21211.399999999998</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>242</v>
@@ -3215,11 +3215,11 @@
         <v>1050.54</v>
       </c>
       <c r="C20" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>42021.599999999999</v>
+        <v>21010.799999999999</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>242</v>
@@ -3817,11 +3817,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>67723.8</v>
+        <v>22574.6</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>242</v>
@@ -4081,11 +4081,11 @@
         <v>1157.8</v>
       </c>
       <c r="C28" s="17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>46312</v>
+        <v>57890</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>242</v>
@@ -5245,19 +5245,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>233</v>
       </c>
       <c r="B38" s="28">
         <v>1333.3</v>
       </c>
-      <c r="C38" s="17">
-        <v>20</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>26666</v>
+        <v>0</v>
       </c>
       <c r="E38" s="62" t="s">
         <v>242</v>
@@ -9535,17 +9533,19 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1">
       <c r="A76" s="36" t="s">
         <v>288</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
       </c>
-      <c r="C76" s="17"/>
+      <c r="C76" s="17">
+        <v>50</v>
+      </c>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>337467.11</v>
       </c>
       <c r="E76" s="62" t="s">
         <v>242</v>
@@ -10578,11 +10578,11 @@
         <v>1459.53</v>
       </c>
       <c r="C87" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>58381.2</v>
+        <v>29190.6</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>242</v>
@@ -10708,7 +10708,7 @@
         <v>292</v>
       </c>
       <c r="B88" s="28">
-        <v>1420.44</v>
+        <v>1498.63</v>
       </c>
       <c r="C88" s="17"/>
       <c r="D88" s="18">
@@ -11755,17 +11755,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="70" t="s">
         <v>255</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>60</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>93406.2</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>242</v>
@@ -11894,11 +11896,11 @@
         <v>1362.3</v>
       </c>
       <c r="C99" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>27246</v>
+        <v>54492</v>
       </c>
       <c r="E99" s="62" t="s">
         <v>242</v>
@@ -14414,17 +14416,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>300</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>40</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>54492</v>
       </c>
       <c r="E121" s="62" t="s">
         <v>242</v>
@@ -20729,17 +20733,19 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:120" ht="15" customHeight="1">
       <c r="A175" s="74" t="s">
         <v>301</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C175" s="17"/>
+      <c r="C175" s="17">
+        <v>10</v>
+      </c>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>114547.4</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>242</v>
@@ -20996,11 +21002,11 @@
       <c r="B177" s="85"/>
       <c r="C177" s="71">
         <f>SUBTOTAL(9,C15:C176)</f>
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="D177" s="72">
         <f>SUBTOTAL(9,D15:D176)</f>
-        <v>495896.5</v>
+        <v>991405.20999999985</v>
       </c>
       <c r="E177" s="73"/>
       <c r="F177" s="26"/>
@@ -21279,7 +21285,7 @@
         <v>260</v>
       </c>
       <c r="C183" s="47">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21300,7 +21306,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -649,9 +649,6 @@
     <t>Dark_Blue</t>
   </si>
   <si>
-    <t>SL20</t>
-  </si>
-  <si>
     <t>L130</t>
   </si>
   <si>
@@ -934,7 +931,7 @@
     <t>Z55(4+128)</t>
   </si>
   <si>
-    <t>Grey</t>
+    <t>S45</t>
   </si>
 </sst>
 </file>
@@ -2127,10 +2124,10 @@
   <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J99" sqref="J99"/>
+      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2160,7 +2157,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="34" t="s">
@@ -2168,7 +2165,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44797</v>
+        <v>44798</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2191,7 +2188,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="53">
         <v>7244.21</v>
@@ -2202,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2260,20 +2257,22 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B6" s="28">
-        <v>7326.74</v>
-      </c>
-      <c r="C6" s="17"/>
+        <v>7883.09</v>
+      </c>
+      <c r="C6" s="17">
+        <v>5</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>39415.449999999997</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2340,7 +2339,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2411,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2542,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2673,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2744,7 +2743,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2875,7 +2874,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B13" s="28">
         <v>932.26</v>
@@ -2886,12 +2885,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2902,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2962,20 +2961,20 @@
     </row>
     <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
       </c>
       <c r="C15" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>21211.399999999998</v>
+        <v>106057</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -3046,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -3106,7 +3105,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -3117,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -3177,7 +3176,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -3188,12 +3187,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3204,25 +3203,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
       <c r="C20" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>21010.799999999999</v>
+        <v>105054</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3282,20 +3281,20 @@
     </row>
     <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B21" s="28">
         <v>1235.99</v>
       </c>
       <c r="C21" s="17">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>49439.6</v>
+        <v>86519.3</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3362,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3811,20 +3810,20 @@
     </row>
     <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B26" s="28">
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>22574.6</v>
+        <v>112873</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3955,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -4075,20 +4074,20 @@
     </row>
     <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B28" s="28">
         <v>1157.8</v>
       </c>
       <c r="C28" s="17">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>57890</v>
+        <v>81046</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4219,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4350,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4983,7 +4982,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -5120,14 +5119,14 @@
         <v>1294.1300000000001</v>
       </c>
       <c r="C37" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>25882.600000000002</v>
+        <v>51765.200000000004</v>
       </c>
       <c r="E37" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5247,7 +5246,7 @@
     </row>
     <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B38" s="28">
         <v>1333.3</v>
@@ -5258,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5378,7 +5377,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" s="28">
         <v>1235.99</v>
@@ -5389,7 +5388,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5778,7 +5777,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="63" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6156,7 +6155,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6414,7 +6413,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6476,7 +6475,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6487,7 +6486,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6607,7 +6606,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B49" s="28">
         <v>1157.8</v>
@@ -6618,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6738,7 +6737,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B50" s="28">
         <v>1157.8</v>
@@ -6749,7 +6748,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6869,7 +6868,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
@@ -6880,7 +6879,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -7000,7 +6999,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -7011,7 +7010,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7260,7 +7259,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7271,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7391,7 +7390,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7402,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7522,7 +7521,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B56" s="41">
         <v>5225.6499999999996</v>
@@ -7533,7 +7532,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7653,7 +7652,7 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
@@ -7664,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
@@ -8431,7 +8430,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8442,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="62" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8949,7 +8948,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8960,7 +8959,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="62" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -9020,7 +9019,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -9031,7 +9030,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -9153,7 +9152,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9215,7 +9214,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9279,7 +9278,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9343,7 +9342,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9354,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9407,7 +9406,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9418,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9471,7 +9470,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="40" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
@@ -9482,7 +9481,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9533,22 +9532,20 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
       </c>
-      <c r="C76" s="17">
-        <v>50</v>
-      </c>
+      <c r="C76" s="17"/>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>337467.11</v>
+        <v>0</v>
       </c>
       <c r="E76" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -9856,7 +9853,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9867,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9987,7 +9984,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9998,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10440,7 +10437,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10451,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10504,7 +10501,7 @@
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B86" s="28">
         <v>1284.1099999999999</v>
@@ -10515,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10570,22 +10567,20 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B87" s="28">
         <v>1459.53</v>
       </c>
-      <c r="C87" s="17">
-        <v>20</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>29190.6</v>
+        <v>0</v>
       </c>
       <c r="E87" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10705,7 +10700,7 @@
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B88" s="28">
         <v>1498.63</v>
@@ -10716,7 +10711,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB88" s="14"/>
       <c r="BC88" s="14"/>
@@ -11365,20 +11360,20 @@
     </row>
     <row r="94" spans="1:120" ht="15" customHeight="1">
       <c r="A94" s="37" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B94" s="28">
         <v>1284.1099999999999</v>
       </c>
       <c r="C94" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>25682.199999999997</v>
+        <v>51364.399999999994</v>
       </c>
       <c r="E94" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
@@ -11498,7 +11493,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11509,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11573,7 +11568,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11626,7 +11621,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B97" s="28">
         <v>1420.44</v>
@@ -11637,7 +11632,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11757,7 +11752,7 @@
     </row>
     <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="70" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
@@ -11770,7 +11765,7 @@
         <v>93406.2</v>
       </c>
       <c r="E98" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11890,20 +11885,20 @@
     </row>
     <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B99" s="28">
         <v>1362.3</v>
       </c>
       <c r="C99" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>54492</v>
+        <v>27246</v>
       </c>
       <c r="E99" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -12023,7 +12018,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -12034,7 +12029,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -12154,7 +12149,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -12165,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12273,7 +12268,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B102" s="28">
         <v>1255.04</v>
@@ -12284,7 +12279,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12337,7 +12332,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="40" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B103" s="28">
         <v>1342.25</v>
@@ -12350,7 +12345,7 @@
         <v>26845</v>
       </c>
       <c r="E103" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12458,7 +12453,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12469,7 +12464,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -13302,7 +13297,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13313,7 +13308,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13780,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -14418,7 +14413,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
@@ -14431,7 +14426,7 @@
         <v>54492</v>
       </c>
       <c r="E121" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14549,19 +14544,23 @@
       <c r="DO121" s="15"/>
       <c r="DP121" s="15"/>
     </row>
-    <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:120" ht="15" customHeight="1">
       <c r="A122" s="36" t="s">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="B122" s="28">
-        <v>1072.675</v>
-      </c>
-      <c r="C122" s="17"/>
+        <v>1469.49</v>
+      </c>
+      <c r="C122" s="17">
+        <v>20</v>
+      </c>
       <c r="D122" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E122" s="62"/>
+        <v>29389.8</v>
+      </c>
+      <c r="E122" s="62" t="s">
+        <v>241</v>
+      </c>
       <c r="F122" s="26"/>
       <c r="G122" s="26"/>
       <c r="H122" s="26"/>
@@ -15147,7 +15146,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15278,7 +15277,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15398,7 +15397,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15785,7 +15784,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B132" s="28">
         <v>1304.1600000000001</v>
@@ -15796,7 +15795,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15916,7 +15915,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15927,7 +15926,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -16047,7 +16046,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -16058,7 +16057,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -16309,7 +16308,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="69" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B136" s="28">
         <v>5929.08</v>
@@ -16320,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
@@ -16440,7 +16439,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B137" s="28">
         <v>6032.61</v>
@@ -16451,7 +16450,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
@@ -17800,7 +17799,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -18440,7 +18439,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18571,7 +18570,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18642,7 +18641,7 @@
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B158" s="28">
         <v>13718.22</v>
@@ -18653,7 +18652,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F158" s="25"/>
       <c r="G158" s="25"/>
@@ -18706,7 +18705,7 @@
     </row>
     <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18717,7 +18716,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18899,7 +18898,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18910,7 +18909,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -19030,7 +19029,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -19041,7 +19040,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -19161,7 +19160,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B163" s="28">
         <v>7686.61</v>
@@ -19172,7 +19171,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -19292,7 +19291,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19303,7 +19302,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F164" s="26"/>
       <c r="G164" s="26"/>
@@ -19423,7 +19422,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19434,7 +19433,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19554,7 +19553,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19565,7 +19564,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19685,7 +19684,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19696,7 +19695,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19816,7 +19815,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19827,7 +19826,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19945,20 +19944,22 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="40" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B169" s="28">
-        <v>8320.15</v>
-      </c>
-      <c r="C169" s="17"/>
+        <v>9625.31</v>
+      </c>
+      <c r="C169" s="17">
+        <v>5</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>48126.549999999996</v>
       </c>
       <c r="E169" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20078,7 +20079,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -20089,7 +20090,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -20209,7 +20210,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20220,7 +20221,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20340,20 +20341,20 @@
     </row>
     <row r="172" spans="1:120" ht="15" customHeight="1">
       <c r="A172" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
       <c r="C172" s="17">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>57273.7</v>
+        <v>91637.92</v>
       </c>
       <c r="E172" s="62" t="s">
-        <v>303</v>
+        <v>241</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20471,20 +20472,22 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:120" ht="15" customHeight="1">
       <c r="A173" s="65" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B173" s="66">
         <v>10276.89</v>
       </c>
-      <c r="C173" s="67"/>
+      <c r="C173" s="67">
+        <v>10</v>
+      </c>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>102768.9</v>
       </c>
       <c r="E173" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20604,7 +20607,7 @@
     </row>
     <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="74" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B174" s="28">
         <v>10529.5</v>
@@ -20615,7 +20618,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
@@ -20735,20 +20738,20 @@
     </row>
     <row r="175" spans="1:120" ht="15" customHeight="1">
       <c r="A175" s="74" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
       <c r="C175" s="17">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>114547.4</v>
+        <v>91637.92</v>
       </c>
       <c r="E175" s="62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F175" s="26"/>
       <c r="G175" s="26"/>
@@ -20868,7 +20871,7 @@
     </row>
     <row r="176" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="74" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B176" s="28">
         <v>12184.5</v>
@@ -21001,12 +21004,12 @@
       </c>
       <c r="B177" s="85"/>
       <c r="C177" s="71">
-        <f>SUBTOTAL(9,C15:C176)</f>
-        <v>435</v>
+        <f>SUBTOTAL(9,C6:C176)</f>
+        <v>716</v>
       </c>
       <c r="D177" s="72">
-        <f>SUBTOTAL(9,D15:D176)</f>
-        <v>991405.20999999985</v>
+        <f>SUBTOTAL(9,D6:D176)</f>
+        <v>1199644.6399999999</v>
       </c>
       <c r="E177" s="73"/>
       <c r="F177" s="26"/>
@@ -21282,10 +21285,10 @@
     </row>
     <row r="183" spans="1:120" ht="15" customHeight="1">
       <c r="B183" s="46" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C183" s="47">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21294,7 +21297,7 @@
     </row>
     <row r="184" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="B184" s="46" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C184" s="47"/>
       <c r="D184" s="48"/>
@@ -21302,11 +21305,11 @@
     </row>
     <row r="185" spans="1:120" ht="19.5" thickBot="1">
       <c r="B185" s="49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2124,10 +2124,10 @@
   <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G99" sqref="G99"/>
+      <selection pane="bottomRight" activeCell="G188" sqref="G188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44798</v>
+        <v>44809</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2257,19 +2257,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>264</v>
       </c>
       <c r="B6" s="28">
         <v>7883.09</v>
       </c>
-      <c r="C6" s="17">
-        <v>5</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>39415.449999999997</v>
+        <v>0</v>
       </c>
       <c r="E6" s="62" t="s">
         <v>241</v>
@@ -2959,19 +2957,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>284</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
       </c>
-      <c r="C15" s="17">
-        <v>100</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>106057</v>
+        <v>0</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>241</v>
@@ -3206,19 +3202,17 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>267</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17">
-        <v>100</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>105054</v>
+        <v>0</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>241</v>
@@ -3279,19 +3273,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>231</v>
       </c>
       <c r="B21" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C21" s="17">
-        <v>70</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>86519.3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>241</v>
@@ -3808,19 +3800,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>245</v>
       </c>
       <c r="B26" s="28">
         <v>1128.73</v>
       </c>
-      <c r="C26" s="17">
-        <v>100</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>112873</v>
+        <v>0</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>241</v>
@@ -4072,19 +4062,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>271</v>
       </c>
       <c r="B28" s="28">
         <v>1157.8</v>
       </c>
-      <c r="C28" s="17">
-        <v>70</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>81046</v>
+        <v>0</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>241</v>
@@ -5111,19 +5099,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>202</v>
       </c>
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
       </c>
-      <c r="C37" s="17">
-        <v>40</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>51765.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>241</v>
@@ -10567,17 +10553,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="70" t="s">
         <v>256</v>
       </c>
       <c r="B87" s="28">
         <v>1459.53</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>20</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>29190.6</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>241</v>
@@ -11358,19 +11346,17 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" customHeight="1">
+    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>296</v>
       </c>
       <c r="B94" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C94" s="17">
-        <v>40</v>
-      </c>
+      <c r="C94" s="17"/>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>51364.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E94" s="62" t="s">
         <v>241</v>
@@ -11758,11 +11744,11 @@
         <v>1556.77</v>
       </c>
       <c r="C98" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>93406.2</v>
+        <v>31135.4</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>241</v>
@@ -11883,19 +11869,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>281</v>
       </c>
       <c r="B99" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C99" s="17">
-        <v>20</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>27246</v>
+        <v>0</v>
       </c>
       <c r="E99" s="62" t="s">
         <v>241</v>
@@ -12330,19 +12314,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>257</v>
       </c>
       <c r="B103" s="28">
         <v>1342.25</v>
       </c>
-      <c r="C103" s="17">
-        <v>20</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>26845</v>
+        <v>0</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>241</v>
@@ -14411,19 +14393,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>299</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>54492</v>
+        <v>0</v>
       </c>
       <c r="E121" s="62" t="s">
         <v>241</v>
@@ -14544,19 +14524,17 @@
       <c r="DO121" s="15"/>
       <c r="DP121" s="15"/>
     </row>
-    <row r="122" spans="1:120" ht="15" customHeight="1">
+    <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
         <v>302</v>
       </c>
       <c r="B122" s="28">
         <v>1469.49</v>
       </c>
-      <c r="C122" s="17">
-        <v>20</v>
-      </c>
+      <c r="C122" s="17"/>
       <c r="D122" s="18">
         <f t="shared" si="4"/>
-        <v>29389.8</v>
+        <v>0</v>
       </c>
       <c r="E122" s="62" t="s">
         <v>241</v>
@@ -19944,19 +19922,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="40" t="s">
         <v>274</v>
       </c>
       <c r="B169" s="28">
         <v>9625.31</v>
       </c>
-      <c r="C169" s="17">
-        <v>5</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>48126.549999999996</v>
+        <v>0</v>
       </c>
       <c r="E169" s="62" t="s">
         <v>241</v>
@@ -20339,19 +20315,17 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>298</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17">
-        <v>8</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>91637.92</v>
+        <v>0</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>241</v>
@@ -20472,19 +20446,17 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1">
+    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="65" t="s">
         <v>297</v>
       </c>
       <c r="B173" s="66">
         <v>10276.89</v>
       </c>
-      <c r="C173" s="67">
-        <v>10</v>
-      </c>
+      <c r="C173" s="67"/>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>102768.9</v>
+        <v>0</v>
       </c>
       <c r="E173" s="62" t="s">
         <v>241</v>
@@ -20744,11 +20716,11 @@
         <v>11454.74</v>
       </c>
       <c r="C175" s="17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>91637.92</v>
+        <v>80183.179999999993</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>241</v>
@@ -21005,11 +20977,11 @@
       <c r="B177" s="85"/>
       <c r="C177" s="71">
         <f>SUBTOTAL(9,C6:C176)</f>
-        <v>716</v>
+        <v>47</v>
       </c>
       <c r="D177" s="72">
         <f>SUBTOTAL(9,D6:D176)</f>
-        <v>1199644.6399999999</v>
+        <v>140509.18</v>
       </c>
       <c r="E177" s="73"/>
       <c r="F177" s="26"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -625,9 +625,6 @@
     <t>Black &amp; Black_Red</t>
   </si>
   <si>
-    <t>B12+</t>
-  </si>
-  <si>
     <t>V48_SKD</t>
   </si>
   <si>
@@ -880,9 +877,6 @@
     <t>B62</t>
   </si>
   <si>
-    <t>V138</t>
-  </si>
-  <si>
     <t>Z45</t>
   </si>
   <si>
@@ -932,6 +926,12 @@
   </si>
   <si>
     <t>S45</t>
+  </si>
+  <si>
+    <t>A30</t>
+  </si>
+  <si>
+    <t>V139</t>
   </si>
 </sst>
 </file>
@@ -1545,7 +1545,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1733,9 +1733,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2127,7 +2124,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G188" sqref="G188"/>
+      <selection pane="bottomRight" activeCell="K186" sqref="K186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2144,28 +2141,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>293</v>
-      </c>
-      <c r="C2" s="80"/>
+      <c r="B2" s="78" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="79"/>
       <c r="D2" s="34" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44809</v>
+        <v>44810</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2188,7 +2185,7 @@
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="60" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B5" s="53">
         <v>7244.21</v>
@@ -2199,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2259,7 +2256,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" s="28">
         <v>7883.09</v>
@@ -2270,7 +2267,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2326,10 +2323,10 @@
     </row>
     <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>200</v>
+        <v>301</v>
       </c>
       <c r="B7" s="28">
-        <v>892.23</v>
+        <v>972.35440000000006</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18">
@@ -2337,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2408,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2539,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2670,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2741,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2812,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2872,7 +2869,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B13" s="28">
         <v>932.26</v>
@@ -2883,12 +2880,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2899,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2959,7 +2956,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
@@ -2970,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -3030,7 +3027,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -3041,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -3101,7 +3098,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -3112,7 +3109,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -3172,7 +3169,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -3183,12 +3180,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3199,12 +3196,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
@@ -3215,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3275,7 +3272,7 @@
     </row>
     <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B21" s="28">
         <v>1235.99</v>
@@ -3286,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3353,7 +3350,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3800,20 +3797,22 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B26" s="28">
         <v>1128.73</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>60</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67723.8</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3933,7 +3932,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3944,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -4064,7 +4063,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B28" s="28">
         <v>1157.8</v>
@@ -4075,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4206,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4337,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4457,7 +4456,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4970,7 +4969,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -5101,7 +5100,7 @@
     </row>
     <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
@@ -5112,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="E37" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5232,7 +5231,7 @@
     </row>
     <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38" s="28">
         <v>1333.3</v>
@@ -5243,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5363,7 +5362,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B39" s="28">
         <v>1235.99</v>
@@ -5374,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5763,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="63" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6141,7 +6140,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6399,7 +6398,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6461,7 +6460,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6472,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6592,7 +6591,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B49" s="28">
         <v>1157.8</v>
@@ -6603,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6723,7 +6722,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B50" s="28">
         <v>1157.8</v>
@@ -6734,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6854,7 +6853,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
@@ -6865,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6985,7 +6984,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -6996,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7245,7 +7244,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7256,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="62" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7376,7 +7375,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7387,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7507,7 +7506,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B56" s="41">
         <v>5225.6499999999996</v>
@@ -7518,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7638,7 +7637,7 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
@@ -7649,7 +7648,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
@@ -8416,7 +8415,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="36" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8427,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="62" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8934,7 +8933,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8945,7 +8944,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="62" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -9005,7 +9004,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -9016,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -9138,7 +9137,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9200,7 +9199,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9264,7 +9263,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9328,7 +9327,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9339,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9392,7 +9391,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9403,7 +9402,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9456,7 +9455,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="40" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
@@ -9467,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9520,7 +9519,7 @@
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
@@ -9531,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -9708,7 +9707,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="36" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9839,7 +9838,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9850,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9970,7 +9969,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9981,7 +9980,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10423,7 +10422,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10434,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10486,8 +10485,8 @@
       <c r="BA85" s="25"/>
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
-      <c r="A86" s="70" t="s">
-        <v>246</v>
+      <c r="A86" s="69" t="s">
+        <v>245</v>
       </c>
       <c r="B86" s="28">
         <v>1284.1099999999999</v>
@@ -10498,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10554,21 +10553,21 @@
       <c r="BE86" s="25"/>
     </row>
     <row r="87" spans="1:120" ht="15" customHeight="1">
-      <c r="A87" s="70" t="s">
-        <v>256</v>
+      <c r="A87" s="69" t="s">
+        <v>255</v>
       </c>
       <c r="B87" s="28">
         <v>1459.53</v>
       </c>
       <c r="C87" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>29190.6</v>
+        <v>87571.8</v>
       </c>
       <c r="E87" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10688,7 +10687,7 @@
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B88" s="28">
         <v>1498.63</v>
@@ -10699,7 +10698,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB88" s="14"/>
       <c r="BC88" s="14"/>
@@ -11348,7 +11347,7 @@
     </row>
     <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B94" s="28">
         <v>1284.1099999999999</v>
@@ -11359,7 +11358,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
@@ -11479,7 +11478,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11490,7 +11489,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11554,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11607,7 +11606,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B97" s="28">
         <v>1420.44</v>
@@ -11618,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11737,21 +11736,21 @@
       <c r="DP97" s="15"/>
     </row>
     <row r="98" spans="1:120" ht="15" customHeight="1">
-      <c r="A98" s="70" t="s">
-        <v>254</v>
+      <c r="A98" s="69" t="s">
+        <v>253</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
       </c>
       <c r="C98" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>31135.4</v>
+        <v>93406.2</v>
       </c>
       <c r="E98" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11871,7 +11870,7 @@
     </row>
     <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B99" s="28">
         <v>1362.3</v>
@@ -11882,7 +11881,7 @@
         <v>0</v>
       </c>
       <c r="E99" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -12002,7 +12001,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -12013,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -12133,7 +12132,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -12144,7 +12143,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12252,7 +12251,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B102" s="28">
         <v>1255.04</v>
@@ -12263,7 +12262,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12316,7 +12315,7 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B103" s="28">
         <v>1342.25</v>
@@ -12327,7 +12326,7 @@
         <v>0</v>
       </c>
       <c r="E103" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12435,7 +12434,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12446,7 +12445,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -13279,7 +13278,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13290,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13757,7 +13756,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -14395,7 +14394,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
@@ -14406,7 +14405,7 @@
         <v>0</v>
       </c>
       <c r="E121" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14526,7 +14525,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B122" s="28">
         <v>1469.49</v>
@@ -14537,7 +14536,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F122" s="26"/>
       <c r="G122" s="26"/>
@@ -15124,7 +15123,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="62" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15255,7 +15254,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15375,7 +15374,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15762,7 +15761,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B132" s="28">
         <v>1304.1600000000001</v>
@@ -15773,7 +15772,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15893,7 +15892,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15904,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -16024,7 +16023,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -16035,7 +16034,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -16284,20 +16283,22 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A136" s="69" t="s">
-        <v>285</v>
+    <row r="136" spans="1:120" ht="15" customHeight="1">
+      <c r="A136" s="40" t="s">
+        <v>302</v>
       </c>
       <c r="B136" s="28">
-        <v>5929.08</v>
-      </c>
-      <c r="C136" s="17"/>
+        <v>6422.55</v>
+      </c>
+      <c r="C136" s="17">
+        <v>10</v>
+      </c>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>64225.5</v>
       </c>
       <c r="E136" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
@@ -16417,7 +16418,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B137" s="28">
         <v>6032.61</v>
@@ -16428,7 +16429,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
@@ -17115,7 +17116,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -17517,7 +17518,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17777,7 +17778,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="62" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -18417,7 +18418,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18548,7 +18549,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18619,7 +18620,7 @@
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B158" s="28">
         <v>13718.22</v>
@@ -18630,7 +18631,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F158" s="25"/>
       <c r="G158" s="25"/>
@@ -18683,7 +18684,7 @@
     </row>
     <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18694,7 +18695,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18876,7 +18877,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18887,7 +18888,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -19007,7 +19008,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -19018,7 +19019,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -19138,7 +19139,7 @@
     </row>
     <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B163" s="28">
         <v>7686.61</v>
@@ -19149,7 +19150,7 @@
         <v>0</v>
       </c>
       <c r="E163" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -19269,7 +19270,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19280,7 +19281,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F164" s="26"/>
       <c r="G164" s="26"/>
@@ -19400,7 +19401,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19411,7 +19412,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19531,7 +19532,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19542,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19662,7 +19663,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19673,7 +19674,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19793,7 +19794,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19804,7 +19805,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19924,7 +19925,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B169" s="28">
         <v>9625.31</v>
@@ -19935,7 +19936,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20055,7 +20056,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -20066,7 +20067,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -20186,7 +20187,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20197,7 +20198,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20317,7 +20318,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
@@ -20328,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20448,7 +20449,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="65" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B173" s="66">
         <v>10276.89</v>
@@ -20459,7 +20460,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20578,8 +20579,8 @@
       <c r="DP173" s="15"/>
     </row>
     <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A174" s="74" t="s">
-        <v>286</v>
+      <c r="A174" s="73" t="s">
+        <v>284</v>
       </c>
       <c r="B174" s="28">
         <v>10529.5</v>
@@ -20590,7 +20591,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
@@ -20709,21 +20710,21 @@
       <c r="DP174" s="15"/>
     </row>
     <row r="175" spans="1:120" ht="15" customHeight="1">
-      <c r="A175" s="74" t="s">
-        <v>300</v>
+      <c r="A175" s="73" t="s">
+        <v>298</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
       <c r="C175" s="17">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>80183.179999999993</v>
+        <v>286368.5</v>
       </c>
       <c r="E175" s="62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F175" s="26"/>
       <c r="G175" s="26"/>
@@ -20842,8 +20843,8 @@
       <c r="DP175" s="15"/>
     </row>
     <row r="176" spans="1:120" ht="15" hidden="1" customHeight="1">
-      <c r="A176" s="74" t="s">
-        <v>301</v>
+      <c r="A176" s="73" t="s">
+        <v>299</v>
       </c>
       <c r="B176" s="28">
         <v>12184.5</v>
@@ -20971,19 +20972,19 @@
       <c r="DP176" s="15"/>
     </row>
     <row r="177" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A177" s="84" t="s">
+      <c r="A177" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="B177" s="85"/>
-      <c r="C177" s="71">
-        <f>SUBTOTAL(9,C6:C176)</f>
-        <v>47</v>
-      </c>
-      <c r="D177" s="72">
-        <f>SUBTOTAL(9,D6:D176)</f>
-        <v>140509.18</v>
-      </c>
-      <c r="E177" s="73"/>
+      <c r="B177" s="84"/>
+      <c r="C177" s="70">
+        <f>SUBTOTAL(9,C7:C176)</f>
+        <v>215</v>
+      </c>
+      <c r="D177" s="71">
+        <f>SUBTOTAL(9,D7:D176)</f>
+        <v>599295.80000000005</v>
+      </c>
+      <c r="E177" s="72"/>
       <c r="F177" s="26"/>
       <c r="G177" s="26"/>
       <c r="H177" s="26"/>
@@ -21104,7 +21105,7 @@
       <c r="A178" s="38"/>
       <c r="B178" s="29"/>
       <c r="C178" s="20"/>
-      <c r="D178" s="75"/>
+      <c r="D178" s="74"/>
       <c r="E178" s="21"/>
       <c r="F178" s="26"/>
       <c r="G178" s="26"/>
@@ -21223,18 +21224,18 @@
       <c r="DP178" s="15"/>
     </row>
     <row r="179" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B179" s="76"/>
-      <c r="C179" s="76"/>
-      <c r="D179" s="76"/>
-      <c r="E179" s="76"/>
+      <c r="B179" s="75"/>
+      <c r="C179" s="75"/>
+      <c r="D179" s="75"/>
+      <c r="E179" s="75"/>
       <c r="I179" s="52"/>
     </row>
     <row r="180" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B180" s="81" t="s">
+      <c r="B180" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C180" s="82"/>
-      <c r="D180" s="83"/>
+      <c r="C180" s="81"/>
+      <c r="D180" s="82"/>
       <c r="E180" s="24"/>
       <c r="G180" s="68"/>
       <c r="J180" s="25" t="s">
@@ -21257,10 +21258,10 @@
     </row>
     <row r="183" spans="1:120" ht="15" customHeight="1">
       <c r="B183" s="46" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C183" s="47">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21269,7 +21270,7 @@
     </row>
     <row r="184" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="B184" s="46" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C184" s="47"/>
       <c r="D184" s="48"/>
@@ -21277,11 +21278,11 @@
     </row>
     <row r="185" spans="1:120" ht="19.5" thickBot="1">
       <c r="B185" s="49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>
@@ -21338,33 +21339,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90" t="e">
+      <c r="B3" s="88"/>
+      <c r="C3" s="89" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="90"/>
+      <c r="D3" s="89"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -23305,10 +23306,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="86" t="s">
+      <c r="A101" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="86"/>
+      <c r="B101" s="85"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2121,10 +2121,10 @@
   <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K186" sqref="K186"/>
+      <selection pane="bottomRight" activeCell="G178" sqref="G178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44810</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2321,17 +2321,19 @@
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
     </row>
-    <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:120" ht="15" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>301</v>
       </c>
       <c r="B7" s="28">
         <v>972.35440000000006</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="17">
+        <v>160</v>
+      </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>155576.704</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>240</v>
@@ -3270,17 +3272,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>230</v>
       </c>
       <c r="B21" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>20</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>24719.8</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>240</v>
@@ -3805,11 +3809,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>67723.8</v>
+        <v>33861.9</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -4061,17 +4065,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>270</v>
       </c>
       <c r="B28" s="28">
         <v>1157.8</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>40</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46312</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>240</v>
@@ -10560,11 +10566,11 @@
         <v>1459.53</v>
       </c>
       <c r="C87" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>87571.8</v>
+        <v>29190.6</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>240</v>
@@ -10685,17 +10691,19 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:120" ht="15" customHeight="1">
       <c r="A88" s="37" t="s">
         <v>289</v>
       </c>
       <c r="B88" s="28">
         <v>1498.63</v>
       </c>
-      <c r="C88" s="17"/>
+      <c r="C88" s="17">
+        <v>20</v>
+      </c>
       <c r="D88" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>29972.600000000002</v>
       </c>
       <c r="E88" s="62" t="s">
         <v>240</v>
@@ -11743,11 +11751,11 @@
         <v>1556.77</v>
       </c>
       <c r="C98" s="17">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>93406.2</v>
+        <v>77838.5</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>240</v>
@@ -16283,19 +16291,17 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" customHeight="1">
+    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="40" t="s">
         <v>302</v>
       </c>
       <c r="B136" s="28">
         <v>6422.55</v>
       </c>
-      <c r="C136" s="17">
-        <v>10</v>
-      </c>
+      <c r="C136" s="17"/>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>64225.5</v>
+        <v>0</v>
       </c>
       <c r="E136" s="62" t="s">
         <v>240</v>
@@ -20709,19 +20715,17 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" customHeight="1">
+    <row r="175" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="73" t="s">
         <v>298</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C175" s="17">
-        <v>25</v>
-      </c>
+      <c r="C175" s="17"/>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>286368.5</v>
+        <v>0</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>240</v>
@@ -20978,11 +20982,11 @@
       <c r="B177" s="84"/>
       <c r="C177" s="70">
         <f>SUBTOTAL(9,C7:C176)</f>
-        <v>215</v>
+        <v>340</v>
       </c>
       <c r="D177" s="71">
         <f>SUBTOTAL(9,D7:D176)</f>
-        <v>599295.80000000005</v>
+        <v>397472.10399999993</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21261,7 +21265,7 @@
         <v>258</v>
       </c>
       <c r="C183" s="47">
-        <v>600000</v>
+        <v>400000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21282,7 +21286,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>600000</v>
+        <v>400000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2121,10 +2121,10 @@
   <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G178" sqref="G178"/>
+      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44811</v>
+        <v>44816</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2321,19 +2321,17 @@
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
     </row>
-    <row r="7" spans="1:120" ht="15" customHeight="1">
+    <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>301</v>
       </c>
       <c r="B7" s="28">
         <v>972.35440000000006</v>
       </c>
-      <c r="C7" s="17">
-        <v>160</v>
-      </c>
+      <c r="C7" s="17"/>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>155576.704</v>
+        <v>0</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>240</v>
@@ -2956,17 +2954,19 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>283</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>40</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42422.799999999996</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>240</v>
@@ -3201,17 +3201,19 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>40</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42021.599999999999</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>240</v>
@@ -3280,11 +3282,11 @@
         <v>1235.99</v>
       </c>
       <c r="C21" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>24719.8</v>
+        <v>74159.399999999994</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>240</v>
@@ -3809,11 +3811,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>33861.9</v>
+        <v>67723.8</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -4073,11 +4075,11 @@
         <v>1157.8</v>
       </c>
       <c r="C28" s="17">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>46312</v>
+        <v>69468</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>240</v>
@@ -10566,11 +10568,11 @@
         <v>1459.53</v>
       </c>
       <c r="C87" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>29190.6</v>
+        <v>58381.2</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>240</v>
@@ -11751,11 +11753,11 @@
         <v>1556.77</v>
       </c>
       <c r="C98" s="17">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>77838.5</v>
+        <v>31135.4</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>240</v>
@@ -11876,17 +11878,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>280</v>
       </c>
       <c r="B99" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>40</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>54492</v>
       </c>
       <c r="E99" s="62" t="s">
         <v>240</v>
@@ -12321,17 +12325,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>256</v>
       </c>
       <c r="B103" s="28">
         <v>1342.25</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>20</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>26845</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>240</v>
@@ -20981,12 +20987,12 @@
       </c>
       <c r="B177" s="84"/>
       <c r="C177" s="70">
-        <f>SUBTOTAL(9,C7:C176)</f>
-        <v>340</v>
+        <f>SUBTOTAL(9,C15:C176)</f>
+        <v>400</v>
       </c>
       <c r="D177" s="71">
-        <f>SUBTOTAL(9,D7:D176)</f>
-        <v>397472.10399999993</v>
+        <f>SUBTOTAL(9,D15:D176)</f>
+        <v>496621.8</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21265,7 +21271,7 @@
         <v>258</v>
       </c>
       <c r="C183" s="47">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21286,7 +21292,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="304">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>V139</t>
+  </si>
+  <si>
+    <t>Without White</t>
   </si>
 </sst>
 </file>
@@ -2124,7 +2127,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G98" sqref="G98"/>
+      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2162,7 +2165,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44816</v>
+        <v>44817</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2962,11 +2965,11 @@
         <v>1060.57</v>
       </c>
       <c r="C15" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>42422.799999999996</v>
+        <v>21211.399999999998</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>240</v>
@@ -3209,11 +3212,11 @@
         <v>1050.54</v>
       </c>
       <c r="C20" s="17">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>42021.599999999999</v>
+        <v>31516.199999999997</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>240</v>
@@ -3282,11 +3285,11 @@
         <v>1235.99</v>
       </c>
       <c r="C21" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>74159.399999999994</v>
+        <v>24719.8</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>240</v>
@@ -3811,11 +3814,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>67723.8</v>
+        <v>33861.9</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -4075,11 +4078,11 @@
         <v>1157.8</v>
       </c>
       <c r="C28" s="17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>69468</v>
+        <v>115780</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>240</v>
@@ -5106,17 +5109,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>20</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25882.600000000002</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>240</v>
@@ -10568,11 +10573,11 @@
         <v>1459.53</v>
       </c>
       <c r="C87" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>58381.2</v>
+        <v>29190.6</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>240</v>
@@ -10693,19 +10698,17 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" customHeight="1">
+    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
         <v>289</v>
       </c>
       <c r="B88" s="28">
         <v>1498.63</v>
       </c>
-      <c r="C88" s="17">
-        <v>20</v>
-      </c>
+      <c r="C88" s="17"/>
       <c r="D88" s="18">
         <f t="shared" si="3"/>
-        <v>29972.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E88" s="62" t="s">
         <v>240</v>
@@ -11355,20 +11358,22 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:120" ht="15" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>294</v>
       </c>
       <c r="B94" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C94" s="17"/>
+      <c r="C94" s="17">
+        <v>20</v>
+      </c>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25682.199999999997</v>
       </c>
       <c r="E94" s="62" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
@@ -11886,14 +11891,14 @@
         <v>1362.3</v>
       </c>
       <c r="C99" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>54492</v>
+        <v>27246</v>
       </c>
       <c r="E99" s="62" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -14537,17 +14542,19 @@
       <c r="DO121" s="15"/>
       <c r="DP121" s="15"/>
     </row>
-    <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:120" ht="15" customHeight="1">
       <c r="A122" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B122" s="28">
         <v>1469.49</v>
       </c>
-      <c r="C122" s="17"/>
+      <c r="C122" s="17">
+        <v>20</v>
+      </c>
       <c r="D122" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>29389.8</v>
       </c>
       <c r="E122" s="62" t="s">
         <v>240</v>
@@ -20721,17 +20728,19 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:120" ht="15" customHeight="1">
       <c r="A175" s="73" t="s">
         <v>298</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C175" s="17"/>
+      <c r="C175" s="17">
+        <v>7</v>
+      </c>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>80183.179999999993</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>240</v>
@@ -20988,11 +20997,11 @@
       <c r="B177" s="84"/>
       <c r="C177" s="70">
         <f>SUBTOTAL(9,C15:C176)</f>
-        <v>400</v>
+        <v>347</v>
       </c>
       <c r="D177" s="71">
         <f>SUBTOTAL(9,D15:D176)</f>
-        <v>496621.8</v>
+        <v>502644.08</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="303">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -884,9 +884,6 @@
   </si>
   <si>
     <t>G50</t>
-  </si>
-  <si>
-    <t>Without Gold</t>
   </si>
   <si>
     <t>i71</t>
@@ -2127,7 +2124,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I94" sqref="I94"/>
+      <selection pane="bottomRight" activeCell="J122" sqref="J122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2157,7 +2154,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="78" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="34" t="s">
@@ -2165,7 +2162,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44817</v>
+        <v>44819</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2324,17 +2321,19 @@
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
     </row>
-    <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:120" ht="15" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" s="28">
         <v>972.35440000000006</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="17">
+        <v>320</v>
+      </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>311153.408</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>240</v>
@@ -2965,11 +2964,11 @@
         <v>1060.57</v>
       </c>
       <c r="C15" s="17">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>21211.399999999998</v>
+        <v>74239.899999999994</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>240</v>
@@ -3212,11 +3211,11 @@
         <v>1050.54</v>
       </c>
       <c r="C20" s="17">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>31516.199999999997</v>
+        <v>63032.399999999994</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>240</v>
@@ -3285,11 +3284,11 @@
         <v>1235.99</v>
       </c>
       <c r="C21" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>24719.8</v>
+        <v>74159.399999999994</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>240</v>
@@ -3814,11 +3813,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>33861.9</v>
+        <v>79011.100000000006</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -4070,19 +4069,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>270</v>
       </c>
       <c r="B28" s="28">
         <v>1157.8</v>
       </c>
-      <c r="C28" s="17">
-        <v>100</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>115780</v>
+        <v>0</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>240</v>
@@ -5117,11 +5114,11 @@
         <v>1294.1300000000001</v>
       </c>
       <c r="C37" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>25882.600000000002</v>
+        <v>51765.200000000004</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>240</v>
@@ -5762,20 +5759,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>188</v>
       </c>
       <c r="B42" s="28">
-        <v>1422.38</v>
-      </c>
-      <c r="C42" s="17"/>
+        <v>1556.7693999999999</v>
+      </c>
+      <c r="C42" s="17">
+        <v>100</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="63" t="s">
-        <v>287</v>
+        <v>155676.94</v>
+      </c>
+      <c r="E42" s="62" t="s">
+        <v>240</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -9468,7 +9467,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="40" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
@@ -10573,11 +10572,11 @@
         <v>1459.53</v>
       </c>
       <c r="C87" s="17">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>29190.6</v>
+        <v>72976.5</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>240</v>
@@ -10698,17 +10697,19 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:120" ht="15" customHeight="1">
       <c r="A88" s="37" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B88" s="28">
         <v>1498.63</v>
       </c>
-      <c r="C88" s="17"/>
+      <c r="C88" s="17">
+        <v>50</v>
+      </c>
       <c r="D88" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>74931.5</v>
       </c>
       <c r="E88" s="62" t="s">
         <v>240</v>
@@ -11360,20 +11361,20 @@
     </row>
     <row r="94" spans="1:120" ht="15" customHeight="1">
       <c r="A94" s="37" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B94" s="28">
         <v>1284.1099999999999</v>
       </c>
       <c r="C94" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>25682.199999999997</v>
+        <v>77046.599999999991</v>
       </c>
       <c r="E94" s="62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
@@ -11758,11 +11759,11 @@
         <v>1556.77</v>
       </c>
       <c r="C98" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>31135.4</v>
+        <v>62270.8</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>240</v>
@@ -11883,22 +11884,20 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>280</v>
       </c>
       <c r="B99" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C99" s="17">
-        <v>20</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>27246</v>
+        <v>0</v>
       </c>
       <c r="E99" s="62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -12338,11 +12337,11 @@
         <v>1342.25</v>
       </c>
       <c r="C103" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>26845</v>
+        <v>53690</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>240</v>
@@ -14413,7 +14412,7 @@
     </row>
     <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
@@ -14544,7 +14543,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" customHeight="1">
       <c r="A122" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B122" s="28">
         <v>1469.49</v>
@@ -16306,7 +16305,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B136" s="28">
         <v>6422.55</v>
@@ -16437,7 +16436,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B137" s="28">
         <v>6032.61</v>
@@ -18639,7 +18638,7 @@
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B158" s="28">
         <v>13718.22</v>
@@ -20335,17 +20334,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1">
       <c r="A172" s="36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>10</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>114547.4</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>240</v>
@@ -20468,7 +20469,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="65" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B173" s="66">
         <v>10276.89</v>
@@ -20597,17 +20598,19 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="174" spans="1:120" ht="15" customHeight="1">
       <c r="A174" s="73" t="s">
         <v>284</v>
       </c>
       <c r="B174" s="28">
         <v>10529.5</v>
       </c>
-      <c r="C174" s="17"/>
+      <c r="C174" s="17">
+        <v>5</v>
+      </c>
       <c r="D174" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>52647.5</v>
       </c>
       <c r="E174" s="18" t="s">
         <v>240</v>
@@ -20730,17 +20733,17 @@
     </row>
     <row r="175" spans="1:120" ht="15" customHeight="1">
       <c r="A175" s="73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
       <c r="C175" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>80183.179999999993</v>
+        <v>57273.7</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>240</v>
@@ -20863,7 +20866,7 @@
     </row>
     <row r="176" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="73" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B176" s="28">
         <v>12184.5</v>
@@ -20996,12 +20999,12 @@
       </c>
       <c r="B177" s="84"/>
       <c r="C177" s="70">
-        <f>SUBTOTAL(9,C15:C176)</f>
-        <v>347</v>
+        <f>SUBTOTAL(9,C7:C176)</f>
+        <v>1000</v>
       </c>
       <c r="D177" s="71">
-        <f>SUBTOTAL(9,D15:D176)</f>
-        <v>502644.08</v>
+        <f>SUBTOTAL(9,D7:D176)</f>
+        <v>1403812.1479999998</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21280,7 +21283,7 @@
         <v>258</v>
       </c>
       <c r="C183" s="47">
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21289,7 +21292,7 @@
     </row>
     <row r="184" spans="1:120" ht="15" customHeight="1" thickBot="1">
       <c r="B184" s="46" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C184" s="47"/>
       <c r="D184" s="48"/>
@@ -21301,7 +21304,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>500000</v>
+        <v>400000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2121,10 +2121,10 @@
   <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B172" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J122" sqref="J122"/>
+      <selection pane="bottomRight" activeCell="G190" sqref="G190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2162,7 +2162,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44819</v>
+        <v>44822</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2321,19 +2321,17 @@
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
     </row>
-    <row r="7" spans="1:120" ht="15" customHeight="1">
+    <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B7" s="28">
         <v>972.35440000000006</v>
       </c>
-      <c r="C7" s="17">
-        <v>320</v>
-      </c>
+      <c r="C7" s="17"/>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>311153.408</v>
+        <v>0</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>240</v>
@@ -2956,19 +2954,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>283</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
       </c>
-      <c r="C15" s="17">
-        <v>70</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>74239.899999999994</v>
+        <v>0</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>240</v>
@@ -3203,19 +3199,17 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17">
-        <v>60</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>63032.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>240</v>
@@ -3276,19 +3270,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>230</v>
       </c>
       <c r="B21" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C21" s="17">
-        <v>60</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>74159.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>240</v>
@@ -3805,19 +3797,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>244</v>
       </c>
       <c r="B26" s="28">
         <v>1128.73</v>
       </c>
-      <c r="C26" s="17">
-        <v>70</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>79011.100000000006</v>
+        <v>0</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -5106,19 +5096,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
       </c>
-      <c r="C37" s="17">
-        <v>40</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>51765.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>240</v>
@@ -5759,19 +5747,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>188</v>
       </c>
       <c r="B42" s="28">
         <v>1556.7693999999999</v>
       </c>
-      <c r="C42" s="17">
-        <v>100</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>155676.94</v>
+        <v>0</v>
       </c>
       <c r="E42" s="62" t="s">
         <v>240</v>
@@ -10564,19 +10550,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="69" t="s">
         <v>255</v>
       </c>
       <c r="B87" s="28">
         <v>1459.53</v>
       </c>
-      <c r="C87" s="17">
-        <v>50</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>72976.5</v>
+        <v>0</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>240</v>
@@ -10697,19 +10681,17 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" customHeight="1">
+    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
         <v>288</v>
       </c>
       <c r="B88" s="28">
         <v>1498.63</v>
       </c>
-      <c r="C88" s="17">
-        <v>50</v>
-      </c>
+      <c r="C88" s="17"/>
       <c r="D88" s="18">
         <f t="shared" si="3"/>
-        <v>74931.5</v>
+        <v>0</v>
       </c>
       <c r="E88" s="62" t="s">
         <v>240</v>
@@ -11359,19 +11341,17 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" customHeight="1">
+    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B94" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C94" s="17">
-        <v>60</v>
-      </c>
+      <c r="C94" s="17"/>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>77046.599999999991</v>
+        <v>0</v>
       </c>
       <c r="E94" s="62" t="s">
         <v>302</v>
@@ -11751,19 +11731,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="69" t="s">
         <v>253</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
       </c>
-      <c r="C98" s="17">
-        <v>40</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>62270.8</v>
+        <v>0</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>240</v>
@@ -12329,19 +12307,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>256</v>
       </c>
       <c r="B103" s="28">
         <v>1342.25</v>
       </c>
-      <c r="C103" s="17">
-        <v>40</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>53690</v>
+        <v>0</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>240</v>
@@ -14541,19 +14517,17 @@
       <c r="DO121" s="15"/>
       <c r="DP121" s="15"/>
     </row>
-    <row r="122" spans="1:120" ht="15" customHeight="1">
+    <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B122" s="28">
         <v>1469.49</v>
       </c>
-      <c r="C122" s="17">
-        <v>20</v>
-      </c>
+      <c r="C122" s="17"/>
       <c r="D122" s="18">
         <f t="shared" si="4"/>
-        <v>29389.8</v>
+        <v>0</v>
       </c>
       <c r="E122" s="62" t="s">
         <v>240</v>
@@ -20342,11 +20316,11 @@
         <v>11454.74</v>
       </c>
       <c r="C172" s="17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>114547.4</v>
+        <v>80183.179999999993</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>240</v>
@@ -20467,17 +20441,19 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:120" ht="15" customHeight="1">
       <c r="A173" s="65" t="s">
         <v>294</v>
       </c>
       <c r="B173" s="66">
         <v>10276.89</v>
       </c>
-      <c r="C173" s="67"/>
+      <c r="C173" s="67">
+        <v>10</v>
+      </c>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>102768.9</v>
       </c>
       <c r="E173" s="62" t="s">
         <v>240</v>
@@ -20598,19 +20574,17 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" customHeight="1">
+    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="73" t="s">
         <v>284</v>
       </c>
       <c r="B174" s="28">
         <v>10529.5</v>
       </c>
-      <c r="C174" s="17">
-        <v>5</v>
-      </c>
+      <c r="C174" s="17"/>
       <c r="D174" s="18">
         <f t="shared" si="6"/>
-        <v>52647.5</v>
+        <v>0</v>
       </c>
       <c r="E174" s="18" t="s">
         <v>240</v>
@@ -20731,19 +20705,17 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" customHeight="1">
+    <row r="175" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="73" t="s">
         <v>297</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C175" s="17">
-        <v>5</v>
-      </c>
+      <c r="C175" s="17"/>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>57273.7</v>
+        <v>0</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>240</v>
@@ -21000,11 +20972,11 @@
       <c r="B177" s="84"/>
       <c r="C177" s="70">
         <f>SUBTOTAL(9,C7:C176)</f>
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="D177" s="71">
         <f>SUBTOTAL(9,D7:D176)</f>
-        <v>1403812.1479999998</v>
+        <v>182952.08</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21283,7 +21255,7 @@
         <v>258</v>
       </c>
       <c r="C183" s="47">
-        <v>400000</v>
+        <v>1000000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21304,7 +21276,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>400000</v>
+        <v>1000000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="304">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -932,6 +932,9 @@
   </si>
   <si>
     <t>Without White</t>
+  </si>
+  <si>
+    <t>Black Only</t>
   </si>
 </sst>
 </file>
@@ -2121,10 +2124,10 @@
   <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G190" sqref="G190"/>
+      <selection pane="bottomRight" activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2162,7 +2165,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44822</v>
+        <v>44824</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3270,17 +3273,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>230</v>
       </c>
       <c r="B21" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>30</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37079.699999999997</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>240</v>
@@ -3797,17 +3802,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>244</v>
       </c>
       <c r="B26" s="28">
         <v>1128.73</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>20</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22574.6</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -5227,17 +5234,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>231</v>
       </c>
       <c r="B38" s="28">
         <v>1333.3</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>20</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>26666</v>
       </c>
       <c r="E38" s="62" t="s">
         <v>240</v>
@@ -5747,20 +5756,22 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>188</v>
       </c>
       <c r="B42" s="28">
         <v>1556.7693999999999</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>40</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>62270.775999999998</v>
       </c>
       <c r="E42" s="62" t="s">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -11341,17 +11352,19 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:120" ht="15" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B94" s="28">
         <v>1284.1099999999999</v>
       </c>
-      <c r="C94" s="17"/>
+      <c r="C94" s="17">
+        <v>20</v>
+      </c>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>25682.199999999997</v>
       </c>
       <c r="E94" s="62" t="s">
         <v>302</v>
@@ -11862,17 +11875,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>280</v>
       </c>
       <c r="B99" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>20</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27246</v>
       </c>
       <c r="E99" s="62" t="s">
         <v>302</v>
@@ -14386,17 +14401,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>296</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>20</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27246</v>
       </c>
       <c r="E121" s="62" t="s">
         <v>240</v>
@@ -20316,11 +20333,11 @@
         <v>11454.74</v>
       </c>
       <c r="C172" s="17">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>80183.179999999993</v>
+        <v>57273.7</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>240</v>
@@ -20705,17 +20722,19 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:120" ht="15" customHeight="1">
       <c r="A175" s="73" t="s">
         <v>297</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C175" s="17"/>
+      <c r="C175" s="17">
+        <v>10</v>
+      </c>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>114547.4</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>240</v>
@@ -20971,12 +20990,12 @@
       </c>
       <c r="B177" s="84"/>
       <c r="C177" s="70">
-        <f>SUBTOTAL(9,C7:C176)</f>
-        <v>17</v>
+        <f>SUBTOTAL(9,C21:C176)</f>
+        <v>195</v>
       </c>
       <c r="D177" s="71">
-        <f>SUBTOTAL(9,D7:D176)</f>
-        <v>182952.08</v>
+        <f>SUBTOTAL(9,D21:D176)</f>
+        <v>503355.27600000007</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21255,7 +21274,7 @@
         <v>258</v>
       </c>
       <c r="C183" s="47">
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21276,7 +21295,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>1000000</v>
+        <v>500000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2124,10 +2124,10 @@
   <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I178" sqref="I178"/>
+      <selection pane="bottomRight" activeCell="K182" sqref="K182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44824</v>
+        <v>44826</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3202,17 +3202,19 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>20</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21010.799999999999</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>240</v>
@@ -3281,11 +3283,11 @@
         <v>1235.99</v>
       </c>
       <c r="C21" s="17">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>37079.699999999997</v>
+        <v>24719.8</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>240</v>
@@ -3810,11 +3812,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>22574.6</v>
+        <v>67723.8</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -4066,17 +4068,19 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:120" ht="15" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>270</v>
       </c>
       <c r="B28" s="28">
         <v>1157.8</v>
       </c>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>40</v>
+      </c>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>46312</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>240</v>
@@ -5234,19 +5238,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>231</v>
       </c>
       <c r="B38" s="28">
         <v>1333.3</v>
       </c>
-      <c r="C38" s="17">
-        <v>20</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>26666</v>
+        <v>0</v>
       </c>
       <c r="E38" s="62" t="s">
         <v>240</v>
@@ -5756,19 +5758,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>188</v>
       </c>
       <c r="B42" s="28">
         <v>1556.7693999999999</v>
       </c>
-      <c r="C42" s="17">
-        <v>40</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>62270.775999999998</v>
+        <v>0</v>
       </c>
       <c r="E42" s="62" t="s">
         <v>303</v>
@@ -11357,14 +11357,14 @@
         <v>293</v>
       </c>
       <c r="B94" s="28">
-        <v>1284.1099999999999</v>
+        <v>1381.28</v>
       </c>
       <c r="C94" s="17">
         <v>20</v>
       </c>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>25682.199999999997</v>
+        <v>27625.599999999999</v>
       </c>
       <c r="E94" s="62" t="s">
         <v>302</v>
@@ -11744,17 +11744,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="69" t="s">
         <v>253</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>20</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>31135.4</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>240</v>
@@ -12322,17 +12324,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>256</v>
       </c>
       <c r="B103" s="28">
         <v>1342.25</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>20</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>26845</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>240</v>
@@ -14401,19 +14405,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>296</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>20</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>27246</v>
+        <v>0</v>
       </c>
       <c r="E121" s="62" t="s">
         <v>240</v>
@@ -20325,19 +20327,17 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>295</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17">
-        <v>5</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>57273.7</v>
+        <v>0</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>240</v>
@@ -20458,19 +20458,17 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1">
+    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="65" t="s">
         <v>294</v>
       </c>
       <c r="B173" s="66">
         <v>10276.89</v>
       </c>
-      <c r="C173" s="67">
-        <v>10</v>
-      </c>
+      <c r="C173" s="67"/>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>102768.9</v>
+        <v>0</v>
       </c>
       <c r="E173" s="62" t="s">
         <v>240</v>
@@ -20722,19 +20720,17 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" customHeight="1">
+    <row r="175" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="73" t="s">
         <v>297</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C175" s="17">
-        <v>10</v>
-      </c>
+      <c r="C175" s="17"/>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>114547.4</v>
+        <v>0</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>240</v>
@@ -20990,12 +20986,12 @@
       </c>
       <c r="B177" s="84"/>
       <c r="C177" s="70">
-        <f>SUBTOTAL(9,C21:C176)</f>
-        <v>195</v>
+        <f>SUBTOTAL(9,C20:C176)</f>
+        <v>220</v>
       </c>
       <c r="D177" s="71">
-        <f>SUBTOTAL(9,D21:D176)</f>
-        <v>503355.27600000007</v>
+        <f>SUBTOTAL(9,D20:D176)</f>
+        <v>272618.40000000002</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2124,10 +2124,10 @@
   <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K182" sqref="K182"/>
+      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44826</v>
+        <v>44830</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2324,17 +2324,19 @@
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
     </row>
-    <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:120" ht="15" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B7" s="28">
         <v>972.35440000000006</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="17">
+        <v>200</v>
+      </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>194470.88</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>240</v>
@@ -2957,17 +2959,19 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>283</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>60</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63634.2</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>240</v>
@@ -3210,11 +3214,11 @@
         <v>1050.54</v>
       </c>
       <c r="C20" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>21010.799999999999</v>
+        <v>63032.399999999994</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>240</v>
@@ -3283,11 +3287,11 @@
         <v>1235.99</v>
       </c>
       <c r="C21" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>24719.8</v>
+        <v>74159.399999999994</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>240</v>
@@ -3812,11 +3816,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>67723.8</v>
+        <v>112873</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -4068,19 +4072,17 @@
       <c r="DO27" s="15"/>
       <c r="DP27" s="15"/>
     </row>
-    <row r="28" spans="1:120" ht="15" customHeight="1">
+    <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
         <v>270</v>
       </c>
       <c r="B28" s="28">
         <v>1157.8</v>
       </c>
-      <c r="C28" s="17">
-        <v>40</v>
-      </c>
+      <c r="C28" s="17"/>
       <c r="D28" s="18">
         <f t="shared" si="0"/>
-        <v>46312</v>
+        <v>0</v>
       </c>
       <c r="E28" s="62" t="s">
         <v>240</v>
@@ -5107,17 +5109,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>60</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77647.8</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>240</v>
@@ -5238,17 +5242,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>231</v>
       </c>
       <c r="B38" s="28">
         <v>1333.3</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>20</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>26666</v>
       </c>
       <c r="E38" s="62" t="s">
         <v>240</v>
@@ -10561,17 +10567,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="69" t="s">
         <v>255</v>
       </c>
       <c r="B87" s="28">
         <v>1459.53</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>80</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>116762.4</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>240</v>
@@ -10692,17 +10700,19 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:120" ht="15" customHeight="1">
       <c r="A88" s="37" t="s">
         <v>288</v>
       </c>
       <c r="B88" s="28">
         <v>1498.63</v>
       </c>
-      <c r="C88" s="17"/>
+      <c r="C88" s="17">
+        <v>20</v>
+      </c>
       <c r="D88" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>29972.600000000002</v>
       </c>
       <c r="E88" s="62" t="s">
         <v>240</v>
@@ -11360,11 +11370,11 @@
         <v>1381.28</v>
       </c>
       <c r="C94" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>27625.599999999999</v>
+        <v>82876.800000000003</v>
       </c>
       <c r="E94" s="62" t="s">
         <v>302</v>
@@ -11752,11 +11762,11 @@
         <v>1556.77</v>
       </c>
       <c r="C98" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>31135.4</v>
+        <v>93406.2</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>240</v>
@@ -11885,11 +11895,11 @@
         <v>1362.3</v>
       </c>
       <c r="C99" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>27246</v>
+        <v>54492</v>
       </c>
       <c r="E99" s="62" t="s">
         <v>302</v>
@@ -12332,11 +12342,11 @@
         <v>1342.25</v>
       </c>
       <c r="C103" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>26845</v>
+        <v>53690</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>240</v>
@@ -14405,17 +14415,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>296</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>30</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>40869</v>
       </c>
       <c r="E121" s="62" t="s">
         <v>240</v>
@@ -14536,17 +14548,19 @@
       <c r="DO121" s="15"/>
       <c r="DP121" s="15"/>
     </row>
-    <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:120" ht="15" customHeight="1">
       <c r="A122" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B122" s="28">
         <v>1469.49</v>
       </c>
-      <c r="C122" s="17"/>
+      <c r="C122" s="17">
+        <v>20</v>
+      </c>
       <c r="D122" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>29389.8</v>
       </c>
       <c r="E122" s="62" t="s">
         <v>240</v>
@@ -20327,17 +20341,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>295</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>20</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>229094.8</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>240</v>
@@ -20458,17 +20474,19 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:120" ht="15" customHeight="1">
       <c r="A173" s="65" t="s">
         <v>294</v>
       </c>
       <c r="B173" s="66">
         <v>10276.89</v>
       </c>
-      <c r="C173" s="67"/>
+      <c r="C173" s="67">
+        <v>20</v>
+      </c>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>205537.8</v>
       </c>
       <c r="E173" s="62" t="s">
         <v>240</v>
@@ -20589,17 +20607,19 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="174" spans="1:120" ht="15" customHeight="1">
       <c r="A174" s="73" t="s">
         <v>284</v>
       </c>
       <c r="B174" s="28">
         <v>10529.5</v>
       </c>
-      <c r="C174" s="17"/>
+      <c r="C174" s="17">
+        <v>10</v>
+      </c>
       <c r="D174" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>105295</v>
       </c>
       <c r="E174" s="18" t="s">
         <v>240</v>
@@ -20720,17 +20740,19 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:120" ht="15" customHeight="1">
       <c r="A175" s="73" t="s">
         <v>297</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C175" s="17"/>
+      <c r="C175" s="17">
+        <v>20</v>
+      </c>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>229094.8</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>240</v>
@@ -20851,17 +20873,19 @@
       <c r="DO175" s="15"/>
       <c r="DP175" s="15"/>
     </row>
-    <row r="176" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="176" spans="1:120" ht="15" customHeight="1">
       <c r="A176" s="73" t="s">
         <v>298</v>
       </c>
       <c r="B176" s="28">
         <v>12184.5</v>
       </c>
-      <c r="C176" s="17"/>
+      <c r="C176" s="17">
+        <v>10</v>
+      </c>
       <c r="D176" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>121845</v>
       </c>
       <c r="E176" s="18"/>
       <c r="F176" s="26"/>
@@ -20986,12 +21010,12 @@
       </c>
       <c r="B177" s="84"/>
       <c r="C177" s="70">
-        <f>SUBTOTAL(9,C20:C176)</f>
-        <v>220</v>
+        <f>SUBTOTAL(9,C7:C176)</f>
+        <v>990</v>
       </c>
       <c r="D177" s="71">
-        <f>SUBTOTAL(9,D20:D176)</f>
-        <v>272618.40000000002</v>
+        <f>SUBTOTAL(9,D7:D176)</f>
+        <v>2004809.8800000004</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="304">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -2121,13 +2121,13 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:DP187"/>
+  <dimension ref="A1:DP208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomRight" activeCell="J176" sqref="J176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44830</v>
+        <v>44832</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2257,17 +2257,19 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:120" ht="15" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>263</v>
       </c>
       <c r="B6" s="28">
         <v>7883.09</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="17">
+        <v>10</v>
+      </c>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78830.899999999994</v>
       </c>
       <c r="E6" s="62" t="s">
         <v>240</v>
@@ -2324,19 +2326,17 @@
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
     </row>
-    <row r="7" spans="1:120" ht="15" customHeight="1">
+    <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B7" s="28">
         <v>972.35440000000006</v>
       </c>
-      <c r="C7" s="17">
-        <v>200</v>
-      </c>
+      <c r="C7" s="17"/>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>194470.88</v>
+        <v>0</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>240</v>
@@ -2959,19 +2959,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>283</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
       </c>
-      <c r="C15" s="17">
-        <v>60</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>63634.2</v>
+        <v>0</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>240</v>
@@ -3206,19 +3204,17 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17">
-        <v>60</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>63032.399999999994</v>
+        <v>0</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>240</v>
@@ -3287,11 +3283,11 @@
         <v>1235.99</v>
       </c>
       <c r="C21" s="17">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>74159.399999999994</v>
+        <v>123599</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>240</v>
@@ -3808,19 +3804,17 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" customHeight="1">
+    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>244</v>
       </c>
       <c r="B26" s="28">
         <v>1128.73</v>
       </c>
-      <c r="C26" s="17">
-        <v>100</v>
-      </c>
+      <c r="C26" s="17"/>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>112873</v>
+        <v>0</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -5109,19 +5103,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
       </c>
-      <c r="C37" s="17">
-        <v>60</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>77647.8</v>
+        <v>0</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>240</v>
@@ -10567,19 +10559,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="69" t="s">
         <v>255</v>
       </c>
       <c r="B87" s="28">
         <v>1459.53</v>
       </c>
-      <c r="C87" s="17">
-        <v>80</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>116762.4</v>
+        <v>0</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>240</v>
@@ -10700,19 +10690,17 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" customHeight="1">
+    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
         <v>288</v>
       </c>
       <c r="B88" s="28">
         <v>1498.63</v>
       </c>
-      <c r="C88" s="17">
-        <v>20</v>
-      </c>
+      <c r="C88" s="17"/>
       <c r="D88" s="18">
         <f t="shared" si="3"/>
-        <v>29972.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E88" s="62" t="s">
         <v>240</v>
@@ -11362,19 +11350,17 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" customHeight="1">
+    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B94" s="28">
         <v>1381.28</v>
       </c>
-      <c r="C94" s="17">
-        <v>60</v>
-      </c>
+      <c r="C94" s="17"/>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>82876.800000000003</v>
+        <v>0</v>
       </c>
       <c r="E94" s="62" t="s">
         <v>302</v>
@@ -11754,19 +11740,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="69" t="s">
         <v>253</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
       </c>
-      <c r="C98" s="17">
-        <v>60</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>93406.2</v>
+        <v>0</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>240</v>
@@ -11887,19 +11871,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>280</v>
       </c>
       <c r="B99" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C99" s="17">
-        <v>40</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>54492</v>
+        <v>0</v>
       </c>
       <c r="E99" s="62" t="s">
         <v>302</v>
@@ -12334,19 +12316,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>256</v>
       </c>
       <c r="B103" s="28">
         <v>1342.25</v>
       </c>
-      <c r="C103" s="17">
-        <v>40</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>53690</v>
+        <v>0</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>240</v>
@@ -14423,11 +14403,11 @@
         <v>1362.3</v>
       </c>
       <c r="C121" s="17">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>40869</v>
+        <v>54492</v>
       </c>
       <c r="E121" s="62" t="s">
         <v>240</v>
@@ -14548,19 +14528,17 @@
       <c r="DO121" s="15"/>
       <c r="DP121" s="15"/>
     </row>
-    <row r="122" spans="1:120" ht="15" customHeight="1">
+    <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B122" s="28">
         <v>1469.49</v>
       </c>
-      <c r="C122" s="17">
-        <v>20</v>
-      </c>
+      <c r="C122" s="17"/>
       <c r="D122" s="18">
         <f t="shared" si="4"/>
-        <v>29389.8</v>
+        <v>0</v>
       </c>
       <c r="E122" s="62" t="s">
         <v>240</v>
@@ -20349,11 +20327,11 @@
         <v>11454.74</v>
       </c>
       <c r="C172" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>229094.8</v>
+        <v>114547.4</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>240</v>
@@ -20607,19 +20585,17 @@
       <c r="DO173" s="15"/>
       <c r="DP173" s="15"/>
     </row>
-    <row r="174" spans="1:120" ht="15" customHeight="1">
+    <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="73" t="s">
         <v>284</v>
       </c>
       <c r="B174" s="28">
         <v>10529.5</v>
       </c>
-      <c r="C174" s="17">
-        <v>10</v>
-      </c>
+      <c r="C174" s="17"/>
       <c r="D174" s="18">
         <f t="shared" si="6"/>
-        <v>105295</v>
+        <v>0</v>
       </c>
       <c r="E174" s="18" t="s">
         <v>240</v>
@@ -20748,11 +20724,11 @@
         <v>11454.74</v>
       </c>
       <c r="C175" s="17">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>229094.8</v>
+        <v>114547.4</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>240</v>
@@ -20881,13 +20857,15 @@
         <v>12184.5</v>
       </c>
       <c r="C176" s="17">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D176" s="18">
         <f t="shared" si="6"/>
-        <v>121845</v>
-      </c>
-      <c r="E176" s="18"/>
+        <v>85291.5</v>
+      </c>
+      <c r="E176" s="62" t="s">
+        <v>240</v>
+      </c>
       <c r="F176" s="26"/>
       <c r="G176" s="26"/>
       <c r="H176" s="26"/>
@@ -21010,12 +20988,12 @@
       </c>
       <c r="B177" s="84"/>
       <c r="C177" s="70">
-        <f>SUBTOTAL(9,C7:C176)</f>
-        <v>990</v>
+        <f>SUBTOTAL(9,C6:C176)</f>
+        <v>217</v>
       </c>
       <c r="D177" s="71">
-        <f>SUBTOTAL(9,D7:D176)</f>
-        <v>2004809.8800000004</v>
+        <f>SUBTOTAL(9,D6:D176)</f>
+        <v>803512.00000000012</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21324,6 +21302,223 @@
       <c r="F186" s="68"/>
     </row>
     <row r="187" spans="1:120" ht="15.75" customHeight="1"/>
+    <row r="189" spans="1:120">
+      <c r="A189" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B189" s="27">
+        <v>7883.09</v>
+      </c>
+      <c r="C189" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="190" spans="1:120">
+      <c r="A190" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="B190" s="27">
+        <v>1050.54</v>
+      </c>
+      <c r="C190" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="191" spans="1:120">
+      <c r="A191" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B191" s="27">
+        <v>1235.99</v>
+      </c>
+      <c r="C191" s="14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="192" spans="1:120">
+      <c r="A192" s="35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B192" s="27">
+        <v>1128.73</v>
+      </c>
+      <c r="C192" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B193" s="27">
+        <v>1294.1300000000001</v>
+      </c>
+      <c r="C193" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B194" s="27">
+        <v>1333.3</v>
+      </c>
+      <c r="C194" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B195" s="27">
+        <v>1556.7693999999999</v>
+      </c>
+      <c r="C195" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="B196" s="27">
+        <v>6230.08</v>
+      </c>
+      <c r="C196" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B197" s="27">
+        <v>1459.53</v>
+      </c>
+      <c r="C197" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="35" t="s">
+        <v>288</v>
+      </c>
+      <c r="B198" s="27">
+        <v>1498.63</v>
+      </c>
+      <c r="C198" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="35" t="s">
+        <v>293</v>
+      </c>
+      <c r="B199" s="27">
+        <v>1381.28</v>
+      </c>
+      <c r="C199" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B200" s="27">
+        <v>1556.77</v>
+      </c>
+      <c r="C200" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B201" s="27">
+        <v>1362.3</v>
+      </c>
+      <c r="C201" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B202" s="27">
+        <v>1342.25</v>
+      </c>
+      <c r="C202" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B203" s="27">
+        <v>1362.3</v>
+      </c>
+      <c r="C203" s="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="B204" s="27">
+        <v>11454.74</v>
+      </c>
+      <c r="C204" s="14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B205" s="27">
+        <v>10276.89</v>
+      </c>
+      <c r="C205" s="14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="B206" s="27">
+        <v>11454.74</v>
+      </c>
+      <c r="C206" s="14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B207" s="27">
+        <v>12184.5</v>
+      </c>
+      <c r="C207" s="14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C208" s="14">
+        <v>790</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A4:E176">
     <filterColumn colId="2">

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="304">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -2121,13 +2121,13 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:DP208"/>
+  <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J176" sqref="J176"/>
+      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44832</v>
+        <v>44833</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2257,19 +2257,17 @@
       <c r="DC5" s="14"/>
       <c r="DD5" s="14"/>
     </row>
-    <row r="6" spans="1:120" ht="15" customHeight="1">
+    <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
         <v>263</v>
       </c>
       <c r="B6" s="28">
         <v>7883.09</v>
       </c>
-      <c r="C6" s="17">
-        <v>10</v>
-      </c>
+      <c r="C6" s="17"/>
       <c r="D6" s="18">
         <f t="shared" si="0"/>
-        <v>78830.899999999994</v>
+        <v>0</v>
       </c>
       <c r="E6" s="62" t="s">
         <v>240</v>
@@ -2959,17 +2957,19 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:120" ht="15" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>283</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>20</v>
+      </c>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21211.399999999998</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>240</v>
@@ -3204,17 +3204,19 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>20</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21010.799999999999</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>240</v>
@@ -3275,19 +3277,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>230</v>
       </c>
       <c r="B21" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C21" s="17">
-        <v>100</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>123599</v>
+        <v>0</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>240</v>
@@ -3804,17 +3804,19 @@
       <c r="DO25" s="15"/>
       <c r="DP25" s="15"/>
     </row>
-    <row r="26" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
         <v>244</v>
       </c>
       <c r="B26" s="28">
         <v>1128.73</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="17">
+        <v>40</v>
+      </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>45149.2</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -5103,17 +5105,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>20</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25882.600000000002</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>240</v>
@@ -5234,19 +5238,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>231</v>
       </c>
       <c r="B38" s="28">
         <v>1333.3</v>
       </c>
-      <c r="C38" s="17">
-        <v>20</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>26666</v>
+        <v>0</v>
       </c>
       <c r="E38" s="62" t="s">
         <v>240</v>
@@ -5756,17 +5758,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>188</v>
       </c>
       <c r="B42" s="28">
         <v>1556.7693999999999</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>20</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31135.387999999999</v>
       </c>
       <c r="E42" s="62" t="s">
         <v>303</v>
@@ -10559,17 +10563,19 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="69" t="s">
         <v>255</v>
       </c>
       <c r="B87" s="28">
         <v>1459.53</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>40</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>58381.2</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>240</v>
@@ -11350,17 +11356,19 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:120" ht="15" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B94" s="28">
         <v>1381.28</v>
       </c>
-      <c r="C94" s="17"/>
+      <c r="C94" s="17">
+        <v>20</v>
+      </c>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27625.599999999999</v>
       </c>
       <c r="E94" s="62" t="s">
         <v>302</v>
@@ -11740,17 +11748,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="69" t="s">
         <v>253</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>40</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>62270.8</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>240</v>
@@ -11871,17 +11881,19 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>280</v>
       </c>
       <c r="B99" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>20</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27246</v>
       </c>
       <c r="E99" s="62" t="s">
         <v>302</v>
@@ -12316,17 +12328,19 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>256</v>
       </c>
       <c r="B103" s="28">
         <v>1342.25</v>
       </c>
-      <c r="C103" s="17"/>
+      <c r="C103" s="17">
+        <v>20</v>
+      </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>0</v>
+        <v>26845</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>240</v>
@@ -20319,19 +20333,17 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>295</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17">
-        <v>10</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>114547.4</v>
+        <v>0</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>240</v>
@@ -20460,11 +20472,11 @@
         <v>10276.89</v>
       </c>
       <c r="C173" s="67">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>205537.8</v>
+        <v>102768.9</v>
       </c>
       <c r="E173" s="62" t="s">
         <v>240</v>
@@ -20716,19 +20728,17 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" customHeight="1">
+    <row r="175" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="73" t="s">
         <v>297</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C175" s="17">
-        <v>10</v>
-      </c>
+      <c r="C175" s="17"/>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>114547.4</v>
+        <v>0</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>240</v>
@@ -20849,19 +20859,17 @@
       <c r="DO175" s="15"/>
       <c r="DP175" s="15"/>
     </row>
-    <row r="176" spans="1:120" ht="15" customHeight="1">
+    <row r="176" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="73" t="s">
         <v>298</v>
       </c>
       <c r="B176" s="28">
         <v>12184.5</v>
       </c>
-      <c r="C176" s="17">
-        <v>7</v>
-      </c>
+      <c r="C176" s="17"/>
       <c r="D176" s="18">
         <f t="shared" si="6"/>
-        <v>85291.5</v>
+        <v>0</v>
       </c>
       <c r="E176" s="62" t="s">
         <v>240</v>
@@ -20988,12 +20996,12 @@
       </c>
       <c r="B177" s="84"/>
       <c r="C177" s="70">
-        <f>SUBTOTAL(9,C6:C176)</f>
-        <v>217</v>
+        <f>SUBTOTAL(9,C15:C176)</f>
+        <v>310</v>
       </c>
       <c r="D177" s="71">
-        <f>SUBTOTAL(9,D6:D176)</f>
-        <v>803512.00000000012</v>
+        <f>SUBTOTAL(9,D15:D176)</f>
+        <v>504018.88800000004</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21272,7 +21280,7 @@
         <v>258</v>
       </c>
       <c r="C183" s="47">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21293,7 +21301,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>
@@ -21302,223 +21310,6 @@
       <c r="F186" s="68"/>
     </row>
     <row r="187" spans="1:120" ht="15.75" customHeight="1"/>
-    <row r="189" spans="1:120">
-      <c r="A189" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="B189" s="27">
-        <v>7883.09</v>
-      </c>
-      <c r="C189" s="14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="190" spans="1:120">
-      <c r="A190" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="B190" s="27">
-        <v>1050.54</v>
-      </c>
-      <c r="C190" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="191" spans="1:120">
-      <c r="A191" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="B191" s="27">
-        <v>1235.99</v>
-      </c>
-      <c r="C191" s="14">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="192" spans="1:120">
-      <c r="A192" s="35" t="s">
-        <v>244</v>
-      </c>
-      <c r="B192" s="27">
-        <v>1128.73</v>
-      </c>
-      <c r="C192" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="B193" s="27">
-        <v>1294.1300000000001</v>
-      </c>
-      <c r="C193" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="B194" s="27">
-        <v>1333.3</v>
-      </c>
-      <c r="C194" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="B195" s="27">
-        <v>1556.7693999999999</v>
-      </c>
-      <c r="C195" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="B196" s="27">
-        <v>6230.08</v>
-      </c>
-      <c r="C196" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="B197" s="27">
-        <v>1459.53</v>
-      </c>
-      <c r="C197" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" s="35" t="s">
-        <v>288</v>
-      </c>
-      <c r="B198" s="27">
-        <v>1498.63</v>
-      </c>
-      <c r="C198" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="B199" s="27">
-        <v>1381.28</v>
-      </c>
-      <c r="C199" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="B200" s="27">
-        <v>1556.77</v>
-      </c>
-      <c r="C200" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="B201" s="27">
-        <v>1362.3</v>
-      </c>
-      <c r="C201" s="14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="B202" s="27">
-        <v>1342.25</v>
-      </c>
-      <c r="C202" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="35" t="s">
-        <v>296</v>
-      </c>
-      <c r="B203" s="27">
-        <v>1362.3</v>
-      </c>
-      <c r="C203" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="B204" s="27">
-        <v>11454.74</v>
-      </c>
-      <c r="C204" s="14">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="B205" s="27">
-        <v>10276.89</v>
-      </c>
-      <c r="C205" s="14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="B206" s="27">
-        <v>11454.74</v>
-      </c>
-      <c r="C206" s="14">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="B207" s="27">
-        <v>12184.5</v>
-      </c>
-      <c r="C207" s="14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C208" s="14">
-        <v>790</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A4:E176">
     <filterColumn colId="2">

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2124,10 +2124,10 @@
   <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I42" sqref="I42"/>
+      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2165,7 +2165,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44833</v>
+        <v>44840</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2957,19 +2957,17 @@
       <c r="DC14" s="14"/>
       <c r="DD14" s="14"/>
     </row>
-    <row r="15" spans="1:120" ht="15" customHeight="1">
+    <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
         <v>283</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
       </c>
-      <c r="C15" s="17">
-        <v>20</v>
-      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <f t="shared" si="0"/>
-        <v>21211.399999999998</v>
+        <v>0</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>240</v>
@@ -3812,11 +3810,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>45149.2</v>
+        <v>112873</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -5113,11 +5111,11 @@
         <v>1294.1300000000001</v>
       </c>
       <c r="C37" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>25882.600000000002</v>
+        <v>51765.200000000004</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>240</v>
@@ -5238,17 +5236,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>231</v>
       </c>
       <c r="B38" s="28">
         <v>1333.3</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>60</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>79998</v>
       </c>
       <c r="E38" s="62" t="s">
         <v>240</v>
@@ -5758,19 +5758,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>188</v>
       </c>
       <c r="B42" s="28">
         <v>1556.7693999999999</v>
       </c>
-      <c r="C42" s="17">
-        <v>20</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>31135.387999999999</v>
+        <v>0</v>
       </c>
       <c r="E42" s="62" t="s">
         <v>303</v>
@@ -9528,17 +9526,19 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="76" spans="1:120" s="14" customFormat="1">
       <c r="A76" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
       </c>
-      <c r="C76" s="17"/>
+      <c r="C76" s="17">
+        <v>20</v>
+      </c>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>134986.84400000001</v>
       </c>
       <c r="E76" s="62" t="s">
         <v>240</v>
@@ -10571,11 +10571,11 @@
         <v>1459.53</v>
       </c>
       <c r="C87" s="17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>58381.2</v>
+        <v>145953</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>240</v>
@@ -10696,17 +10696,19 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:120" ht="15" customHeight="1">
       <c r="A88" s="37" t="s">
         <v>288</v>
       </c>
       <c r="B88" s="28">
         <v>1498.63</v>
       </c>
-      <c r="C88" s="17"/>
+      <c r="C88" s="17">
+        <v>60</v>
+      </c>
       <c r="D88" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>89917.8</v>
       </c>
       <c r="E88" s="62" t="s">
         <v>240</v>
@@ -11364,11 +11366,11 @@
         <v>1381.28</v>
       </c>
       <c r="C94" s="17">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>27625.599999999999</v>
+        <v>110502.39999999999</v>
       </c>
       <c r="E94" s="62" t="s">
         <v>302</v>
@@ -11756,11 +11758,11 @@
         <v>1556.77</v>
       </c>
       <c r="C98" s="17">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>62270.8</v>
+        <v>155677</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>240</v>
@@ -12336,11 +12338,11 @@
         <v>1342.25</v>
       </c>
       <c r="C103" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>26845</v>
+        <v>80535</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>240</v>
@@ -14409,19 +14411,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>296</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>54492</v>
+        <v>0</v>
       </c>
       <c r="E121" s="62" t="s">
         <v>240</v>
@@ -14542,17 +14542,19 @@
       <c r="DO121" s="15"/>
       <c r="DP121" s="15"/>
     </row>
-    <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="122" spans="1:120" ht="15" customHeight="1">
       <c r="A122" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B122" s="28">
         <v>1469.49</v>
       </c>
-      <c r="C122" s="17"/>
+      <c r="C122" s="17">
+        <v>20</v>
+      </c>
       <c r="D122" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>29389.8</v>
       </c>
       <c r="E122" s="62" t="s">
         <v>240</v>
@@ -19154,17 +19156,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>282</v>
       </c>
       <c r="B163" s="28">
         <v>7686.61</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>15</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>115299.15</v>
       </c>
       <c r="E163" s="62" t="s">
         <v>240</v>
@@ -19940,17 +19944,19 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="169" spans="1:120" ht="15" customHeight="1">
       <c r="A169" s="40" t="s">
         <v>273</v>
       </c>
       <c r="B169" s="28">
         <v>9625.31</v>
       </c>
-      <c r="C169" s="17"/>
+      <c r="C169" s="17">
+        <v>15</v>
+      </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>0</v>
+        <v>144379.65</v>
       </c>
       <c r="E169" s="62" t="s">
         <v>240</v>
@@ -20333,17 +20339,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>295</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>17</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>194730.58</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>240</v>
@@ -20464,19 +20472,17 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1">
+    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="65" t="s">
         <v>294</v>
       </c>
       <c r="B173" s="66">
         <v>10276.89</v>
       </c>
-      <c r="C173" s="67">
-        <v>10</v>
-      </c>
+      <c r="C173" s="67"/>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>102768.9</v>
+        <v>0</v>
       </c>
       <c r="E173" s="62" t="s">
         <v>240</v>
@@ -20996,12 +21002,12 @@
       </c>
       <c r="B177" s="84"/>
       <c r="C177" s="70">
-        <f>SUBTOTAL(9,C15:C176)</f>
-        <v>310</v>
+        <f>SUBTOTAL(9,C20:C176)</f>
+        <v>727</v>
       </c>
       <c r="D177" s="71">
-        <f>SUBTOTAL(9,D15:D176)</f>
-        <v>504018.88800000004</v>
+        <f>SUBTOTAL(9,D20:D176)</f>
+        <v>1494264.2240000002</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21280,7 +21286,7 @@
         <v>258</v>
       </c>
       <c r="C183" s="47">
-        <v>600000</v>
+        <v>1450000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21301,7 +21307,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>600000</v>
+        <v>1450000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2124,10 +2124,10 @@
   <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G103" sqref="G103"/>
+      <selection pane="bottomRight" activeCell="I177" sqref="I177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2136,7 +2136,7 @@
     <col min="2" max="2" width="15" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="16" customWidth="1"/>
     <col min="6" max="7" width="13.28515625" style="25" bestFit="1" customWidth="1"/>
     <col min="8" max="108" width="9.140625" style="25" customWidth="1"/>
     <col min="109" max="120" width="9.140625" style="14" customWidth="1"/>
@@ -2165,11 +2165,11 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44840</v>
+        <v>44844</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="4" spans="1:120" ht="15.75" thickBot="1">
       <c r="A4" s="56" t="s">
         <v>1</v>
       </c>
@@ -3202,19 +3202,17 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17">
-        <v>20</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>21010.799999999999</v>
+        <v>0</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>240</v>
@@ -3810,11 +3808,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>112873</v>
+        <v>56436.5</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -5103,19 +5101,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
       </c>
-      <c r="C37" s="17">
-        <v>40</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>51765.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>240</v>
@@ -5236,19 +5232,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>231</v>
       </c>
       <c r="B38" s="28">
         <v>1333.3</v>
       </c>
-      <c r="C38" s="17">
-        <v>60</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>79998</v>
+        <v>0</v>
       </c>
       <c r="E38" s="62" t="s">
         <v>240</v>
@@ -9526,19 +9520,17 @@
       <c r="AZ75" s="25"/>
       <c r="BA75" s="25"/>
     </row>
-    <row r="76" spans="1:120" s="14" customFormat="1">
+    <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
         <v>285</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
       </c>
-      <c r="C76" s="17">
-        <v>20</v>
-      </c>
+      <c r="C76" s="17"/>
       <c r="D76" s="18">
         <f t="shared" si="3"/>
-        <v>134986.84400000001</v>
+        <v>0</v>
       </c>
       <c r="E76" s="62" t="s">
         <v>240</v>
@@ -10571,11 +10563,11 @@
         <v>1459.53</v>
       </c>
       <c r="C87" s="17">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>145953</v>
+        <v>29190.6</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>240</v>
@@ -10696,19 +10688,17 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" customHeight="1">
+    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
         <v>288</v>
       </c>
       <c r="B88" s="28">
         <v>1498.63</v>
       </c>
-      <c r="C88" s="17">
-        <v>60</v>
-      </c>
+      <c r="C88" s="17"/>
       <c r="D88" s="18">
         <f t="shared" si="3"/>
-        <v>89917.8</v>
+        <v>0</v>
       </c>
       <c r="E88" s="62" t="s">
         <v>240</v>
@@ -11366,11 +11356,11 @@
         <v>1381.28</v>
       </c>
       <c r="C94" s="17">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>110502.39999999999</v>
+        <v>27625.599999999999</v>
       </c>
       <c r="E94" s="62" t="s">
         <v>302</v>
@@ -11750,19 +11740,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="69" t="s">
         <v>253</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
       </c>
-      <c r="C98" s="17">
-        <v>100</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>155677</v>
+        <v>0</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>240</v>
@@ -12338,11 +12326,11 @@
         <v>1342.25</v>
       </c>
       <c r="C103" s="17">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>80535</v>
+        <v>26845</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>240</v>
@@ -19156,19 +19144,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>282</v>
       </c>
       <c r="B163" s="28">
         <v>7686.61</v>
       </c>
-      <c r="C163" s="17">
-        <v>15</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>115299.15</v>
+        <v>0</v>
       </c>
       <c r="E163" s="62" t="s">
         <v>240</v>
@@ -19952,11 +19938,11 @@
         <v>9625.31</v>
       </c>
       <c r="C169" s="17">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>144379.65</v>
+        <v>48126.549999999996</v>
       </c>
       <c r="E169" s="62" t="s">
         <v>240</v>
@@ -20347,11 +20333,11 @@
         <v>11454.74</v>
       </c>
       <c r="C172" s="17">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>194730.58</v>
+        <v>57273.7</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>240</v>
@@ -21002,12 +20988,12 @@
       </c>
       <c r="B177" s="84"/>
       <c r="C177" s="70">
-        <f>SUBTOTAL(9,C20:C176)</f>
-        <v>727</v>
+        <f>SUBTOTAL(9,C26:C176)</f>
+        <v>160</v>
       </c>
       <c r="D177" s="71">
-        <f>SUBTOTAL(9,D20:D176)</f>
-        <v>1494264.2240000002</v>
+        <f>SUBTOTAL(9,D26:D176)</f>
+        <v>302133.75</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21281,19 +21267,19 @@
       <c r="E182" s="22"/>
       <c r="F182" s="68"/>
     </row>
-    <row r="183" spans="1:120" ht="15" customHeight="1">
+    <row r="183" spans="1:120">
       <c r="B183" s="46" t="s">
         <v>258</v>
       </c>
       <c r="C183" s="47">
-        <v>1450000</v>
+        <v>1800000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
       </c>
       <c r="E183" s="22"/>
     </row>
-    <row r="184" spans="1:120" ht="15" customHeight="1" thickBot="1">
+    <row r="184" spans="1:120" ht="15.75" thickBot="1">
       <c r="B184" s="46" t="s">
         <v>292</v>
       </c>
@@ -21307,7 +21293,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>1450000</v>
+        <v>1800000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1548,7 +1548,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1798,6 +1798,9 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="12" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2127,7 +2130,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I177" sqref="I177"/>
+      <selection pane="bottomRight" activeCell="I183" sqref="I183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2165,7 +2168,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44844</v>
+        <v>44846</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -3202,17 +3205,19 @@
         <v>240</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>266</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="17">
+        <v>20</v>
+      </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21010.799999999999</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>240</v>
@@ -3808,11 +3813,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>56436.5</v>
+        <v>33861.9</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -10563,11 +10568,11 @@
         <v>1459.53</v>
       </c>
       <c r="C87" s="17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>29190.6</v>
+        <v>43785.9</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>240</v>
@@ -10688,17 +10693,19 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="88" spans="1:120" ht="15" customHeight="1">
       <c r="A88" s="37" t="s">
         <v>288</v>
       </c>
       <c r="B88" s="28">
         <v>1498.63</v>
       </c>
-      <c r="C88" s="17"/>
+      <c r="C88" s="17">
+        <v>20</v>
+      </c>
       <c r="D88" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>29972.600000000002</v>
       </c>
       <c r="E88" s="62" t="s">
         <v>240</v>
@@ -11348,19 +11355,17 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" customHeight="1">
+    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B94" s="28">
         <v>1381.28</v>
       </c>
-      <c r="C94" s="17">
-        <v>20</v>
-      </c>
+      <c r="C94" s="17"/>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>27625.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E94" s="62" t="s">
         <v>302</v>
@@ -11879,13 +11884,13 @@
         <v>1362.3</v>
       </c>
       <c r="C99" s="17">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>27246</v>
-      </c>
-      <c r="E99" s="62" t="s">
+        <v>40869</v>
+      </c>
+      <c r="E99" s="90" t="s">
         <v>302</v>
       </c>
       <c r="F99" s="26"/>
@@ -12326,11 +12331,11 @@
         <v>1342.25</v>
       </c>
       <c r="C103" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>26845</v>
+        <v>53690</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>240</v>
@@ -14530,19 +14535,17 @@
       <c r="DO121" s="15"/>
       <c r="DP121" s="15"/>
     </row>
-    <row r="122" spans="1:120" ht="15" customHeight="1">
+    <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
         <v>299</v>
       </c>
       <c r="B122" s="28">
         <v>1469.49</v>
       </c>
-      <c r="C122" s="17">
-        <v>20</v>
-      </c>
+      <c r="C122" s="17"/>
       <c r="D122" s="18">
         <f t="shared" si="4"/>
-        <v>29389.8</v>
+        <v>0</v>
       </c>
       <c r="E122" s="62" t="s">
         <v>240</v>
@@ -19930,19 +19933,17 @@
       <c r="DO168" s="15"/>
       <c r="DP168" s="15"/>
     </row>
-    <row r="169" spans="1:120" ht="15" customHeight="1">
+    <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="40" t="s">
         <v>273</v>
       </c>
       <c r="B169" s="28">
         <v>9625.31</v>
       </c>
-      <c r="C169" s="17">
-        <v>5</v>
-      </c>
+      <c r="C169" s="17"/>
       <c r="D169" s="18">
         <f t="shared" ref="D169" si="7">B169*C169</f>
-        <v>48126.549999999996</v>
+        <v>0</v>
       </c>
       <c r="E169" s="62" t="s">
         <v>240</v>
@@ -20325,19 +20326,17 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>295</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17">
-        <v>5</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>57273.7</v>
+        <v>0</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>240</v>
@@ -20989,11 +20988,11 @@
       <c r="B177" s="84"/>
       <c r="C177" s="70">
         <f>SUBTOTAL(9,C26:C176)</f>
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D177" s="71">
         <f>SUBTOTAL(9,D26:D176)</f>
-        <v>302133.75</v>
+        <v>202179.40000000002</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21272,7 +21271,7 @@
         <v>258</v>
       </c>
       <c r="C183" s="47">
-        <v>1800000</v>
+        <v>700000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21293,7 +21292,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>1800000</v>
+        <v>700000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -1754,6 +1754,9 @@
     <xf numFmtId="43" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="12" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1798,9 +1801,6 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="3" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2127,10 +2127,10 @@
   <dimension ref="A1:DP187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I183" sqref="I183"/>
+      <selection pane="bottomRight" activeCell="K180" sqref="K180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2147,28 +2147,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:120" ht="20.25" thickBot="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
     </row>
     <row r="2" spans="1:120" ht="19.5" thickBot="1">
       <c r="A2" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="79" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="79"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="34" t="s">
         <v>80</v>
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44846</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2327,17 +2327,19 @@
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
     </row>
-    <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:120" ht="15" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B7" s="28">
         <v>972.35440000000006</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="17">
+        <v>250</v>
+      </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>243088.6</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>240</v>
@@ -3213,11 +3215,11 @@
         <v>1050.54</v>
       </c>
       <c r="C20" s="17">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>21010.799999999999</v>
+        <v>126064.79999999999</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>240</v>
@@ -3278,17 +3280,19 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>230</v>
       </c>
       <c r="B21" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C21" s="17"/>
+      <c r="C21" s="17">
+        <v>40</v>
+      </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49439.6</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>240</v>
@@ -3813,11 +3817,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>33861.9</v>
+        <v>135447.6</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -5106,17 +5110,19 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>60</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>77647.8</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>240</v>
@@ -5237,17 +5243,19 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:120" ht="15" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>231</v>
       </c>
       <c r="B38" s="28">
         <v>1333.3</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>40</v>
+      </c>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>0</v>
+        <v>53332</v>
       </c>
       <c r="E38" s="62" t="s">
         <v>240</v>
@@ -5757,17 +5765,19 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:120" ht="15" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>188</v>
       </c>
       <c r="B42" s="28">
         <v>1556.7693999999999</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>100</v>
+      </c>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>155676.94</v>
       </c>
       <c r="E42" s="62" t="s">
         <v>303</v>
@@ -6859,17 +6869,19 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:120" ht="15" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>246</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="17">
+        <v>40</v>
+      </c>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44307.200000000004</v>
       </c>
       <c r="E51" s="62" t="s">
         <v>240</v>
@@ -10568,11 +10580,11 @@
         <v>1459.53</v>
       </c>
       <c r="C87" s="17">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>43785.9</v>
+        <v>116762.4</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>240</v>
@@ -10701,11 +10713,11 @@
         <v>1498.63</v>
       </c>
       <c r="C88" s="17">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D88" s="18">
         <f t="shared" si="3"/>
-        <v>29972.600000000002</v>
+        <v>89917.8</v>
       </c>
       <c r="E88" s="62" t="s">
         <v>240</v>
@@ -11355,19 +11367,21 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="94" spans="1:120" ht="15" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B94" s="28">
         <v>1381.28</v>
       </c>
-      <c r="C94" s="17"/>
+      <c r="C94" s="17">
+        <v>100</v>
+      </c>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E94" s="62" t="s">
+        <v>138128</v>
+      </c>
+      <c r="E94" s="75" t="s">
         <v>302</v>
       </c>
       <c r="F94" s="26"/>
@@ -11745,17 +11759,19 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="98" spans="1:120" ht="15" customHeight="1">
       <c r="A98" s="69" t="s">
         <v>253</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
       </c>
-      <c r="C98" s="17"/>
+      <c r="C98" s="17">
+        <v>60</v>
+      </c>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>93406.2</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>240</v>
@@ -11884,13 +11900,13 @@
         <v>1362.3</v>
       </c>
       <c r="C99" s="17">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>40869</v>
-      </c>
-      <c r="E99" s="90" t="s">
+        <v>81738</v>
+      </c>
+      <c r="E99" s="75" t="s">
         <v>302</v>
       </c>
       <c r="F99" s="26"/>
@@ -12331,11 +12347,11 @@
         <v>1342.25</v>
       </c>
       <c r="C103" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>53690</v>
+        <v>26845</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>240</v>
@@ -14404,17 +14420,19 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>296</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>40</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>54492</v>
       </c>
       <c r="E121" s="62" t="s">
         <v>240</v>
@@ -16295,17 +16313,19 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="136" spans="1:120" ht="15" customHeight="1">
       <c r="A136" s="40" t="s">
         <v>301</v>
       </c>
       <c r="B136" s="28">
         <v>6422.55</v>
       </c>
-      <c r="C136" s="17"/>
+      <c r="C136" s="17">
+        <v>10</v>
+      </c>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>64225.5</v>
       </c>
       <c r="E136" s="62" t="s">
         <v>240</v>
@@ -19147,17 +19167,19 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>282</v>
       </c>
       <c r="B163" s="28">
         <v>7686.61</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>15</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>115299.15</v>
       </c>
       <c r="E163" s="62" t="s">
         <v>240</v>
@@ -20326,17 +20348,19 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>295</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>10</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>114547.4</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>240</v>
@@ -20457,17 +20481,19 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:120" ht="15" customHeight="1">
       <c r="A173" s="65" t="s">
         <v>294</v>
       </c>
       <c r="B173" s="66">
         <v>10276.89</v>
       </c>
-      <c r="C173" s="67"/>
+      <c r="C173" s="67">
+        <v>10</v>
+      </c>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>102768.9</v>
       </c>
       <c r="E173" s="62" t="s">
         <v>240</v>
@@ -20719,17 +20745,19 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:120" ht="15" customHeight="1">
       <c r="A175" s="73" t="s">
         <v>297</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C175" s="17"/>
+      <c r="C175" s="17">
+        <v>10</v>
+      </c>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>114547.4</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>240</v>
@@ -20982,17 +21010,17 @@
       <c r="DP176" s="15"/>
     </row>
     <row r="177" spans="1:120" ht="15" customHeight="1" thickBot="1">
-      <c r="A177" s="83" t="s">
+      <c r="A177" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B177" s="84"/>
+      <c r="B177" s="85"/>
       <c r="C177" s="70">
-        <f>SUBTOTAL(9,C26:C176)</f>
-        <v>150</v>
+        <f>SUBTOTAL(9,C7:C176)</f>
+        <v>1245</v>
       </c>
       <c r="D177" s="71">
-        <f>SUBTOTAL(9,D26:D176)</f>
-        <v>202179.40000000002</v>
+        <f>SUBTOTAL(9,D7:D176)</f>
+        <v>1997682.2899999996</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21234,18 +21262,18 @@
       <c r="DP178" s="15"/>
     </row>
     <row r="179" spans="1:120" ht="9" customHeight="1" thickBot="1">
-      <c r="B179" s="75"/>
-      <c r="C179" s="75"/>
-      <c r="D179" s="75"/>
-      <c r="E179" s="75"/>
+      <c r="B179" s="76"/>
+      <c r="C179" s="76"/>
+      <c r="D179" s="76"/>
+      <c r="E179" s="76"/>
       <c r="I179" s="52"/>
     </row>
     <row r="180" spans="1:120" ht="16.5" customHeight="1" thickBot="1">
-      <c r="B180" s="80" t="s">
+      <c r="B180" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="C180" s="81"/>
-      <c r="D180" s="82"/>
+      <c r="C180" s="82"/>
+      <c r="D180" s="83"/>
       <c r="E180" s="24"/>
       <c r="G180" s="68"/>
       <c r="J180" s="25" t="s">
@@ -21271,7 +21299,7 @@
         <v>258</v>
       </c>
       <c r="C183" s="47">
-        <v>700000</v>
+        <v>600000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21292,7 +21320,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>700000</v>
+        <v>600000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>
@@ -21349,33 +21377,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
     </row>
     <row r="2" spans="1:5" ht="23.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="88" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="21">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="89" t="e">
+      <c r="B3" s="89"/>
+      <c r="C3" s="90" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D3" s="89"/>
+      <c r="D3" s="90"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5">
@@ -23316,10 +23344,10 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="85" t="s">
+      <c r="A101" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="85"/>
+      <c r="B101" s="86"/>
       <c r="C101" s="4" t="e">
         <f>SUM(C5:C100)</f>
         <v>#REF!</v>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -2130,7 +2130,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K180" sqref="K180"/>
+      <selection pane="bottomRight" activeCell="H184" sqref="H184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44847</v>
+        <v>44852</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2327,19 +2327,17 @@
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
     </row>
-    <row r="7" spans="1:120" ht="15" customHeight="1">
+    <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A7" s="36" t="s">
         <v>300</v>
       </c>
       <c r="B7" s="28">
         <v>972.35440000000006</v>
       </c>
-      <c r="C7" s="17">
-        <v>250</v>
-      </c>
+      <c r="C7" s="17"/>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>243088.6</v>
+        <v>0</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>240</v>
@@ -3215,11 +3213,11 @@
         <v>1050.54</v>
       </c>
       <c r="C20" s="17">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>126064.79999999999</v>
+        <v>21010.799999999999</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>240</v>
@@ -3288,11 +3286,11 @@
         <v>1235.99</v>
       </c>
       <c r="C21" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>49439.6</v>
+        <v>24719.8</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>240</v>
@@ -3817,11 +3815,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>135447.6</v>
+        <v>33861.9</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>240</v>
@@ -5110,19 +5108,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>201</v>
       </c>
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
       </c>
-      <c r="C37" s="17">
-        <v>60</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>77647.8</v>
+        <v>0</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>240</v>
@@ -5243,19 +5239,17 @@
       <c r="DO37" s="15"/>
       <c r="DP37" s="15"/>
     </row>
-    <row r="38" spans="1:120" ht="15" customHeight="1">
+    <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
         <v>231</v>
       </c>
       <c r="B38" s="28">
         <v>1333.3</v>
       </c>
-      <c r="C38" s="17">
-        <v>40</v>
-      </c>
+      <c r="C38" s="17"/>
       <c r="D38" s="18">
         <f t="shared" ref="D38:D70" si="1">B38*C38</f>
-        <v>53332</v>
+        <v>0</v>
       </c>
       <c r="E38" s="62" t="s">
         <v>240</v>
@@ -5765,19 +5759,17 @@
       <c r="DO41" s="15"/>
       <c r="DP41" s="15"/>
     </row>
-    <row r="42" spans="1:120" ht="15" customHeight="1">
+    <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
         <v>188</v>
       </c>
       <c r="B42" s="28">
         <v>1556.7693999999999</v>
       </c>
-      <c r="C42" s="17">
-        <v>100</v>
-      </c>
+      <c r="C42" s="17"/>
       <c r="D42" s="18">
         <f t="shared" si="1"/>
-        <v>155676.94</v>
+        <v>0</v>
       </c>
       <c r="E42" s="62" t="s">
         <v>303</v>
@@ -6869,19 +6861,17 @@
       <c r="DO50" s="15"/>
       <c r="DP50" s="15"/>
     </row>
-    <row r="51" spans="1:120" ht="15" customHeight="1">
+    <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
         <v>246</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
       </c>
-      <c r="C51" s="17">
-        <v>40</v>
-      </c>
+      <c r="C51" s="17"/>
       <c r="D51" s="18">
         <f t="shared" si="1"/>
-        <v>44307.200000000004</v>
+        <v>0</v>
       </c>
       <c r="E51" s="62" t="s">
         <v>240</v>
@@ -10572,19 +10562,17 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" customHeight="1">
+    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="69" t="s">
         <v>255</v>
       </c>
       <c r="B87" s="28">
         <v>1459.53</v>
       </c>
-      <c r="C87" s="17">
-        <v>80</v>
-      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>116762.4</v>
+        <v>0</v>
       </c>
       <c r="E87" s="62" t="s">
         <v>240</v>
@@ -10705,19 +10693,17 @@
       <c r="DO87" s="15"/>
       <c r="DP87" s="15"/>
     </row>
-    <row r="88" spans="1:120" ht="15" customHeight="1">
+    <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
         <v>288</v>
       </c>
       <c r="B88" s="28">
         <v>1498.63</v>
       </c>
-      <c r="C88" s="17">
-        <v>60</v>
-      </c>
+      <c r="C88" s="17"/>
       <c r="D88" s="18">
         <f t="shared" si="3"/>
-        <v>89917.8</v>
+        <v>0</v>
       </c>
       <c r="E88" s="62" t="s">
         <v>240</v>
@@ -11367,19 +11353,17 @@
       <c r="DO93" s="15"/>
       <c r="DP93" s="15"/>
     </row>
-    <row r="94" spans="1:120" ht="15" customHeight="1">
+    <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
         <v>293</v>
       </c>
       <c r="B94" s="28">
         <v>1381.28</v>
       </c>
-      <c r="C94" s="17">
-        <v>100</v>
-      </c>
+      <c r="C94" s="17"/>
       <c r="D94" s="18">
         <f t="shared" si="3"/>
-        <v>138128</v>
+        <v>0</v>
       </c>
       <c r="E94" s="75" t="s">
         <v>302</v>
@@ -11759,19 +11743,17 @@
       <c r="DO97" s="15"/>
       <c r="DP97" s="15"/>
     </row>
-    <row r="98" spans="1:120" ht="15" customHeight="1">
+    <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="69" t="s">
         <v>253</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
       </c>
-      <c r="C98" s="17">
-        <v>60</v>
-      </c>
+      <c r="C98" s="17"/>
       <c r="D98" s="18">
         <f t="shared" si="3"/>
-        <v>93406.2</v>
+        <v>0</v>
       </c>
       <c r="E98" s="62" t="s">
         <v>240</v>
@@ -11892,19 +11874,17 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" customHeight="1">
+    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A99" s="37" t="s">
         <v>280</v>
       </c>
       <c r="B99" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C99" s="17">
-        <v>60</v>
-      </c>
+      <c r="C99" s="17"/>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>81738</v>
+        <v>0</v>
       </c>
       <c r="E99" s="75" t="s">
         <v>302</v>
@@ -12347,11 +12327,11 @@
         <v>1342.25</v>
       </c>
       <c r="C103" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>26845</v>
+        <v>53690</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>240</v>
@@ -14420,19 +14400,17 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" customHeight="1">
+    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A121" s="40" t="s">
         <v>296</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17">
-        <v>40</v>
-      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>54492</v>
+        <v>0</v>
       </c>
       <c r="E121" s="62" t="s">
         <v>240</v>
@@ -16313,19 +16291,17 @@
       <c r="DO135" s="15"/>
       <c r="DP135" s="15"/>
     </row>
-    <row r="136" spans="1:120" ht="15" customHeight="1">
+    <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="40" t="s">
         <v>301</v>
       </c>
       <c r="B136" s="28">
         <v>6422.55</v>
       </c>
-      <c r="C136" s="17">
-        <v>10</v>
-      </c>
+      <c r="C136" s="17"/>
       <c r="D136" s="18">
         <f t="shared" si="5"/>
-        <v>64225.5</v>
+        <v>0</v>
       </c>
       <c r="E136" s="62" t="s">
         <v>240</v>
@@ -19167,19 +19143,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>282</v>
       </c>
       <c r="B163" s="28">
         <v>7686.61</v>
       </c>
-      <c r="C163" s="17">
-        <v>15</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>115299.15</v>
+        <v>0</v>
       </c>
       <c r="E163" s="62" t="s">
         <v>240</v>
@@ -20348,19 +20322,17 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" customHeight="1">
+    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>295</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17">
-        <v>10</v>
-      </c>
+      <c r="C172" s="17"/>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>114547.4</v>
+        <v>0</v>
       </c>
       <c r="E172" s="62" t="s">
         <v>240</v>
@@ -20481,19 +20453,17 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" customHeight="1">
+    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="65" t="s">
         <v>294</v>
       </c>
       <c r="B173" s="66">
         <v>10276.89</v>
       </c>
-      <c r="C173" s="67">
-        <v>10</v>
-      </c>
+      <c r="C173" s="67"/>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>102768.9</v>
+        <v>0</v>
       </c>
       <c r="E173" s="62" t="s">
         <v>240</v>
@@ -20745,19 +20715,17 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" customHeight="1">
+    <row r="175" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="73" t="s">
         <v>297</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C175" s="17">
-        <v>10</v>
-      </c>
+      <c r="C175" s="17"/>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>114547.4</v>
+        <v>0</v>
       </c>
       <c r="E175" s="62" t="s">
         <v>240</v>
@@ -21015,12 +20983,12 @@
       </c>
       <c r="B177" s="85"/>
       <c r="C177" s="70">
-        <f>SUBTOTAL(9,C7:C176)</f>
-        <v>1245</v>
+        <f>SUBTOTAL(9,C20:C176)</f>
+        <v>110</v>
       </c>
       <c r="D177" s="71">
-        <f>SUBTOTAL(9,D7:D176)</f>
-        <v>1997682.2899999996</v>
+        <f>SUBTOTAL(9,D20:D176)</f>
+        <v>133282.5</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21299,7 +21267,7 @@
         <v>258</v>
       </c>
       <c r="C183" s="47">
-        <v>600000</v>
+        <v>400000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21320,7 +21288,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>600000</v>
+        <v>400000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="305">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -454,9 +454,6 @@
     <t>i100</t>
   </si>
   <si>
-    <t>i90_2GB</t>
-  </si>
-  <si>
     <t>Colour</t>
   </si>
   <si>
@@ -935,6 +932,12 @@
   </si>
   <si>
     <t>Black Only</t>
+  </si>
+  <si>
+    <t>i85</t>
+  </si>
+  <si>
+    <t>White</t>
   </si>
 </sst>
 </file>
@@ -2130,7 +2133,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H184" sqref="H184"/>
+      <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2160,7 +2163,7 @@
         <v>87</v>
       </c>
       <c r="B2" s="79" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="80"/>
       <c r="D2" s="34" t="s">
@@ -2168,7 +2171,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44852</v>
+        <v>44854</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2186,12 +2189,12 @@
         <v>82</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A5" s="60" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B5" s="53">
         <v>7244.21</v>
@@ -2202,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB5" s="14"/>
       <c r="BC5" s="14"/>
@@ -2262,7 +2265,7 @@
     </row>
     <row r="6" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A6" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B6" s="28">
         <v>7883.09</v>
@@ -2273,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BF6" s="14"/>
       <c r="BG6" s="14"/>
@@ -2327,20 +2330,22 @@
       <c r="DC6" s="14"/>
       <c r="DD6" s="14"/>
     </row>
-    <row r="7" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:120" ht="15" customHeight="1">
       <c r="A7" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B7" s="28">
         <v>972.35440000000006</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="17">
+        <v>200</v>
+      </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>194470.88</v>
       </c>
       <c r="E7" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB7" s="14"/>
       <c r="BC7" s="14"/>
@@ -2400,7 +2405,7 @@
     </row>
     <row r="8" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A8" s="36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B8" s="28">
         <v>789.97</v>
@@ -2411,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26"/>
@@ -2542,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
@@ -2662,7 +2667,7 @@
     </row>
     <row r="10" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="28">
         <v>779.94</v>
@@ -2673,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -2733,7 +2738,7 @@
     </row>
     <row r="11" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A11" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B11" s="28">
         <v>774.93</v>
@@ -2744,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB11" s="14"/>
       <c r="BC11" s="14"/>
@@ -2804,7 +2809,7 @@
     </row>
     <row r="12" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A12" s="36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="28">
         <v>769.92</v>
@@ -2815,7 +2820,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BB12" s="14"/>
       <c r="BC12" s="14"/>
@@ -2875,7 +2880,7 @@
     </row>
     <row r="13" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A13" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B13" s="28">
         <v>932.26</v>
@@ -2886,12 +2891,12 @@
         <v>0</v>
       </c>
       <c r="E13" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A14" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B14" s="28">
         <v>721.8</v>
@@ -2902,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB14" s="14"/>
       <c r="BC14" s="14"/>
@@ -2962,7 +2967,7 @@
     </row>
     <row r="15" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A15" s="36" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B15" s="28">
         <v>1060.57</v>
@@ -2973,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB15" s="14"/>
       <c r="BC15" s="14"/>
@@ -3033,7 +3038,7 @@
     </row>
     <row r="16" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A16" s="36" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B16" s="28">
         <v>770.92</v>
@@ -3044,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB16" s="14"/>
       <c r="BC16" s="14"/>
@@ -3104,7 +3109,7 @@
     </row>
     <row r="17" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A17" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B17" s="28">
         <v>779.96</v>
@@ -3115,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB17" s="14"/>
       <c r="BC17" s="14"/>
@@ -3175,7 +3180,7 @@
     </row>
     <row r="18" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A18" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B18" s="28">
         <v>1032.575</v>
@@ -3186,12 +3191,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A19" s="36" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B19" s="28">
         <v>942.28</v>
@@ -3202,25 +3207,25 @@
         <v>0</v>
       </c>
       <c r="E19" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:120" ht="15" customHeight="1">
       <c r="A20" s="36" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
       <c r="C20" s="17">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>21010.799999999999</v>
+        <v>42021.599999999999</v>
       </c>
       <c r="E20" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB20" s="14"/>
       <c r="BC20" s="14"/>
@@ -3280,20 +3285,20 @@
     </row>
     <row r="21" spans="1:120" ht="15" customHeight="1">
       <c r="A21" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B21" s="28">
         <v>1235.99</v>
       </c>
       <c r="C21" s="17">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>24719.8</v>
+        <v>86519.3</v>
       </c>
       <c r="E21" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BF21" s="14"/>
       <c r="BG21" s="14"/>
@@ -3360,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BB22" s="14"/>
       <c r="BC22" s="14"/>
@@ -3420,7 +3425,7 @@
     </row>
     <row r="23" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A23" s="36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B23" s="28">
         <v>896.23500000000001</v>
@@ -3678,7 +3683,7 @@
     </row>
     <row r="25" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A25" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="28">
         <v>901.24800000000005</v>
@@ -3689,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F25" s="26"/>
       <c r="G25" s="26"/>
@@ -3809,20 +3814,20 @@
     </row>
     <row r="26" spans="1:120" ht="15" customHeight="1">
       <c r="A26" s="36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B26" s="28">
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>33861.9</v>
+        <v>90298.4</v>
       </c>
       <c r="E26" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
@@ -3942,7 +3947,7 @@
     </row>
     <row r="27" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A27" s="36" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B27" s="28">
         <v>824.06</v>
@@ -3953,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="26"/>
@@ -4073,7 +4078,7 @@
     </row>
     <row r="28" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A28" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B28" s="28">
         <v>1157.8</v>
@@ -4084,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26"/>
@@ -4215,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F29" s="26"/>
       <c r="G29" s="26"/>
@@ -4346,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26"/>
@@ -4466,7 +4471,7 @@
     </row>
     <row r="31" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A31" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B31" s="28">
         <v>858.14</v>
@@ -4477,7 +4482,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F31" s="26"/>
       <c r="G31" s="26"/>
@@ -4726,7 +4731,7 @@
     </row>
     <row r="33" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B33" s="28">
         <v>878.19</v>
@@ -4788,7 +4793,7 @@
     </row>
     <row r="34" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B34" s="28">
         <v>936.34</v>
@@ -4850,7 +4855,7 @@
     </row>
     <row r="35" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A35" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B35" s="28">
         <v>955.38</v>
@@ -4979,7 +4984,7 @@
     </row>
     <row r="36" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A36" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B36" s="28">
         <v>1014.53</v>
@@ -4990,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="62" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26"/>
@@ -5108,20 +5113,22 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:120" ht="15" customHeight="1">
       <c r="A37" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
       </c>
-      <c r="C37" s="17"/>
+      <c r="C37" s="17">
+        <v>20</v>
+      </c>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25882.600000000002</v>
       </c>
       <c r="E37" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F37" s="26"/>
       <c r="G37" s="26"/>
@@ -5241,7 +5248,7 @@
     </row>
     <row r="38" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A38" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B38" s="28">
         <v>1333.3</v>
@@ -5252,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="E38" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5372,7 +5379,7 @@
     </row>
     <row r="39" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A39" s="36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B39" s="28">
         <v>1235.99</v>
@@ -5383,7 +5390,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="26"/>
@@ -5632,7 +5639,7 @@
     </row>
     <row r="41" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A41" s="36" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B41" s="28">
         <v>1264.78</v>
@@ -5761,7 +5768,7 @@
     </row>
     <row r="42" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A42" s="36" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B42" s="28">
         <v>1556.7693999999999</v>
@@ -5772,7 +5779,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -6021,7 +6028,7 @@
     </row>
     <row r="44" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A44" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B44" s="28">
         <v>1244.723</v>
@@ -6150,7 +6157,7 @@
     </row>
     <row r="45" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A45" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B45" s="28">
         <v>1238.0899999999999</v>
@@ -6279,7 +6286,7 @@
     </row>
     <row r="46" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A46" s="37" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B46" s="28">
         <v>800</v>
@@ -6408,7 +6415,7 @@
     </row>
     <row r="47" spans="1:120" s="31" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A47" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B47" s="28">
         <v>848.12</v>
@@ -6470,7 +6477,7 @@
     </row>
     <row r="48" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A48" s="36" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B48" s="28">
         <v>1101.75</v>
@@ -6481,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -6601,7 +6608,7 @@
     </row>
     <row r="49" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A49" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B49" s="28">
         <v>1157.8</v>
@@ -6612,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="E49" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
@@ -6732,7 +6739,7 @@
     </row>
     <row r="50" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A50" s="37" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B50" s="28">
         <v>1157.8</v>
@@ -6743,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -6863,7 +6870,7 @@
     </row>
     <row r="51" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A51" s="37" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B51" s="28">
         <v>1107.68</v>
@@ -6874,7 +6881,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -6994,7 +7001,7 @@
     </row>
     <row r="52" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A52" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B52" s="28">
         <v>1014.53</v>
@@ -7005,7 +7012,7 @@
         <v>0</v>
       </c>
       <c r="E52" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -7125,7 +7132,7 @@
     </row>
     <row r="53" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A53" s="36" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B53" s="28">
         <v>1264.153</v>
@@ -7254,7 +7261,7 @@
     </row>
     <row r="54" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A54" s="37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B54" s="28">
         <v>2702.42</v>
@@ -7265,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="62" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -7385,7 +7392,7 @@
     </row>
     <row r="55" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A55" s="37" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B55" s="28">
         <v>4500</v>
@@ -7396,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F55" s="26"/>
       <c r="G55" s="26"/>
@@ -7516,7 +7523,7 @@
     </row>
     <row r="56" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A56" s="40" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B56" s="41">
         <v>5225.6499999999996</v>
@@ -7527,7 +7534,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -7647,7 +7654,7 @@
     </row>
     <row r="57" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A57" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B57" s="28">
         <v>5498.31</v>
@@ -7658,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="26"/>
@@ -7918,7 +7925,7 @@
         <v>0</v>
       </c>
       <c r="E59" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="26"/>
@@ -8038,7 +8045,7 @@
     </row>
     <row r="60" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A60" s="36" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B60" s="28">
         <v>6900.2079999999996</v>
@@ -8425,7 +8432,7 @@
     </row>
     <row r="63" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A63" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B63" s="28">
         <v>4044.61</v>
@@ -8436,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="E63" s="62" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="26"/>
@@ -8556,7 +8563,7 @@
     </row>
     <row r="64" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A64" s="36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B64" s="28">
         <v>8088.17</v>
@@ -8685,7 +8692,7 @@
     </row>
     <row r="65" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A65" s="36" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B65" s="28">
         <v>5158.25</v>
@@ -8814,7 +8821,7 @@
     </row>
     <row r="66" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A66" s="36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B66" s="28">
         <v>4885.6000000000004</v>
@@ -8943,7 +8950,7 @@
     </row>
     <row r="67" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A67" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B67" s="28">
         <v>5247.46</v>
@@ -8954,7 +8961,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="62" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BB67" s="14"/>
       <c r="BC67" s="14"/>
@@ -9014,7 +9021,7 @@
     </row>
     <row r="68" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A68" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B68" s="28">
         <v>5443.18</v>
@@ -9025,7 +9032,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB68" s="14"/>
       <c r="BC68" s="14"/>
@@ -9085,7 +9092,7 @@
     </row>
     <row r="69" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A69" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B69" s="28">
         <v>5607.32</v>
@@ -9147,7 +9154,7 @@
     </row>
     <row r="70" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A70" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B70" s="28">
         <v>4866.5600000000004</v>
@@ -9209,7 +9216,7 @@
     </row>
     <row r="71" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A71" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B71" s="28">
         <v>5603.31</v>
@@ -9220,7 +9227,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="25"/>
@@ -9273,7 +9280,7 @@
     </row>
     <row r="72" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A72" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B72" s="28">
         <v>5411.86</v>
@@ -9284,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F72" s="25"/>
       <c r="G72" s="25"/>
@@ -9337,7 +9344,7 @@
     </row>
     <row r="73" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A73" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B73" s="28">
         <v>6320.01</v>
@@ -9348,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="E73" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F73" s="25"/>
       <c r="G73" s="25"/>
@@ -9401,7 +9408,7 @@
     </row>
     <row r="74" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A74" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B74" s="28">
         <v>5792.76</v>
@@ -9412,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F74" s="25"/>
       <c r="G74" s="25"/>
@@ -9465,7 +9472,7 @@
     </row>
     <row r="75" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A75" s="40" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B75" s="28">
         <v>6230.08</v>
@@ -9476,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F75" s="25"/>
       <c r="G75" s="25"/>
@@ -9529,7 +9536,7 @@
     </row>
     <row r="76" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A76" s="36" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B76" s="28">
         <v>6749.3422</v>
@@ -9540,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="E76" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
@@ -9591,19 +9598,23 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
+    <row r="77" spans="1:120" s="14" customFormat="1">
       <c r="A77" s="36" t="s">
-        <v>143</v>
+        <v>303</v>
       </c>
       <c r="B77" s="28">
-        <v>8225.51</v>
-      </c>
-      <c r="C77" s="17"/>
+        <v>7620.45</v>
+      </c>
+      <c r="C77" s="17">
+        <v>70</v>
+      </c>
       <c r="D77" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E77" s="62"/>
+        <v>533431.5</v>
+      </c>
+      <c r="E77" s="62" t="s">
+        <v>239</v>
+      </c>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
@@ -9655,7 +9666,7 @@
     </row>
     <row r="78" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A78" s="36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B78" s="28">
         <v>5382.7857000000004</v>
@@ -9717,7 +9728,7 @@
     </row>
     <row r="79" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A79" s="36" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B79" s="28">
         <v>6306.98</v>
@@ -9728,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="E79" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="26"/>
@@ -9848,7 +9859,7 @@
     </row>
     <row r="80" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B80" s="28">
         <v>5708.6</v>
@@ -9859,7 +9870,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="26"/>
@@ -9979,7 +9990,7 @@
     </row>
     <row r="81" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B81" s="28">
         <v>6405.21</v>
@@ -9990,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="E81" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F81" s="26"/>
       <c r="G81" s="26"/>
@@ -10121,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="E82" s="62" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="26"/>
@@ -10241,7 +10252,7 @@
     </row>
     <row r="83" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B83" s="28">
         <v>1199.99</v>
@@ -10432,7 +10443,7 @@
     </row>
     <row r="85" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B85" s="28">
         <v>1062.6500000000001</v>
@@ -10443,7 +10454,7 @@
         <v>0</v>
       </c>
       <c r="E85" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
@@ -10496,7 +10507,7 @@
     </row>
     <row r="86" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="69" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B86" s="28">
         <v>1284.1099999999999</v>
@@ -10507,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="E86" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
@@ -10562,20 +10573,22 @@
       <c r="BD86" s="25"/>
       <c r="BE86" s="25"/>
     </row>
-    <row r="87" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="87" spans="1:120" ht="15" customHeight="1">
       <c r="A87" s="69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B87" s="28">
         <v>1459.53</v>
       </c>
-      <c r="C87" s="17"/>
+      <c r="C87" s="17">
+        <v>20</v>
+      </c>
       <c r="D87" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>29190.6</v>
       </c>
       <c r="E87" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F87" s="26"/>
       <c r="G87" s="26"/>
@@ -10695,7 +10708,7 @@
     </row>
     <row r="88" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A88" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B88" s="28">
         <v>1498.63</v>
@@ -10706,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="E88" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB88" s="14"/>
       <c r="BC88" s="14"/>
@@ -10846,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="E90" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="26"/>
@@ -10977,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="26"/>
@@ -11097,7 +11110,7 @@
     </row>
     <row r="92" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A92" s="37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B92" s="28">
         <v>1072.68</v>
@@ -11355,7 +11368,7 @@
     </row>
     <row r="94" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="37" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B94" s="28">
         <v>1381.28</v>
@@ -11366,7 +11379,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F94" s="26"/>
       <c r="G94" s="26"/>
@@ -11486,7 +11499,7 @@
     </row>
     <row r="95" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A95" s="37" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B95" s="28">
         <v>1306.26</v>
@@ -11497,7 +11510,7 @@
         <v>0</v>
       </c>
       <c r="E95" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -11550,7 +11563,7 @@
     </row>
     <row r="96" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A96" s="37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B96" s="28">
         <v>1004.39</v>
@@ -11561,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
@@ -11614,7 +11627,7 @@
     </row>
     <row r="97" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B97" s="28">
         <v>1420.44</v>
@@ -11625,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="E97" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="26"/>
@@ -11745,7 +11758,7 @@
     </row>
     <row r="98" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A98" s="69" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B98" s="28">
         <v>1556.77</v>
@@ -11756,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="E98" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="26"/>
@@ -11874,20 +11887,22 @@
       <c r="DO98" s="15"/>
       <c r="DP98" s="15"/>
     </row>
-    <row r="99" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="99" spans="1:120" ht="15" customHeight="1">
       <c r="A99" s="37" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B99" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C99" s="17"/>
+      <c r="C99" s="17">
+        <v>20</v>
+      </c>
       <c r="D99" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>27246</v>
       </c>
       <c r="E99" s="75" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -12007,7 +12022,7 @@
     </row>
     <row r="100" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A100" s="36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B100" s="28">
         <v>1166.9100000000001</v>
@@ -12018,7 +12033,7 @@
         <v>0</v>
       </c>
       <c r="E100" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F100" s="26"/>
       <c r="G100" s="26"/>
@@ -12138,7 +12153,7 @@
     </row>
     <row r="101" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A101" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B101" s="28">
         <v>1178.94</v>
@@ -12149,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="E101" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F101" s="25"/>
       <c r="G101" s="25"/>
@@ -12257,7 +12272,7 @@
     </row>
     <row r="102" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A102" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B102" s="28">
         <v>1255.04</v>
@@ -12268,7 +12283,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F102" s="25"/>
       <c r="G102" s="25"/>
@@ -12321,20 +12336,20 @@
     </row>
     <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
       <c r="A103" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B103" s="28">
         <v>1342.25</v>
       </c>
       <c r="C103" s="17">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>53690</v>
+        <v>26845</v>
       </c>
       <c r="E103" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F103" s="25"/>
       <c r="G103" s="25"/>
@@ -12442,7 +12457,7 @@
     </row>
     <row r="104" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A104" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B104" s="28">
         <v>1204.8599999999999</v>
@@ -12453,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="E104" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F104" s="25"/>
       <c r="G104" s="25"/>
@@ -12517,7 +12532,7 @@
         <v>0</v>
       </c>
       <c r="E105" s="62" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F105" s="26"/>
       <c r="G105" s="26"/>
@@ -12637,7 +12652,7 @@
     </row>
     <row r="106" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A106" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B106" s="28">
         <v>1024.5550000000001</v>
@@ -12648,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="E106" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F106" s="26"/>
       <c r="G106" s="26"/>
@@ -12768,7 +12783,7 @@
     </row>
     <row r="107" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A107" s="37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B107" s="28">
         <v>1024.56</v>
@@ -12897,7 +12912,7 @@
     </row>
     <row r="108" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A108" s="37" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B108" s="28">
         <v>1101.75</v>
@@ -13026,7 +13041,7 @@
     </row>
     <row r="109" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A109" s="37" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B109" s="28">
         <v>1297.24</v>
@@ -13037,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="E109" s="62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F109" s="26"/>
       <c r="G109" s="26"/>
@@ -13157,7 +13172,7 @@
     </row>
     <row r="110" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A110" s="37" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B110" s="28">
         <v>1297.24</v>
@@ -13286,7 +13301,7 @@
     </row>
     <row r="111" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A111" s="37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B111" s="28">
         <v>1243.0999999999999</v>
@@ -13297,7 +13312,7 @@
         <v>0</v>
       </c>
       <c r="E111" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BB111" s="14"/>
       <c r="BC111" s="14"/>
@@ -13753,7 +13768,7 @@
     </row>
     <row r="116" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A116" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B116" s="28">
         <v>5607.32</v>
@@ -13764,7 +13779,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F116" s="26"/>
       <c r="G116" s="26"/>
@@ -14024,7 +14039,7 @@
         <v>0</v>
       </c>
       <c r="E118" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F118" s="26"/>
       <c r="G118" s="26"/>
@@ -14400,20 +14415,22 @@
       <c r="DO120" s="15"/>
       <c r="DP120" s="15"/>
     </row>
-    <row r="121" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="121" spans="1:120" ht="15" customHeight="1">
       <c r="A121" s="40" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B121" s="28">
         <v>1362.3</v>
       </c>
-      <c r="C121" s="17"/>
+      <c r="C121" s="17">
+        <v>20</v>
+      </c>
       <c r="D121" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>27246</v>
       </c>
       <c r="E121" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F121" s="26"/>
       <c r="G121" s="26"/>
@@ -14533,7 +14550,7 @@
     </row>
     <row r="122" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A122" s="36" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B122" s="28">
         <v>1469.49</v>
@@ -14544,7 +14561,7 @@
         <v>0</v>
       </c>
       <c r="E122" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F122" s="26"/>
       <c r="G122" s="26"/>
@@ -15120,7 +15137,7 @@
     </row>
     <row r="127" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A127" s="36" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B127" s="28">
         <v>1219.04</v>
@@ -15131,7 +15148,7 @@
         <v>0</v>
       </c>
       <c r="E127" s="62" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F127" s="26"/>
       <c r="G127" s="26"/>
@@ -15251,7 +15268,7 @@
     </row>
     <row r="128" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A128" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B128" s="28">
         <v>1336.33</v>
@@ -15262,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="E128" s="62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F128" s="26"/>
       <c r="G128" s="26"/>
@@ -15382,7 +15399,7 @@
     </row>
     <row r="129" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A129" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B129" s="28">
         <v>1188.97</v>
@@ -15769,7 +15786,7 @@
     </row>
     <row r="132" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A132" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B132" s="28">
         <v>1304.1600000000001</v>
@@ -15780,7 +15797,7 @@
         <v>0</v>
       </c>
       <c r="E132" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F132" s="26"/>
       <c r="G132" s="26"/>
@@ -15900,7 +15917,7 @@
     </row>
     <row r="133" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A133" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B133" s="28">
         <v>3520.36</v>
@@ -15911,7 +15928,7 @@
         <v>0</v>
       </c>
       <c r="E133" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F133" s="26"/>
       <c r="G133" s="26"/>
@@ -16031,7 +16048,7 @@
     </row>
     <row r="134" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A134" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B134" s="28">
         <v>3793.1</v>
@@ -16042,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="E134" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F134" s="26"/>
       <c r="G134" s="26"/>
@@ -16162,7 +16179,7 @@
     </row>
     <row r="135" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A135" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B135" s="28">
         <v>4174.41</v>
@@ -16173,7 +16190,7 @@
         <v>0</v>
       </c>
       <c r="E135" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F135" s="26"/>
       <c r="G135" s="26"/>
@@ -16293,7 +16310,7 @@
     </row>
     <row r="136" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A136" s="40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B136" s="28">
         <v>6422.55</v>
@@ -16304,7 +16321,7 @@
         <v>0</v>
       </c>
       <c r="E136" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
@@ -16424,7 +16441,7 @@
     </row>
     <row r="137" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A137" s="36" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B137" s="28">
         <v>6032.61</v>
@@ -16435,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="E137" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F137" s="26"/>
       <c r="G137" s="26"/>
@@ -16555,7 +16572,7 @@
     </row>
     <row r="138" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A138" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B138" s="28">
         <v>4896.21</v>
@@ -16684,7 +16701,7 @@
     </row>
     <row r="139" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A139" s="37" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B139" s="28">
         <v>4076.68</v>
@@ -16695,7 +16712,7 @@
         <v>0</v>
       </c>
       <c r="E139" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F139" s="25"/>
       <c r="G139" s="25"/>
@@ -16748,7 +16765,7 @@
     </row>
     <row r="140" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A140" s="36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B140" s="28">
         <v>5150.8500000000004</v>
@@ -16810,7 +16827,7 @@
     </row>
     <row r="141" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A141" s="36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B141" s="28">
         <v>4973.3999999999996</v>
@@ -16872,7 +16889,7 @@
     </row>
     <row r="142" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A142" s="36" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B142" s="28">
         <v>5423.53</v>
@@ -16934,7 +16951,7 @@
     </row>
     <row r="143" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A143" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B143" s="28">
         <v>5940.82</v>
@@ -17007,7 +17024,7 @@
         <v>0</v>
       </c>
       <c r="E144" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F144" s="25"/>
       <c r="G144" s="25"/>
@@ -17060,7 +17077,7 @@
     </row>
     <row r="145" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A145" s="37" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B145" s="28">
         <v>3558.64</v>
@@ -17122,7 +17139,7 @@
     </row>
     <row r="146" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A146" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B146" s="30">
         <v>3257.12</v>
@@ -17133,7 +17150,7 @@
         <v>0</v>
       </c>
       <c r="E146" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F146" s="26"/>
       <c r="G146" s="26"/>
@@ -17253,7 +17270,7 @@
     </row>
     <row r="147" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A147" s="37" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B147" s="28">
         <v>4389.43</v>
@@ -17264,7 +17281,7 @@
         <v>0</v>
       </c>
       <c r="E147" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F147" s="26"/>
       <c r="G147" s="26"/>
@@ -17384,7 +17401,7 @@
     </row>
     <row r="148" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A148" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B148" s="28">
         <v>4389.95</v>
@@ -17524,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="E149" s="62" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F149" s="26"/>
       <c r="G149" s="26"/>
@@ -17644,7 +17661,7 @@
     </row>
     <row r="150" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A150" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B150" s="30">
         <v>3934.81</v>
@@ -17773,7 +17790,7 @@
     </row>
     <row r="151" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A151" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B151" s="30">
         <v>4027.04</v>
@@ -17784,7 +17801,7 @@
         <v>0</v>
       </c>
       <c r="E151" s="62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F151" s="26"/>
       <c r="G151" s="26"/>
@@ -17915,7 +17932,7 @@
         <v>0</v>
       </c>
       <c r="E152" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F152" s="26"/>
       <c r="G152" s="26"/>
@@ -18035,7 +18052,7 @@
     </row>
     <row r="153" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A153" s="37" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B153" s="28">
         <v>4507.24</v>
@@ -18164,7 +18181,7 @@
     </row>
     <row r="154" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A154" s="37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B154" s="28">
         <v>4409</v>
@@ -18293,7 +18310,7 @@
     </row>
     <row r="155" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A155" s="37" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B155" s="28">
         <v>4165.3900000000003</v>
@@ -18304,7 +18321,7 @@
         <v>0</v>
       </c>
       <c r="E155" s="64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F155" s="26"/>
       <c r="G155" s="26"/>
@@ -18424,7 +18441,7 @@
     </row>
     <row r="156" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A156" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B156" s="28">
         <v>3617.59</v>
@@ -18435,7 +18452,7 @@
         <v>0</v>
       </c>
       <c r="E156" s="62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F156" s="26"/>
       <c r="G156" s="26"/>
@@ -18555,7 +18572,7 @@
     </row>
     <row r="157" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A157" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B157" s="28">
         <v>3548.43</v>
@@ -18566,7 +18583,7 @@
         <v>0</v>
       </c>
       <c r="E157" s="62" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BB157" s="14"/>
       <c r="BC157" s="14"/>
@@ -18626,7 +18643,7 @@
     </row>
     <row r="158" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A158" s="36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B158" s="28">
         <v>13718.22</v>
@@ -18637,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="E158" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F158" s="25"/>
       <c r="G158" s="25"/>
@@ -18690,7 +18707,7 @@
     </row>
     <row r="159" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A159" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B159" s="28">
         <v>7165.87</v>
@@ -18701,7 +18718,7 @@
         <v>0</v>
       </c>
       <c r="E159" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F159" s="25"/>
       <c r="G159" s="25"/>
@@ -18754,7 +18771,7 @@
     </row>
     <row r="160" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A160" s="36" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B160" s="28">
         <v>7691.27</v>
@@ -18883,7 +18900,7 @@
     </row>
     <row r="161" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A161" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B161" s="28">
         <v>7093.04</v>
@@ -18894,7 +18911,7 @@
         <v>0</v>
       </c>
       <c r="E161" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F161" s="26"/>
       <c r="G161" s="26"/>
@@ -19014,7 +19031,7 @@
     </row>
     <row r="162" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A162" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B162" s="28">
         <v>7242.2</v>
@@ -19025,7 +19042,7 @@
         <v>0</v>
       </c>
       <c r="E162" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F162" s="26"/>
       <c r="G162" s="26"/>
@@ -19143,20 +19160,22 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="163" spans="1:120" ht="15" customHeight="1">
       <c r="A163" s="40" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B163" s="28">
         <v>7686.61</v>
       </c>
-      <c r="C163" s="17"/>
+      <c r="C163" s="17">
+        <v>15</v>
+      </c>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>115299.15</v>
       </c>
       <c r="E163" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F163" s="26"/>
       <c r="G163" s="26"/>
@@ -19276,7 +19295,7 @@
     </row>
     <row r="164" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A164" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B164" s="28">
         <v>7501.24</v>
@@ -19287,7 +19306,7 @@
         <v>0</v>
       </c>
       <c r="E164" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F164" s="26"/>
       <c r="G164" s="26"/>
@@ -19407,7 +19426,7 @@
     </row>
     <row r="165" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A165" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B165" s="28">
         <v>7778.48</v>
@@ -19418,7 +19437,7 @@
         <v>0</v>
       </c>
       <c r="E165" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F165" s="26"/>
       <c r="G165" s="26"/>
@@ -19538,7 +19557,7 @@
     </row>
     <row r="166" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A166" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B166" s="28">
         <v>9066.5400000000009</v>
@@ -19549,7 +19568,7 @@
         <v>0</v>
       </c>
       <c r="E166" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F166" s="26"/>
       <c r="G166" s="26"/>
@@ -19669,7 +19688,7 @@
     </row>
     <row r="167" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A167" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B167" s="28">
         <v>9873.4500000000007</v>
@@ -19680,7 +19699,7 @@
         <v>0</v>
       </c>
       <c r="E167" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F167" s="26"/>
       <c r="G167" s="26"/>
@@ -19800,7 +19819,7 @@
     </row>
     <row r="168" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A168" s="36" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" s="28">
         <v>7778.48</v>
@@ -19811,7 +19830,7 @@
         <v>0</v>
       </c>
       <c r="E168" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F168" s="26"/>
       <c r="G168" s="26"/>
@@ -19931,7 +19950,7 @@
     </row>
     <row r="169" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A169" s="40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B169" s="28">
         <v>9625.31</v>
@@ -19942,7 +19961,7 @@
         <v>0</v>
       </c>
       <c r="E169" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F169" s="26"/>
       <c r="G169" s="26"/>
@@ -20062,7 +20081,7 @@
     </row>
     <row r="170" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A170" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B170" s="28">
         <v>9056.51</v>
@@ -20073,7 +20092,7 @@
         <v>0</v>
       </c>
       <c r="E170" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F170" s="26"/>
       <c r="G170" s="26"/>
@@ -20193,7 +20212,7 @@
     </row>
     <row r="171" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A171" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B171" s="28">
         <v>9973.69</v>
@@ -20204,7 +20223,7 @@
         <v>0</v>
       </c>
       <c r="E171" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F171" s="26"/>
       <c r="G171" s="26"/>
@@ -20324,7 +20343,7 @@
     </row>
     <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A172" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
@@ -20335,7 +20354,7 @@
         <v>0</v>
       </c>
       <c r="E172" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20455,7 +20474,7 @@
     </row>
     <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A173" s="65" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B173" s="66">
         <v>10276.89</v>
@@ -20466,7 +20485,7 @@
         <v>0</v>
       </c>
       <c r="E173" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20586,7 +20605,7 @@
     </row>
     <row r="174" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A174" s="73" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B174" s="28">
         <v>10529.5</v>
@@ -20597,7 +20616,7 @@
         <v>0</v>
       </c>
       <c r="E174" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F174" s="26"/>
       <c r="G174" s="26"/>
@@ -20717,7 +20736,7 @@
     </row>
     <row r="175" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A175" s="73" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
@@ -20728,7 +20747,7 @@
         <v>0</v>
       </c>
       <c r="E175" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F175" s="26"/>
       <c r="G175" s="26"/>
@@ -20848,7 +20867,7 @@
     </row>
     <row r="176" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A176" s="73" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B176" s="28">
         <v>12184.5</v>
@@ -20859,7 +20878,7 @@
         <v>0</v>
       </c>
       <c r="E176" s="62" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F176" s="26"/>
       <c r="G176" s="26"/>
@@ -20983,12 +21002,12 @@
       </c>
       <c r="B177" s="85"/>
       <c r="C177" s="70">
-        <f>SUBTOTAL(9,C20:C176)</f>
-        <v>110</v>
+        <f>SUBTOTAL(9,C7:C176)</f>
+        <v>575</v>
       </c>
       <c r="D177" s="71">
-        <f>SUBTOTAL(9,D20:D176)</f>
-        <v>133282.5</v>
+        <f>SUBTOTAL(9,D7:D176)</f>
+        <v>1198451.0299999998</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21264,10 +21283,10 @@
     </row>
     <row r="183" spans="1:120">
       <c r="B183" s="46" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C183" s="47">
-        <v>400000</v>
+        <v>1000000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21276,7 +21295,7 @@
     </row>
     <row r="184" spans="1:120" ht="15.75" thickBot="1">
       <c r="B184" s="46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C184" s="47"/>
       <c r="D184" s="48"/>
@@ -21284,11 +21303,11 @@
     </row>
     <row r="185" spans="1:120" ht="19.5" thickBot="1">
       <c r="B185" s="49" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>400000</v>
+        <v>1000000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>

--- a/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Requisition of Mugdho Corporation/Requisition of Mugdho Corporation.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="304">
   <si>
     <t>Dealer Price</t>
   </si>
@@ -935,9 +935,6 @@
   </si>
   <si>
     <t>i85</t>
-  </si>
-  <si>
-    <t>White</t>
   </si>
 </sst>
 </file>
@@ -1837,6 +1834,66 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6962775" cy="4114800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2133,7 +2190,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G87" sqref="G87"/>
+      <selection pane="bottomRight" sqref="A1:E185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2171,7 +2228,7 @@
       </c>
       <c r="E2" s="32">
         <f ca="1">TODAY()</f>
-        <v>44854</v>
+        <v>44861</v>
       </c>
     </row>
     <row r="3" spans="1:120" ht="3" customHeight="1" thickBot="1"/>
@@ -2338,11 +2395,11 @@
         <v>972.35440000000006</v>
       </c>
       <c r="C7" s="17">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="D7" s="18">
         <f t="shared" si="0"/>
-        <v>194470.88</v>
+        <v>68064.808000000005</v>
       </c>
       <c r="E7" s="62" t="s">
         <v>239</v>
@@ -3210,19 +3267,17 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:120" ht="15" customHeight="1">
+    <row r="20" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A20" s="36" t="s">
         <v>265</v>
       </c>
       <c r="B20" s="28">
         <v>1050.54</v>
       </c>
-      <c r="C20" s="17">
-        <v>40</v>
-      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <f t="shared" si="0"/>
-        <v>42021.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E20" s="62" t="s">
         <v>239</v>
@@ -3283,19 +3338,17 @@
       <c r="DC20" s="14"/>
       <c r="DD20" s="14"/>
     </row>
-    <row r="21" spans="1:120" ht="15" customHeight="1">
+    <row r="21" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A21" s="36" t="s">
         <v>229</v>
       </c>
       <c r="B21" s="28">
         <v>1235.99</v>
       </c>
-      <c r="C21" s="17">
-        <v>70</v>
-      </c>
+      <c r="C21" s="17"/>
       <c r="D21" s="18">
         <f t="shared" si="0"/>
-        <v>86519.3</v>
+        <v>0</v>
       </c>
       <c r="E21" s="62" t="s">
         <v>239</v>
@@ -3820,11 +3873,11 @@
         <v>1128.73</v>
       </c>
       <c r="C26" s="17">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D26" s="18">
         <f t="shared" si="0"/>
-        <v>90298.4</v>
+        <v>112873</v>
       </c>
       <c r="E26" s="62" t="s">
         <v>239</v>
@@ -5113,19 +5166,17 @@
       <c r="DO36" s="15"/>
       <c r="DP36" s="15"/>
     </row>
-    <row r="37" spans="1:120" ht="15" customHeight="1">
+    <row r="37" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A37" s="36" t="s">
         <v>200</v>
       </c>
       <c r="B37" s="28">
         <v>1294.1300000000001</v>
       </c>
-      <c r="C37" s="17">
-        <v>20</v>
-      </c>
+      <c r="C37" s="17"/>
       <c r="D37" s="18">
         <f t="shared" si="0"/>
-        <v>25882.600000000002</v>
+        <v>0</v>
       </c>
       <c r="E37" s="62" t="s">
         <v>239</v>
@@ -9598,19 +9649,17 @@
       <c r="AZ76" s="25"/>
       <c r="BA76" s="25"/>
     </row>
-    <row r="77" spans="1:120" s="14" customFormat="1">
+    <row r="77" spans="1:120" s="14" customFormat="1" hidden="1">
       <c r="A77" s="36" t="s">
         <v>303</v>
       </c>
       <c r="B77" s="28">
         <v>7620.45</v>
       </c>
-      <c r="C77" s="17">
-        <v>70</v>
-      </c>
+      <c r="C77" s="17"/>
       <c r="D77" s="18">
         <f t="shared" si="3"/>
-        <v>533431.5</v>
+        <v>0</v>
       </c>
       <c r="E77" s="62" t="s">
         <v>239</v>
@@ -11901,8 +11950,8 @@
         <f t="shared" si="3"/>
         <v>27246</v>
       </c>
-      <c r="E99" s="75" t="s">
-        <v>304</v>
+      <c r="E99" s="62" t="s">
+        <v>239</v>
       </c>
       <c r="F99" s="26"/>
       <c r="G99" s="26"/>
@@ -12334,19 +12383,17 @@
       <c r="AZ102" s="25"/>
       <c r="BA102" s="25"/>
     </row>
-    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" customHeight="1">
+    <row r="103" spans="1:120" s="14" customFormat="1" ht="15" hidden="1" customHeight="1">
       <c r="A103" s="40" t="s">
         <v>255</v>
       </c>
       <c r="B103" s="28">
         <v>1342.25</v>
       </c>
-      <c r="C103" s="17">
-        <v>20</v>
-      </c>
+      <c r="C103" s="17"/>
       <c r="D103" s="18">
         <f t="shared" ref="D103:D134" si="4">B103*C103</f>
-        <v>26845</v>
+        <v>0</v>
       </c>
       <c r="E103" s="62" t="s">
         <v>239</v>
@@ -19160,19 +19207,17 @@
       <c r="DO162" s="15"/>
       <c r="DP162" s="15"/>
     </row>
-    <row r="163" spans="1:120" ht="15" customHeight="1">
+    <row r="163" spans="1:120" ht="15" hidden="1" customHeight="1">
       <c r="A163" s="40" t="s">
         <v>281</v>
       </c>
       <c r="B163" s="28">
         <v>7686.61</v>
       </c>
-      <c r="C163" s="17">
-        <v>15</v>
-      </c>
+      <c r="C163" s="17"/>
       <c r="D163" s="18">
         <f t="shared" si="5"/>
-        <v>115299.15</v>
+        <v>0</v>
       </c>
       <c r="E163" s="62" t="s">
         <v>239</v>
@@ -20341,20 +20386,22 @@
       <c r="DO171" s="15"/>
       <c r="DP171" s="15"/>
     </row>
-    <row r="172" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="172" spans="1:120" ht="15" customHeight="1">
       <c r="A172" s="36" t="s">
         <v>294</v>
       </c>
       <c r="B172" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C172" s="17"/>
+      <c r="C172" s="17">
+        <v>10</v>
+      </c>
       <c r="D172" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E172" s="62" t="s">
-        <v>239</v>
+        <v>114547.4</v>
+      </c>
+      <c r="E172" s="75" t="s">
+        <v>225</v>
       </c>
       <c r="F172" s="26"/>
       <c r="G172" s="26"/>
@@ -20472,20 +20519,22 @@
       <c r="DO172" s="15"/>
       <c r="DP172" s="15"/>
     </row>
-    <row r="173" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="173" spans="1:120" ht="15" customHeight="1">
       <c r="A173" s="65" t="s">
         <v>293</v>
       </c>
       <c r="B173" s="66">
         <v>10276.89</v>
       </c>
-      <c r="C173" s="67"/>
+      <c r="C173" s="67">
+        <v>10</v>
+      </c>
       <c r="D173" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E173" s="62" t="s">
-        <v>239</v>
+        <v>102768.9</v>
+      </c>
+      <c r="E173" s="75" t="s">
+        <v>225</v>
       </c>
       <c r="F173" s="26"/>
       <c r="G173" s="26"/>
@@ -20734,20 +20783,22 @@
       <c r="DO174" s="15"/>
       <c r="DP174" s="15"/>
     </row>
-    <row r="175" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="175" spans="1:120" ht="15" customHeight="1">
       <c r="A175" s="73" t="s">
         <v>296</v>
       </c>
       <c r="B175" s="28">
         <v>11454.74</v>
       </c>
-      <c r="C175" s="17"/>
+      <c r="C175" s="17">
+        <v>5</v>
+      </c>
       <c r="D175" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E175" s="62" t="s">
-        <v>239</v>
+        <v>57273.7</v>
+      </c>
+      <c r="E175" s="75" t="s">
+        <v>225</v>
       </c>
       <c r="F175" s="26"/>
       <c r="G175" s="26"/>
@@ -20865,20 +20916,22 @@
       <c r="DO175" s="15"/>
       <c r="DP175" s="15"/>
     </row>
-    <row r="176" spans="1:120" ht="15" hidden="1" customHeight="1">
+    <row r="176" spans="1:120" ht="15" customHeight="1">
       <c r="A176" s="73" t="s">
         <v>297</v>
       </c>
       <c r="B176" s="28">
         <v>12184.5</v>
       </c>
-      <c r="C176" s="17"/>
+      <c r="C176" s="17">
+        <v>5</v>
+      </c>
       <c r="D176" s="18">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="E176" s="62" t="s">
-        <v>239</v>
+        <v>60922.5</v>
+      </c>
+      <c r="E176" s="75" t="s">
+        <v>225</v>
       </c>
       <c r="F176" s="26"/>
       <c r="G176" s="26"/>
@@ -21003,11 +21056,11 @@
       <c r="B177" s="85"/>
       <c r="C177" s="70">
         <f>SUBTOTAL(9,C7:C176)</f>
-        <v>575</v>
+        <v>260</v>
       </c>
       <c r="D177" s="71">
         <f>SUBTOTAL(9,D7:D176)</f>
-        <v>1198451.0299999998</v>
+        <v>600132.90800000005</v>
       </c>
       <c r="E177" s="72"/>
       <c r="F177" s="26"/>
@@ -21286,7 +21339,7 @@
         <v>257</v>
       </c>
       <c r="C183" s="47">
-        <v>1000000</v>
+        <v>1050000</v>
       </c>
       <c r="D183" s="48" t="s">
         <v>132</v>
@@ -21307,7 +21360,7 @@
       </c>
       <c r="C185" s="51">
         <f>C183+C184</f>
-        <v>1000000</v>
+        <v>1050000</v>
       </c>
       <c r="D185" s="50"/>
       <c r="E185" s="23"/>
@@ -21344,6 +21397,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
